--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="656" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{350AD10E-AEFA-407D-A10A-93B0803F7CD6}"/>
+  <xr:revisionPtr revIDLastSave="657" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{466E3794-DA5E-464C-ABE2-57E3DB0EC3E3}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2713,7 +2713,7 @@
     <hyperlink ref="M38" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
     <hyperlink ref="J21" r:id="rId8" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
     <hyperlink ref="J22" r:id="rId9" display="2x 35mm 6PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
-    <hyperlink ref="J30" r:id="rId10" display="With TMC2209 x8" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
+    <hyperlink ref="J30" r:id="rId10" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
     <hyperlink ref="J23" r:id="rId11" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
     <hyperlink ref="M33" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
     <hyperlink ref="M34" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="657" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{466E3794-DA5E-464C-ABE2-57E3DB0EC3E3}"/>
+  <xr:revisionPtr revIDLastSave="709" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53FE89BB-2D8E-488F-8436-6FF462C6A65F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$11:$O$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$47</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,8 +34,62 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Roy Berntsen</author>
+  </authors>
+  <commentList>
+    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{FB4E5E39-3716-46C1-9030-8ED6146980D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Big Dipper is a combination of duet3 mini5 + and Mini 2 +. Its main control and pin allocation are completely consistent with mini5 +, and the firmware of mini5 + can be used directly. At the same time, the power supply and IO protection have been upgraded to a certain extent to make it safer. The switching between WiFi version and Ethernet version can be realized by replacing the module. WiFi supports external antenna.
+Based on the good ecology of RRF firmware and the on-board 7-axis (7xtmc2209), the board can be easily configured for a variety of models, such as Voron series, multi z-axis models, dual x models, etc.
+Size: 148.5 x 87mm
+Based on same54p20 (arm cortex M4 @ 120mhz), it is fully compatible with duet3 mini5 +
+Onboard 7-way tmc2209 stepper motor drive
+Input / output IO full TVs protection
+28V maximum input, 12V@2A DC-DC (12V fan supply), 5V@8A DC-DC (power supply for raspberry pie and system), two 3 3V@0.6A LDO (power supply for MCU and 3.3V peripherals respectively)
+Two automotive fuses for hot bed input and main power input
+Using xh2.54 connector, the functions of each interface are completely consistent with mini5 +
+7x PWM power MOSFET output (1 for hot bed, 2 for hot end, 4 for fan,)
+Reprap discount smart controller compatible sockets, Exp1 and exp2. It supports monochrome displays such as 200412864.
+Uart1 raspberry PI row needle (including 5V@5A Power supply)
+2x4 row pin lead out for external SD card module
+On board TF card slot
+Type-C USB socket
+3 Thermistor/PT1000 inputs and support for 2 PT100 or thermocouple inputs via the optional daughterboards.
+Both Wifi and Ethernet versions
+CAN-FD bus that supports the next generation of Duet3D expansion boards, smart tools and custom addons.
+Set up your printer and update the firmware through the web interface.
+All common 3D printer geometries are supported
+Support for a wide range of Z probes including DC42’s IR Z probe and the Duet3D Smart Effector for delta printers.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -326,6 +380,30 @@
   </si>
   <si>
     <t>24V10A 240W</t>
+  </si>
+  <si>
+    <t>Big Dipper D3 Mini</t>
+  </si>
+  <si>
+    <t>Onboard 2209x7</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Power Supply Unit</t>
+  </si>
+  <si>
+    <t>Optical Endstop Switch</t>
+  </si>
+  <si>
+    <t>Size: 5PCS</t>
+  </si>
+  <si>
+    <t>Power Switch</t>
+  </si>
+  <si>
+    <t>Power switch</t>
   </si>
 </sst>
 </file>
@@ -338,7 +416,7 @@
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +565,19 @@
       <color theme="1"/>
       <name val="Aharoni"/>
       <charset val="177"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1482,11 +1573,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:O1"/>
@@ -1896,7 +1987,7 @@
         <v>1.03</v>
       </c>
       <c r="I20" s="35">
-        <f t="shared" ref="I20:I38" si="1">G20*H20</f>
+        <f t="shared" ref="I20:I41" si="1">G20*H20</f>
         <v>32.96</v>
       </c>
       <c r="J20" s="3"/>
@@ -2248,26 +2339,28 @@
         <v>41</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="32"/>
+        <v>42</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>97</v>
+      </c>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33">
         <v>1</v>
       </c>
       <c r="G31" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="34">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I31" s="35">
         <f>G31*H31</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J31" s="43" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K31" s="35"/>
       <c r="L31" s="35"/>
@@ -2277,33 +2370,31 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="32">
+        <v>41</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="33">
-        <v>7000</v>
-      </c>
-      <c r="F32" s="33"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33">
+        <v>1</v>
+      </c>
       <c r="G32" s="33">
         <v>1</v>
       </c>
       <c r="H32" s="34">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I32" s="35">
-        <f t="shared" si="1"/>
-        <v>39</v>
+        <f>G32*H32</f>
+        <v>23</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="K32" s="35"/>
       <c r="L32" s="35"/>
@@ -2313,83 +2404,69 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>64</v>
+        <v>41</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>101</v>
       </c>
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
       <c r="F33" s="33">
+        <v>5</v>
+      </c>
+      <c r="G33" s="33">
+        <v>5</v>
+      </c>
+      <c r="H33" s="34">
+        <v>2</v>
+      </c>
+      <c r="I33" s="35">
+        <f>G33*H33</f>
         <v>10</v>
       </c>
-      <c r="G33" s="33">
-        <v>10</v>
-      </c>
-      <c r="H33" s="34">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I33" s="35">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
       <c r="J33" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="K33" s="35">
-        <v>5.5</v>
-      </c>
-      <c r="L33" s="35">
-        <f>K33*G33</f>
-        <v>55</v>
-      </c>
-      <c r="M33" s="25" t="s">
-        <v>73</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
       <c r="N33" s="32"/>
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>103</v>
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="33"/>
       <c r="F34" s="33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G34" s="33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H34" s="34">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I34" s="35">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>G34*H34</f>
+        <v>7.5</v>
       </c>
       <c r="J34" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="K34" s="35">
-        <v>7</v>
-      </c>
-      <c r="L34" s="35">
-        <f>K34*G34</f>
-        <v>35</v>
-      </c>
-      <c r="M34" s="25" t="s">
-        <v>72</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
       <c r="N34" s="32"/>
       <c r="O34" s="3"/>
     </row>
@@ -2398,39 +2475,34 @@
         <v>45</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D35" s="32">
+        <v>100</v>
+      </c>
+      <c r="E35" s="33">
+        <v>7000</v>
+      </c>
+      <c r="F35" s="33"/>
       <c r="G35" s="33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H35" s="34">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="I35" s="35">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J35" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="K35" s="35">
-        <v>6</v>
-      </c>
-      <c r="L35" s="35">
-        <f>K35*G35</f>
-        <v>30</v>
-      </c>
-      <c r="M35" s="25" t="s">
-        <v>76</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
       <c r="N35" s="32"/>
       <c r="O35" s="3"/>
     </row>
@@ -2439,36 +2511,39 @@
         <v>45</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="32">
-        <v>200</v>
-      </c>
-      <c r="E36" s="33">
-        <v>600</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="33">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G36" s="33">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H36" s="34">
-        <v>15</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I36" s="35">
-        <f t="shared" ref="I36:I37" si="2">G36*H36</f>
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>41</v>
       </c>
       <c r="J36" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
+        <v>62</v>
+      </c>
+      <c r="K36" s="35">
+        <v>5.5</v>
+      </c>
+      <c r="L36" s="35">
+        <f>K36*G36</f>
+        <v>55</v>
+      </c>
+      <c r="M36" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="N36" s="32"/>
       <c r="O36" s="3"/>
     </row>
@@ -2477,36 +2552,38 @@
         <v>45</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G37" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H37" s="34">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I37" s="35">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J37" s="43"/>
-      <c r="K37" s="34">
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J37" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="35">
+        <v>7</v>
       </c>
       <c r="L37" s="35">
         <f>K37*G37</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M37" s="25" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="N37" s="32"/>
       <c r="O37" s="3"/>
@@ -2516,116 +2593,155 @@
         <v>45</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G38" s="33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H38" s="34">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I38" s="35">
         <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="J38" s="43"/>
-      <c r="K38" s="34">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="J38" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38" s="35">
+        <v>6</v>
       </c>
       <c r="L38" s="35">
         <f>K38*G38</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M38" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N38" s="32"/>
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
+        <v>45</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="32">
+        <v>200</v>
+      </c>
+      <c r="E39" s="33">
+        <v>600</v>
+      </c>
       <c r="F39" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39" s="33">
-        <v>1</v>
-      </c>
-      <c r="H39" s="34"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="H39" s="34">
+        <v>15</v>
+      </c>
+      <c r="I39" s="35">
+        <f t="shared" ref="I39:I40" si="2">G39*H39</f>
+        <v>45</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39" s="35"/>
       <c r="L39" s="35"/>
-      <c r="M39" s="25"/>
+      <c r="M39" s="35"/>
       <c r="N39" s="32"/>
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>88</v>
+        <v>45</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>74</v>
       </c>
       <c r="D40" s="32"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" s="33">
-        <v>2</v>
-      </c>
-      <c r="H40" s="34"/>
-      <c r="I40" s="35"/>
+        <v>3</v>
+      </c>
+      <c r="H40" s="34">
+        <v>11</v>
+      </c>
+      <c r="I40" s="35">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
       <c r="J40" s="43"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="25"/>
+      <c r="K40" s="34">
+        <v>11</v>
+      </c>
+      <c r="L40" s="35">
+        <f>K40*G40</f>
+        <v>33</v>
+      </c>
+      <c r="M40" s="25" t="s">
+        <v>79</v>
+      </c>
       <c r="N40" s="32"/>
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="32"/>
+        <v>45</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>75</v>
+      </c>
       <c r="D41" s="32"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="33">
-        <v>1</v>
-      </c>
-      <c r="H41" s="34"/>
-      <c r="I41" s="35"/>
+        <v>2</v>
+      </c>
+      <c r="H41" s="34">
+        <v>13</v>
+      </c>
+      <c r="I41" s="35">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
       <c r="J41" s="43"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="25"/>
+      <c r="K41" s="34">
+        <v>13</v>
+      </c>
+      <c r="L41" s="35">
+        <f>K41*G41</f>
+        <v>26</v>
+      </c>
+      <c r="M41" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="N41" s="32"/>
       <c r="O41" s="3"/>
     </row>
@@ -2634,9 +2750,11 @@
         <v>82</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>87</v>
+      </c>
       <c r="D42" s="32"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33">
@@ -2655,13 +2773,23 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
+      <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>88</v>
+      </c>
       <c r="D43" s="32"/>
       <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
+      <c r="F43" s="33">
+        <v>2</v>
+      </c>
+      <c r="G43" s="33">
+        <v>2</v>
+      </c>
       <c r="H43" s="34"/>
       <c r="I43" s="35"/>
       <c r="J43" s="43"/>
@@ -2671,31 +2799,98 @@
       <c r="N43" s="32"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33">
+        <v>1</v>
+      </c>
+      <c r="G44" s="33">
+        <v>1</v>
+      </c>
+      <c r="H44" s="34"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33">
+        <v>1</v>
+      </c>
+      <c r="G45" s="33">
+        <v>1</v>
+      </c>
+      <c r="H45" s="34"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="39">
-        <f>SUM(I16:I38)</f>
-        <v>703.96</v>
-      </c>
-      <c r="J44" s="44"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="6"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="39">
+        <f>SUM(I16:I41)</f>
+        <v>721.46</v>
+      </c>
+      <c r="J47" s="44"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:O11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -2704,25 +2899,29 @@
     <mergeCell ref="A2:O2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J32" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
-    <hyperlink ref="J33" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
-    <hyperlink ref="J34" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
-    <hyperlink ref="J35" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
-    <hyperlink ref="J36" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
-    <hyperlink ref="M37" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
-    <hyperlink ref="M38" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
+    <hyperlink ref="J35" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
+    <hyperlink ref="J36" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
+    <hyperlink ref="J37" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
+    <hyperlink ref="J38" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
+    <hyperlink ref="J39" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
+    <hyperlink ref="M40" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
+    <hyperlink ref="M41" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
     <hyperlink ref="J21" r:id="rId8" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
     <hyperlink ref="J22" r:id="rId9" display="2x 35mm 6PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
     <hyperlink ref="J30" r:id="rId10" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
     <hyperlink ref="J23" r:id="rId11" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
-    <hyperlink ref="M33" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
-    <hyperlink ref="M34" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
-    <hyperlink ref="M35" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
+    <hyperlink ref="M36" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
+    <hyperlink ref="M37" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
+    <hyperlink ref="M38" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
     <hyperlink ref="J24" r:id="rId15" xr:uid="{A8C5E0F3-B1FB-4E57-8DD8-1DF57CDC1A28}"/>
-    <hyperlink ref="J31" r:id="rId16" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
+    <hyperlink ref="J32" r:id="rId16" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
+    <hyperlink ref="J31" r:id="rId17" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
+    <hyperlink ref="J33" r:id="rId18" display="6pcs Optical Endstop" xr:uid="{0AB90FFF-9946-4F78-93E2-A102C645ECAE}"/>
+    <hyperlink ref="J34" r:id="rId19" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId17"/>
-  <drawing r:id="rId18"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId20"/>
+  <drawing r:id="rId21"/>
+  <legacyDrawing r:id="rId22"/>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="709" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53FE89BB-2D8E-488F-8436-6FF462C6A65F}"/>
+  <xr:revisionPtr revIDLastSave="728" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88374F10-ED52-4B56-9897-7B62B6470444}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$11:$O$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$48</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
     <author>Roy Berntsen</author>
   </authors>
   <commentList>
-    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{FB4E5E39-3716-46C1-9030-8ED6146980D7}">
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{FB4E5E39-3716-46C1-9030-8ED6146980D7}">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="107">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -301,9 +301,6 @@
     <t>20X20X18MM 500MM</t>
   </si>
   <si>
-    <t>4x 40mm 5Pcs</t>
-  </si>
-  <si>
     <t>Order Parts Link</t>
   </si>
   <si>
@@ -404,6 +401,15 @@
   </si>
   <si>
     <t>Power switch</t>
+  </si>
+  <si>
+    <t>5x45mm Bearing Shaft</t>
+  </si>
+  <si>
+    <t>2x Length: 45mm 4PC</t>
+  </si>
+  <si>
+    <t>3x Length: 40mm 5PC</t>
   </si>
 </sst>
 </file>
@@ -1227,16 +1233,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647701</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:colOff>476249</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>94653</xdr:rowOff>
+      <xdr:rowOff>161328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1264,7 +1270,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4686301" y="285750"/>
+          <a:off x="4743451" y="352425"/>
           <a:ext cx="2962273" cy="1666278"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1577,7 +1583,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:O1"/>
@@ -1681,13 +1687,13 @@
         <v>11</v>
       </c>
       <c r="H11" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>91</v>
-      </c>
       <c r="J11" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K11" s="18" t="s">
         <v>12</v>
@@ -1987,7 +1993,7 @@
         <v>1.03</v>
       </c>
       <c r="I20" s="35">
-        <f t="shared" ref="I20:I41" si="1">G20*H20</f>
+        <f t="shared" ref="I20:I42" si="1">G20*H20</f>
         <v>32.96</v>
       </c>
       <c r="J20" s="3"/>
@@ -2039,31 +2045,31 @@
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="45" t="s">
         <v>60</v>
       </c>
       <c r="D22" s="32">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G22" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" s="34">
         <v>3</v>
       </c>
       <c r="I22" s="35">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J22" s="43" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
@@ -2076,28 +2082,30 @@
         <v>17</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="32"/>
+        <v>104</v>
+      </c>
+      <c r="D23" s="32">
+        <v>45</v>
+      </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G23" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="34">
         <v>3</v>
       </c>
       <c r="I23" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J23" s="43" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
@@ -2109,31 +2117,29 @@
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>94</v>
-      </c>
+      <c r="B24" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="32"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33">
-        <v>1225</v>
+        <v>3</v>
       </c>
       <c r="G24" s="33">
-        <v>1225</v>
+        <v>1</v>
       </c>
       <c r="H24" s="34">
-        <v>0.08</v>
+        <v>3</v>
       </c>
       <c r="I24" s="35">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="K24" s="35"/>
       <c r="L24" s="35"/>
@@ -2143,27 +2149,34 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="32">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="33">
-        <v>3</v>
+        <v>1225</v>
       </c>
       <c r="G25" s="33">
-        <v>3</v>
-      </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="43"/>
+        <v>1225</v>
+      </c>
+      <c r="H25" s="34">
+        <v>0.08</v>
+      </c>
+      <c r="I25" s="35">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="J25" s="43" t="s">
+        <v>91</v>
+      </c>
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
       <c r="M25" s="35"/>
@@ -2175,27 +2188,24 @@
         <v>35</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="32"/>
+        <v>56</v>
+      </c>
+      <c r="D26" s="32">
+        <v>20</v>
+      </c>
       <c r="E26" s="33"/>
       <c r="F26" s="33">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="G26" s="33">
-        <v>100</v>
-      </c>
-      <c r="H26" s="34">
-        <v>0.11</v>
-      </c>
-      <c r="I26" s="35">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="J26" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="43"/>
       <c r="K26" s="35"/>
       <c r="L26" s="35"/>
       <c r="M26" s="35"/>
@@ -2207,25 +2217,25 @@
         <v>35</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G27" s="33">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H27" s="34">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="I27" s="35">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="35"/>
@@ -2239,25 +2249,25 @@
         <v>35</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
       <c r="F28" s="33">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G28" s="33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H28" s="34">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I28" s="35">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="35"/>
@@ -2271,10 +2281,10 @@
         <v>35</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="33"/>
@@ -2285,64 +2295,62 @@
         <v>100</v>
       </c>
       <c r="H29" s="34">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="I29" s="35">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="35"/>
       <c r="L29" s="35"/>
       <c r="M29" s="35"/>
       <c r="N29" s="32"/>
-      <c r="O29" s="3">
-        <v>7380</v>
-      </c>
+      <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G30" s="33">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H30" s="34">
-        <v>70</v>
+        <v>0.21</v>
       </c>
       <c r="I30" s="35">
-        <f>G30*H30</f>
-        <v>70</v>
-      </c>
-      <c r="J30" s="43" t="s">
-        <v>44</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J30" s="3"/>
       <c r="K30" s="35"/>
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
       <c r="N30" s="32"/>
-      <c r="O30" s="3"/>
+      <c r="O30" s="3">
+        <v>7380</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="45" t="s">
-        <v>97</v>
+      <c r="C31" s="32" t="s">
+        <v>43</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
@@ -2350,17 +2358,17 @@
         <v>1</v>
       </c>
       <c r="G31" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="34">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I31" s="35">
         <f>G31*H31</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J31" s="43" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="K31" s="35"/>
       <c r="L31" s="35"/>
@@ -2373,10 +2381,10 @@
         <v>41</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="33"/>
@@ -2384,17 +2392,17 @@
         <v>1</v>
       </c>
       <c r="G32" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="34">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I32" s="35">
         <f>G32*H32</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K32" s="35"/>
       <c r="L32" s="35"/>
@@ -2407,28 +2415,28 @@
         <v>41</v>
       </c>
       <c r="B33" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="45" t="s">
         <v>99</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>101</v>
       </c>
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
       <c r="F33" s="33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G33" s="33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H33" s="34">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I33" s="35">
         <f>G33*H33</f>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J33" s="43" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K33" s="35"/>
       <c r="L33" s="35"/>
@@ -2441,28 +2449,28 @@
         <v>41</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="33"/>
       <c r="F34" s="33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G34" s="33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H34" s="34">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="I34" s="35">
         <f>G34*H34</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="J34" s="43" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K34" s="35"/>
       <c r="L34" s="35"/>
@@ -2472,33 +2480,31 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="32">
-        <v>100</v>
-      </c>
-      <c r="E35" s="33">
-        <v>7000</v>
-      </c>
-      <c r="F35" s="33"/>
+        <v>41</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33">
+        <v>1</v>
+      </c>
       <c r="G35" s="33">
         <v>1</v>
       </c>
       <c r="H35" s="34">
-        <v>39</v>
+        <v>7.5</v>
       </c>
       <c r="I35" s="35">
-        <f t="shared" si="1"/>
-        <v>39</v>
+        <f>G35*H35</f>
+        <v>7.5</v>
       </c>
       <c r="J35" s="43" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="K35" s="35"/>
       <c r="L35" s="35"/>
@@ -2511,39 +2517,34 @@
         <v>45</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33">
-        <v>10</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D36" s="32">
+        <v>100</v>
+      </c>
+      <c r="E36" s="33">
+        <v>7000</v>
+      </c>
+      <c r="F36" s="33"/>
       <c r="G36" s="33">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H36" s="34">
-        <v>4.0999999999999996</v>
+        <v>39</v>
       </c>
       <c r="I36" s="35">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J36" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="K36" s="35">
-        <v>5.5</v>
-      </c>
-      <c r="L36" s="35">
-        <f>K36*G36</f>
-        <v>55</v>
-      </c>
-      <c r="M36" s="25" t="s">
-        <v>73</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
       <c r="N36" s="32"/>
       <c r="O36" s="3"/>
     </row>
@@ -2555,32 +2556,32 @@
         <v>47</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G37" s="33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H37" s="34">
-        <v>6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I37" s="35">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J37" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K37" s="35">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="L37" s="35">
         <f>K37*G37</f>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="M37" s="25" t="s">
         <v>72</v>
@@ -2593,10 +2594,10 @@
         <v>45</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="33"/>
@@ -2607,24 +2608,24 @@
         <v>5</v>
       </c>
       <c r="H38" s="34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I38" s="35">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J38" s="43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K38" s="35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L38" s="35">
         <f>K38*G38</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M38" s="25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N38" s="32"/>
       <c r="O38" s="3"/>
@@ -2634,36 +2635,39 @@
         <v>45</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="32">
-        <v>200</v>
-      </c>
-      <c r="E39" s="33">
-        <v>600</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G39" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H39" s="34">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I39" s="35">
-        <f t="shared" ref="I39:I40" si="2">G39*H39</f>
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="J39" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
+        <v>67</v>
+      </c>
+      <c r="K39" s="35">
+        <v>6</v>
+      </c>
+      <c r="L39" s="35">
+        <f>K39*G39</f>
+        <v>30</v>
+      </c>
+      <c r="M39" s="25" t="s">
+        <v>75</v>
+      </c>
       <c r="N39" s="32"/>
       <c r="O39" s="3"/>
     </row>
@@ -2672,13 +2676,17 @@
         <v>45</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
+        <v>49</v>
+      </c>
+      <c r="D40" s="32">
+        <v>200</v>
+      </c>
+      <c r="E40" s="33">
+        <v>600</v>
+      </c>
       <c r="F40" s="33">
         <v>3</v>
       </c>
@@ -2686,23 +2694,18 @@
         <v>3</v>
       </c>
       <c r="H40" s="34">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I40" s="35">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J40" s="43"/>
-      <c r="K40" s="34">
-        <v>11</v>
-      </c>
-      <c r="L40" s="35">
-        <f>K40*G40</f>
-        <v>33</v>
-      </c>
-      <c r="M40" s="25" t="s">
-        <v>79</v>
-      </c>
+        <f t="shared" ref="I40:I41" si="2">G40*H40</f>
+        <v>45</v>
+      </c>
+      <c r="J40" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
       <c r="N40" s="32"/>
       <c r="O40" s="3"/>
     </row>
@@ -2714,30 +2717,30 @@
         <v>50</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D41" s="32"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H41" s="34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I41" s="35">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="J41" s="43"/>
       <c r="K41" s="34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L41" s="35">
         <f>K41*G41</f>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M41" s="25" t="s">
         <v>78</v>
@@ -2747,48 +2750,60 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>87</v>
+        <v>45</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>74</v>
       </c>
       <c r="D42" s="32"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="33">
-        <v>1</v>
-      </c>
-      <c r="H42" s="34"/>
-      <c r="I42" s="35"/>
+        <v>2</v>
+      </c>
+      <c r="H42" s="34">
+        <v>13</v>
+      </c>
+      <c r="I42" s="35">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
       <c r="J42" s="43"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="25"/>
+      <c r="K42" s="34">
+        <v>13</v>
+      </c>
+      <c r="L42" s="35">
+        <f>K42*G42</f>
+        <v>26</v>
+      </c>
+      <c r="M42" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="N42" s="32"/>
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="45" t="s">
-        <v>84</v>
-      </c>
       <c r="C43" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" s="34"/>
       <c r="I43" s="35"/>
@@ -2801,19 +2816,21 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>87</v>
+      </c>
       <c r="D44" s="32"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="34"/>
       <c r="I44" s="35"/>
@@ -2826,10 +2843,10 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
@@ -2850,13 +2867,21 @@
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="32"/>
+      <c r="A46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>85</v>
+      </c>
       <c r="C46" s="32"/>
       <c r="D46" s="32"/>
       <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
+      <c r="F46" s="33">
+        <v>1</v>
+      </c>
+      <c r="G46" s="33">
+        <v>1</v>
+      </c>
       <c r="H46" s="34"/>
       <c r="I46" s="35"/>
       <c r="J46" s="43"/>
@@ -2866,31 +2891,48 @@
       <c r="N46" s="32"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="39">
-        <f>SUM(I16:I41)</f>
-        <v>721.46</v>
-      </c>
-      <c r="J47" s="44"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="6"/>
+      <c r="C48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="39">
+        <f>SUM(I16:I42)</f>
+        <v>724.46</v>
+      </c>
+      <c r="J48" s="44"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:O11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -2899,29 +2941,30 @@
     <mergeCell ref="A2:O2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J35" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
-    <hyperlink ref="J36" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
-    <hyperlink ref="J37" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
-    <hyperlink ref="J38" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
-    <hyperlink ref="J39" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
-    <hyperlink ref="M40" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
-    <hyperlink ref="M41" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
+    <hyperlink ref="J36" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
+    <hyperlink ref="J37" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
+    <hyperlink ref="J38" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
+    <hyperlink ref="J39" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
+    <hyperlink ref="J40" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
+    <hyperlink ref="M41" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
+    <hyperlink ref="M42" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
     <hyperlink ref="J21" r:id="rId8" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
-    <hyperlink ref="J22" r:id="rId9" display="2x 35mm 6PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
-    <hyperlink ref="J30" r:id="rId10" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
-    <hyperlink ref="J23" r:id="rId11" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
-    <hyperlink ref="M36" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
-    <hyperlink ref="M37" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
-    <hyperlink ref="M38" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
-    <hyperlink ref="J24" r:id="rId15" xr:uid="{A8C5E0F3-B1FB-4E57-8DD8-1DF57CDC1A28}"/>
-    <hyperlink ref="J32" r:id="rId16" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
-    <hyperlink ref="J31" r:id="rId17" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
-    <hyperlink ref="J33" r:id="rId18" display="6pcs Optical Endstop" xr:uid="{0AB90FFF-9946-4F78-93E2-A102C645ECAE}"/>
-    <hyperlink ref="J34" r:id="rId19" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
+    <hyperlink ref="J23" r:id="rId9" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
+    <hyperlink ref="J31" r:id="rId10" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
+    <hyperlink ref="J24" r:id="rId11" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
+    <hyperlink ref="M37" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
+    <hyperlink ref="M38" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
+    <hyperlink ref="M39" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
+    <hyperlink ref="J25" r:id="rId15" xr:uid="{A8C5E0F3-B1FB-4E57-8DD8-1DF57CDC1A28}"/>
+    <hyperlink ref="J33" r:id="rId16" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
+    <hyperlink ref="J32" r:id="rId17" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
+    <hyperlink ref="J34" r:id="rId18" display="6pcs Optical Endstop" xr:uid="{0AB90FFF-9946-4F78-93E2-A102C645ECAE}"/>
+    <hyperlink ref="J35" r:id="rId19" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
+    <hyperlink ref="J22" r:id="rId20" xr:uid="{7E1F7424-E58C-4FCB-9D3A-3CB69F34CE9F}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId20"/>
-  <drawing r:id="rId21"/>
-  <legacyDrawing r:id="rId22"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId21"/>
+  <drawing r:id="rId22"/>
+  <legacyDrawing r:id="rId23"/>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="728" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88374F10-ED52-4B56-9897-7B62B6470444}"/>
+  <xr:revisionPtr revIDLastSave="740" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31F76AEF-F853-4A41-B809-8C58C321E5F9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Base Frame BOM 02" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$11:$O$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$49</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
     <author>Roy Berntsen</author>
   </authors>
   <commentList>
-    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{FB4E5E39-3716-46C1-9030-8ED6146980D7}">
+    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{FB4E5E39-3716-46C1-9030-8ED6146980D7}">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="110">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -410,6 +410,15 @@
   </si>
   <si>
     <t>3x Length: 40mm 5PC</t>
+  </si>
+  <si>
+    <t>Magnet</t>
+  </si>
+  <si>
+    <t>Neodium Magnet</t>
+  </si>
+  <si>
+    <t>2x 30x10x5mm-2pcs</t>
   </si>
 </sst>
 </file>
@@ -1172,49 +1181,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Beregning" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Dårlig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Forklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="God" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Hyperkobling" xfId="42" builtinId="8"/>
+    <cellStyle name="Inndata" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Koblet celle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Kontrollcelle" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Merknad" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Nøytral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Overskrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Overskrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Overskrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Overskrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Tittel" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Totalt" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Utdata" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Varseltekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1284,7 +1293,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1583,31 +1592,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.1796875" customWidth="1"/>
+    <col min="13" max="13" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="25" x14ac:dyDescent="0.5">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -1626,7 +1635,7 @@
       <c r="N1" s="46"/>
       <c r="O1" s="46"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
@@ -1643,28 +1652,28 @@
       <c r="N2" s="47"/>
       <c r="O2" s="47"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:15" s="7" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
@@ -1711,7 +1720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>17</v>
       </c>
@@ -1741,7 +1750,7 @@
       <c r="N12" s="27"/>
       <c r="O12" s="31"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1771,7 +1780,7 @@
       <c r="N13" s="32"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1801,7 +1810,7 @@
       <c r="N14" s="32"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1831,7 +1840,7 @@
       <c r="N15" s="32"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
@@ -1869,7 +1878,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1907,7 +1916,7 @@
       <c r="N17" s="32"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
@@ -1939,7 +1948,7 @@
       <c r="N18" s="23"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1971,7 +1980,7 @@
       <c r="N19" s="32"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1993,7 +2002,7 @@
         <v>1.03</v>
       </c>
       <c r="I20" s="35">
-        <f t="shared" ref="I20:I42" si="1">G20*H20</f>
+        <f t="shared" ref="I20:I43" si="1">G20*H20</f>
         <v>32.96</v>
       </c>
       <c r="J20" s="3"/>
@@ -2003,7 +2012,7 @@
       <c r="N20" s="32"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -2041,7 +2050,7 @@
       <c r="N21" s="32"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
@@ -2077,7 +2086,7 @@
       <c r="N22" s="32"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -2113,7 +2122,7 @@
       <c r="N23" s="32"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2147,7 +2156,7 @@
       <c r="N24" s="32"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -2183,91 +2192,95 @@
       <c r="N25" s="32"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="32">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="45">
+        <v>30</v>
       </c>
       <c r="E26" s="33"/>
       <c r="F26" s="33">
         <v>3</v>
       </c>
       <c r="G26" s="33">
-        <v>3</v>
-      </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="43"/>
+        <v>2</v>
+      </c>
+      <c r="H26" s="34">
+        <v>2.5</v>
+      </c>
+      <c r="I26" s="35">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J26" s="43" t="s">
+        <v>109</v>
+      </c>
       <c r="K26" s="35"/>
       <c r="L26" s="35"/>
       <c r="M26" s="35"/>
       <c r="N26" s="32"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="32"/>
+        <v>56</v>
+      </c>
+      <c r="D27" s="32">
+        <v>20</v>
+      </c>
       <c r="E27" s="33"/>
       <c r="F27" s="33">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="G27" s="33">
-        <v>100</v>
-      </c>
-      <c r="H27" s="34">
-        <v>0.11</v>
-      </c>
-      <c r="I27" s="35">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="J27" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="43"/>
       <c r="K27" s="35"/>
       <c r="L27" s="35"/>
       <c r="M27" s="35"/>
       <c r="N27" s="32"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
       <c r="F28" s="33">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G28" s="33">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H28" s="34">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="I28" s="35">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="35"/>
@@ -2276,30 +2289,30 @@
       <c r="N28" s="32"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="33"/>
       <c r="F29" s="33">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G29" s="33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H29" s="34">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I29" s="35">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="35"/>
@@ -2308,15 +2321,15 @@
       <c r="N29" s="32"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="33"/>
@@ -2327,64 +2340,62 @@
         <v>100</v>
       </c>
       <c r="H30" s="34">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="I30" s="35">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="35"/>
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
       <c r="N30" s="32"/>
-      <c r="O30" s="3">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G31" s="33">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H31" s="34">
-        <v>70</v>
+        <v>0.21</v>
       </c>
       <c r="I31" s="35">
-        <f>G31*H31</f>
-        <v>70</v>
-      </c>
-      <c r="J31" s="43" t="s">
-        <v>44</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J31" s="3"/>
       <c r="K31" s="35"/>
       <c r="L31" s="35"/>
       <c r="M31" s="35"/>
       <c r="N31" s="32"/>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O31" s="3">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="45" t="s">
-        <v>96</v>
+      <c r="C32" s="32" t="s">
+        <v>43</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="33"/>
@@ -2392,17 +2403,17 @@
         <v>1</v>
       </c>
       <c r="G32" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="34">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I32" s="35">
         <f>G32*H32</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="K32" s="35"/>
       <c r="L32" s="35"/>
@@ -2410,15 +2421,15 @@
       <c r="N32" s="32"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
@@ -2426,17 +2437,17 @@
         <v>1</v>
       </c>
       <c r="G33" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="34">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I33" s="35">
         <f>G33*H33</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J33" s="43" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K33" s="35"/>
       <c r="L33" s="35"/>
@@ -2444,33 +2455,33 @@
       <c r="N33" s="32"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="33"/>
       <c r="F34" s="33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G34" s="33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H34" s="34">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I34" s="35">
         <f>G34*H34</f>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J34" s="43" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K34" s="35"/>
       <c r="L34" s="35"/>
@@ -2478,7 +2489,7 @@
       <c r="N34" s="32"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
@@ -2486,25 +2497,25 @@
         <v>98</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D35" s="32"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G35" s="33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H35" s="34">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="I35" s="35">
         <f>G35*H35</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="J35" s="43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K35" s="35"/>
       <c r="L35" s="35"/>
@@ -2512,35 +2523,33 @@
       <c r="N35" s="32"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="32">
-        <v>100</v>
-      </c>
-      <c r="E36" s="33">
-        <v>7000</v>
-      </c>
-      <c r="F36" s="33"/>
+        <v>41</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33">
+        <v>1</v>
+      </c>
       <c r="G36" s="33">
         <v>1</v>
       </c>
       <c r="H36" s="34">
-        <v>39</v>
+        <v>7.5</v>
       </c>
       <c r="I36" s="35">
-        <f t="shared" si="1"/>
-        <v>39</v>
+        <f>G36*H36</f>
+        <v>7.5</v>
       </c>
       <c r="J36" s="43" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="K36" s="35"/>
       <c r="L36" s="35"/>
@@ -2548,48 +2557,43 @@
       <c r="N36" s="32"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33">
-        <v>10</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D37" s="32">
+        <v>100</v>
+      </c>
+      <c r="E37" s="33">
+        <v>7000</v>
+      </c>
+      <c r="F37" s="33"/>
       <c r="G37" s="33">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H37" s="34">
-        <v>4.0999999999999996</v>
+        <v>39</v>
       </c>
       <c r="I37" s="35">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J37" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="K37" s="35">
-        <v>5.5</v>
-      </c>
-      <c r="L37" s="35">
-        <f>K37*G37</f>
-        <v>55</v>
-      </c>
-      <c r="M37" s="25" t="s">
-        <v>72</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
       <c r="N37" s="32"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
@@ -2597,48 +2601,48 @@
         <v>47</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G38" s="33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H38" s="34">
-        <v>6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I38" s="35">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J38" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K38" s="35">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="L38" s="35">
         <f>K38*G38</f>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="M38" s="25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N38" s="32"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="33"/>
@@ -2649,78 +2653,85 @@
         <v>5</v>
       </c>
       <c r="H39" s="34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I39" s="35">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J39" s="43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K39" s="35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L39" s="35">
         <f>K39*G39</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N39" s="32"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="32">
-        <v>200</v>
-      </c>
-      <c r="E40" s="33">
-        <v>600</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33"/>
       <c r="F40" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G40" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H40" s="34">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I40" s="35">
-        <f t="shared" ref="I40:I41" si="2">G40*H40</f>
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
+        <v>67</v>
+      </c>
+      <c r="K40" s="35">
+        <v>6</v>
+      </c>
+      <c r="L40" s="35">
+        <f>K40*G40</f>
+        <v>30</v>
+      </c>
+      <c r="M40" s="25" t="s">
+        <v>75</v>
+      </c>
       <c r="N40" s="32"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="33"/>
+        <v>49</v>
+      </c>
+      <c r="D41" s="32">
+        <v>200</v>
+      </c>
+      <c r="E41" s="33">
+        <v>600</v>
+      </c>
       <c r="F41" s="33">
         <v>3</v>
       </c>
@@ -2728,27 +2739,22 @@
         <v>3</v>
       </c>
       <c r="H41" s="34">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I41" s="35">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J41" s="43"/>
-      <c r="K41" s="34">
-        <v>11</v>
-      </c>
-      <c r="L41" s="35">
-        <f>K41*G41</f>
-        <v>33</v>
-      </c>
-      <c r="M41" s="25" t="s">
-        <v>78</v>
-      </c>
+        <f t="shared" ref="I41:I42" si="2">G41*H41</f>
+        <v>45</v>
+      </c>
+      <c r="J41" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
       <c r="N41" s="32"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
@@ -2756,81 +2762,93 @@
         <v>50</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" s="32"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H42" s="34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I42" s="35">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="J42" s="43"/>
       <c r="K42" s="34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L42" s="35">
         <f>K42*G42</f>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M42" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N42" s="32"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="45" t="s">
-        <v>86</v>
+        <v>45</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>74</v>
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="33">
-        <v>1</v>
-      </c>
-      <c r="H43" s="34"/>
-      <c r="I43" s="35"/>
+        <v>2</v>
+      </c>
+      <c r="H43" s="34">
+        <v>13</v>
+      </c>
+      <c r="I43" s="35">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
       <c r="J43" s="43"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="25"/>
+      <c r="K43" s="34">
+        <v>13</v>
+      </c>
+      <c r="L43" s="35">
+        <f>K43*G43</f>
+        <v>26</v>
+      </c>
+      <c r="M43" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="N43" s="32"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="34"/>
       <c r="I44" s="35"/>
@@ -2841,21 +2859,23 @@
       <c r="N44" s="32"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>87</v>
+      </c>
       <c r="D45" s="32"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="34"/>
       <c r="I45" s="35"/>
@@ -2866,12 +2886,12 @@
       <c r="N45" s="32"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46" s="32"/>
       <c r="D46" s="32"/>
@@ -2891,14 +2911,22 @@
       <c r="N46" s="32"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="32"/>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>85</v>
+      </c>
       <c r="C47" s="32"/>
       <c r="D47" s="32"/>
       <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
+      <c r="F47" s="33">
+        <v>1</v>
+      </c>
+      <c r="G47" s="33">
+        <v>1</v>
+      </c>
       <c r="H47" s="34"/>
       <c r="I47" s="35"/>
       <c r="J47" s="43"/>
@@ -2908,31 +2936,48 @@
       <c r="N47" s="32"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" s="2"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="39">
-        <f>SUM(I16:I42)</f>
-        <v>724.46</v>
-      </c>
-      <c r="J48" s="44"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="6"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="39">
+        <f>SUM(I16:I43)</f>
+        <v>729.46</v>
+      </c>
+      <c r="J49" s="44"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:O11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -2941,30 +2986,31 @@
     <mergeCell ref="A2:O2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J36" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
-    <hyperlink ref="J37" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
-    <hyperlink ref="J38" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
-    <hyperlink ref="J39" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
-    <hyperlink ref="J40" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
-    <hyperlink ref="M41" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
-    <hyperlink ref="M42" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
+    <hyperlink ref="J37" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
+    <hyperlink ref="J38" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
+    <hyperlink ref="J39" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
+    <hyperlink ref="J40" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
+    <hyperlink ref="J41" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
+    <hyperlink ref="M42" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
+    <hyperlink ref="M43" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
     <hyperlink ref="J21" r:id="rId8" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
     <hyperlink ref="J23" r:id="rId9" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
-    <hyperlink ref="J31" r:id="rId10" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
+    <hyperlink ref="J32" r:id="rId10" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
     <hyperlink ref="J24" r:id="rId11" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
-    <hyperlink ref="M37" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
-    <hyperlink ref="M38" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
-    <hyperlink ref="M39" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
+    <hyperlink ref="M38" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
+    <hyperlink ref="M39" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
+    <hyperlink ref="M40" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
     <hyperlink ref="J25" r:id="rId15" xr:uid="{A8C5E0F3-B1FB-4E57-8DD8-1DF57CDC1A28}"/>
-    <hyperlink ref="J33" r:id="rId16" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
-    <hyperlink ref="J32" r:id="rId17" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
-    <hyperlink ref="J34" r:id="rId18" display="6pcs Optical Endstop" xr:uid="{0AB90FFF-9946-4F78-93E2-A102C645ECAE}"/>
-    <hyperlink ref="J35" r:id="rId19" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
+    <hyperlink ref="J34" r:id="rId16" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
+    <hyperlink ref="J33" r:id="rId17" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
+    <hyperlink ref="J35" r:id="rId18" display="6pcs Optical Endstop" xr:uid="{0AB90FFF-9946-4F78-93E2-A102C645ECAE}"/>
+    <hyperlink ref="J36" r:id="rId19" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
     <hyperlink ref="J22" r:id="rId20" xr:uid="{7E1F7424-E58C-4FCB-9D3A-3CB69F34CE9F}"/>
+    <hyperlink ref="J26" r:id="rId21" xr:uid="{755FCD6D-D745-447C-AAA6-2D31A19F9A40}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId21"/>
-  <drawing r:id="rId22"/>
-  <legacyDrawing r:id="rId23"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId22"/>
+  <drawing r:id="rId23"/>
+  <legacyDrawing r:id="rId24"/>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="740" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31F76AEF-F853-4A41-B809-8C58C321E5F9}"/>
+  <xr:revisionPtr revIDLastSave="749" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B2BB45-4CB8-43EB-B703-576F3BD3FDE0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Base Frame BOM 02" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$11:$O$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$50</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="113">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -419,6 +419,15 @@
   </si>
   <si>
     <t>2x 30x10x5mm-2pcs</t>
+  </si>
+  <si>
+    <t>Hotend</t>
+  </si>
+  <si>
+    <t>Arethusa LC Hotend</t>
+  </si>
+  <si>
+    <t>Size: 24V</t>
   </si>
 </sst>
 </file>
@@ -1181,49 +1190,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % – uthevingsfarge 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % – uthevingsfarge 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % – uthevingsfarge 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % – uthevingsfarge 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % – uthevingsfarge 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % – uthevingsfarge 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % – uthevingsfarge 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % – uthevingsfarge 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % – uthevingsfarge 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % – uthevingsfarge 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % – uthevingsfarge 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % – uthevingsfarge 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % – uthevingsfarge 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % – uthevingsfarge 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % – uthevingsfarge 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % – uthevingsfarge 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % – uthevingsfarge 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % – uthevingsfarge 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Beregning" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Dårlig" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Forklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="God" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Hyperkobling" xfId="42" builtinId="8"/>
-    <cellStyle name="Inndata" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Koblet celle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Kontrollcelle" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Merknad" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nøytral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Overskrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Overskrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Overskrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Overskrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Tittel" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Totalt" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Utdata" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Varseltekst" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1302,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1592,31 +1601,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.1796875" customWidth="1"/>
-    <col min="13" max="13" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -1635,7 +1644,7 @@
       <c r="N1" s="46"/>
       <c r="O1" s="46"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
@@ -1652,28 +1661,28 @@
       <c r="N2" s="47"/>
       <c r="O2" s="47"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:15" s="7" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
@@ -1720,7 +1729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>17</v>
       </c>
@@ -1750,7 +1759,7 @@
       <c r="N12" s="27"/>
       <c r="O12" s="31"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1780,7 +1789,7 @@
       <c r="N13" s="32"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1810,7 +1819,7 @@
       <c r="N14" s="32"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1840,7 +1849,7 @@
       <c r="N15" s="32"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
@@ -1878,7 +1887,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1916,7 +1925,7 @@
       <c r="N17" s="32"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
@@ -1948,7 +1957,7 @@
       <c r="N18" s="23"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1980,7 +1989,7 @@
       <c r="N19" s="32"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -2002,7 +2011,7 @@
         <v>1.03</v>
       </c>
       <c r="I20" s="35">
-        <f t="shared" ref="I20:I43" si="1">G20*H20</f>
+        <f t="shared" ref="I20:I44" si="1">G20*H20</f>
         <v>32.96</v>
       </c>
       <c r="J20" s="3"/>
@@ -2012,7 +2021,7 @@
       <c r="N20" s="32"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -2050,7 +2059,7 @@
       <c r="N21" s="32"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
@@ -2086,7 +2095,7 @@
       <c r="N22" s="32"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -2122,7 +2131,7 @@
       <c r="N23" s="32"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2156,7 +2165,7 @@
       <c r="N24" s="32"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -2192,7 +2201,7 @@
       <c r="N25" s="32"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -2228,7 +2237,7 @@
       <c r="N26" s="32"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -2257,7 +2266,7 @@
       <c r="N27" s="32"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -2289,7 +2298,7 @@
       <c r="N28" s="32"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -2321,7 +2330,7 @@
       <c r="N29" s="32"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -2353,7 +2362,7 @@
       <c r="N30" s="32"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -2387,7 +2396,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
@@ -2421,7 +2430,7 @@
       <c r="N32" s="32"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
@@ -2455,7 +2464,7 @@
       <c r="N33" s="32"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -2489,7 +2498,7 @@
       <c r="N34" s="32"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
@@ -2523,7 +2532,7 @@
       <c r="N35" s="32"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -2557,35 +2566,31 @@
       <c r="N36" s="32"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="32">
-        <v>100</v>
-      </c>
-      <c r="E37" s="33">
-        <v>7000</v>
-      </c>
-      <c r="F37" s="33"/>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33">
+        <v>1</v>
+      </c>
       <c r="G37" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="34">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I37" s="35">
-        <f t="shared" si="1"/>
-        <v>39</v>
+        <f>G37*H37</f>
+        <v>0</v>
       </c>
       <c r="J37" s="43" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="K37" s="35"/>
       <c r="L37" s="35"/>
@@ -2593,48 +2598,43 @@
       <c r="N37" s="32"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33">
-        <v>10</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D38" s="32">
+        <v>100</v>
+      </c>
+      <c r="E38" s="33">
+        <v>7000</v>
+      </c>
+      <c r="F38" s="33"/>
       <c r="G38" s="33">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H38" s="34">
-        <v>4.0999999999999996</v>
+        <v>39</v>
       </c>
       <c r="I38" s="35">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J38" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="K38" s="35">
-        <v>5.5</v>
-      </c>
-      <c r="L38" s="35">
-        <f>K38*G38</f>
-        <v>55</v>
-      </c>
-      <c r="M38" s="25" t="s">
-        <v>72</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
       <c r="N38" s="32"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>45</v>
       </c>
@@ -2642,48 +2642,48 @@
         <v>47</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G39" s="33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H39" s="34">
-        <v>6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I39" s="35">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J39" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K39" s="35">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="L39" s="35">
         <f>K39*G39</f>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N39" s="32"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" s="32"/>
       <c r="E40" s="33"/>
@@ -2694,78 +2694,85 @@
         <v>5</v>
       </c>
       <c r="H40" s="34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I40" s="35">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K40" s="35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L40" s="35">
         <f>K40*G40</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M40" s="25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N40" s="32"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="32">
-        <v>200</v>
-      </c>
-      <c r="E41" s="33">
-        <v>600</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
       <c r="F41" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G41" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H41" s="34">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I41" s="35">
-        <f t="shared" ref="I41:I42" si="2">G41*H41</f>
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="J41" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
+        <v>67</v>
+      </c>
+      <c r="K41" s="35">
+        <v>6</v>
+      </c>
+      <c r="L41" s="35">
+        <f>K41*G41</f>
+        <v>30</v>
+      </c>
+      <c r="M41" s="25" t="s">
+        <v>75</v>
+      </c>
       <c r="N41" s="32"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
+        <v>49</v>
+      </c>
+      <c r="D42" s="32">
+        <v>200</v>
+      </c>
+      <c r="E42" s="33">
+        <v>600</v>
+      </c>
       <c r="F42" s="33">
         <v>3</v>
       </c>
@@ -2773,27 +2780,22 @@
         <v>3</v>
       </c>
       <c r="H42" s="34">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I42" s="35">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J42" s="43"/>
-      <c r="K42" s="34">
-        <v>11</v>
-      </c>
-      <c r="L42" s="35">
-        <f>K42*G42</f>
-        <v>33</v>
-      </c>
-      <c r="M42" s="25" t="s">
-        <v>78</v>
-      </c>
+        <f t="shared" ref="I42:I43" si="2">G42*H42</f>
+        <v>45</v>
+      </c>
+      <c r="J42" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
       <c r="N42" s="32"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
@@ -2801,81 +2803,93 @@
         <v>50</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43" s="34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I43" s="35">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="J43" s="43"/>
       <c r="K43" s="34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L43" s="35">
         <f>K43*G43</f>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M43" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N43" s="32"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="45" t="s">
-        <v>86</v>
+        <v>45</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>74</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" s="33">
-        <v>1</v>
-      </c>
-      <c r="H44" s="34"/>
-      <c r="I44" s="35"/>
+        <v>2</v>
+      </c>
+      <c r="H44" s="34">
+        <v>13</v>
+      </c>
+      <c r="I44" s="35">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
       <c r="J44" s="43"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="25"/>
+      <c r="K44" s="34">
+        <v>13</v>
+      </c>
+      <c r="L44" s="35">
+        <f>K44*G44</f>
+        <v>26</v>
+      </c>
+      <c r="M44" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="N44" s="32"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D45" s="32"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="34"/>
       <c r="I45" s="35"/>
@@ -2886,21 +2900,23 @@
       <c r="N45" s="32"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>87</v>
+      </c>
       <c r="D46" s="32"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" s="34"/>
       <c r="I46" s="35"/>
@@ -2911,12 +2927,12 @@
       <c r="N46" s="32"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="32"/>
       <c r="D47" s="32"/>
@@ -2936,14 +2952,22 @@
       <c r="N47" s="32"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="32"/>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>85</v>
+      </c>
       <c r="C48" s="32"/>
       <c r="D48" s="32"/>
       <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
+      <c r="F48" s="33">
+        <v>1</v>
+      </c>
+      <c r="G48" s="33">
+        <v>1</v>
+      </c>
       <c r="H48" s="34"/>
       <c r="I48" s="35"/>
       <c r="J48" s="43"/>
@@ -2953,31 +2977,48 @@
       <c r="N48" s="32"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="39">
-        <f>SUM(I16:I43)</f>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="39">
+        <f>SUM(I16:I44)</f>
         <v>729.46</v>
       </c>
-      <c r="J49" s="44"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="6"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:O11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -2986,20 +3027,20 @@
     <mergeCell ref="A2:O2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J37" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
-    <hyperlink ref="J38" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
-    <hyperlink ref="J39" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
-    <hyperlink ref="J40" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
-    <hyperlink ref="J41" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
-    <hyperlink ref="M42" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
-    <hyperlink ref="M43" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
+    <hyperlink ref="J38" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
+    <hyperlink ref="J39" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
+    <hyperlink ref="J40" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
+    <hyperlink ref="J41" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
+    <hyperlink ref="J42" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
+    <hyperlink ref="M43" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
+    <hyperlink ref="M44" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
     <hyperlink ref="J21" r:id="rId8" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
     <hyperlink ref="J23" r:id="rId9" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
     <hyperlink ref="J32" r:id="rId10" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
     <hyperlink ref="J24" r:id="rId11" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
-    <hyperlink ref="M38" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
-    <hyperlink ref="M39" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
-    <hyperlink ref="M40" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
+    <hyperlink ref="M39" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
+    <hyperlink ref="M40" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
+    <hyperlink ref="M41" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
     <hyperlink ref="J25" r:id="rId15" xr:uid="{A8C5E0F3-B1FB-4E57-8DD8-1DF57CDC1A28}"/>
     <hyperlink ref="J34" r:id="rId16" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
     <hyperlink ref="J33" r:id="rId17" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
@@ -3007,10 +3048,11 @@
     <hyperlink ref="J36" r:id="rId19" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
     <hyperlink ref="J22" r:id="rId20" xr:uid="{7E1F7424-E58C-4FCB-9D3A-3CB69F34CE9F}"/>
     <hyperlink ref="J26" r:id="rId21" xr:uid="{755FCD6D-D745-447C-AAA6-2D31A19F9A40}"/>
+    <hyperlink ref="J37" r:id="rId22" xr:uid="{A90E869A-7328-473A-BA20-82979A845F00}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId22"/>
-  <drawing r:id="rId23"/>
-  <legacyDrawing r:id="rId24"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId23"/>
+  <drawing r:id="rId24"/>
+  <legacyDrawing r:id="rId25"/>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="749" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B2BB45-4CB8-43EB-B703-576F3BD3FDE0}"/>
+  <xr:revisionPtr revIDLastSave="822" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54A45B72-00A6-4DB3-A61C-6BE575BFFAEB}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$11:$O$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$56</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -84,12 +84,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{F7999DE5-A231-4BE3-8A97-2FA9AF556EFC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Budget Option</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="128">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -406,9 +430,6 @@
     <t>5x45mm Bearing Shaft</t>
   </si>
   <si>
-    <t>2x Length: 45mm 4PC</t>
-  </si>
-  <si>
     <t>3x Length: 40mm 5PC</t>
   </si>
   <si>
@@ -428,6 +449,54 @@
   </si>
   <si>
     <t>Size: 24V</t>
+  </si>
+  <si>
+    <t>Dragon LC Hotend</t>
+  </si>
+  <si>
+    <t>DLC Standard Flow</t>
+  </si>
+  <si>
+    <t>Extruder</t>
+  </si>
+  <si>
+    <t>Orbiter V2</t>
+  </si>
+  <si>
+    <t>Orbiter Extruder V2</t>
+  </si>
+  <si>
+    <t>Matrix LC</t>
+  </si>
+  <si>
+    <t>24V Matrix-LC</t>
+  </si>
+  <si>
+    <t>2x Length: 50mm 4PC</t>
+  </si>
+  <si>
+    <t>NB! WORK IN PROGRESS - APLHA STAGE</t>
+  </si>
+  <si>
+    <t>Heater</t>
+  </si>
+  <si>
+    <t>Silicone Heating Pad</t>
+  </si>
+  <si>
+    <t>310mm 220V 750W</t>
+  </si>
+  <si>
+    <t>Solid State Relay</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>Thermal Fuse</t>
+  </si>
+  <si>
+    <t>Color: 110/220V 750W</t>
   </si>
 </sst>
 </file>
@@ -440,7 +509,7 @@
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,6 +671,25 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aharoni"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1125,7 +1213,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1186,6 +1274,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1601,7 +1692,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:O1"/>
@@ -1626,7 +1717,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="46"/>
@@ -1661,23 +1752,33 @@
       <c r="N2" s="47"/>
       <c r="O2" s="47"/>
     </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
+      <c r="A5" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1882,7 +1983,10 @@
       </c>
       <c r="J16" s="40"/>
       <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="L16" s="35">
+        <f t="shared" ref="L16:L44" si="1">K16*G16</f>
+        <v>0</v>
+      </c>
       <c r="M16" s="15"/>
       <c r="N16" s="8"/>
       <c r="O16" s="10"/>
@@ -1920,7 +2024,10 @@
       </c>
       <c r="J17" s="41"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
+      <c r="L17" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M17" s="35"/>
       <c r="N17" s="32"/>
       <c r="O17" s="3"/>
@@ -1952,7 +2059,10 @@
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
+      <c r="L18" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M18" s="16"/>
       <c r="N18" s="23"/>
       <c r="O18" s="12"/>
@@ -1984,7 +2094,10 @@
       </c>
       <c r="J19" s="42"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
+      <c r="L19" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M19" s="35"/>
       <c r="N19" s="32"/>
       <c r="O19" s="3"/>
@@ -2011,12 +2124,15 @@
         <v>1.03</v>
       </c>
       <c r="I20" s="35">
-        <f t="shared" ref="I20:I44" si="1">G20*H20</f>
+        <f t="shared" ref="I20:I50" si="2">G20*H20</f>
         <v>32.96</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
+      <c r="L20" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M20" s="35"/>
       <c r="N20" s="32"/>
       <c r="O20" s="3"/>
@@ -2047,14 +2163,17 @@
         <v>20</v>
       </c>
       <c r="I21" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="J21" s="43" t="s">
         <v>69</v>
       </c>
       <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
+      <c r="L21" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M21" s="35"/>
       <c r="N21" s="32"/>
       <c r="O21" s="3"/>
@@ -2083,14 +2202,17 @@
         <v>3</v>
       </c>
       <c r="I22" s="35">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
+        <v>0</v>
+      </c>
       <c r="M22" s="35"/>
       <c r="N22" s="32"/>
       <c r="O22" s="3"/>
@@ -2106,7 +2228,7 @@
         <v>104</v>
       </c>
       <c r="D23" s="32">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33">
@@ -2119,14 +2241,17 @@
         <v>3</v>
       </c>
       <c r="I23" s="35">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J23" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
+        <v>0</v>
+      </c>
       <c r="M23" s="35"/>
       <c r="N23" s="32"/>
       <c r="O23" s="3"/>
@@ -2153,14 +2278,17 @@
         <v>3</v>
       </c>
       <c r="I24" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J24" s="43" t="s">
         <v>55</v>
       </c>
       <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
+      <c r="L24" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M24" s="35"/>
       <c r="N24" s="32"/>
       <c r="O24" s="3"/>
@@ -2189,14 +2317,17 @@
         <v>0.08</v>
       </c>
       <c r="I25" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="J25" s="43" t="s">
         <v>91</v>
       </c>
       <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
+      <c r="L25" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M25" s="35"/>
       <c r="N25" s="32"/>
       <c r="O25" s="3"/>
@@ -2206,10 +2337,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="45" t="s">
         <v>107</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>108</v>
       </c>
       <c r="D26" s="45">
         <v>30</v>
@@ -2225,14 +2356,17 @@
         <v>2.5</v>
       </c>
       <c r="I26" s="35">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J26" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J26" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
+        <v>0</v>
+      </c>
       <c r="M26" s="35"/>
       <c r="N26" s="32"/>
       <c r="O26" s="3"/>
@@ -2261,7 +2395,10 @@
       <c r="I27" s="35"/>
       <c r="J27" s="43"/>
       <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
+      <c r="L27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M27" s="35"/>
       <c r="N27" s="32"/>
       <c r="O27" s="3"/>
@@ -2288,12 +2425,15 @@
         <v>0.11</v>
       </c>
       <c r="I28" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
+      <c r="L28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M28" s="35"/>
       <c r="N28" s="32"/>
       <c r="O28" s="3"/>
@@ -2320,12 +2460,15 @@
         <v>0.3</v>
       </c>
       <c r="I29" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
+      <c r="L29" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M29" s="35"/>
       <c r="N29" s="32"/>
       <c r="O29" s="3"/>
@@ -2352,12 +2495,15 @@
         <v>0.1</v>
       </c>
       <c r="I30" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
+      <c r="L30" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M30" s="35"/>
       <c r="N30" s="32"/>
       <c r="O30" s="3"/>
@@ -2384,12 +2530,15 @@
         <v>0.21</v>
       </c>
       <c r="I31" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
+      <c r="L31" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M31" s="35"/>
       <c r="N31" s="32"/>
       <c r="O31" s="3">
@@ -2418,14 +2567,17 @@
         <v>70</v>
       </c>
       <c r="I32" s="35">
-        <f>G32*H32</f>
+        <f t="shared" ref="I32:I43" si="3">G32*H32</f>
         <v>70</v>
       </c>
       <c r="J32" s="43" t="s">
         <v>44</v>
       </c>
       <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
+      <c r="L32" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M32" s="35"/>
       <c r="N32" s="32"/>
       <c r="O32" s="3"/>
@@ -2452,14 +2604,17 @@
         <v>71</v>
       </c>
       <c r="I33" s="35">
-        <f>G33*H33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J33" s="43" t="s">
         <v>97</v>
       </c>
       <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
+      <c r="L33" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M33" s="35"/>
       <c r="N33" s="32"/>
       <c r="O33" s="3"/>
@@ -2486,14 +2641,17 @@
         <v>23</v>
       </c>
       <c r="I34" s="35">
-        <f>G34*H34</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="J34" s="43" t="s">
         <v>95</v>
       </c>
       <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
+      <c r="L34" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M34" s="35"/>
       <c r="N34" s="32"/>
       <c r="O34" s="3"/>
@@ -2520,14 +2678,17 @@
         <v>2</v>
       </c>
       <c r="I35" s="35">
-        <f>G35*H35</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J35" s="43" t="s">
         <v>101</v>
       </c>
       <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
+      <c r="L35" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M35" s="35"/>
       <c r="N35" s="32"/>
       <c r="O35" s="3"/>
@@ -2554,283 +2715,269 @@
         <v>7.5</v>
       </c>
       <c r="I36" s="35">
-        <f>G36*H36</f>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
       <c r="J36" s="43" t="s">
         <v>103</v>
       </c>
       <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
+      <c r="L36" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M36" s="35"/>
       <c r="N36" s="32"/>
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="B37" s="45" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="D37" s="32">
+        <v>310</v>
+      </c>
       <c r="E37" s="33"/>
       <c r="F37" s="33">
         <v>1</v>
       </c>
       <c r="G37" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="34">
-        <v>30</v>
+        <v>23.5</v>
       </c>
       <c r="I37" s="35">
-        <f>G37*H37</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>23.5</v>
       </c>
       <c r="J37" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="K37" s="35">
+        <v>75</v>
+      </c>
+      <c r="L37" s="35">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="M37" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="N37" s="32"/>
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="32">
-        <v>100</v>
-      </c>
-      <c r="E38" s="33">
-        <v>7000</v>
-      </c>
-      <c r="F38" s="33"/>
+        <v>41</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="32"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33">
+        <v>1</v>
+      </c>
       <c r="G38" s="33">
         <v>1</v>
       </c>
-      <c r="H38" s="34">
-        <v>39</v>
-      </c>
-      <c r="I38" s="35">
+      <c r="H38" s="34"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="J38" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
+        <v>0</v>
+      </c>
       <c r="M38" s="35"/>
       <c r="N38" s="32"/>
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>64</v>
+        <v>41</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>126</v>
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G39" s="33">
-        <v>10</v>
-      </c>
-      <c r="H39" s="34">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I39" s="35">
+        <v>1</v>
+      </c>
+      <c r="H39" s="34"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35">
         <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="J39" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="K39" s="35">
-        <v>5.5</v>
-      </c>
-      <c r="L39" s="35">
-        <f>K39*G39</f>
-        <v>55</v>
-      </c>
-      <c r="M39" s="25" t="s">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M39" s="35"/>
       <c r="N39" s="32"/>
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>65</v>
+        <v>109</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="D40" s="32"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G40" s="33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H40" s="34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I40" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J40" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="K40" s="35">
-        <v>7</v>
-      </c>
-      <c r="L40" s="35">
-        <f>K40*G40</f>
-        <v>35</v>
-      </c>
-      <c r="M40" s="25" t="s">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M40" s="35"/>
       <c r="N40" s="32"/>
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>66</v>
+        <v>109</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>112</v>
       </c>
       <c r="D41" s="32"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G41" s="33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H41" s="34">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="I41" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="J41" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="K41" s="35">
-        <v>6</v>
-      </c>
-      <c r="L41" s="35">
-        <f>K41*G41</f>
-        <v>30</v>
-      </c>
-      <c r="M41" s="25" t="s">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M41" s="35"/>
       <c r="N41" s="32"/>
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="32">
-        <v>200</v>
-      </c>
-      <c r="E42" s="33">
-        <v>600</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="E42" s="33"/>
       <c r="F42" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" s="33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" s="34">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="I42" s="35">
-        <f t="shared" ref="I42:I43" si="2">G42*H42</f>
-        <v>45</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J42" s="43" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
+      <c r="L42" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M42" s="35"/>
       <c r="N42" s="32"/>
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>73</v>
+        <v>114</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>117</v>
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43" s="33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H43" s="34">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="I43" s="35">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J43" s="43"/>
-      <c r="K43" s="34">
-        <v>11</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="K43" s="35"/>
       <c r="L43" s="35">
-        <f>K43*G43</f>
-        <v>33</v>
-      </c>
-      <c r="M43" s="25" t="s">
-        <v>78</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="35"/>
       <c r="N43" s="32"/>
       <c r="O43" s="3"/>
     </row>
@@ -2839,186 +2986,425 @@
         <v>45</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33">
-        <v>2</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D44" s="32">
+        <v>100</v>
+      </c>
+      <c r="E44" s="33">
+        <v>7000</v>
+      </c>
+      <c r="F44" s="33"/>
       <c r="G44" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="34">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="I44" s="35">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="J44" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35">
         <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="J44" s="43"/>
-      <c r="K44" s="34">
-        <v>13</v>
-      </c>
-      <c r="L44" s="35">
-        <f>K44*G44</f>
-        <v>26</v>
-      </c>
-      <c r="M44" s="25" t="s">
-        <v>77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M44" s="35"/>
       <c r="N44" s="32"/>
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>86</v>
+        <v>45</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>64</v>
       </c>
       <c r="D45" s="32"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G45" s="33">
-        <v>1</v>
-      </c>
-      <c r="H45" s="34"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="25"/>
+        <v>10</v>
+      </c>
+      <c r="H45" s="34">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I45" s="35">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="J45" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="K45" s="35">
+        <v>5.5</v>
+      </c>
+      <c r="L45" s="35">
+        <f>K45*G45</f>
+        <v>55</v>
+      </c>
+      <c r="M45" s="25" t="s">
+        <v>72</v>
+      </c>
       <c r="N45" s="32"/>
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="45" t="s">
-        <v>87</v>
+        <v>45</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>65</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G46" s="33">
-        <v>2</v>
-      </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="H46" s="34">
+        <v>6</v>
+      </c>
+      <c r="I46" s="35">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J46" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="K46" s="35">
+        <v>7</v>
+      </c>
+      <c r="L46" s="35">
+        <f>K46*G46</f>
+        <v>35</v>
+      </c>
+      <c r="M46" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="N46" s="32"/>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="32"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="D47" s="32"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G47" s="33">
-        <v>1</v>
-      </c>
-      <c r="H47" s="34"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="H47" s="34">
+        <v>4</v>
+      </c>
+      <c r="I47" s="35">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J47" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="K47" s="35">
+        <v>6</v>
+      </c>
+      <c r="L47" s="35">
+        <f>K47*G47</f>
+        <v>30</v>
+      </c>
+      <c r="M47" s="25" t="s">
+        <v>75</v>
+      </c>
       <c r="N47" s="32"/>
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="33"/>
+        <v>45</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="32">
+        <v>200</v>
+      </c>
+      <c r="E48" s="33">
+        <v>600</v>
+      </c>
       <c r="F48" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G48" s="33">
-        <v>1</v>
-      </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="H48" s="34">
+        <v>15</v>
+      </c>
+      <c r="I48" s="35">
+        <f t="shared" ref="I48:I49" si="4">G48*H48</f>
+        <v>45</v>
+      </c>
+      <c r="J48" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="K48" s="35"/>
       <c r="L48" s="35"/>
-      <c r="M48" s="25"/>
+      <c r="M48" s="35"/>
       <c r="N48" s="32"/>
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
+      <c r="A49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="D49" s="32"/>
       <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="35"/>
+      <c r="F49" s="33">
+        <v>3</v>
+      </c>
+      <c r="G49" s="33">
+        <v>3</v>
+      </c>
+      <c r="H49" s="34">
+        <v>11</v>
+      </c>
+      <c r="I49" s="35">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
       <c r="J49" s="43"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="25"/>
+      <c r="K49" s="34">
+        <v>11</v>
+      </c>
+      <c r="L49" s="35">
+        <f>K49*G49</f>
+        <v>33</v>
+      </c>
+      <c r="M49" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="N49" s="32"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33">
+        <v>2</v>
+      </c>
+      <c r="G50" s="33">
+        <v>2</v>
+      </c>
+      <c r="H50" s="34">
+        <v>13</v>
+      </c>
+      <c r="I50" s="35">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="J50" s="43"/>
+      <c r="K50" s="34">
+        <v>13</v>
+      </c>
+      <c r="L50" s="35">
+        <f>K50*G50</f>
+        <v>26</v>
+      </c>
+      <c r="M50" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="N50" s="32"/>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33">
+        <v>1</v>
+      </c>
+      <c r="G51" s="33">
+        <v>1</v>
+      </c>
+      <c r="H51" s="34"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33">
+        <v>2</v>
+      </c>
+      <c r="G52" s="33">
+        <v>2</v>
+      </c>
+      <c r="H52" s="34"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33">
+        <v>1</v>
+      </c>
+      <c r="G53" s="33">
+        <v>1</v>
+      </c>
+      <c r="H53" s="34"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33">
+        <v>1</v>
+      </c>
+      <c r="G54" s="33">
+        <v>1</v>
+      </c>
+      <c r="H54" s="34"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B56" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="39">
-        <f>SUM(I16:I44)</f>
-        <v>729.46</v>
-      </c>
-      <c r="J50" s="44"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="6"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="39">
+        <f>SUM(I16:I50)</f>
+        <v>752.96</v>
+      </c>
+      <c r="J56" s="44"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:O11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -3027,20 +3413,20 @@
     <mergeCell ref="A2:O2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J38" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
-    <hyperlink ref="J39" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
-    <hyperlink ref="J40" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
-    <hyperlink ref="J41" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
-    <hyperlink ref="J42" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
-    <hyperlink ref="M43" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
-    <hyperlink ref="M44" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
+    <hyperlink ref="J44" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
+    <hyperlink ref="J45" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
+    <hyperlink ref="J46" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
+    <hyperlink ref="J47" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
+    <hyperlink ref="J48" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
+    <hyperlink ref="M49" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
+    <hyperlink ref="M50" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
     <hyperlink ref="J21" r:id="rId8" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
-    <hyperlink ref="J23" r:id="rId9" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
+    <hyperlink ref="J23" r:id="rId9" display="2x Length: 45mm 4PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
     <hyperlink ref="J32" r:id="rId10" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
     <hyperlink ref="J24" r:id="rId11" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
-    <hyperlink ref="M39" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
-    <hyperlink ref="M40" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
-    <hyperlink ref="M41" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
+    <hyperlink ref="M45" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
+    <hyperlink ref="M46" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
+    <hyperlink ref="M47" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
     <hyperlink ref="J25" r:id="rId15" xr:uid="{A8C5E0F3-B1FB-4E57-8DD8-1DF57CDC1A28}"/>
     <hyperlink ref="J34" r:id="rId16" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
     <hyperlink ref="J33" r:id="rId17" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
@@ -3048,11 +3434,16 @@
     <hyperlink ref="J36" r:id="rId19" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
     <hyperlink ref="J22" r:id="rId20" xr:uid="{7E1F7424-E58C-4FCB-9D3A-3CB69F34CE9F}"/>
     <hyperlink ref="J26" r:id="rId21" xr:uid="{755FCD6D-D745-447C-AAA6-2D31A19F9A40}"/>
-    <hyperlink ref="J37" r:id="rId22" xr:uid="{A90E869A-7328-473A-BA20-82979A845F00}"/>
+    <hyperlink ref="J40" r:id="rId22" xr:uid="{A90E869A-7328-473A-BA20-82979A845F00}"/>
+    <hyperlink ref="J41" r:id="rId23" xr:uid="{37B2932B-CA7B-49AA-9F35-9BCE3D136353}"/>
+    <hyperlink ref="J42" r:id="rId24" xr:uid="{BE140B59-D4B8-46C3-B6EC-BEB5F431781F}"/>
+    <hyperlink ref="J43" r:id="rId25" xr:uid="{54817A0E-3A4B-42D7-AA92-5C84B2F161F2}"/>
+    <hyperlink ref="J37" r:id="rId26" xr:uid="{4F053E16-31A4-458E-B422-7E74FE54E665}"/>
+    <hyperlink ref="M37" r:id="rId27" display="Color: 220V 750W" xr:uid="{6A46011B-C1CA-4A88-AD58-75064F9710C4}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId23"/>
-  <drawing r:id="rId24"/>
-  <legacyDrawing r:id="rId25"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId28"/>
+  <drawing r:id="rId29"/>
+  <legacyDrawing r:id="rId30"/>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -1270,13 +1270,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="42" applyBorder="1"/>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1717,40 +1717,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="822" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54A45B72-00A6-4DB3-A61C-6BE575BFFAEB}"/>
+  <xr:revisionPtr revIDLastSave="823" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{200A5A7B-F7DD-41BD-97B0-8742572CC897}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,9 +427,6 @@
     <t>Power switch</t>
   </si>
   <si>
-    <t>5x45mm Bearing Shaft</t>
-  </si>
-  <si>
     <t>3x Length: 40mm 5PC</t>
   </si>
   <si>
@@ -497,6 +494,9 @@
   </si>
   <si>
     <t>Color: 110/220V 750W</t>
+  </si>
+  <si>
+    <t>5x50mm Bearing Shaft</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2206,7 +2206,7 @@
         <v>9</v>
       </c>
       <c r="J22" s="43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K22" s="35"/>
       <c r="L22" s="35">
@@ -2225,7 +2225,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="D23" s="32">
         <v>50</v>
@@ -2245,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="J23" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K23" s="35"/>
       <c r="L23" s="35">
@@ -2337,10 +2337,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="45" t="s">
         <v>106</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>107</v>
       </c>
       <c r="D26" s="45">
         <v>30</v>
@@ -2360,7 +2360,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K26" s="35"/>
       <c r="L26" s="35">
@@ -2735,10 +2735,10 @@
         <v>41</v>
       </c>
       <c r="B37" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="45" t="s">
         <v>121</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>122</v>
       </c>
       <c r="D37" s="32">
         <v>310</v>
@@ -2758,7 +2758,7 @@
         <v>23.5</v>
       </c>
       <c r="J37" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K37" s="35">
         <v>75</v>
@@ -2768,7 +2768,7 @@
         <v>75</v>
       </c>
       <c r="M37" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N37" s="32"/>
       <c r="O37" s="3"/>
@@ -2781,7 +2781,7 @@
         <v>98</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="33"/>
@@ -2808,10 +2808,10 @@
         <v>41</v>
       </c>
       <c r="B39" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="45" t="s">
         <v>125</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>126</v>
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="33"/>
@@ -2835,13 +2835,13 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="45" t="s">
         <v>109</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>110</v>
       </c>
       <c r="D40" s="32"/>
       <c r="E40" s="33"/>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K40" s="35"/>
       <c r="L40" s="35">
@@ -2872,13 +2872,13 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" s="32"/>
       <c r="E41" s="33"/>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K41" s="35"/>
       <c r="L41" s="35">
@@ -2909,13 +2909,13 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="45" t="s">
         <v>114</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>115</v>
       </c>
       <c r="D42" s="32"/>
       <c r="E42" s="33"/>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K42" s="35"/>
       <c r="L42" s="35">
@@ -2946,13 +2946,13 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="33"/>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K43" s="35"/>
       <c r="L43" s="35">

--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="823" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{200A5A7B-F7DD-41BD-97B0-8742572CC897}"/>
+  <xr:revisionPtr revIDLastSave="859" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7E2A21B-D366-43B5-A910-3305D811AB24}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Valkyrie Base Frame BOM 02" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$11:$O$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$11:$P$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$P$57</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
     <author>Roy Berntsen</author>
   </authors>
   <commentList>
-    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{FB4E5E39-3716-46C1-9030-8ED6146980D7}">
+    <comment ref="D34" authorId="0" shapeId="0" xr:uid="{FB4E5E39-3716-46C1-9030-8ED6146980D7}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{F7999DE5-A231-4BE3-8A97-2FA9AF556EFC}">
+    <comment ref="D41" authorId="0" shapeId="0" xr:uid="{F7999DE5-A231-4BE3-8A97-2FA9AF556EFC}">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="134">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -497,6 +497,24 @@
   </si>
   <si>
     <t>5x50mm Bearing Shaft</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>5x60mm Bearing Shaft</t>
+  </si>
+  <si>
+    <t>Length: 60mm 3PC</t>
   </si>
 </sst>
 </file>
@@ -1342,13 +1360,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>476249</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>161328</xdr:rowOff>
@@ -1692,35 +1710,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
@@ -1734,8 +1753,9 @@
       <c r="M1" s="47"/>
       <c r="N1" s="47"/>
       <c r="O1" s="47"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="47"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -1751,1699 +1771,1825 @@
       <c r="M2" s="48"/>
       <c r="N2" s="48"/>
       <c r="O2" s="48"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="48"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:15" s="7" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:16" s="7" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="H11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="I11" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="J11" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="K11" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="L11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="M11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="N11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="O11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="P11" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="D12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="27">
+      <c r="E12" s="27">
         <v>500</v>
       </c>
-      <c r="E12" s="28">
-        <f>F12*D12</f>
+      <c r="F12" s="28">
+        <f>G12*E12</f>
         <v>500</v>
       </c>
-      <c r="F12" s="28">
+      <c r="G12" s="28">
         <v>1</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="30"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="31"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N12" s="30"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="31"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="D13" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="32">
+      <c r="E13" s="32">
         <v>420</v>
       </c>
-      <c r="E13" s="33">
-        <f>F13*D13</f>
+      <c r="F13" s="33">
+        <f>G13*E13</f>
         <v>1680</v>
       </c>
-      <c r="F13" s="33">
+      <c r="G13" s="33">
         <v>4</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="35"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N13" s="35"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="D14" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="32">
+      <c r="E14" s="32">
         <v>460</v>
       </c>
-      <c r="E14" s="33">
-        <f t="shared" ref="E14:E15" si="0">F14*D14</f>
+      <c r="F14" s="33">
+        <f t="shared" ref="F14:F15" si="0">G14*E14</f>
         <v>1840</v>
       </c>
-      <c r="F14" s="33">
+      <c r="G14" s="33">
         <v>4</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="35"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N14" s="35"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="D15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="32">
+      <c r="E15" s="32">
         <v>700</v>
       </c>
-      <c r="E15" s="33">
+      <c r="F15" s="33">
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="F15" s="33">
+      <c r="G15" s="33">
         <v>4</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="35"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="35"/>
       <c r="M15" s="35"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N15" s="35"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="8">
+      <c r="E16" s="8">
         <v>1500</v>
       </c>
-      <c r="E16" s="20">
-        <f>E13+E14+E15</f>
+      <c r="F16" s="20">
+        <f>F13+F14+F15</f>
         <v>6320</v>
       </c>
-      <c r="F16" s="21">
-        <f>E16/D16</f>
+      <c r="G16" s="21">
+        <f>F16/E16</f>
         <v>4.2133333333333329</v>
       </c>
-      <c r="G16" s="22">
+      <c r="H16" s="22">
         <v>5</v>
       </c>
-      <c r="H16" s="13">
+      <c r="I16" s="13">
         <v>23.2</v>
       </c>
-      <c r="I16" s="15">
-        <f>G16*H16</f>
+      <c r="J16" s="15">
+        <f>H16*I16</f>
         <v>116</v>
       </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="35">
-        <f t="shared" ref="L16:L44" si="1">K16*G16</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="10"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K16" s="40"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="35">
+        <f t="shared" ref="M16:M45" si="1">L16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="15"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="D17" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="32">
+      <c r="E17" s="32">
         <v>500</v>
       </c>
-      <c r="E17" s="36">
-        <f>E12</f>
+      <c r="F17" s="36">
+        <f>F12</f>
         <v>500</v>
       </c>
-      <c r="F17" s="32">
-        <f>E17/D17</f>
+      <c r="G17" s="32">
+        <f>F17/E17</f>
         <v>1</v>
       </c>
-      <c r="G17" s="37">
+      <c r="H17" s="37">
         <v>1</v>
       </c>
-      <c r="H17" s="34">
+      <c r="I17" s="34">
         <v>6</v>
       </c>
-      <c r="I17" s="35">
-        <f>G17*H17</f>
+      <c r="J17" s="35">
+        <f>H17*I17</f>
         <v>6</v>
       </c>
-      <c r="J17" s="41"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35">
+      <c r="K17" s="41"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M17" s="35"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="35"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="D18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24">
-        <v>12</v>
-      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="24">
         <v>12</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="24">
+        <v>12</v>
+      </c>
+      <c r="I18" s="14">
         <v>2</v>
       </c>
-      <c r="I18" s="16">
-        <f>G18*H18</f>
+      <c r="J18" s="16">
+        <f>H18*I18</f>
         <v>24</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="35">
+      <c r="K18" s="12"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="12"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="16"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="12"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="D19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33">
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33">
         <v>6</v>
       </c>
-      <c r="G19" s="33">
+      <c r="H19" s="33">
         <v>10</v>
       </c>
-      <c r="H19" s="38">
+      <c r="I19" s="38">
         <v>0.8</v>
       </c>
-      <c r="I19" s="35">
-        <f>G19*H19</f>
+      <c r="J19" s="35">
+        <f>H19*I19</f>
         <v>8</v>
       </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35">
+      <c r="K19" s="42"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="35"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="D20" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33">
-        <v>32</v>
-      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="33">
         <v>32</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="33">
+        <v>32</v>
+      </c>
+      <c r="I20" s="34">
         <v>1.03</v>
       </c>
-      <c r="I20" s="35">
-        <f t="shared" ref="I20:I50" si="2">G20*H20</f>
+      <c r="J20" s="35">
+        <f t="shared" ref="J20:J51" si="2">H20*I20</f>
         <v>32.96</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35">
+      <c r="K20" s="3"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="35"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N20" s="35"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="D21" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="32">
+      <c r="E21" s="32">
         <v>410</v>
       </c>
-      <c r="E21" s="33">
+      <c r="F21" s="33">
         <v>500</v>
-      </c>
-      <c r="F21" s="33">
-        <v>1</v>
       </c>
       <c r="G21" s="33">
         <v>1</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="33">
+        <v>1</v>
+      </c>
+      <c r="I21" s="34">
         <v>20</v>
       </c>
-      <c r="I21" s="35">
+      <c r="J21" s="35">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="K21" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35">
+      <c r="L21" s="35"/>
+      <c r="M21" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N21" s="35"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="D22" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="32">
+      <c r="E22" s="32">
         <v>40</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33">
+      <c r="F22" s="33"/>
+      <c r="G22" s="33">
         <v>12</v>
       </c>
-      <c r="G22" s="33">
+      <c r="H22" s="33">
         <v>3</v>
       </c>
-      <c r="H22" s="34">
+      <c r="I22" s="34">
         <v>3</v>
       </c>
-      <c r="I22" s="35">
+      <c r="J22" s="35">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J22" s="43" t="s">
+      <c r="K22" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35">
+      <c r="L22" s="35"/>
+      <c r="M22" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M22" s="35"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N22" s="35"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="D23" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="32">
+      <c r="E23" s="32">
         <v>50</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33">
+      <c r="F23" s="33"/>
+      <c r="G23" s="33">
         <v>6</v>
       </c>
-      <c r="G23" s="33">
+      <c r="H23" s="33">
         <v>2</v>
       </c>
-      <c r="H23" s="34">
+      <c r="I23" s="34">
         <v>3</v>
       </c>
-      <c r="I23" s="35">
+      <c r="J23" s="35">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="J23" s="43" t="s">
+      <c r="K23" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35">
+      <c r="L23" s="35"/>
+      <c r="M23" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M23" s="35"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N23" s="35"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="45">
+        <v>60</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33">
+        <v>3</v>
+      </c>
+      <c r="H24" s="33">
+        <v>1</v>
+      </c>
+      <c r="I24" s="34">
+        <v>3.5</v>
+      </c>
+      <c r="J24" s="35">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="K24" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="35"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="D25" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33">
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33">
         <v>3</v>
       </c>
-      <c r="G24" s="33">
+      <c r="H25" s="33">
         <v>1</v>
       </c>
-      <c r="H24" s="34">
+      <c r="I25" s="34">
         <v>3</v>
       </c>
-      <c r="I24" s="35">
+      <c r="J25" s="35">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J24" s="43" t="s">
+      <c r="K25" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35">
+      <c r="L25" s="35"/>
+      <c r="M25" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M24" s="35"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="N25" s="35"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B26" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="D26" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="E26" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33">
+      <c r="F26" s="33"/>
+      <c r="G26" s="33">
         <v>1225</v>
       </c>
-      <c r="G25" s="33">
+      <c r="H26" s="33">
         <v>1225</v>
       </c>
-      <c r="H25" s="34">
+      <c r="I26" s="34">
         <v>0.08</v>
       </c>
-      <c r="I25" s="35">
+      <c r="J26" s="35">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="J25" s="43" t="s">
+      <c r="K26" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35">
+      <c r="L26" s="35"/>
+      <c r="M26" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M25" s="35"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="N26" s="35"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B27" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="D27" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="45">
+      <c r="E27" s="45">
         <v>30</v>
       </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33">
+      <c r="F27" s="33"/>
+      <c r="G27" s="33">
         <v>3</v>
       </c>
-      <c r="G26" s="33">
+      <c r="H27" s="33">
         <v>2</v>
       </c>
-      <c r="H26" s="34">
+      <c r="I27" s="34">
         <v>2.5</v>
       </c>
-      <c r="I26" s="35">
+      <c r="J27" s="35">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J26" s="43" t="s">
+      <c r="K27" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35">
+      <c r="L27" s="35"/>
+      <c r="M27" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="35"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="32">
-        <v>20</v>
-      </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33">
-        <v>3</v>
-      </c>
-      <c r="G27" s="33">
-        <v>3</v>
-      </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="35"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N27" s="35"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="32">
+        <v>20</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33">
+        <v>3</v>
+      </c>
+      <c r="H28" s="33">
+        <v>3</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="35"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="D29" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33">
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33">
         <v>76</v>
       </c>
-      <c r="G28" s="33">
+      <c r="H29" s="33">
         <v>100</v>
       </c>
-      <c r="H28" s="34">
+      <c r="I29" s="34">
         <v>0.11</v>
       </c>
-      <c r="I28" s="35">
+      <c r="J29" s="35">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35">
+      <c r="K29" s="3"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M28" s="35"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="N29" s="35"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B30" s="32"/>
+      <c r="C30" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="D30" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33">
-        <v>0</v>
-      </c>
-      <c r="G29" s="33">
+      <c r="E30" s="32"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33">
+        <v>0</v>
+      </c>
+      <c r="H30" s="33">
         <v>50</v>
       </c>
-      <c r="H29" s="34">
+      <c r="I30" s="34">
         <v>0.3</v>
       </c>
-      <c r="I29" s="35">
+      <c r="J30" s="35">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35">
+      <c r="K30" s="3"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M29" s="35"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="N30" s="35"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="D31" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33">
+      <c r="E31" s="32"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33">
         <v>76</v>
       </c>
-      <c r="G30" s="33">
+      <c r="H31" s="33">
         <v>100</v>
       </c>
-      <c r="H30" s="34">
+      <c r="I31" s="34">
         <v>0.1</v>
       </c>
-      <c r="I30" s="35">
+      <c r="J31" s="35">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35">
+      <c r="K31" s="3"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M30" s="35"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="N31" s="35"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="D32" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33">
+      <c r="E32" s="32"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33">
         <v>76</v>
       </c>
-      <c r="G31" s="33">
+      <c r="H32" s="33">
         <v>100</v>
       </c>
-      <c r="H31" s="34">
+      <c r="I32" s="34">
         <v>0.21</v>
       </c>
-      <c r="I31" s="35">
+      <c r="J32" s="35">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35">
+      <c r="K32" s="3"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M31" s="35"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="3">
+      <c r="N32" s="35"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="3">
         <v>7380</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33">
-        <v>1</v>
-      </c>
-      <c r="G32" s="33">
-        <v>1</v>
-      </c>
-      <c r="H32" s="34">
-        <v>70</v>
-      </c>
-      <c r="I32" s="35">
-        <f t="shared" ref="I32:I43" si="3">G32*H32</f>
-        <v>70</v>
-      </c>
-      <c r="J32" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="35"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33">
+      <c r="D33" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33">
         <v>1</v>
       </c>
-      <c r="G33" s="33">
-        <v>0</v>
-      </c>
-      <c r="H33" s="34">
-        <v>71</v>
-      </c>
-      <c r="I33" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35">
+      <c r="H33" s="33">
+        <v>1</v>
+      </c>
+      <c r="I33" s="34">
+        <v>70</v>
+      </c>
+      <c r="J33" s="35">
+        <f t="shared" ref="J33:J44" si="3">H33*I33</f>
+        <v>70</v>
+      </c>
+      <c r="K33" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M33" s="35"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N33" s="35"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="45" t="s">
-        <v>94</v>
-      </c>
+      <c r="B34" s="32"/>
       <c r="C34" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="33">
         <v>1</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34" s="33">
+        <v>0</v>
+      </c>
+      <c r="I34" s="34">
+        <v>71</v>
+      </c>
+      <c r="J34" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="35"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="32"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33">
+        <v>1</v>
+      </c>
+      <c r="H35" s="33">
+        <v>1</v>
+      </c>
+      <c r="I35" s="34">
         <v>23</v>
       </c>
-      <c r="I34" s="35">
+      <c r="J35" s="35">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="J34" s="43" t="s">
+      <c r="K35" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35">
+      <c r="L35" s="35"/>
+      <c r="M35" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M34" s="35"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="N35" s="35"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B36" s="32"/>
+      <c r="C36" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="D36" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33">
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33">
         <v>5</v>
       </c>
-      <c r="G35" s="33">
+      <c r="H36" s="33">
         <v>5</v>
       </c>
-      <c r="H35" s="34">
+      <c r="I36" s="34">
         <v>2</v>
       </c>
-      <c r="I35" s="35">
+      <c r="J36" s="35">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J35" s="43" t="s">
+      <c r="K36" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35">
+      <c r="L36" s="35"/>
+      <c r="M36" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M35" s="35"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="N36" s="35"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B37" s="32"/>
+      <c r="C37" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="D37" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33">
+      <c r="E37" s="32"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33">
         <v>1</v>
       </c>
-      <c r="G36" s="33">
+      <c r="H37" s="33">
         <v>1</v>
       </c>
-      <c r="H36" s="34">
+      <c r="I37" s="34">
         <v>7.5</v>
       </c>
-      <c r="I36" s="35">
+      <c r="J37" s="35">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="J36" s="43" t="s">
+      <c r="K37" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35">
+      <c r="L37" s="35"/>
+      <c r="M37" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M36" s="35"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="N37" s="35"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B38" s="32"/>
+      <c r="C38" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="D38" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="32">
+      <c r="E38" s="32">
         <v>310</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33">
+      <c r="F38" s="33"/>
+      <c r="G38" s="33">
         <v>1</v>
       </c>
-      <c r="G37" s="33">
+      <c r="H38" s="33">
         <v>1</v>
       </c>
-      <c r="H37" s="34">
+      <c r="I38" s="34">
         <v>23.5</v>
       </c>
-      <c r="I37" s="35">
+      <c r="J38" s="35">
         <f t="shared" si="3"/>
         <v>23.5</v>
       </c>
-      <c r="J37" s="43" t="s">
+      <c r="K38" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="K37" s="35">
+      <c r="L38" s="35">
         <v>75</v>
       </c>
-      <c r="L37" s="35">
+      <c r="M38" s="35">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="M37" s="25" t="s">
+      <c r="N38" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="N37" s="32"/>
-      <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33">
-        <v>1</v>
-      </c>
-      <c r="G38" s="33">
-        <v>1</v>
-      </c>
-      <c r="H38" s="34"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="35"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O38" s="32"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="45" t="s">
-        <v>124</v>
-      </c>
+      <c r="B39" s="32"/>
       <c r="C39" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33"/>
       <c r="G39" s="33">
         <v>1</v>
       </c>
-      <c r="H39" s="34"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35">
+      <c r="H39" s="33">
+        <v>1</v>
+      </c>
+      <c r="I39" s="34"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M39" s="35"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N39" s="35"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>108</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B40" s="32"/>
       <c r="C40" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33">
+        <v>124</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33">
         <v>1</v>
       </c>
-      <c r="G40" s="33">
-        <v>0</v>
-      </c>
-      <c r="H40" s="34">
-        <v>30</v>
-      </c>
-      <c r="I40" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35">
+      <c r="H40" s="33">
+        <v>1</v>
+      </c>
+      <c r="I40" s="34"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M40" s="35"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N40" s="35"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="D41" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="32"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33">
+        <v>1</v>
+      </c>
+      <c r="H41" s="33">
+        <v>0</v>
+      </c>
+      <c r="I41" s="34">
+        <v>30</v>
+      </c>
+      <c r="J41" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="35"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="32"/>
+      <c r="C42" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33">
+      <c r="E42" s="32"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33">
         <v>1</v>
       </c>
-      <c r="G41" s="33">
-        <v>0</v>
-      </c>
-      <c r="H41" s="34">
+      <c r="H42" s="33">
+        <v>0</v>
+      </c>
+      <c r="I42" s="34">
         <v>90</v>
       </c>
-      <c r="I41" s="35">
+      <c r="J42" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J41" s="43" t="s">
+      <c r="K42" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35">
+      <c r="L42" s="35"/>
+      <c r="M42" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M41" s="35"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33">
-        <v>1</v>
-      </c>
-      <c r="G42" s="33">
-        <v>0</v>
-      </c>
-      <c r="H42" s="34">
-        <v>65</v>
-      </c>
-      <c r="I42" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="35"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N42" s="35"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="32"/>
+      <c r="C43" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="D43" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="32"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33">
+        <v>1</v>
+      </c>
+      <c r="H43" s="33">
+        <v>0</v>
+      </c>
+      <c r="I43" s="34">
+        <v>65</v>
+      </c>
+      <c r="J43" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="35"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="32"/>
+      <c r="C44" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33">
-        <v>1</v>
-      </c>
-      <c r="G43" s="33">
-        <v>0</v>
-      </c>
-      <c r="H43" s="34">
-        <v>100</v>
-      </c>
-      <c r="I43" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="35"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="32">
-        <v>100</v>
-      </c>
-      <c r="E44" s="33">
-        <v>7000</v>
-      </c>
+      <c r="E44" s="32"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33">
         <v>1</v>
       </c>
-      <c r="H44" s="34">
+      <c r="H44" s="33">
+        <v>0</v>
+      </c>
+      <c r="I44" s="34">
+        <v>100</v>
+      </c>
+      <c r="J44" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="35"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="32">
+        <v>100</v>
+      </c>
+      <c r="F45" s="33">
+        <v>7000</v>
+      </c>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33">
+        <v>1</v>
+      </c>
+      <c r="I45" s="34">
         <v>39</v>
       </c>
-      <c r="I44" s="35">
+      <c r="J45" s="35">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="J44" s="43" t="s">
+      <c r="K45" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35">
+      <c r="L45" s="35"/>
+      <c r="M45" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M44" s="35"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="N45" s="35"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B46" s="32"/>
+      <c r="C46" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="D46" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33">
+      <c r="E46" s="32"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33">
         <v>10</v>
       </c>
-      <c r="G45" s="33">
+      <c r="H46" s="33">
         <v>10</v>
       </c>
-      <c r="H45" s="34">
+      <c r="I46" s="34">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I45" s="35">
+      <c r="J46" s="35">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="J45" s="43" t="s">
+      <c r="K46" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="K45" s="35">
+      <c r="L46" s="35">
         <v>5.5</v>
       </c>
-      <c r="L45" s="35">
-        <f>K45*G45</f>
+      <c r="M46" s="35">
+        <f>L46*H46</f>
         <v>55</v>
       </c>
-      <c r="M45" s="25" t="s">
+      <c r="N46" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="N45" s="32"/>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="O46" s="32"/>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="D47" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33">
+      <c r="E47" s="32"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33">
         <v>5</v>
       </c>
-      <c r="G46" s="33">
+      <c r="H47" s="33">
         <v>5</v>
       </c>
-      <c r="H46" s="34">
+      <c r="I47" s="34">
         <v>6</v>
       </c>
-      <c r="I46" s="35">
+      <c r="J47" s="35">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="J46" s="43" t="s">
+      <c r="K47" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="K46" s="35">
+      <c r="L47" s="35">
         <v>7</v>
       </c>
-      <c r="L46" s="35">
-        <f>K46*G46</f>
+      <c r="M47" s="35">
+        <f>L47*H47</f>
         <v>35</v>
       </c>
-      <c r="M46" s="25" t="s">
+      <c r="N47" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="N46" s="32"/>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="O47" s="32"/>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B48" s="32"/>
+      <c r="C48" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="D48" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33">
+      <c r="E48" s="32"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33">
         <v>5</v>
       </c>
-      <c r="G47" s="33">
+      <c r="H48" s="33">
         <v>5</v>
       </c>
-      <c r="H47" s="34">
+      <c r="I48" s="34">
         <v>4</v>
       </c>
-      <c r="I47" s="35">
+      <c r="J48" s="35">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="J47" s="43" t="s">
+      <c r="K48" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="K47" s="35">
+      <c r="L48" s="35">
         <v>6</v>
       </c>
-      <c r="L47" s="35">
-        <f>K47*G47</f>
+      <c r="M48" s="35">
+        <f>L48*H48</f>
         <v>30</v>
       </c>
-      <c r="M47" s="25" t="s">
+      <c r="N48" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="N47" s="32"/>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="32">
-        <v>200</v>
-      </c>
-      <c r="E48" s="33">
-        <v>600</v>
-      </c>
-      <c r="F48" s="33">
-        <v>3</v>
-      </c>
-      <c r="G48" s="33">
-        <v>3</v>
-      </c>
-      <c r="H48" s="34">
-        <v>15</v>
-      </c>
-      <c r="I48" s="35">
-        <f t="shared" ref="I48:I49" si="4">G48*H48</f>
-        <v>45</v>
-      </c>
-      <c r="J48" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O48" s="32"/>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="32" t="s">
-        <v>50</v>
-      </c>
+      <c r="B49" s="32"/>
       <c r="C49" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="33"/>
+        <v>79</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="32">
+        <v>200</v>
+      </c>
       <c r="F49" s="33">
-        <v>3</v>
+        <v>600</v>
       </c>
       <c r="G49" s="33">
         <v>3</v>
       </c>
-      <c r="H49" s="34">
+      <c r="H49" s="33">
+        <v>3</v>
+      </c>
+      <c r="I49" s="34">
+        <v>15</v>
+      </c>
+      <c r="J49" s="35">
+        <f t="shared" ref="J49:J50" si="4">H49*I49</f>
+        <v>45</v>
+      </c>
+      <c r="K49" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="32"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33">
+        <v>3</v>
+      </c>
+      <c r="H50" s="33">
+        <v>3</v>
+      </c>
+      <c r="I50" s="34">
         <v>11</v>
       </c>
-      <c r="I49" s="35">
+      <c r="J50" s="35">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="J49" s="43"/>
-      <c r="K49" s="34">
+      <c r="K50" s="43"/>
+      <c r="L50" s="34">
         <v>11</v>
       </c>
-      <c r="L49" s="35">
-        <f>K49*G49</f>
+      <c r="M50" s="35">
+        <f>L50*H50</f>
         <v>33</v>
       </c>
-      <c r="M49" s="25" t="s">
+      <c r="N50" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="N49" s="32"/>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="O50" s="32"/>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B51" s="32"/>
+      <c r="C51" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="D51" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33">
+      <c r="E51" s="32"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33">
         <v>2</v>
       </c>
-      <c r="G50" s="33">
+      <c r="H51" s="33">
         <v>2</v>
       </c>
-      <c r="H50" s="34">
+      <c r="I51" s="34">
         <v>13</v>
       </c>
-      <c r="I50" s="35">
+      <c r="J51" s="35">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="J50" s="43"/>
-      <c r="K50" s="34">
+      <c r="K51" s="43"/>
+      <c r="L51" s="34">
         <v>13</v>
       </c>
-      <c r="L50" s="35">
-        <f>K50*G50</f>
+      <c r="M51" s="35">
+        <f>L51*H51</f>
         <v>26</v>
       </c>
-      <c r="M50" s="25" t="s">
+      <c r="N51" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="N50" s="32"/>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33">
-        <v>1</v>
-      </c>
-      <c r="G51" s="33">
-        <v>1</v>
-      </c>
-      <c r="H51" s="34"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O51" s="32"/>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="45" t="s">
-        <v>83</v>
-      </c>
+      <c r="B52" s="32"/>
       <c r="C52" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33">
-        <v>2</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="32"/>
+      <c r="F52" s="33"/>
       <c r="G52" s="33">
-        <v>2</v>
-      </c>
-      <c r="H52" s="34"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H52" s="33">
+        <v>1</v>
+      </c>
+      <c r="I52" s="34"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33">
-        <v>1</v>
-      </c>
+      <c r="B53" s="32"/>
+      <c r="C53" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="32"/>
+      <c r="F53" s="33"/>
       <c r="G53" s="33">
-        <v>1</v>
-      </c>
-      <c r="H53" s="34"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H53" s="33">
+        <v>2</v>
+      </c>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="45" t="s">
+        <v>84</v>
+      </c>
       <c r="D54" s="32"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33">
-        <v>1</v>
-      </c>
+      <c r="E54" s="32"/>
+      <c r="F54" s="33"/>
       <c r="G54" s="33">
         <v>1</v>
       </c>
-      <c r="H54" s="34"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+      <c r="H54" s="33">
+        <v>1</v>
+      </c>
+      <c r="I54" s="34"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
+      <c r="C55" s="45" t="s">
+        <v>85</v>
+      </c>
       <c r="D55" s="32"/>
-      <c r="E55" s="33"/>
+      <c r="E55" s="32"/>
       <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="G55" s="33">
+        <v>1</v>
+      </c>
+      <c r="H55" s="33">
+        <v>1</v>
+      </c>
+      <c r="I55" s="34"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="39">
-        <f>SUM(I16:I50)</f>
-        <v>752.96</v>
-      </c>
-      <c r="J56" s="44"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="6"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="39">
+        <f>SUM(J16:J51)</f>
+        <v>756.46</v>
+      </c>
+      <c r="K57" s="44"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:O11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A11:P55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J44" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
-    <hyperlink ref="J45" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
-    <hyperlink ref="J46" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
-    <hyperlink ref="J47" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
-    <hyperlink ref="J48" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
-    <hyperlink ref="M49" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
-    <hyperlink ref="M50" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
-    <hyperlink ref="J21" r:id="rId8" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
-    <hyperlink ref="J23" r:id="rId9" display="2x Length: 45mm 4PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
-    <hyperlink ref="J32" r:id="rId10" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
-    <hyperlink ref="J24" r:id="rId11" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
-    <hyperlink ref="M45" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
-    <hyperlink ref="M46" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
-    <hyperlink ref="M47" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
-    <hyperlink ref="J25" r:id="rId15" xr:uid="{A8C5E0F3-B1FB-4E57-8DD8-1DF57CDC1A28}"/>
-    <hyperlink ref="J34" r:id="rId16" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
-    <hyperlink ref="J33" r:id="rId17" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
-    <hyperlink ref="J35" r:id="rId18" display="6pcs Optical Endstop" xr:uid="{0AB90FFF-9946-4F78-93E2-A102C645ECAE}"/>
-    <hyperlink ref="J36" r:id="rId19" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
-    <hyperlink ref="J22" r:id="rId20" xr:uid="{7E1F7424-E58C-4FCB-9D3A-3CB69F34CE9F}"/>
-    <hyperlink ref="J26" r:id="rId21" xr:uid="{755FCD6D-D745-447C-AAA6-2D31A19F9A40}"/>
-    <hyperlink ref="J40" r:id="rId22" xr:uid="{A90E869A-7328-473A-BA20-82979A845F00}"/>
-    <hyperlink ref="J41" r:id="rId23" xr:uid="{37B2932B-CA7B-49AA-9F35-9BCE3D136353}"/>
-    <hyperlink ref="J42" r:id="rId24" xr:uid="{BE140B59-D4B8-46C3-B6EC-BEB5F431781F}"/>
-    <hyperlink ref="J43" r:id="rId25" xr:uid="{54817A0E-3A4B-42D7-AA92-5C84B2F161F2}"/>
-    <hyperlink ref="J37" r:id="rId26" xr:uid="{4F053E16-31A4-458E-B422-7E74FE54E665}"/>
-    <hyperlink ref="M37" r:id="rId27" display="Color: 220V 750W" xr:uid="{6A46011B-C1CA-4A88-AD58-75064F9710C4}"/>
+    <hyperlink ref="K45" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
+    <hyperlink ref="K46" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
+    <hyperlink ref="K47" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
+    <hyperlink ref="K48" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
+    <hyperlink ref="K49" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
+    <hyperlink ref="N50" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
+    <hyperlink ref="N51" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
+    <hyperlink ref="K21" r:id="rId8" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
+    <hyperlink ref="K23" r:id="rId9" display="2x Length: 45mm 4PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
+    <hyperlink ref="K33" r:id="rId10" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
+    <hyperlink ref="K25" r:id="rId11" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
+    <hyperlink ref="N46" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
+    <hyperlink ref="N47" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
+    <hyperlink ref="N48" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
+    <hyperlink ref="K26" r:id="rId15" xr:uid="{A8C5E0F3-B1FB-4E57-8DD8-1DF57CDC1A28}"/>
+    <hyperlink ref="K35" r:id="rId16" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
+    <hyperlink ref="K34" r:id="rId17" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
+    <hyperlink ref="K36" r:id="rId18" display="6pcs Optical Endstop" xr:uid="{0AB90FFF-9946-4F78-93E2-A102C645ECAE}"/>
+    <hyperlink ref="K37" r:id="rId19" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
+    <hyperlink ref="K22" r:id="rId20" xr:uid="{7E1F7424-E58C-4FCB-9D3A-3CB69F34CE9F}"/>
+    <hyperlink ref="K27" r:id="rId21" xr:uid="{755FCD6D-D745-447C-AAA6-2D31A19F9A40}"/>
+    <hyperlink ref="K41" r:id="rId22" xr:uid="{A90E869A-7328-473A-BA20-82979A845F00}"/>
+    <hyperlink ref="K42" r:id="rId23" xr:uid="{37B2932B-CA7B-49AA-9F35-9BCE3D136353}"/>
+    <hyperlink ref="K43" r:id="rId24" xr:uid="{BE140B59-D4B8-46C3-B6EC-BEB5F431781F}"/>
+    <hyperlink ref="K44" r:id="rId25" xr:uid="{54817A0E-3A4B-42D7-AA92-5C84B2F161F2}"/>
+    <hyperlink ref="K38" r:id="rId26" xr:uid="{4F053E16-31A4-458E-B422-7E74FE54E665}"/>
+    <hyperlink ref="N38" r:id="rId27" display="Color: 220V 750W" xr:uid="{6A46011B-C1CA-4A88-AD58-75064F9710C4}"/>
+    <hyperlink ref="K24" r:id="rId28" xr:uid="{D81B7FCC-2A0B-49BE-B9F6-1DF3B108016A}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId28"/>
-  <drawing r:id="rId29"/>
-  <legacyDrawing r:id="rId30"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId29"/>
+  <drawing r:id="rId30"/>
+  <legacyDrawing r:id="rId31"/>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="859" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7E2A21B-D366-43B5-A910-3305D811AB24}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Base Frame BOM 02" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$11:$P$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$P$57</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Roy Berntsen</author>
   </authors>
   <commentList>
-    <comment ref="D34" authorId="0" shapeId="0" xr:uid="{FB4E5E39-3716-46C1-9030-8ED6146980D7}">
+    <comment ref="D34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D41" authorId="0" shapeId="0" xr:uid="{F7999DE5-A231-4BE3-8A97-2FA9AF556EFC}">
+    <comment ref="D41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="135">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -515,19 +509,22 @@
   </si>
   <si>
     <t>Length: 60mm 3PC</t>
+  </si>
+  <si>
+    <t>smooth back, no nubs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1376,7 +1373,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A14C330-9941-4B9D-BB36-3276622CD721}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A14C330-9941-4B9D-BB36-3276622CD721}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1699,24 +1696,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -1735,7 +1732,7 @@
     <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="26.25">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -1755,7 +1752,7 @@
       <c r="O1" s="47"/>
       <c r="P1" s="47"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -1773,40 +1770,40 @@
       <c r="O2" s="48"/>
       <c r="P2" s="48"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:16" s="7" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:16" s="7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
@@ -1856,7 +1853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="26" t="s">
         <v>17</v>
       </c>
@@ -1889,7 +1886,7 @@
       <c r="O12" s="27"/>
       <c r="P12" s="31"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1922,7 +1919,7 @@
       <c r="O13" s="32"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1955,7 +1952,7 @@
       <c r="O14" s="32"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1988,7 +1985,7 @@
       <c r="O15" s="32"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
@@ -2032,7 +2029,7 @@
       <c r="O16" s="8"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -2076,7 +2073,7 @@
       <c r="O17" s="32"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
@@ -2114,7 +2111,7 @@
       <c r="O18" s="23"/>
       <c r="P18" s="12"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -2151,8 +2148,11 @@
       <c r="N19" s="35"/>
       <c r="O19" s="32"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="O20" s="32"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="O21" s="32"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="O22" s="32"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -2318,7 +2318,7 @@
       <c r="O23" s="32"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2360,7 +2360,7 @@
       <c r="O24" s="32"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -2400,7 +2400,7 @@
       <c r="O25" s="32"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -2442,7 +2442,7 @@
       <c r="O26" s="32"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="O27" s="32"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -2519,7 +2519,7 @@
       <c r="O28" s="32"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="O29" s="32"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -2591,7 +2591,7 @@
       <c r="O30" s="32"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -2627,7 +2627,7 @@
       <c r="O31" s="32"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
@@ -2703,7 +2703,7 @@
       <c r="O33" s="32"/>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -2741,7 +2741,7 @@
       <c r="O34" s="32"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
@@ -2779,7 +2779,7 @@
       <c r="O35" s="32"/>
       <c r="P35" s="3"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -2817,7 +2817,7 @@
       <c r="O36" s="32"/>
       <c r="P36" s="3"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -2855,7 +2855,7 @@
       <c r="O37" s="32"/>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
@@ -2899,7 +2899,7 @@
       <c r="O38" s="32"/>
       <c r="P38" s="3"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -2930,7 +2930,7 @@
       <c r="O39" s="32"/>
       <c r="P39" s="3"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -2961,7 +2961,7 @@
       <c r="O40" s="32"/>
       <c r="P40" s="3"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="2" t="s">
         <v>108</v>
       </c>
@@ -2999,7 +2999,7 @@
       <c r="O41" s="32"/>
       <c r="P41" s="3"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="2" t="s">
         <v>108</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="O42" s="32"/>
       <c r="P42" s="3"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="2" t="s">
         <v>113</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="O43" s="32"/>
       <c r="P43" s="3"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="2" t="s">
         <v>113</v>
       </c>
@@ -3113,7 +3113,7 @@
       <c r="O44" s="32"/>
       <c r="P44" s="3"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -3153,7 +3153,7 @@
       <c r="O45" s="32"/>
       <c r="P45" s="3"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -3195,7 +3195,7 @@
       <c r="O46" s="32"/>
       <c r="P46" s="3"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="O47" s="32"/>
       <c r="P47" s="3"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="O48" s="32"/>
       <c r="P48" s="3"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
@@ -3318,7 +3318,7 @@
       <c r="O49" s="32"/>
       <c r="P49" s="3"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" s="2" t="s">
         <v>45</v>
       </c>
@@ -3358,7 +3358,7 @@
       <c r="O50" s="32"/>
       <c r="P50" s="3"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
@@ -3398,7 +3398,7 @@
       <c r="O51" s="32"/>
       <c r="P51" s="3"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="2" t="s">
         <v>81</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="O52" s="32"/>
       <c r="P52" s="3"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" s="2" t="s">
         <v>81</v>
       </c>
@@ -3454,7 +3454,7 @@
       <c r="O53" s="32"/>
       <c r="P53" s="3"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" s="2" t="s">
         <v>81</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="O54" s="32"/>
       <c r="P54" s="3"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" s="2" t="s">
         <v>81</v>
       </c>
@@ -3506,7 +3506,7 @@
       <c r="O55" s="32"/>
       <c r="P55" s="3"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" s="2"/>
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
@@ -3524,7 +3524,7 @@
       <c r="O56" s="32"/>
       <c r="P56" s="3"/>
     </row>
-    <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="15.75" thickBot="1">
       <c r="A57" s="4" t="s">
         <v>51</v>
       </c>
@@ -3552,40 +3552,40 @@
       <c r="P57" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:P55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A11:P55"/>
   <mergeCells count="2">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K45" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
-    <hyperlink ref="K46" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
-    <hyperlink ref="K47" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
-    <hyperlink ref="K48" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
-    <hyperlink ref="K49" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
-    <hyperlink ref="N50" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
-    <hyperlink ref="N51" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
-    <hyperlink ref="K21" r:id="rId8" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
-    <hyperlink ref="K23" r:id="rId9" display="2x Length: 45mm 4PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
-    <hyperlink ref="K33" r:id="rId10" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
-    <hyperlink ref="K25" r:id="rId11" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
-    <hyperlink ref="N46" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
-    <hyperlink ref="N47" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
-    <hyperlink ref="N48" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
-    <hyperlink ref="K26" r:id="rId15" xr:uid="{A8C5E0F3-B1FB-4E57-8DD8-1DF57CDC1A28}"/>
-    <hyperlink ref="K35" r:id="rId16" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
-    <hyperlink ref="K34" r:id="rId17" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
-    <hyperlink ref="K36" r:id="rId18" display="6pcs Optical Endstop" xr:uid="{0AB90FFF-9946-4F78-93E2-A102C645ECAE}"/>
-    <hyperlink ref="K37" r:id="rId19" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
-    <hyperlink ref="K22" r:id="rId20" xr:uid="{7E1F7424-E58C-4FCB-9D3A-3CB69F34CE9F}"/>
-    <hyperlink ref="K27" r:id="rId21" xr:uid="{755FCD6D-D745-447C-AAA6-2D31A19F9A40}"/>
-    <hyperlink ref="K41" r:id="rId22" xr:uid="{A90E869A-7328-473A-BA20-82979A845F00}"/>
-    <hyperlink ref="K42" r:id="rId23" xr:uid="{37B2932B-CA7B-49AA-9F35-9BCE3D136353}"/>
-    <hyperlink ref="K43" r:id="rId24" xr:uid="{BE140B59-D4B8-46C3-B6EC-BEB5F431781F}"/>
-    <hyperlink ref="K44" r:id="rId25" xr:uid="{54817A0E-3A4B-42D7-AA92-5C84B2F161F2}"/>
-    <hyperlink ref="K38" r:id="rId26" xr:uid="{4F053E16-31A4-458E-B422-7E74FE54E665}"/>
-    <hyperlink ref="N38" r:id="rId27" display="Color: 220V 750W" xr:uid="{6A46011B-C1CA-4A88-AD58-75064F9710C4}"/>
-    <hyperlink ref="K24" r:id="rId28" xr:uid="{D81B7FCC-2A0B-49BE-B9F6-1DF3B108016A}"/>
+    <hyperlink ref="K45" r:id="rId1"/>
+    <hyperlink ref="K46" r:id="rId2" display="Link"/>
+    <hyperlink ref="K47" r:id="rId3" display="Link"/>
+    <hyperlink ref="K48" r:id="rId4" display="Link"/>
+    <hyperlink ref="K49" r:id="rId5" display="Link"/>
+    <hyperlink ref="N50" r:id="rId6" display="Compact Powerful Motor"/>
+    <hyperlink ref="N51" r:id="rId7"/>
+    <hyperlink ref="K21" r:id="rId8" display="Link"/>
+    <hyperlink ref="K23" r:id="rId9" display="2x Length: 45mm 4PC"/>
+    <hyperlink ref="K33" r:id="rId10"/>
+    <hyperlink ref="K25" r:id="rId11"/>
+    <hyperlink ref="N46" r:id="rId12" display="Gates"/>
+    <hyperlink ref="N47" r:id="rId13" display="Gates"/>
+    <hyperlink ref="N48" r:id="rId14" display="Pulley 20 Tooth 9mm"/>
+    <hyperlink ref="K26" r:id="rId15"/>
+    <hyperlink ref="K35" r:id="rId16"/>
+    <hyperlink ref="K34" r:id="rId17" display="FYSETC Big Dipper"/>
+    <hyperlink ref="K36" r:id="rId18" display="6pcs Optical Endstop"/>
+    <hyperlink ref="K37" r:id="rId19"/>
+    <hyperlink ref="K22" r:id="rId20"/>
+    <hyperlink ref="K27" r:id="rId21"/>
+    <hyperlink ref="K41" r:id="rId22"/>
+    <hyperlink ref="K42" r:id="rId23"/>
+    <hyperlink ref="K43" r:id="rId24"/>
+    <hyperlink ref="K44" r:id="rId25"/>
+    <hyperlink ref="K38" r:id="rId26"/>
+    <hyperlink ref="N38" r:id="rId27" display="Color: 220V 750W"/>
+    <hyperlink ref="K24" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId29"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="859" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7E2A21B-D366-43B5-A910-3305D811AB24}"/>
+  <xr:revisionPtr revIDLastSave="860" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{146FF297-362F-4734-B3CE-4DD5A49D2953}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1367,7 +1367,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
+      <xdr:colOff>476248</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>161328</xdr:rowOff>
     </xdr:to>
@@ -1397,8 +1397,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4743451" y="352425"/>
-          <a:ext cx="2962273" cy="1666278"/>
+          <a:off x="5391151" y="352425"/>
+          <a:ext cx="2962272" cy="1666278"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1712,8 +1712,8 @@
   </sheetPr>
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="860" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{146FF297-362F-4734-B3CE-4DD5A49D2953}"/>
+  <xr:revisionPtr revIDLastSave="876" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{850D29E6-7F83-4808-A3EA-931A2DFC41ED}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Valkyrie Base Frame BOM 02" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$11:$P$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$10:$P$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$P$57</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="136">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -515,6 +515,12 @@
   </si>
   <si>
     <t>Length: 60mm 3PC</t>
+  </si>
+  <si>
+    <t>D5xL55 M4 Shoulder Screw</t>
+  </si>
+  <si>
+    <t>M4-D5mm - 55mm</t>
   </si>
 </sst>
 </file>
@@ -1360,16 +1366,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476248</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161328</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1397,8 +1403,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5391151" y="352425"/>
-          <a:ext cx="2962272" cy="1666278"/>
+          <a:off x="5324476" y="352425"/>
+          <a:ext cx="2514599" cy="1414462"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1805,109 +1811,142 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:16" s="7" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:16" s="7" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B10" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I10" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J10" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K10" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="N10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="P10" s="19" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="27">
+        <v>500</v>
+      </c>
+      <c r="F11" s="28">
+        <f>G11*E11</f>
+        <v>500</v>
+      </c>
+      <c r="G11" s="28">
+        <v>1</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="31"/>
+    </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="27">
-        <v>500</v>
-      </c>
-      <c r="F12" s="28">
+      <c r="C12" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="32">
+        <v>420</v>
+      </c>
+      <c r="F12" s="33">
         <f>G12*E12</f>
-        <v>500</v>
-      </c>
-      <c r="G12" s="28">
-        <v>1</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="31"/>
+        <v>1680</v>
+      </c>
+      <c r="G12" s="33">
+        <v>4</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="45" t="s">
         <v>129</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="32">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="F13" s="33">
-        <f>G13*E13</f>
-        <v>1680</v>
+        <f t="shared" ref="F13:F14" si="0">G13*E13</f>
+        <v>1840</v>
       </c>
       <c r="G13" s="33">
         <v>4</v>
@@ -1933,14 +1972,14 @@
         <v>20</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="32">
-        <v>460</v>
+        <v>700</v>
       </c>
       <c r="F14" s="33">
-        <f t="shared" ref="F14:F15" si="0">G14*E14</f>
-        <v>1840</v>
+        <f t="shared" si="0"/>
+        <v>2800</v>
       </c>
       <c r="G14" s="33">
         <v>4</v>
@@ -1956,163 +1995,168 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1500</v>
+      </c>
+      <c r="F15" s="20">
+        <f>F12+F13+F14</f>
+        <v>6320</v>
+      </c>
+      <c r="G15" s="21">
+        <f>F15/E15</f>
+        <v>4.2133333333333329</v>
+      </c>
+      <c r="H15" s="22">
+        <v>5</v>
+      </c>
+      <c r="I15" s="13">
+        <v>23.2</v>
+      </c>
+      <c r="J15" s="15">
+        <f>H15*I15</f>
+        <v>116</v>
+      </c>
+      <c r="K15" s="40"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="35">
+        <f t="shared" ref="M15:M45" si="1">L15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="15"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="32">
+        <v>500</v>
+      </c>
+      <c r="F16" s="36">
+        <f>F11</f>
+        <v>500</v>
+      </c>
+      <c r="G16" s="32">
+        <f>F16/E16</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="37">
+        <v>1</v>
+      </c>
+      <c r="I16" s="34">
+        <v>6</v>
+      </c>
+      <c r="J16" s="35">
+        <f>H16*I16</f>
+        <v>6</v>
+      </c>
+      <c r="K16" s="41"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="35"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="32">
-        <v>700</v>
-      </c>
-      <c r="F15" s="33">
-        <f t="shared" si="0"/>
-        <v>2800</v>
-      </c>
-      <c r="G15" s="33">
-        <v>4</v>
-      </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="D17" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24">
+        <v>12</v>
+      </c>
+      <c r="H17" s="24">
+        <v>12</v>
+      </c>
+      <c r="I17" s="14">
+        <v>2</v>
+      </c>
+      <c r="J17" s="16">
+        <f>H17*I17</f>
         <v>24</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1500</v>
-      </c>
-      <c r="F16" s="20">
-        <f>F13+F14+F15</f>
-        <v>6320</v>
-      </c>
-      <c r="G16" s="21">
-        <f>F16/E16</f>
-        <v>4.2133333333333329</v>
-      </c>
-      <c r="H16" s="22">
-        <v>5</v>
-      </c>
-      <c r="I16" s="13">
-        <v>23.2</v>
-      </c>
-      <c r="J16" s="15">
-        <f>H16*I16</f>
-        <v>116</v>
-      </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="35">
-        <f t="shared" ref="M16:M45" si="1">L16*H16</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="32">
-        <v>500</v>
-      </c>
-      <c r="F17" s="36">
-        <f>F12</f>
-        <v>500</v>
-      </c>
-      <c r="G17" s="32">
-        <f>F17/E17</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="37">
-        <v>1</v>
-      </c>
-      <c r="I17" s="34">
-        <v>6</v>
-      </c>
-      <c r="J17" s="35">
-        <f>H17*I17</f>
-        <v>6</v>
-      </c>
-      <c r="K17" s="41"/>
-      <c r="L17" s="35"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="16"/>
       <c r="M17" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N17" s="35"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="3"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="12"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24">
-        <v>12</v>
-      </c>
-      <c r="H18" s="24">
-        <v>12</v>
-      </c>
-      <c r="I18" s="14">
-        <v>2</v>
-      </c>
-      <c r="J18" s="16">
+      <c r="C18" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33">
+        <v>6</v>
+      </c>
+      <c r="H18" s="33">
+        <v>10</v>
+      </c>
+      <c r="I18" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="J18" s="35">
         <f>H18*I18</f>
-        <v>24</v>
-      </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="K18" s="42"/>
+      <c r="L18" s="35"/>
       <c r="M18" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="12"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -2125,24 +2169,24 @@
         <v>29</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="33"/>
       <c r="G19" s="33">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H19" s="33">
-        <v>10</v>
-      </c>
-      <c r="I19" s="38">
-        <v>0.8</v>
+        <v>32</v>
+      </c>
+      <c r="I19" s="34">
+        <v>1.03</v>
       </c>
       <c r="J19" s="35">
-        <f>H19*I19</f>
-        <v>8</v>
-      </c>
-      <c r="K19" s="42"/>
+        <f t="shared" ref="J19:J51" si="2">H19*I19</f>
+        <v>32.96</v>
+      </c>
+      <c r="K19" s="3"/>
       <c r="L19" s="35"/>
       <c r="M19" s="35">
         <f t="shared" si="1"/>
@@ -2160,27 +2204,33 @@
         <v>129</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
+        <v>33</v>
+      </c>
+      <c r="E20" s="32">
+        <v>410</v>
+      </c>
+      <c r="F20" s="33">
+        <v>500</v>
+      </c>
       <c r="G20" s="33">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="H20" s="33">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="I20" s="34">
-        <v>1.03</v>
+        <v>20</v>
       </c>
       <c r="J20" s="35">
-        <f t="shared" ref="J20:J51" si="2">H20*I20</f>
-        <v>32.96</v>
-      </c>
-      <c r="K20" s="3"/>
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>69</v>
+      </c>
       <c r="L20" s="35"/>
       <c r="M20" s="35">
         <f t="shared" si="1"/>
@@ -2195,35 +2245,33 @@
         <v>17</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>33</v>
+        <v>130</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>60</v>
       </c>
       <c r="E21" s="32">
-        <v>410</v>
-      </c>
-      <c r="F21" s="33">
-        <v>500</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F21" s="33"/>
       <c r="G21" s="33">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H21" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" s="34">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J21" s="35">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K21" s="43" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="L21" s="35"/>
       <c r="M21" s="35">
@@ -2239,33 +2287,33 @@
         <v>17</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="45" t="s">
-        <v>60</v>
+      <c r="D22" s="32" t="s">
+        <v>127</v>
       </c>
       <c r="E22" s="32">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H22" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" s="34">
         <v>3</v>
       </c>
       <c r="J22" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K22" s="43" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="L22" s="35"/>
       <c r="M22" s="35">
@@ -2283,31 +2331,31 @@
       <c r="B23" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="32">
-        <v>50</v>
+      <c r="D23" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="45">
+        <v>60</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H23" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="34">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J23" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="K23" s="43" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="L23" s="35"/>
       <c r="M23" s="35">
@@ -2325,15 +2373,13 @@
       <c r="B24" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="45">
-        <v>60</v>
-      </c>
+      <c r="C24" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="32"/>
       <c r="F24" s="33"/>
       <c r="G24" s="33">
         <v>3</v>
@@ -2342,14 +2388,14 @@
         <v>1</v>
       </c>
       <c r="I24" s="34">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J24" s="35">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K24" s="43" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="L24" s="35"/>
       <c r="M24" s="35">
@@ -2367,29 +2413,31 @@
       <c r="B25" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="32"/>
+      <c r="C25" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>93</v>
+      </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33">
-        <v>3</v>
+        <v>1225</v>
       </c>
       <c r="H25" s="33">
-        <v>1</v>
+        <v>1225</v>
       </c>
       <c r="I25" s="34">
-        <v>3</v>
+        <v>0.08</v>
       </c>
       <c r="J25" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="K25" s="43" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="L25" s="35"/>
       <c r="M25" s="35">
@@ -2408,30 +2456,30 @@
         <v>131</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>93</v>
+        <v>106</v>
+      </c>
+      <c r="E26" s="45">
+        <v>30</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33">
-        <v>1225</v>
+        <v>3</v>
       </c>
       <c r="H26" s="33">
-        <v>1225</v>
+        <v>2</v>
       </c>
       <c r="I26" s="34">
-        <v>0.08</v>
+        <v>2.5</v>
       </c>
       <c r="J26" s="35">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="K26" s="43" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="L26" s="35"/>
       <c r="M26" s="35">
@@ -2444,37 +2492,30 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B27" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="45">
-        <v>30</v>
+      <c r="C27" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="32">
+        <v>20</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33">
         <v>3</v>
       </c>
       <c r="H27" s="33">
-        <v>2</v>
-      </c>
-      <c r="I27" s="34">
-        <v>2.5</v>
-      </c>
-      <c r="J27" s="35">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="K27" s="43" t="s">
-        <v>107</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" s="34"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="43"/>
       <c r="L27" s="35"/>
       <c r="M27" s="35">
         <f t="shared" si="1"/>
@@ -2488,28 +2529,29 @@
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="45" t="s">
-        <v>131</v>
-      </c>
+      <c r="B28" s="32"/>
       <c r="C28" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="32">
-        <v>20</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E28" s="32"/>
       <c r="F28" s="33"/>
       <c r="G28" s="33">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="H28" s="33">
-        <v>3</v>
-      </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="43"/>
+        <v>100</v>
+      </c>
+      <c r="I28" s="34">
+        <v>0.11</v>
+      </c>
+      <c r="J28" s="35">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="K28" s="3"/>
       <c r="L28" s="35"/>
       <c r="M28" s="35">
         <f t="shared" si="1"/>
@@ -2525,25 +2567,25 @@
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="33"/>
       <c r="G29" s="33">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="H29" s="33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I29" s="34">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="J29" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="35"/>
@@ -2561,25 +2603,25 @@
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="H30" s="33">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I30" s="34">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J30" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="35"/>
@@ -2597,10 +2639,10 @@
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="33"/>
@@ -2611,11 +2653,11 @@
         <v>100</v>
       </c>
       <c r="I31" s="34">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="J31" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="35"/>
@@ -2625,35 +2667,41 @@
       </c>
       <c r="N31" s="35"/>
       <c r="O31" s="32"/>
-      <c r="P31" s="3"/>
+      <c r="P31" s="3">
+        <v>7380</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32" t="s">
+      <c r="B32" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="32" t="s">
-        <v>59</v>
+      <c r="D32" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="E32" s="32"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="H32" s="33">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="I32" s="34">
-        <v>0.21</v>
+        <v>4</v>
       </c>
       <c r="J32" s="35">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="K32" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="K32" s="43" t="s">
+        <v>135</v>
+      </c>
       <c r="L32" s="35"/>
       <c r="M32" s="35">
         <f t="shared" si="1"/>
@@ -2661,9 +2709,7 @@
       </c>
       <c r="N32" s="35"/>
       <c r="O32" s="32"/>
-      <c r="P32" s="3">
-        <v>7380</v>
-      </c>
+      <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -3541,8 +3587,8 @@
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="39">
-        <f>SUM(J16:J51)</f>
-        <v>756.46</v>
+        <f>SUM(J15:J51)</f>
+        <v>768.46</v>
       </c>
       <c r="K57" s="44"/>
       <c r="L57" s="39"/>
@@ -3552,7 +3598,7 @@
       <c r="P57" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:P55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A10:P55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
@@ -3565,31 +3611,32 @@
     <hyperlink ref="K49" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
     <hyperlink ref="N50" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
     <hyperlink ref="N51" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
-    <hyperlink ref="K21" r:id="rId8" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
-    <hyperlink ref="K23" r:id="rId9" display="2x Length: 45mm 4PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
+    <hyperlink ref="K20" r:id="rId8" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
+    <hyperlink ref="K22" r:id="rId9" display="2x Length: 45mm 4PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
     <hyperlink ref="K33" r:id="rId10" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
-    <hyperlink ref="K25" r:id="rId11" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
+    <hyperlink ref="K24" r:id="rId11" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
     <hyperlink ref="N46" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
     <hyperlink ref="N47" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
     <hyperlink ref="N48" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
-    <hyperlink ref="K26" r:id="rId15" xr:uid="{A8C5E0F3-B1FB-4E57-8DD8-1DF57CDC1A28}"/>
+    <hyperlink ref="K25" r:id="rId15" xr:uid="{A8C5E0F3-B1FB-4E57-8DD8-1DF57CDC1A28}"/>
     <hyperlink ref="K35" r:id="rId16" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
     <hyperlink ref="K34" r:id="rId17" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
     <hyperlink ref="K36" r:id="rId18" display="6pcs Optical Endstop" xr:uid="{0AB90FFF-9946-4F78-93E2-A102C645ECAE}"/>
     <hyperlink ref="K37" r:id="rId19" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
-    <hyperlink ref="K22" r:id="rId20" xr:uid="{7E1F7424-E58C-4FCB-9D3A-3CB69F34CE9F}"/>
-    <hyperlink ref="K27" r:id="rId21" xr:uid="{755FCD6D-D745-447C-AAA6-2D31A19F9A40}"/>
+    <hyperlink ref="K21" r:id="rId20" xr:uid="{7E1F7424-E58C-4FCB-9D3A-3CB69F34CE9F}"/>
+    <hyperlink ref="K26" r:id="rId21" xr:uid="{755FCD6D-D745-447C-AAA6-2D31A19F9A40}"/>
     <hyperlink ref="K41" r:id="rId22" xr:uid="{A90E869A-7328-473A-BA20-82979A845F00}"/>
     <hyperlink ref="K42" r:id="rId23" xr:uid="{37B2932B-CA7B-49AA-9F35-9BCE3D136353}"/>
     <hyperlink ref="K43" r:id="rId24" xr:uid="{BE140B59-D4B8-46C3-B6EC-BEB5F431781F}"/>
     <hyperlink ref="K44" r:id="rId25" xr:uid="{54817A0E-3A4B-42D7-AA92-5C84B2F161F2}"/>
     <hyperlink ref="K38" r:id="rId26" xr:uid="{4F053E16-31A4-458E-B422-7E74FE54E665}"/>
     <hyperlink ref="N38" r:id="rId27" display="Color: 220V 750W" xr:uid="{6A46011B-C1CA-4A88-AD58-75064F9710C4}"/>
-    <hyperlink ref="K24" r:id="rId28" xr:uid="{D81B7FCC-2A0B-49BE-B9F6-1DF3B108016A}"/>
+    <hyperlink ref="K23" r:id="rId28" xr:uid="{D81B7FCC-2A0B-49BE-B9F6-1DF3B108016A}"/>
+    <hyperlink ref="K32" r:id="rId29" xr:uid="{B9B35946-F710-4A9B-AA0F-C3E1EB8A9B02}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId29"/>
-  <drawing r:id="rId30"/>
-  <legacyDrawing r:id="rId31"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId30"/>
+  <drawing r:id="rId31"/>
+  <legacyDrawing r:id="rId32"/>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="876" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{850D29E6-7F83-4808-A3EA-931A2DFC41ED}"/>
+  <xr:revisionPtr revIDLastSave="965" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04E794C4-8751-4AD6-B185-AD5396BF6287}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="140">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -172,9 +172,6 @@
     <t>T-Slot 2020</t>
   </si>
   <si>
-    <t>2020 Z Center Back 500</t>
-  </si>
-  <si>
     <t>T-Slot 2040</t>
   </si>
   <si>
@@ -226,9 +223,6 @@
     <t>Nut</t>
   </si>
   <si>
-    <t>M5 T-Nut</t>
-  </si>
-  <si>
     <t>T-Nut</t>
   </si>
   <si>
@@ -283,21 +277,12 @@
     <t>Size: 10pc</t>
   </si>
   <si>
-    <t>M4x20</t>
-  </si>
-  <si>
-    <t>M5 Drop In T-Nut</t>
-  </si>
-  <si>
     <t>5mm Stop Washer</t>
   </si>
   <si>
     <t>M5x10 Button Head Screw</t>
   </si>
   <si>
-    <t>5x40mm Bearing Shaft</t>
-  </si>
-  <si>
     <t>1x 8M Heat resistant</t>
   </si>
   <si>
@@ -496,9 +481,6 @@
     <t>Color: 110/220V 750W</t>
   </si>
   <si>
-    <t>5x50mm Bearing Shaft</t>
-  </si>
-  <si>
     <t>System</t>
   </si>
   <si>
@@ -511,16 +493,46 @@
     <t>Z</t>
   </si>
   <si>
-    <t>5x60mm Bearing Shaft</t>
-  </si>
-  <si>
-    <t>Length: 60mm 3PC</t>
-  </si>
-  <si>
-    <t>D5xL55 M4 Shoulder Screw</t>
-  </si>
-  <si>
     <t>M4-D5mm - 55mm</t>
+  </si>
+  <si>
+    <t>5x50mm Rod For Ball Joint</t>
+  </si>
+  <si>
+    <t>5x40mm Rod For AB Idlers</t>
+  </si>
+  <si>
+    <t>M4x20 Countersink for Ball Joints</t>
+  </si>
+  <si>
+    <t>M5 T-Nut For Frame Assembly</t>
+  </si>
+  <si>
+    <t>M5 Drop In T-Nut For Part Assembly</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>2020 X Rear Top</t>
+  </si>
+  <si>
+    <t>2020 Z Center Rear</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AC/DC</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>5mm Shoulder Screw For Z Gear</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1249,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1289,11 +1301,27 @@
     </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="42" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1367,13 +1395,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>638176</xdr:colOff>
+      <xdr:colOff>657226</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>781050</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
@@ -1403,7 +1431,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5324476" y="352425"/>
+          <a:off x="5295901" y="352425"/>
           <a:ext cx="2514599" cy="1414462"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1725,9 +1753,9 @@
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" customWidth="1"/>
@@ -1742,53 +1770,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1817,7 +1840,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>6</v>
@@ -1838,13 +1861,13 @@
         <v>11</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L10" s="18" t="s">
         <v>12</v>
@@ -1867,20 +1890,20 @@
         <v>17</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>19</v>
+      <c r="D11" s="44" t="s">
+        <v>134</v>
       </c>
       <c r="E11" s="27">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="F11" s="28">
         <f>G11*E11</f>
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="G11" s="28">
         <v>1</v>
@@ -1900,23 +1923,24 @@
         <v>17</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="E12" s="32">
+        <f>E13</f>
         <v>420</v>
       </c>
       <c r="F12" s="33">
         <f>G12*E12</f>
-        <v>1680</v>
+        <v>420</v>
       </c>
       <c r="G12" s="33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
@@ -1932,21 +1956,21 @@
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>129</v>
+      <c r="B13" s="32" t="s">
+        <v>123</v>
       </c>
       <c r="C13" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>22</v>
-      </c>
       <c r="E13" s="32">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="F13" s="33">
-        <f t="shared" ref="F13:F14" si="0">G13*E13</f>
-        <v>1840</v>
+        <f>G13*E13</f>
+        <v>1680</v>
       </c>
       <c r="G13" s="33">
         <v>4</v>
@@ -1965,21 +1989,21 @@
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="45" t="s">
-        <v>129</v>
+      <c r="B14" s="42" t="s">
+        <v>123</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="32">
-        <v>700</v>
+        <v>460</v>
       </c>
       <c r="F14" s="33">
-        <f t="shared" si="0"/>
-        <v>2800</v>
+        <f>G14*E14</f>
+        <v>1840</v>
       </c>
       <c r="G14" s="33">
         <v>4</v>
@@ -1995,198 +2019,195 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="32">
+        <v>700</v>
+      </c>
+      <c r="F15" s="33">
+        <f>G15*E15</f>
+        <v>2800</v>
+      </c>
+      <c r="G15" s="33">
+        <v>4</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E16" s="8">
+        <v>1500</v>
+      </c>
+      <c r="F16" s="20">
+        <f>F13+F14+F15</f>
+        <v>6320</v>
+      </c>
+      <c r="G16" s="21">
+        <f>F16/E16</f>
+        <v>4.2133333333333329</v>
+      </c>
+      <c r="H16" s="22">
+        <v>5</v>
+      </c>
+      <c r="I16" s="13">
+        <v>23.2</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" ref="J16:J26" si="0">H16*I16</f>
+        <v>116</v>
+      </c>
+      <c r="K16" s="40"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="35">
+        <f t="shared" ref="M16:M48" si="1">L16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="15"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="8">
-        <v>1500</v>
-      </c>
-      <c r="F15" s="20">
-        <f>F12+F13+F14</f>
-        <v>6320</v>
-      </c>
-      <c r="G15" s="21">
-        <f>F15/E15</f>
-        <v>4.2133333333333329</v>
-      </c>
-      <c r="H15" s="22">
-        <v>5</v>
-      </c>
-      <c r="I15" s="13">
-        <v>23.2</v>
-      </c>
-      <c r="J15" s="15">
-        <f>H15*I15</f>
-        <v>116</v>
-      </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="35">
-        <f t="shared" ref="M15:M45" si="1">L15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="10"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="32" t="s">
+      <c r="D17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="32">
-        <v>500</v>
-      </c>
-      <c r="F16" s="36">
-        <f>F11</f>
-        <v>500</v>
-      </c>
-      <c r="G16" s="32">
-        <f>F16/E16</f>
+      <c r="E17" s="32">
+        <v>750</v>
+      </c>
+      <c r="F17" s="36">
+        <f>SUM(F11:F12)</f>
+        <v>750</v>
+      </c>
+      <c r="G17" s="32">
+        <f>F17/E17</f>
         <v>1</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H17" s="37">
         <v>1</v>
       </c>
-      <c r="I16" s="34">
-        <v>6</v>
-      </c>
-      <c r="J16" s="35">
-        <f>H16*I16</f>
-        <v>6</v>
-      </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="35"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24">
-        <v>12</v>
-      </c>
-      <c r="H17" s="24">
-        <v>12</v>
-      </c>
-      <c r="I17" s="14">
-        <v>2</v>
-      </c>
-      <c r="J17" s="16">
-        <f>H17*I17</f>
-        <v>24</v>
-      </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="16"/>
+      <c r="I17" s="34">
+        <v>9</v>
+      </c>
+      <c r="J17" s="35">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K17" s="41">
+        <v>2020</v>
+      </c>
+      <c r="L17" s="35"/>
       <c r="M17" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="12"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33">
-        <v>6</v>
-      </c>
-      <c r="H18" s="33">
-        <v>10</v>
-      </c>
-      <c r="I18" s="38">
-        <v>0.8</v>
-      </c>
-      <c r="J18" s="35">
-        <f>H18*I18</f>
-        <v>8</v>
-      </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="35"/>
+      <c r="B18" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24">
+        <v>12</v>
+      </c>
+      <c r="H18" s="24">
+        <v>12</v>
+      </c>
+      <c r="I18" s="14">
+        <v>2</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="16"/>
       <c r="M18" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="35"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="3"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="12"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="45" t="s">
-        <v>129</v>
+      <c r="B19" s="42" t="s">
+        <v>123</v>
       </c>
       <c r="C19" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="32" t="s">
         <v>29</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>31</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="33"/>
       <c r="G19" s="33">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H19" s="33">
-        <v>32</v>
-      </c>
-      <c r="I19" s="34">
-        <v>1.03</v>
+        <v>10</v>
+      </c>
+      <c r="I19" s="38">
+        <v>0.8</v>
       </c>
       <c r="J19" s="35">
-        <f t="shared" ref="J19:J51" si="2">H19*I19</f>
-        <v>32.96</v>
-      </c>
-      <c r="K19" s="3"/>
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K19" s="46"/>
       <c r="L19" s="35"/>
       <c r="M19" s="35">
         <f t="shared" si="1"/>
@@ -2200,37 +2221,31 @@
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="45" t="s">
-        <v>129</v>
+      <c r="B20" s="42" t="s">
+        <v>123</v>
       </c>
       <c r="C20" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33">
         <v>32</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="32">
-        <v>410</v>
-      </c>
-      <c r="F20" s="33">
-        <v>500</v>
-      </c>
-      <c r="G20" s="33">
-        <v>1</v>
-      </c>
       <c r="H20" s="33">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I20" s="34">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="J20" s="35">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="K20" s="43" t="s">
-        <v>69</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>32.96</v>
+      </c>
+      <c r="K20" s="47"/>
       <c r="L20" s="35"/>
       <c r="M20" s="35">
         <f t="shared" si="1"/>
@@ -2244,34 +2259,36 @@
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>60</v>
+      <c r="B21" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="E21" s="32">
-        <v>40</v>
-      </c>
-      <c r="F21" s="33"/>
+        <v>410</v>
+      </c>
+      <c r="F21" s="33">
+        <v>500</v>
+      </c>
       <c r="G21" s="33">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H21" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21" s="34">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J21" s="35">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="K21" s="43" t="s">
-        <v>104</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>64</v>
       </c>
       <c r="L21" s="35"/>
       <c r="M21" s="35">
@@ -2286,34 +2303,34 @@
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>127</v>
+      <c r="B22" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>128</v>
       </c>
       <c r="E22" s="32">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H22" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" s="34">
         <v>3</v>
       </c>
       <c r="J22" s="35">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="K22" s="43" t="s">
-        <v>118</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>99</v>
       </c>
       <c r="L22" s="35"/>
       <c r="M22" s="35">
@@ -2328,34 +2345,34 @@
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="45">
-        <v>60</v>
+      <c r="B23" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="32">
+        <v>50</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33">
+        <v>6</v>
+      </c>
+      <c r="H23" s="33">
+        <v>2</v>
+      </c>
+      <c r="I23" s="34">
         <v>3</v>
       </c>
-      <c r="H23" s="33">
-        <v>1</v>
-      </c>
-      <c r="I23" s="34">
-        <v>3.5</v>
-      </c>
       <c r="J23" s="35">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-      <c r="K23" s="43" t="s">
-        <v>133</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K23" s="48" t="s">
+        <v>113</v>
       </c>
       <c r="L23" s="35"/>
       <c r="M23" s="35">
@@ -2370,14 +2387,14 @@
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="45" t="s">
-        <v>131</v>
+      <c r="B24" s="42" t="s">
+        <v>125</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="33"/>
@@ -2391,11 +2408,11 @@
         <v>3</v>
       </c>
       <c r="J24" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K24" s="43" t="s">
-        <v>55</v>
+      <c r="K24" s="48" t="s">
+        <v>53</v>
       </c>
       <c r="L24" s="35"/>
       <c r="M24" s="35">
@@ -2410,17 +2427,17 @@
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="45" t="s">
+      <c r="B25" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="32" t="s">
         <v>88</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>93</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33">
@@ -2433,18 +2450,22 @@
         <v>0.08</v>
       </c>
       <c r="J25" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="K25" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="L25" s="35"/>
+      <c r="K25" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" s="35">
+        <v>0.08</v>
+      </c>
       <c r="M25" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="35"/>
+        <v>98</v>
+      </c>
+      <c r="N25" s="43" t="s">
+        <v>86</v>
+      </c>
       <c r="O25" s="32"/>
       <c r="P25" s="3"/>
     </row>
@@ -2452,16 +2473,16 @@
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="45">
+      <c r="B26" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="42">
         <v>30</v>
       </c>
       <c r="F26" s="33"/>
@@ -2475,11 +2496,11 @@
         <v>2.5</v>
       </c>
       <c r="J26" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K26" s="43" t="s">
-        <v>107</v>
+      <c r="K26" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="L26" s="35"/>
       <c r="M26" s="35">
@@ -2492,16 +2513,16 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>131</v>
+        <v>34</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>125</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="E27" s="32">
         <v>20</v>
@@ -2515,7 +2536,7 @@
       </c>
       <c r="I27" s="34"/>
       <c r="J27" s="35"/>
-      <c r="K27" s="43"/>
+      <c r="K27" s="48"/>
       <c r="L27" s="35"/>
       <c r="M27" s="35">
         <f t="shared" si="1"/>
@@ -2527,14 +2548,16 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32" t="s">
-        <v>36</v>
-      </c>
       <c r="D28" s="32" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="33"/>
@@ -2548,10 +2571,10 @@
         <v>0.11</v>
       </c>
       <c r="J28" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J28:J38" si="2">H28*I28</f>
         <v>11</v>
       </c>
-      <c r="K28" s="3"/>
+      <c r="K28" s="47"/>
       <c r="L28" s="35"/>
       <c r="M28" s="35">
         <f t="shared" si="1"/>
@@ -2563,14 +2586,16 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="32"/>
+        <v>34</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>123</v>
+      </c>
       <c r="C29" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="33"/>
@@ -2587,7 +2612,7 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K29" s="3"/>
+      <c r="K29" s="47"/>
       <c r="L29" s="35"/>
       <c r="M29" s="35">
         <f t="shared" si="1"/>
@@ -2599,14 +2624,16 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="32"/>
+        <v>34</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>123</v>
+      </c>
       <c r="C30" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="33"/>
@@ -2623,7 +2650,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K30" s="3"/>
+      <c r="K30" s="47"/>
       <c r="L30" s="35"/>
       <c r="M30" s="35">
         <f t="shared" si="1"/>
@@ -2635,14 +2662,16 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="32"/>
+        <v>34</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>123</v>
+      </c>
       <c r="C31" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="33"/>
@@ -2659,7 +2688,7 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="K31" s="3"/>
+      <c r="K31" s="47"/>
       <c r="L31" s="35"/>
       <c r="M31" s="35">
         <f t="shared" si="1"/>
@@ -2673,16 +2702,16 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>134</v>
+        <v>125</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>139</v>
       </c>
       <c r="E32" s="32"/>
       <c r="F32" s="33"/>
@@ -2699,8 +2728,8 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="K32" s="43" t="s">
-        <v>135</v>
+      <c r="K32" s="48" t="s">
+        <v>126</v>
       </c>
       <c r="L32" s="35"/>
       <c r="M32" s="35">
@@ -2713,14 +2742,16 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="32" t="s">
         <v>41</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>43</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="33"/>
@@ -2734,11 +2765,11 @@
         <v>70</v>
       </c>
       <c r="J33" s="35">
-        <f t="shared" ref="J33:J44" si="3">H33*I33</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K33" s="43" t="s">
-        <v>44</v>
+      <c r="K33" s="48" t="s">
+        <v>42</v>
       </c>
       <c r="L33" s="35"/>
       <c r="M33" s="35">
@@ -2751,14 +2782,16 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>96</v>
+        <v>39</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>91</v>
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="33"/>
@@ -2772,11 +2805,11 @@
         <v>71</v>
       </c>
       <c r="J34" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K34" s="43" t="s">
-        <v>97</v>
+      <c r="K34" s="48" t="s">
+        <v>92</v>
       </c>
       <c r="L34" s="35"/>
       <c r="M34" s="35">
@@ -2789,14 +2822,16 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="42" t="s">
         <v>94</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>99</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="33"/>
@@ -2810,11 +2845,11 @@
         <v>23</v>
       </c>
       <c r="J35" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="K35" s="43" t="s">
-        <v>95</v>
+      <c r="K35" s="48" t="s">
+        <v>90</v>
       </c>
       <c r="L35" s="35"/>
       <c r="M35" s="35">
@@ -2827,14 +2862,16 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>100</v>
+        <v>39</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>95</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="33"/>
@@ -2848,11 +2885,11 @@
         <v>2</v>
       </c>
       <c r="J36" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K36" s="43" t="s">
-        <v>101</v>
+      <c r="K36" s="48" t="s">
+        <v>96</v>
       </c>
       <c r="L36" s="35"/>
       <c r="M36" s="35">
@@ -2865,14 +2902,16 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>102</v>
+        <v>39</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>97</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="33"/>
@@ -2886,11 +2925,11 @@
         <v>7.5</v>
       </c>
       <c r="J37" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="K37" s="43" t="s">
-        <v>103</v>
+      <c r="K37" s="48" t="s">
+        <v>98</v>
       </c>
       <c r="L37" s="35"/>
       <c r="M37" s="35">
@@ -2903,14 +2942,16 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>121</v>
+        <v>39</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>116</v>
       </c>
       <c r="E38" s="32">
         <v>310</v>
@@ -2926,11 +2967,11 @@
         <v>23.5</v>
       </c>
       <c r="J38" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23.5</v>
       </c>
-      <c r="K38" s="43" t="s">
-        <v>122</v>
+      <c r="K38" s="48" t="s">
+        <v>117</v>
       </c>
       <c r="L38" s="35">
         <v>75</v>
@@ -2940,21 +2981,23 @@
         <v>75</v>
       </c>
       <c r="N38" s="25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O38" s="32"/>
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>123</v>
+        <v>39</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>118</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="33"/>
@@ -2966,7 +3009,7 @@
       </c>
       <c r="I39" s="34"/>
       <c r="J39" s="35"/>
-      <c r="K39" s="43"/>
+      <c r="K39" s="48"/>
       <c r="L39" s="35"/>
       <c r="M39" s="35">
         <f t="shared" si="1"/>
@@ -2978,14 +3021,16 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>125</v>
+        <v>39</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>120</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="33"/>
@@ -2997,7 +3042,7 @@
       </c>
       <c r="I40" s="34"/>
       <c r="J40" s="35"/>
-      <c r="K40" s="43"/>
+      <c r="K40" s="48"/>
       <c r="L40" s="35"/>
       <c r="M40" s="35">
         <f t="shared" si="1"/>
@@ -3009,14 +3054,16 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="45" t="s">
-        <v>109</v>
+        <v>103</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>104</v>
       </c>
       <c r="E41" s="32"/>
       <c r="F41" s="33"/>
@@ -3030,11 +3077,11 @@
         <v>30</v>
       </c>
       <c r="J41" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J41:J51" si="3">H41*I41</f>
         <v>0</v>
       </c>
-      <c r="K41" s="43" t="s">
-        <v>110</v>
+      <c r="K41" s="48" t="s">
+        <v>105</v>
       </c>
       <c r="L41" s="35"/>
       <c r="M41" s="35">
@@ -3047,14 +3094,16 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="45" t="s">
-        <v>111</v>
+        <v>103</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>106</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="33"/>
@@ -3071,8 +3120,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K42" s="43" t="s">
-        <v>112</v>
+      <c r="K42" s="48" t="s">
+        <v>107</v>
       </c>
       <c r="L42" s="35"/>
       <c r="M42" s="35">
@@ -3085,14 +3134,16 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="45" t="s">
-        <v>114</v>
+        <v>108</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>109</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="33"/>
@@ -3109,8 +3160,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K43" s="43" t="s">
-        <v>115</v>
+      <c r="K43" s="48" t="s">
+        <v>110</v>
       </c>
       <c r="L43" s="35"/>
       <c r="M43" s="35">
@@ -3123,14 +3174,16 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>116</v>
+        <v>108</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>111</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="33"/>
@@ -3138,17 +3191,17 @@
         <v>1</v>
       </c>
       <c r="H44" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="34">
         <v>100</v>
       </c>
       <c r="J44" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="43" t="s">
-        <v>117</v>
+        <v>100</v>
+      </c>
+      <c r="K44" s="48" t="s">
+        <v>112</v>
       </c>
       <c r="L44" s="35"/>
       <c r="M44" s="35">
@@ -3161,14 +3214,14 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="32"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="42"/>
       <c r="C45" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E45" s="32">
         <v>100</v>
@@ -3184,11 +3237,11 @@
         <v>39</v>
       </c>
       <c r="J45" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="K45" s="43" t="s">
-        <v>61</v>
+      <c r="K45" s="48" t="s">
+        <v>56</v>
       </c>
       <c r="L45" s="35"/>
       <c r="M45" s="35">
@@ -3201,14 +3254,14 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="42"/>
+      <c r="C46" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="D46" s="32" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="33"/>
@@ -3222,35 +3275,35 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J46" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="K46" s="43" t="s">
-        <v>62</v>
+      <c r="K46" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="L46" s="35">
         <v>5.5</v>
       </c>
       <c r="M46" s="35">
-        <f>L46*H46</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="N46" s="25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O46" s="32"/>
       <c r="P46" s="3"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="42"/>
+      <c r="C47" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="D47" s="32" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="33"/>
@@ -3264,35 +3317,35 @@
         <v>6</v>
       </c>
       <c r="J47" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K47" s="43" t="s">
-        <v>63</v>
+      <c r="K47" s="48" t="s">
+        <v>58</v>
       </c>
       <c r="L47" s="35">
         <v>7</v>
       </c>
       <c r="M47" s="35">
-        <f>L47*H47</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="N47" s="25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="O47" s="32"/>
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="32"/>
+        <v>43</v>
+      </c>
+      <c r="B48" s="42"/>
       <c r="C48" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="33"/>
@@ -3306,35 +3359,35 @@
         <v>4</v>
       </c>
       <c r="J48" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K48" s="43" t="s">
-        <v>67</v>
+      <c r="K48" s="48" t="s">
+        <v>62</v>
       </c>
       <c r="L48" s="35">
         <v>6</v>
       </c>
       <c r="M48" s="35">
-        <f>L48*H48</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="N48" s="25" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="O48" s="32"/>
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="32"/>
+        <v>43</v>
+      </c>
+      <c r="B49" s="42"/>
       <c r="C49" s="32" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E49" s="32">
         <v>200</v>
@@ -3352,11 +3405,11 @@
         <v>15</v>
       </c>
       <c r="J49" s="35">
-        <f t="shared" ref="J49:J50" si="4">H49*I49</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="K49" s="43" t="s">
-        <v>80</v>
+      <c r="K49" s="48" t="s">
+        <v>75</v>
       </c>
       <c r="L49" s="35"/>
       <c r="M49" s="35"/>
@@ -3366,14 +3419,14 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="33"/>
@@ -3387,10 +3440,10 @@
         <v>11</v>
       </c>
       <c r="J50" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="K50" s="43"/>
+      <c r="K50" s="48"/>
       <c r="L50" s="34">
         <v>11</v>
       </c>
@@ -3399,21 +3452,21 @@
         <v>33</v>
       </c>
       <c r="N50" s="25" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O50" s="32"/>
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B51" s="32"/>
       <c r="C51" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="33"/>
@@ -3427,10 +3480,10 @@
         <v>13</v>
       </c>
       <c r="J51" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="K51" s="43"/>
+      <c r="K51" s="48"/>
       <c r="L51" s="34">
         <v>13</v>
       </c>
@@ -3439,21 +3492,23 @@
         <v>26</v>
       </c>
       <c r="N51" s="25" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O51" s="32"/>
       <c r="P51" s="3"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="42" t="s">
         <v>81</v>
-      </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="45" t="s">
-        <v>86</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="33"/>
@@ -3465,7 +3520,7 @@
       </c>
       <c r="I52" s="34"/>
       <c r="J52" s="35"/>
-      <c r="K52" s="43"/>
+      <c r="K52" s="48"/>
       <c r="L52" s="34"/>
       <c r="M52" s="35"/>
       <c r="N52" s="25"/>
@@ -3474,14 +3529,16 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="45" t="s">
-        <v>87</v>
+        <v>76</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>82</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="33"/>
@@ -3493,7 +3550,7 @@
       </c>
       <c r="I53" s="34"/>
       <c r="J53" s="35"/>
-      <c r="K53" s="43"/>
+      <c r="K53" s="48"/>
       <c r="L53" s="34"/>
       <c r="M53" s="35"/>
       <c r="N53" s="25"/>
@@ -3502,11 +3559,13 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="45" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>79</v>
       </c>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
@@ -3519,7 +3578,7 @@
       </c>
       <c r="I54" s="34"/>
       <c r="J54" s="35"/>
-      <c r="K54" s="43"/>
+      <c r="K54" s="48"/>
       <c r="L54" s="34"/>
       <c r="M54" s="35"/>
       <c r="N54" s="25"/>
@@ -3528,11 +3587,13 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="45" t="s">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
@@ -3545,7 +3606,7 @@
       </c>
       <c r="I55" s="34"/>
       <c r="J55" s="35"/>
-      <c r="K55" s="43"/>
+      <c r="K55" s="48"/>
       <c r="L55" s="34"/>
       <c r="M55" s="35"/>
       <c r="N55" s="25"/>
@@ -3563,7 +3624,7 @@
       <c r="H56" s="33"/>
       <c r="I56" s="34"/>
       <c r="J56" s="35"/>
-      <c r="K56" s="43"/>
+      <c r="K56" s="48"/>
       <c r="L56" s="34"/>
       <c r="M56" s="35"/>
       <c r="N56" s="25"/>
@@ -3572,14 +3633,14 @@
     </row>
     <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -3587,10 +3648,10 @@
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="39">
-        <f>SUM(J15:J51)</f>
-        <v>768.46</v>
-      </c>
-      <c r="K57" s="44"/>
+        <f>SUM(J16:J51)</f>
+        <v>867.96</v>
+      </c>
+      <c r="K57" s="49"/>
       <c r="L57" s="39"/>
       <c r="M57" s="39"/>
       <c r="N57" s="39"/>
@@ -3611,8 +3672,8 @@
     <hyperlink ref="K49" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
     <hyperlink ref="N50" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
     <hyperlink ref="N51" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
-    <hyperlink ref="K20" r:id="rId8" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
-    <hyperlink ref="K22" r:id="rId9" display="2x Length: 45mm 4PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
+    <hyperlink ref="K21" r:id="rId8" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
+    <hyperlink ref="K23" r:id="rId9" display="2x Length: 45mm 4PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
     <hyperlink ref="K33" r:id="rId10" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
     <hyperlink ref="K24" r:id="rId11" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
     <hyperlink ref="N46" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
@@ -3623,7 +3684,7 @@
     <hyperlink ref="K34" r:id="rId17" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
     <hyperlink ref="K36" r:id="rId18" display="6pcs Optical Endstop" xr:uid="{0AB90FFF-9946-4F78-93E2-A102C645ECAE}"/>
     <hyperlink ref="K37" r:id="rId19" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
-    <hyperlink ref="K21" r:id="rId20" xr:uid="{7E1F7424-E58C-4FCB-9D3A-3CB69F34CE9F}"/>
+    <hyperlink ref="K22" r:id="rId20" xr:uid="{7E1F7424-E58C-4FCB-9D3A-3CB69F34CE9F}"/>
     <hyperlink ref="K26" r:id="rId21" xr:uid="{755FCD6D-D745-447C-AAA6-2D31A19F9A40}"/>
     <hyperlink ref="K41" r:id="rId22" xr:uid="{A90E869A-7328-473A-BA20-82979A845F00}"/>
     <hyperlink ref="K42" r:id="rId23" xr:uid="{37B2932B-CA7B-49AA-9F35-9BCE3D136353}"/>
@@ -3631,12 +3692,13 @@
     <hyperlink ref="K44" r:id="rId25" xr:uid="{54817A0E-3A4B-42D7-AA92-5C84B2F161F2}"/>
     <hyperlink ref="K38" r:id="rId26" xr:uid="{4F053E16-31A4-458E-B422-7E74FE54E665}"/>
     <hyperlink ref="N38" r:id="rId27" display="Color: 220V 750W" xr:uid="{6A46011B-C1CA-4A88-AD58-75064F9710C4}"/>
-    <hyperlink ref="K23" r:id="rId28" xr:uid="{D81B7FCC-2A0B-49BE-B9F6-1DF3B108016A}"/>
-    <hyperlink ref="K32" r:id="rId29" xr:uid="{B9B35946-F710-4A9B-AA0F-C3E1EB8A9B02}"/>
+    <hyperlink ref="K32" r:id="rId28" xr:uid="{B9B35946-F710-4A9B-AA0F-C3E1EB8A9B02}"/>
+    <hyperlink ref="N25" r:id="rId29" xr:uid="{F5DB1B37-0615-45FE-8D85-29C4F7CAFAB1}"/>
+    <hyperlink ref="K17" r:id="rId30" location="/56-color-silver_grey_anodized/105-length-750mm" display="https://makersupplies.dk/en/v-slot-profiles/13-v-slot-profiles-20x20-v-slot.html - /56-color-silver_grey_anodized/105-length-750mm" xr:uid="{FAA6EB39-A108-40A3-9A17-8DDFEDA57CD1}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId30"/>
-  <drawing r:id="rId31"/>
-  <legacyDrawing r:id="rId32"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId31"/>
+  <drawing r:id="rId32"/>
+  <legacyDrawing r:id="rId33"/>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="965" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04E794C4-8751-4AD6-B185-AD5396BF6287}"/>
+  <xr:revisionPtr revIDLastSave="966" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{430D9658-694E-4056-9749-F524E8C1F4F6}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,9 +448,6 @@
     <t>Orbiter Extruder V2</t>
   </si>
   <si>
-    <t>Matrix LC</t>
-  </si>
-  <si>
     <t>24V Matrix-LC</t>
   </si>
   <si>
@@ -533,6 +530,9 @@
   </si>
   <si>
     <t>5mm Shoulder Screw For Z Gear</t>
+  </si>
+  <si>
+    <t>Matrix LC Lite</t>
   </si>
 </sst>
 </file>
@@ -1746,8 +1746,8 @@
   </sheetPr>
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1"/>
     </row>
@@ -1840,7 +1840,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>6</v>
@@ -1890,13 +1890,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" s="27">
         <v>330</v>
@@ -1923,13 +1923,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="32">
         <f>E13</f>
@@ -1957,7 +1957,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>19</v>
@@ -1990,7 +1990,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>19</v>
@@ -2023,7 +2023,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>19</v>
@@ -2056,7 +2056,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>23</v>
@@ -2100,7 +2100,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>25</v>
@@ -2146,7 +2146,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>19</v>
@@ -2184,7 +2184,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>28</v>
@@ -2222,7 +2222,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>28</v>
@@ -2260,7 +2260,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>31</v>
@@ -2304,13 +2304,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="42" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" s="32">
         <v>40</v>
@@ -2346,13 +2346,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" s="32">
         <v>50</v>
@@ -2372,7 +2372,7 @@
         <v>6</v>
       </c>
       <c r="K23" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L23" s="35"/>
       <c r="M23" s="35">
@@ -2388,7 +2388,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>51</v>
@@ -2428,7 +2428,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="42" t="s">
         <v>83</v>
@@ -2474,7 +2474,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="42" t="s">
         <v>100</v>
@@ -2516,13 +2516,13 @@
         <v>34</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E27" s="32">
         <v>20</v>
@@ -2551,13 +2551,13 @@
         <v>34</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="33"/>
@@ -2589,13 +2589,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="33"/>
@@ -2627,7 +2627,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>37</v>
@@ -2665,7 +2665,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>38</v>
@@ -2705,13 +2705,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E32" s="32"/>
       <c r="F32" s="33"/>
@@ -2729,7 +2729,7 @@
         <v>12</v>
       </c>
       <c r="K32" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L32" s="35"/>
       <c r="M32" s="35">
@@ -2745,7 +2745,7 @@
         <v>39</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>40</v>
@@ -2785,7 +2785,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34" s="42" t="s">
         <v>40</v>
@@ -2825,7 +2825,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C35" s="42" t="s">
         <v>89</v>
@@ -2865,7 +2865,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" s="42" t="s">
         <v>93</v>
@@ -2905,7 +2905,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="42" t="s">
         <v>93</v>
@@ -2945,13 +2945,13 @@
         <v>39</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="42" t="s">
         <v>115</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>116</v>
       </c>
       <c r="E38" s="32">
         <v>310</v>
@@ -2971,7 +2971,7 @@
         <v>23.5</v>
       </c>
       <c r="K38" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L38" s="35">
         <v>75</v>
@@ -2981,7 +2981,7 @@
         <v>75</v>
       </c>
       <c r="N38" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="32"/>
       <c r="P38" s="3"/>
@@ -2991,13 +2991,13 @@
         <v>39</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C39" s="42" t="s">
         <v>93</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="33"/>
@@ -3024,13 +3024,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="42" t="s">
         <v>119</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>120</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="33"/>
@@ -3057,7 +3057,7 @@
         <v>103</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="42" t="s">
         <v>103</v>
@@ -3097,7 +3097,7 @@
         <v>103</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C42" s="42" t="s">
         <v>103</v>
@@ -3137,7 +3137,7 @@
         <v>108</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" s="42" t="s">
         <v>108</v>
@@ -3177,13 +3177,13 @@
         <v>108</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C44" s="42" t="s">
         <v>103</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="33"/>
@@ -3201,7 +3201,7 @@
         <v>100</v>
       </c>
       <c r="K44" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L44" s="35"/>
       <c r="M44" s="35">
@@ -3502,7 +3502,7 @@
         <v>76</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" s="42" t="s">
         <v>77</v>
@@ -3532,7 +3532,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" s="42" t="s">
         <v>78</v>
@@ -3562,7 +3562,7 @@
         <v>76</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>79</v>
@@ -3590,7 +3590,7 @@
         <v>76</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C55" s="42" t="s">
         <v>80</v>

--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="966" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{430D9658-694E-4056-9749-F524E8C1F4F6}"/>
+  <xr:revisionPtr revIDLastSave="969" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5879F75E-70D7-40C4-96E7-EB82EF542285}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1746,8 +1746,8 @@
   </sheetPr>
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="969" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5879F75E-70D7-40C4-96E7-EB82EF542285}"/>
+  <xr:revisionPtr revIDLastSave="975" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBE427D3-F917-4600-B109-806CB5537E28}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,15 +175,6 @@
     <t>T-Slot 2040</t>
   </si>
   <si>
-    <t>2040 X 420</t>
-  </si>
-  <si>
-    <t>2040 Y 460</t>
-  </si>
-  <si>
-    <t>2040 Z 700</t>
-  </si>
-  <si>
     <t>T-Slot 2040 1500</t>
   </si>
   <si>
@@ -514,9 +505,6 @@
     <t>2020 X Rear Top</t>
   </si>
   <si>
-    <t>2020 Z Center Rear</t>
-  </si>
-  <si>
     <t>DC</t>
   </si>
   <si>
@@ -533,6 +521,18 @@
   </si>
   <si>
     <t>Matrix LC Lite</t>
+  </si>
+  <si>
+    <t>2040 Y</t>
+  </si>
+  <si>
+    <t>2040 X</t>
+  </si>
+  <si>
+    <t>2040 Z</t>
+  </si>
+  <si>
+    <t>2020 Z Rear Center</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1"/>
     </row>
@@ -1840,7 +1840,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>6</v>
@@ -1861,13 +1861,13 @@
         <v>11</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L10" s="18" t="s">
         <v>12</v>
@@ -1890,20 +1890,20 @@
         <v>17</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E11" s="27">
-        <v>330</v>
+        <v>229</v>
       </c>
       <c r="F11" s="28">
         <f>G11*E11</f>
-        <v>330</v>
+        <v>229</v>
       </c>
       <c r="G11" s="28">
         <v>1</v>
@@ -1923,13 +1923,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E12" s="32">
         <f>E13</f>
@@ -1957,13 +1957,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="E13" s="32">
         <v>420</v>
@@ -1990,20 +1990,20 @@
         <v>17</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E14" s="32">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="F14" s="33">
         <f>G14*E14</f>
-        <v>1840</v>
+        <v>1920</v>
       </c>
       <c r="G14" s="33">
         <v>4</v>
@@ -2023,13 +2023,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="E15" s="32">
         <v>700</v>
@@ -2056,24 +2056,24 @@
         <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E16" s="8">
         <v>1500</v>
       </c>
       <c r="F16" s="20">
         <f>F13+F14+F15</f>
-        <v>6320</v>
+        <v>6400</v>
       </c>
       <c r="G16" s="21">
         <f>F16/E16</f>
-        <v>4.2133333333333329</v>
+        <v>4.2666666666666666</v>
       </c>
       <c r="H16" s="22">
         <v>5</v>
@@ -2100,24 +2100,24 @@
         <v>17</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E17" s="32">
         <v>750</v>
       </c>
       <c r="F17" s="36">
         <f>SUM(F11:F12)</f>
-        <v>750</v>
+        <v>649</v>
       </c>
       <c r="G17" s="32">
         <f>F17/E17</f>
-        <v>1</v>
+        <v>0.86533333333333329</v>
       </c>
       <c r="H17" s="37">
         <v>1</v>
@@ -2146,13 +2146,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="24"/>
@@ -2184,13 +2184,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="33"/>
@@ -2222,13 +2222,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="33"/>
@@ -2260,13 +2260,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E21" s="32">
         <v>410</v>
@@ -2288,7 +2288,7 @@
         <v>20</v>
       </c>
       <c r="K21" s="48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L21" s="35"/>
       <c r="M21" s="35">
@@ -2304,13 +2304,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E22" s="32">
         <v>40</v>
@@ -2330,7 +2330,7 @@
         <v>9</v>
       </c>
       <c r="K22" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L22" s="35"/>
       <c r="M22" s="35">
@@ -2346,13 +2346,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E23" s="32">
         <v>50</v>
@@ -2372,7 +2372,7 @@
         <v>6</v>
       </c>
       <c r="K23" s="48" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L23" s="35"/>
       <c r="M23" s="35">
@@ -2388,13 +2388,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="33"/>
@@ -2412,7 +2412,7 @@
         <v>3</v>
       </c>
       <c r="K24" s="48" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L24" s="35"/>
       <c r="M24" s="35">
@@ -2428,16 +2428,16 @@
         <v>17</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33">
@@ -2454,7 +2454,7 @@
         <v>98</v>
       </c>
       <c r="K25" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L25" s="35">
         <v>0.08</v>
@@ -2464,7 +2464,7 @@
         <v>98</v>
       </c>
       <c r="N25" s="43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O25" s="32"/>
       <c r="P25" s="3"/>
@@ -2474,13 +2474,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E26" s="42">
         <v>30</v>
@@ -2500,7 +2500,7 @@
         <v>5</v>
       </c>
       <c r="K26" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L26" s="35"/>
       <c r="M26" s="35">
@@ -2513,16 +2513,16 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E27" s="32">
         <v>20</v>
@@ -2548,16 +2548,16 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="33"/>
@@ -2586,16 +2586,16 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="33"/>
@@ -2624,16 +2624,16 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>37</v>
-      </c>
       <c r="D30" s="32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="33"/>
@@ -2662,16 +2662,16 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="33"/>
@@ -2702,16 +2702,16 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E32" s="32"/>
       <c r="F32" s="33"/>
@@ -2729,7 +2729,7 @@
         <v>12</v>
       </c>
       <c r="K32" s="48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L32" s="35"/>
       <c r="M32" s="35">
@@ -2742,16 +2742,16 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="33"/>
@@ -2769,7 +2769,7 @@
         <v>70</v>
       </c>
       <c r="K33" s="48" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L33" s="35"/>
       <c r="M33" s="35">
@@ -2782,16 +2782,16 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="33"/>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L34" s="35"/>
       <c r="M34" s="35">
@@ -2822,16 +2822,16 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="33"/>
@@ -2849,7 +2849,7 @@
         <v>23</v>
       </c>
       <c r="K35" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L35" s="35"/>
       <c r="M35" s="35">
@@ -2862,16 +2862,16 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="33"/>
@@ -2889,7 +2889,7 @@
         <v>10</v>
       </c>
       <c r="K36" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L36" s="35"/>
       <c r="M36" s="35">
@@ -2902,16 +2902,16 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="33"/>
@@ -2929,7 +2929,7 @@
         <v>7.5</v>
       </c>
       <c r="K37" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L37" s="35"/>
       <c r="M37" s="35">
@@ -2942,16 +2942,16 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E38" s="32">
         <v>310</v>
@@ -2971,7 +2971,7 @@
         <v>23.5</v>
       </c>
       <c r="K38" s="48" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L38" s="35">
         <v>75</v>
@@ -2981,23 +2981,23 @@
         <v>75</v>
       </c>
       <c r="N38" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O38" s="32"/>
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="33"/>
@@ -3021,16 +3021,16 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="33"/>
@@ -3054,16 +3054,16 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E41" s="32"/>
       <c r="F41" s="33"/>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="48" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L41" s="35"/>
       <c r="M41" s="35">
@@ -3094,16 +3094,16 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="42" t="s">
         <v>103</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="42" t="s">
-        <v>106</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="33"/>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L42" s="35"/>
       <c r="M42" s="35">
@@ -3134,16 +3134,16 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="33"/>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="48" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L43" s="35"/>
       <c r="M43" s="35">
@@ -3174,16 +3174,16 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="33"/>
@@ -3201,7 +3201,7 @@
         <v>100</v>
       </c>
       <c r="K44" s="48" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L44" s="35"/>
       <c r="M44" s="35">
@@ -3214,14 +3214,14 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B45" s="42"/>
       <c r="C45" s="32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E45" s="32">
         <v>100</v>
@@ -3241,7 +3241,7 @@
         <v>39</v>
       </c>
       <c r="K45" s="48" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L45" s="35"/>
       <c r="M45" s="35">
@@ -3254,14 +3254,14 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B46" s="42"/>
       <c r="C46" s="32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="33"/>
@@ -3279,7 +3279,7 @@
         <v>41</v>
       </c>
       <c r="K46" s="48" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L46" s="35">
         <v>5.5</v>
@@ -3289,21 +3289,21 @@
         <v>55</v>
       </c>
       <c r="N46" s="25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O46" s="32"/>
       <c r="P46" s="3"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B47" s="42"/>
       <c r="C47" s="32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="33"/>
@@ -3321,7 +3321,7 @@
         <v>30</v>
       </c>
       <c r="K47" s="48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L47" s="35">
         <v>7</v>
@@ -3331,21 +3331,21 @@
         <v>35</v>
       </c>
       <c r="N47" s="25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O47" s="32"/>
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B48" s="42"/>
       <c r="C48" s="32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="33"/>
@@ -3363,7 +3363,7 @@
         <v>20</v>
       </c>
       <c r="K48" s="48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L48" s="35">
         <v>6</v>
@@ -3373,21 +3373,21 @@
         <v>30</v>
       </c>
       <c r="N48" s="25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O48" s="32"/>
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B49" s="42"/>
       <c r="C49" s="32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E49" s="32">
         <v>200</v>
@@ -3409,7 +3409,7 @@
         <v>45</v>
       </c>
       <c r="K49" s="48" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L49" s="35"/>
       <c r="M49" s="35"/>
@@ -3419,14 +3419,14 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="33"/>
@@ -3452,21 +3452,21 @@
         <v>33</v>
       </c>
       <c r="N50" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O50" s="32"/>
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B51" s="32"/>
       <c r="C51" s="32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="33"/>
@@ -3492,23 +3492,23 @@
         <v>26</v>
       </c>
       <c r="N51" s="25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O51" s="32"/>
       <c r="P51" s="3"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D52" s="42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="33"/>
@@ -3529,16 +3529,16 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="33"/>
@@ -3559,13 +3559,13 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="42" t="s">
         <v>76</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>79</v>
       </c>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
@@ -3587,13 +3587,13 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
@@ -3633,14 +3633,14 @@
     </row>
     <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="975" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBE427D3-F917-4600-B109-806CB5537E28}"/>
+  <xr:revisionPtr revIDLastSave="1003" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D479ECAC-E771-4C82-AC32-4AFE78F1D2EF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Valkyrie Base Frame BOM 02" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$10:$P$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$P$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$10:$P$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$P$60</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
     <author>Roy Berntsen</author>
   </authors>
   <commentList>
-    <comment ref="D34" authorId="0" shapeId="0" xr:uid="{FB4E5E39-3716-46C1-9030-8ED6146980D7}">
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{FB4E5E39-3716-46C1-9030-8ED6146980D7}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D41" authorId="0" shapeId="0" xr:uid="{F7999DE5-A231-4BE3-8A97-2FA9AF556EFC}">
+    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{F7999DE5-A231-4BE3-8A97-2FA9AF556EFC}">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="146">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -533,6 +533,24 @@
   </si>
   <si>
     <t>2020 Z Rear Center</t>
+  </si>
+  <si>
+    <t>Pump/Res Combo</t>
+  </si>
+  <si>
+    <t>Tubing</t>
+  </si>
+  <si>
+    <t>Fittings</t>
+  </si>
+  <si>
+    <t>Print Surface</t>
+  </si>
+  <si>
+    <t>Removal Spring Steel Sheet</t>
+  </si>
+  <si>
+    <t>Size: 310x310mm</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1762,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:P1"/>
@@ -1754,7 +1772,7 @@
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -2082,13 +2100,13 @@
         <v>23.2</v>
       </c>
       <c r="J16" s="15">
-        <f t="shared" ref="J16:J26" si="0">H16*I16</f>
+        <f t="shared" ref="J16:J27" si="0">H16*I16</f>
         <v>116</v>
       </c>
       <c r="K16" s="40"/>
       <c r="L16" s="15"/>
       <c r="M16" s="35">
-        <f t="shared" ref="M16:M48" si="1">L16*H16</f>
+        <f t="shared" ref="M16:M49" si="1">L16*H16</f>
         <v>0</v>
       </c>
       <c r="N16" s="15"/>
@@ -2513,30 +2531,37 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B27" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="32">
-        <v>20</v>
+      <c r="C27" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="42">
+        <v>310</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" s="33">
-        <v>3</v>
-      </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="34">
+        <v>40</v>
+      </c>
+      <c r="J27" s="35">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K27" s="48" t="s">
+        <v>145</v>
+      </c>
       <c r="L27" s="35"/>
       <c r="M27" s="35">
         <f t="shared" si="1"/>
@@ -2551,30 +2576,27 @@
         <v>31</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="32"/>
+        <v>125</v>
+      </c>
+      <c r="E28" s="32">
+        <v>20</v>
+      </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="H28" s="33">
-        <v>100</v>
-      </c>
-      <c r="I28" s="34">
-        <v>0.11</v>
-      </c>
-      <c r="J28" s="35">
-        <f t="shared" ref="J28:J38" si="2">H28*I28</f>
-        <v>11</v>
-      </c>
-      <c r="K28" s="47"/>
+        <v>3</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="48"/>
       <c r="L28" s="35"/>
       <c r="M28" s="35">
         <f t="shared" si="1"/>
@@ -2592,25 +2614,25 @@
         <v>119</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="33"/>
       <c r="G29" s="33">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="H29" s="33">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I29" s="34">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="J29" s="35">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" ref="J29:J39" si="2">H29*I29</f>
+        <v>11</v>
       </c>
       <c r="K29" s="47"/>
       <c r="L29" s="35"/>
@@ -2630,25 +2652,25 @@
         <v>119</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="H30" s="33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I30" s="34">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J30" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K30" s="47"/>
       <c r="L30" s="35"/>
@@ -2664,14 +2686,14 @@
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="42" t="s">
         <v>119</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="33"/>
@@ -2682,11 +2704,11 @@
         <v>100</v>
       </c>
       <c r="I31" s="34">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="J31" s="35">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K31" s="47"/>
       <c r="L31" s="35"/>
@@ -2696,41 +2718,37 @@
       </c>
       <c r="N31" s="35"/>
       <c r="O31" s="32"/>
-      <c r="P31" s="3">
-        <v>7380</v>
-      </c>
+      <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="42" t="s">
-        <v>134</v>
+      <c r="D32" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="E32" s="32"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="H32" s="33">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="I32" s="34">
-        <v>4</v>
+        <v>0.21</v>
       </c>
       <c r="J32" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="K32" s="48" t="s">
-        <v>122</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K32" s="47"/>
       <c r="L32" s="35"/>
       <c r="M32" s="35">
         <f t="shared" si="1"/>
@@ -2738,38 +2756,40 @@
       </c>
       <c r="N32" s="35"/>
       <c r="O32" s="32"/>
-      <c r="P32" s="3"/>
+      <c r="P32" s="3">
+        <v>7380</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>134</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="33"/>
       <c r="G33" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" s="34">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="J33" s="35">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="K33" s="48" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="L33" s="35"/>
       <c r="M33" s="35">
@@ -2787,11 +2807,11 @@
       <c r="B34" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="42" t="s">
-        <v>88</v>
+      <c r="D34" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="33"/>
@@ -2799,17 +2819,17 @@
         <v>1</v>
       </c>
       <c r="H34" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="34">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J34" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K34" s="48" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="L34" s="35"/>
       <c r="M34" s="35">
@@ -2825,13 +2845,13 @@
         <v>36</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="33"/>
@@ -2839,17 +2859,17 @@
         <v>1</v>
       </c>
       <c r="H35" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="34">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="J35" s="35">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K35" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L35" s="35"/>
       <c r="M35" s="35">
@@ -2865,31 +2885,31 @@
         <v>36</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="33"/>
       <c r="G36" s="33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H36" s="33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I36" s="34">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J36" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="K36" s="48" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L36" s="35"/>
       <c r="M36" s="35">
@@ -2905,31 +2925,31 @@
         <v>36</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="42" t="s">
         <v>90</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H37" s="33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I37" s="34">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="J37" s="35">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="K37" s="48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L37" s="35"/>
       <c r="M37" s="35">
@@ -2948,14 +2968,12 @@
         <v>131</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38" s="32">
-        <v>310</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E38" s="32"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33">
         <v>1</v>
@@ -2964,25 +2982,21 @@
         <v>1</v>
       </c>
       <c r="I38" s="34">
-        <v>23.5</v>
+        <v>7.5</v>
       </c>
       <c r="J38" s="35">
         <f t="shared" si="2"/>
-        <v>23.5</v>
+        <v>7.5</v>
       </c>
       <c r="K38" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="L38" s="35">
-        <v>75</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="L38" s="35"/>
       <c r="M38" s="35">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="N38" s="25" t="s">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N38" s="35"/>
       <c r="O38" s="32"/>
       <c r="P38" s="3"/>
     </row>
@@ -2991,15 +3005,17 @@
         <v>36</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="32"/>
+        <v>112</v>
+      </c>
+      <c r="E39" s="32">
+        <v>310</v>
+      </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33">
         <v>1</v>
@@ -3007,15 +3023,26 @@
       <c r="H39" s="33">
         <v>1</v>
       </c>
-      <c r="I39" s="34"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="35"/>
+      <c r="I39" s="34">
+        <v>23.5</v>
+      </c>
+      <c r="J39" s="35">
+        <f t="shared" si="2"/>
+        <v>23.5</v>
+      </c>
+      <c r="K39" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="L39" s="35">
+        <v>75</v>
+      </c>
       <c r="M39" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="35"/>
+        <v>75</v>
+      </c>
+      <c r="N39" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="O39" s="32"/>
       <c r="P39" s="3"/>
     </row>
@@ -3024,13 +3051,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="33"/>
@@ -3054,16 +3081,16 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="E41" s="32"/>
       <c r="F41" s="33"/>
@@ -3071,18 +3098,11 @@
         <v>1</v>
       </c>
       <c r="H41" s="33">
-        <v>0</v>
-      </c>
-      <c r="I41" s="34">
-        <v>30</v>
-      </c>
-      <c r="J41" s="35">
-        <f t="shared" ref="J41:J51" si="3">H41*I41</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="48" t="s">
-        <v>102</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" s="34"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="48"/>
       <c r="L41" s="35"/>
       <c r="M41" s="35">
         <f t="shared" si="1"/>
@@ -3103,7 +3123,7 @@
         <v>100</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="33"/>
@@ -3114,14 +3134,14 @@
         <v>0</v>
       </c>
       <c r="I42" s="34">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J42" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J42:J52" si="3">H42*I42</f>
         <v>0</v>
       </c>
       <c r="K42" s="48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L42" s="35"/>
       <c r="M42" s="35">
@@ -3134,16 +3154,16 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B43" s="42" t="s">
         <v>133</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="33"/>
@@ -3154,14 +3174,14 @@
         <v>0</v>
       </c>
       <c r="I43" s="34">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="J43" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K43" s="48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L43" s="35"/>
       <c r="M43" s="35">
@@ -3180,10 +3200,10 @@
         <v>133</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="33"/>
@@ -3191,17 +3211,17 @@
         <v>1</v>
       </c>
       <c r="H44" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="34">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="J44" s="35">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L44" s="35"/>
       <c r="M44" s="35">
@@ -3214,34 +3234,34 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="32">
+        <v>105</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="F45" s="33">
-        <v>7000</v>
-      </c>
-      <c r="G45" s="33"/>
+      <c r="D45" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="32"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33">
+        <v>1</v>
+      </c>
       <c r="H45" s="33">
         <v>1</v>
       </c>
       <c r="I45" s="34">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="J45" s="35">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="K45" s="48" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="L45" s="35"/>
       <c r="M45" s="35">
@@ -3258,39 +3278,37 @@
       </c>
       <c r="B46" s="42"/>
       <c r="C46" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33">
-        <v>10</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E46" s="32">
+        <v>100</v>
+      </c>
+      <c r="F46" s="33">
+        <v>7000</v>
+      </c>
+      <c r="G46" s="33"/>
       <c r="H46" s="33">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I46" s="34">
-        <v>4.0999999999999996</v>
+        <v>39</v>
       </c>
       <c r="J46" s="35">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K46" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="L46" s="35">
-        <v>5.5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="L46" s="35"/>
       <c r="M46" s="35">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="N46" s="25" t="s">
-        <v>64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N46" s="35"/>
       <c r="O46" s="32"/>
       <c r="P46" s="3"/>
     </row>
@@ -3303,35 +3321,35 @@
         <v>42</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H47" s="33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I47" s="34">
-        <v>6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J47" s="35">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K47" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L47" s="35">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="M47" s="35">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N47" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O47" s="32"/>
       <c r="P47" s="3"/>
@@ -3342,10 +3360,10 @@
       </c>
       <c r="B48" s="42"/>
       <c r="C48" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="33"/>
@@ -3356,24 +3374,24 @@
         <v>5</v>
       </c>
       <c r="I48" s="34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J48" s="35">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K48" s="48" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L48" s="35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M48" s="35">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N48" s="25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O48" s="32"/>
       <c r="P48" s="3"/>
@@ -3384,36 +3402,39 @@
       </c>
       <c r="B49" s="42"/>
       <c r="C49" s="32" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="32">
-        <v>200</v>
-      </c>
-      <c r="F49" s="33">
-        <v>600</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E49" s="32"/>
+      <c r="F49" s="33"/>
       <c r="G49" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H49" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I49" s="34">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J49" s="35">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K49" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
+        <v>59</v>
+      </c>
+      <c r="L49" s="35">
+        <v>6</v>
+      </c>
+      <c r="M49" s="35">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="N49" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="O49" s="32"/>
       <c r="P49" s="3"/>
     </row>
@@ -3421,15 +3442,19 @@
       <c r="A50" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="32"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="32" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="33"/>
+        <v>44</v>
+      </c>
+      <c r="E50" s="32">
+        <v>200</v>
+      </c>
+      <c r="F50" s="33">
+        <v>600</v>
+      </c>
       <c r="G50" s="33">
         <v>3</v>
       </c>
@@ -3437,23 +3462,18 @@
         <v>3</v>
       </c>
       <c r="I50" s="34">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J50" s="35">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="K50" s="48"/>
-      <c r="L50" s="34">
-        <v>11</v>
-      </c>
-      <c r="M50" s="35">
-        <f>L50*H50</f>
-        <v>33</v>
-      </c>
-      <c r="N50" s="25" t="s">
-        <v>70</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="K50" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
       <c r="O50" s="32"/>
       <c r="P50" s="3"/>
     </row>
@@ -3466,64 +3486,74 @@
         <v>45</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H51" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51" s="34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J51" s="35">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K51" s="48"/>
       <c r="L51" s="34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M51" s="35">
         <f>L51*H51</f>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N51" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O51" s="32"/>
       <c r="P51" s="3"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="42" t="s">
-        <v>78</v>
+        <v>40</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>66</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" s="33">
-        <v>1</v>
-      </c>
-      <c r="I52" s="34"/>
-      <c r="J52" s="35"/>
+        <v>2</v>
+      </c>
+      <c r="I52" s="34">
+        <v>13</v>
+      </c>
+      <c r="J52" s="35">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
       <c r="K52" s="48"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="25"/>
+      <c r="L52" s="34">
+        <v>13</v>
+      </c>
+      <c r="M52" s="35">
+        <f>L52*H52</f>
+        <v>26</v>
+      </c>
+      <c r="N52" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="O52" s="32"/>
       <c r="P52" s="3"/>
     </row>
@@ -3535,18 +3565,18 @@
         <v>128</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" s="34"/>
       <c r="J53" s="35"/>
@@ -3565,16 +3595,18 @@
         <v>128</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="32"/>
+        <v>75</v>
+      </c>
+      <c r="D54" s="42" t="s">
+        <v>79</v>
+      </c>
       <c r="E54" s="32"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" s="34"/>
       <c r="J54" s="35"/>
@@ -3589,11 +3621,11 @@
       <c r="A55" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="32" t="s">
         <v>128</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
@@ -3602,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="34"/>
       <c r="J55" s="35"/>
@@ -3614,14 +3646,24 @@
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
+      <c r="A56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>77</v>
+      </c>
       <c r="D56" s="32"/>
       <c r="E56" s="32"/>
       <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
+      <c r="G56" s="33">
+        <v>1</v>
+      </c>
+      <c r="H56" s="33">
+        <v>0</v>
+      </c>
       <c r="I56" s="34"/>
       <c r="J56" s="35"/>
       <c r="K56" s="48"/>
@@ -3631,74 +3673,151 @@
       <c r="O56" s="32"/>
       <c r="P56" s="3"/>
     </row>
-    <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33">
+        <v>1</v>
+      </c>
+      <c r="H57" s="33">
+        <v>1</v>
+      </c>
+      <c r="I57" s="34"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5" t="s">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="39">
-        <f>SUM(J16:J51)</f>
-        <v>867.96</v>
-      </c>
-      <c r="K57" s="49"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="6"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="39">
+        <f>SUM(J16:J52)</f>
+        <v>907.96</v>
+      </c>
+      <c r="K60" s="49"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:P55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A10:P56" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K45" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
-    <hyperlink ref="K46" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
-    <hyperlink ref="K47" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
-    <hyperlink ref="K48" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
-    <hyperlink ref="K49" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
-    <hyperlink ref="N50" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
-    <hyperlink ref="N51" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
+    <hyperlink ref="K46" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
+    <hyperlink ref="K47" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
+    <hyperlink ref="K48" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
+    <hyperlink ref="K49" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
+    <hyperlink ref="K50" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
+    <hyperlink ref="N51" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
+    <hyperlink ref="N52" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
     <hyperlink ref="K21" r:id="rId8" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
     <hyperlink ref="K23" r:id="rId9" display="2x Length: 45mm 4PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
-    <hyperlink ref="K33" r:id="rId10" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
+    <hyperlink ref="K34" r:id="rId10" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
     <hyperlink ref="K24" r:id="rId11" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
-    <hyperlink ref="N46" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
-    <hyperlink ref="N47" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
-    <hyperlink ref="N48" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
+    <hyperlink ref="N47" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
+    <hyperlink ref="N48" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
+    <hyperlink ref="N49" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
     <hyperlink ref="K25" r:id="rId15" xr:uid="{A8C5E0F3-B1FB-4E57-8DD8-1DF57CDC1A28}"/>
-    <hyperlink ref="K35" r:id="rId16" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
-    <hyperlink ref="K34" r:id="rId17" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
-    <hyperlink ref="K36" r:id="rId18" display="6pcs Optical Endstop" xr:uid="{0AB90FFF-9946-4F78-93E2-A102C645ECAE}"/>
-    <hyperlink ref="K37" r:id="rId19" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
+    <hyperlink ref="K36" r:id="rId16" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
+    <hyperlink ref="K35" r:id="rId17" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
+    <hyperlink ref="K37" r:id="rId18" display="6pcs Optical Endstop" xr:uid="{0AB90FFF-9946-4F78-93E2-A102C645ECAE}"/>
+    <hyperlink ref="K38" r:id="rId19" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
     <hyperlink ref="K22" r:id="rId20" xr:uid="{7E1F7424-E58C-4FCB-9D3A-3CB69F34CE9F}"/>
     <hyperlink ref="K26" r:id="rId21" xr:uid="{755FCD6D-D745-447C-AAA6-2D31A19F9A40}"/>
-    <hyperlink ref="K41" r:id="rId22" xr:uid="{A90E869A-7328-473A-BA20-82979A845F00}"/>
-    <hyperlink ref="K42" r:id="rId23" xr:uid="{37B2932B-CA7B-49AA-9F35-9BCE3D136353}"/>
-    <hyperlink ref="K43" r:id="rId24" xr:uid="{BE140B59-D4B8-46C3-B6EC-BEB5F431781F}"/>
-    <hyperlink ref="K44" r:id="rId25" xr:uid="{54817A0E-3A4B-42D7-AA92-5C84B2F161F2}"/>
-    <hyperlink ref="K38" r:id="rId26" xr:uid="{4F053E16-31A4-458E-B422-7E74FE54E665}"/>
-    <hyperlink ref="N38" r:id="rId27" display="Color: 220V 750W" xr:uid="{6A46011B-C1CA-4A88-AD58-75064F9710C4}"/>
-    <hyperlink ref="K32" r:id="rId28" xr:uid="{B9B35946-F710-4A9B-AA0F-C3E1EB8A9B02}"/>
+    <hyperlink ref="K42" r:id="rId22" xr:uid="{A90E869A-7328-473A-BA20-82979A845F00}"/>
+    <hyperlink ref="K43" r:id="rId23" xr:uid="{37B2932B-CA7B-49AA-9F35-9BCE3D136353}"/>
+    <hyperlink ref="K44" r:id="rId24" xr:uid="{BE140B59-D4B8-46C3-B6EC-BEB5F431781F}"/>
+    <hyperlink ref="K45" r:id="rId25" xr:uid="{54817A0E-3A4B-42D7-AA92-5C84B2F161F2}"/>
+    <hyperlink ref="K39" r:id="rId26" xr:uid="{4F053E16-31A4-458E-B422-7E74FE54E665}"/>
+    <hyperlink ref="N39" r:id="rId27" display="Color: 220V 750W" xr:uid="{6A46011B-C1CA-4A88-AD58-75064F9710C4}"/>
+    <hyperlink ref="K33" r:id="rId28" xr:uid="{B9B35946-F710-4A9B-AA0F-C3E1EB8A9B02}"/>
     <hyperlink ref="N25" r:id="rId29" xr:uid="{F5DB1B37-0615-45FE-8D85-29C4F7CAFAB1}"/>
     <hyperlink ref="K17" r:id="rId30" location="/56-color-silver_grey_anodized/105-length-750mm" display="https://makersupplies.dk/en/v-slot-profiles/13-v-slot-profiles-20x20-v-slot.html - /56-color-silver_grey_anodized/105-length-750mm" xr:uid="{FAA6EB39-A108-40A3-9A17-8DDFEDA57CD1}"/>
+    <hyperlink ref="K27" r:id="rId31" xr:uid="{AB0B8958-9970-4FAA-8724-81774C9EF9F1}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId31"/>
-  <drawing r:id="rId32"/>
-  <legacyDrawing r:id="rId33"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId32"/>
+  <drawing r:id="rId33"/>
+  <legacyDrawing r:id="rId34"/>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1003" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D479ECAC-E771-4C82-AC32-4AFE78F1D2EF}"/>
+  <xr:revisionPtr revIDLastSave="1031" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9088918-56F6-4868-915B-5B60A1A14FB8}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Valkyrie Base Frame BOM 02" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$10:$P$56</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$P$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$10:$P$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$P$62</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="151">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -551,6 +551,21 @@
   </si>
   <si>
     <t>Size: 310x310mm</t>
+  </si>
+  <si>
+    <t>Linear Rails</t>
+  </si>
+  <si>
+    <t>MGN 12h</t>
+  </si>
+  <si>
+    <t>MGN 9h</t>
+  </si>
+  <si>
+    <t>GL: 400 - Color: MGN9 H</t>
+  </si>
+  <si>
+    <t>GL: 350 - Color: MGN12 H</t>
   </si>
 </sst>
 </file>
@@ -1762,7 +1777,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:P1"/>
@@ -1780,7 +1795,7 @@
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
@@ -3137,7 +3152,7 @@
         <v>30</v>
       </c>
       <c r="J42" s="35">
-        <f t="shared" ref="J42:J52" si="3">H42*I42</f>
+        <f t="shared" ref="J42:J53" si="3">H42*I42</f>
         <v>0</v>
       </c>
       <c r="K42" s="48" t="s">
@@ -3559,28 +3574,35 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>128</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B53" s="32"/>
       <c r="C53" s="42" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53" s="32"/>
+        <v>147</v>
+      </c>
+      <c r="E53" s="32">
+        <v>350</v>
+      </c>
       <c r="F53" s="33"/>
       <c r="G53" s="33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H53" s="33">
-        <v>1</v>
-      </c>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="48"/>
+        <v>5</v>
+      </c>
+      <c r="I53" s="34">
+        <v>15.6</v>
+      </c>
+      <c r="J53" s="35">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="K53" s="48" t="s">
+        <v>150</v>
+      </c>
       <c r="L53" s="34"/>
       <c r="M53" s="35"/>
       <c r="N53" s="25"/>
@@ -3589,28 +3611,30 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>128</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B54" s="32"/>
       <c r="C54" s="42" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="D54" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="E54" s="32"/>
+        <v>148</v>
+      </c>
+      <c r="E54" s="32">
+        <v>400</v>
+      </c>
       <c r="F54" s="33"/>
       <c r="G54" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" s="34"/>
       <c r="J54" s="35"/>
-      <c r="K54" s="48"/>
+      <c r="K54" s="48" t="s">
+        <v>149</v>
+      </c>
       <c r="L54" s="34"/>
       <c r="M54" s="35"/>
       <c r="N54" s="25"/>
@@ -3625,16 +3649,18 @@
         <v>128</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" s="32"/>
+        <v>74</v>
+      </c>
+      <c r="D55" s="42" t="s">
+        <v>78</v>
+      </c>
       <c r="E55" s="32"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33">
         <v>1</v>
       </c>
       <c r="H55" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="34"/>
       <c r="J55" s="35"/>
@@ -3649,20 +3675,22 @@
       <c r="A56" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="32" t="s">
         <v>128</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" s="32"/>
+        <v>75</v>
+      </c>
+      <c r="D56" s="42" t="s">
+        <v>79</v>
+      </c>
       <c r="E56" s="32"/>
       <c r="F56" s="33"/>
       <c r="G56" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" s="34"/>
       <c r="J56" s="35"/>
@@ -3677,11 +3705,11 @@
       <c r="A57" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="32" t="s">
         <v>128</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="D57" s="32"/>
       <c r="E57" s="32"/>
@@ -3690,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="34"/>
       <c r="J57" s="35"/>
@@ -3709,13 +3737,17 @@
         <v>128</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D58" s="32"/>
       <c r="E58" s="32"/>
       <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
+      <c r="G58" s="33">
+        <v>1</v>
+      </c>
+      <c r="H58" s="33">
+        <v>0</v>
+      </c>
       <c r="I58" s="34"/>
       <c r="J58" s="35"/>
       <c r="K58" s="48"/>
@@ -3733,13 +3765,17 @@
         <v>128</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D59" s="32"/>
       <c r="E59" s="32"/>
       <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
+      <c r="G59" s="33">
+        <v>1</v>
+      </c>
+      <c r="H59" s="33">
+        <v>1</v>
+      </c>
       <c r="I59" s="34"/>
       <c r="J59" s="35"/>
       <c r="K59" s="48"/>
@@ -3749,35 +3785,83 @@
       <c r="O59" s="32"/>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5" t="s">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="39">
-        <f>SUM(J16:J52)</f>
-        <v>907.96</v>
-      </c>
-      <c r="K60" s="49"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="6"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="39">
+        <f>SUM(J16:J53)</f>
+        <v>985.96</v>
+      </c>
+      <c r="K62" s="49"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:P56" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A10:P58" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
@@ -3814,10 +3898,12 @@
     <hyperlink ref="N25" r:id="rId29" xr:uid="{F5DB1B37-0615-45FE-8D85-29C4F7CAFAB1}"/>
     <hyperlink ref="K17" r:id="rId30" location="/56-color-silver_grey_anodized/105-length-750mm" display="https://makersupplies.dk/en/v-slot-profiles/13-v-slot-profiles-20x20-v-slot.html - /56-color-silver_grey_anodized/105-length-750mm" xr:uid="{FAA6EB39-A108-40A3-9A17-8DDFEDA57CD1}"/>
     <hyperlink ref="K27" r:id="rId31" xr:uid="{AB0B8958-9970-4FAA-8724-81774C9EF9F1}"/>
+    <hyperlink ref="K53" r:id="rId32" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{AEC77D91-6FD3-455F-B901-C8AECBF4FBFC}"/>
+    <hyperlink ref="K54" r:id="rId33" display="Color: MGN9 H" xr:uid="{EF1CF25C-A286-4000-976B-3EF1290B85D5}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId32"/>
-  <drawing r:id="rId33"/>
-  <legacyDrawing r:id="rId34"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId34"/>
+  <drawing r:id="rId35"/>
+  <legacyDrawing r:id="rId36"/>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1031" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9088918-56F6-4868-915B-5B60A1A14FB8}"/>
+  <xr:revisionPtr revIDLastSave="1070" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9439AA5-D9B7-49C4-A5FB-F0368CB63DE1}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Valkyrie Base Frame BOM 02" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$10:$P$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$P$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$10:$P$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$P$64</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
     <author>Roy Berntsen</author>
   </authors>
   <commentList>
-    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{FB4E5E39-3716-46C1-9030-8ED6146980D7}">
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{FB4E5E39-3716-46C1-9030-8ED6146980D7}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{F7999DE5-A231-4BE3-8A97-2FA9AF556EFC}">
+    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{F7999DE5-A231-4BE3-8A97-2FA9AF556EFC}">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="155">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -253,9 +253,6 @@
     <t>Steppermotor</t>
   </si>
   <si>
-    <t>Kit</t>
-  </si>
-  <si>
     <t>Valkyrie 3d Printer Kit</t>
   </si>
   <si>
@@ -566,6 +563,21 @@
   </si>
   <si>
     <t>GL: 350 - Color: MGN12 H</t>
+  </si>
+  <si>
+    <t>Parts</t>
+  </si>
+  <si>
+    <t>M3 Nut - Heat Insert OD 4.6 L 5.7</t>
+  </si>
+  <si>
+    <t>Bontech LGX Lite</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LGX® Lite + LDO NEMA 14</t>
+  </si>
+  <si>
+    <t>Valkyrie HT 3D</t>
   </si>
 </sst>
 </file>
@@ -578,7 +590,7 @@
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,6 +771,14 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="Aharoni"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1282,12 +1302,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1364,6 +1383,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1777,15 +1799,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
@@ -1794,7 +1817,7 @@
     <col min="7" max="7" width="8.85546875" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -1803,46 +1826,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1"/>
     </row>
@@ -1868,909 +1891,909 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:16" s="7" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:16" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="27">
+      <c r="D11" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="26">
         <v>229</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27">
         <f>G11*E11</f>
         <v>229</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <v>1</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="31"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="30"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="32" t="s">
+      <c r="B12" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="32">
+      <c r="D12" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="31">
         <f>E13</f>
         <v>420</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="32">
         <f>G12*E12</f>
         <v>420</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="32">
         <v>1</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="35"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="32"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="31"/>
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="32">
+      <c r="D13" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="31">
         <v>420</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="32">
         <f>G13*E13</f>
         <v>1680</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="32">
         <v>4</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="34"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="32"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="31"/>
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="32" t="s">
+      <c r="B14" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="32">
+      <c r="D14" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="31">
         <v>480</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="32">
         <f>G14*E14</f>
         <v>1920</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="32">
         <v>4</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="32"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="31"/>
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="B15" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="32">
+      <c r="D15" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="31">
         <v>700</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="32">
         <f>G15*E15</f>
         <v>2800</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="32">
         <v>4</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="32"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="31"/>
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>1500</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="19">
         <f>F13+F14+F15</f>
         <v>6400</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <f>F16/E16</f>
         <v>4.2666666666666666</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="21">
         <v>5</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="12">
         <v>23.2</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="14">
         <f t="shared" ref="J16:J27" si="0">H16*I16</f>
         <v>116</v>
       </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="35">
-        <f t="shared" ref="M16:M49" si="1">L16*H16</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="10"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="34">
+        <f t="shared" ref="M16:M51" si="1">L16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="32" t="s">
+      <c r="B17" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <v>750</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="35">
         <f>SUM(F11:F12)</f>
         <v>649</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="31">
         <f>F17/E17</f>
         <v>0.86533333333333329</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="36">
         <v>1</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="33">
         <v>9</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K17" s="41">
+      <c r="K17" s="40">
         <v>2020</v>
       </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35">
+      <c r="L17" s="34"/>
+      <c r="M17" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N17" s="35"/>
-      <c r="O17" s="32"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="31"/>
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="23" t="s">
+      <c r="B18" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24">
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23">
         <v>12</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="23">
         <v>12</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <v>2</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="15">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="35">
+      <c r="K18" s="11"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="12"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="32" t="s">
+      <c r="B19" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33">
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32">
         <v>6</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="32">
         <v>10</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="37">
         <v>0.8</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K19" s="46"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35">
+      <c r="K19" s="45"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N19" s="35"/>
-      <c r="O19" s="32"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="31"/>
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="32" t="s">
+      <c r="B20" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33">
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32">
         <v>32</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="32">
         <v>32</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="33">
         <v>1.03</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="34">
         <f t="shared" si="0"/>
         <v>32.96</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35">
+      <c r="K20" s="46"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N20" s="35"/>
-      <c r="O20" s="32"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="31"/>
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="31">
         <v>410</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="32">
         <v>500</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="32">
         <v>1</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="32">
         <v>1</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="33">
         <v>20</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="34">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K21" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35">
+      <c r="K21" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N21" s="35"/>
-      <c r="O21" s="32"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="31"/>
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="42" t="s">
+      <c r="B22" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="32">
+      <c r="D22" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="31">
         <v>40</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33">
+      <c r="F22" s="32"/>
+      <c r="G22" s="32">
         <v>12</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="32">
         <v>3</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="33">
         <v>3</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K22" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35">
+      <c r="K22" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N22" s="35"/>
-      <c r="O22" s="32"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="31"/>
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="32" t="s">
+      <c r="B23" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="32">
+      <c r="D23" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="31">
         <v>50</v>
       </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33">
+      <c r="F23" s="32"/>
+      <c r="G23" s="32">
         <v>6</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="32">
         <v>2</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="33">
         <v>3</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K23" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35">
+      <c r="K23" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N23" s="35"/>
-      <c r="O23" s="32"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="31"/>
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="32" t="s">
+      <c r="B24" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33">
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32">
         <v>3</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="32">
         <v>1</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="33">
         <v>3</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="34">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K24" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35">
+      <c r="K24" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N24" s="35"/>
-      <c r="O24" s="32"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="31"/>
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="42" t="s">
+      <c r="B25" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33">
+      <c r="F25" s="32"/>
+      <c r="G25" s="32">
         <v>1225</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="32">
         <v>1225</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="33">
         <v>0.08</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="34">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="K25" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="L25" s="35">
+      <c r="K25" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" s="34">
         <v>0.08</v>
       </c>
-      <c r="M25" s="35">
+      <c r="M25" s="34">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="N25" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="O25" s="32"/>
+      <c r="N25" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="O25" s="31"/>
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="42" t="s">
+      <c r="B26" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="42">
+      <c r="E26" s="41">
         <v>30</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33">
+      <c r="F26" s="32"/>
+      <c r="G26" s="32">
         <v>3</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="32">
         <v>2</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26" s="33">
         <v>2.5</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K26" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35">
+      <c r="K26" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N26" s="35"/>
-      <c r="O26" s="32"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="31"/>
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="42" t="s">
+      <c r="B27" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="42">
+      <c r="E27" s="41">
         <v>310</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33">
+      <c r="F27" s="32"/>
+      <c r="G27" s="32">
         <v>1</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="32">
         <v>1</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="33">
         <v>40</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="34">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="K27" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35">
+      <c r="K27" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N27" s="35"/>
-      <c r="O27" s="32"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="31"/>
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="32" t="s">
+      <c r="B28" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="32">
+      <c r="D28" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="31">
         <v>20</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33">
+      <c r="F28" s="32"/>
+      <c r="G28" s="32">
         <v>3</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="32">
         <v>3</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35">
+      <c r="I28" s="33"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N28" s="35"/>
-      <c r="O28" s="32"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="31"/>
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="32" t="s">
+      <c r="B29" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33">
+      <c r="D29" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32">
         <v>76</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29" s="32">
         <v>100</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="33">
         <v>0.11</v>
       </c>
-      <c r="J29" s="35">
-        <f t="shared" ref="J29:J39" si="2">H29*I29</f>
+      <c r="J29" s="34">
+        <f t="shared" ref="J29:J40" si="2">H29*I29</f>
         <v>11</v>
       </c>
-      <c r="K29" s="47"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35">
+      <c r="K29" s="46"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N29" s="35"/>
-      <c r="O29" s="32"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="31"/>
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="32" t="s">
+      <c r="B30" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33">
-        <v>0</v>
-      </c>
-      <c r="H30" s="33">
+      <c r="D30" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32">
+        <v>0</v>
+      </c>
+      <c r="H30" s="32">
         <v>50</v>
       </c>
-      <c r="I30" s="34">
+      <c r="I30" s="33">
         <v>0.3</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="34">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K30" s="47"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35">
+      <c r="K30" s="46"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N30" s="35"/>
-      <c r="O30" s="32"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="31"/>
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="32" t="s">
+      <c r="B31" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33">
+      <c r="D31" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32">
         <v>76</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31" s="32">
         <v>100</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="33">
         <v>0.1</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="34">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K31" s="47"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35">
+      <c r="K31" s="46"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N31" s="35"/>
-      <c r="O31" s="32"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="31"/>
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="32" t="s">
+      <c r="B32" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33">
+      <c r="D32" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="31"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32">
         <v>76</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="32">
         <v>100</v>
       </c>
-      <c r="I32" s="34">
+      <c r="I32" s="33">
         <v>0.21</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="34">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="K32" s="47"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35">
+      <c r="K32" s="46"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N32" s="35"/>
-      <c r="O32" s="32"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="31"/>
       <c r="P32" s="3">
         <v>7380</v>
       </c>
@@ -2779,1131 +2802,1215 @@
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="42" t="s">
+      <c r="B33" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="31"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32">
+        <v>10</v>
+      </c>
+      <c r="H33" s="32">
+        <v>50</v>
+      </c>
+      <c r="I33" s="33">
+        <v>0.06</v>
+      </c>
+      <c r="J33" s="34">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K33" s="46"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="34"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33">
+      <c r="D34" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32">
         <v>3</v>
       </c>
-      <c r="H33" s="33">
+      <c r="H34" s="32">
         <v>3</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I34" s="33">
         <v>4</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J34" s="34">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="K33" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35">
+      <c r="K34" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N33" s="35"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33">
-        <v>1</v>
-      </c>
-      <c r="H34" s="33">
-        <v>1</v>
-      </c>
-      <c r="I34" s="34">
-        <v>70</v>
-      </c>
-      <c r="J34" s="35">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="K34" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="35"/>
-      <c r="O34" s="32"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="31"/>
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="42" t="s">
+      <c r="B35" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33">
+      <c r="D35" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="31"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32">
         <v>1</v>
       </c>
-      <c r="H35" s="33">
-        <v>0</v>
-      </c>
-      <c r="I35" s="34">
-        <v>71</v>
-      </c>
-      <c r="J35" s="35">
+      <c r="H35" s="32">
+        <v>1</v>
+      </c>
+      <c r="I35" s="33">
+        <v>70</v>
+      </c>
+      <c r="J35" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35">
+        <v>70</v>
+      </c>
+      <c r="K35" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N35" s="35"/>
-      <c r="O35" s="32"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="31"/>
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33">
+      <c r="B36" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32">
         <v>1</v>
       </c>
-      <c r="H36" s="33">
-        <v>1</v>
-      </c>
-      <c r="I36" s="34">
-        <v>23</v>
-      </c>
-      <c r="J36" s="35">
+      <c r="H36" s="32">
+        <v>0</v>
+      </c>
+      <c r="I36" s="33">
+        <v>71</v>
+      </c>
+      <c r="J36" s="34">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="K36" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35">
+        <v>0</v>
+      </c>
+      <c r="K36" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N36" s="35"/>
-      <c r="O36" s="32"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="31"/>
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="42" t="s">
+      <c r="B37" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33">
-        <v>5</v>
-      </c>
-      <c r="H37" s="33">
-        <v>5</v>
-      </c>
-      <c r="I37" s="34">
-        <v>2</v>
-      </c>
-      <c r="J37" s="35">
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32">
+        <v>1</v>
+      </c>
+      <c r="H37" s="32">
+        <v>1</v>
+      </c>
+      <c r="I37" s="33">
+        <v>23</v>
+      </c>
+      <c r="J37" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K37" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35">
+        <v>23</v>
+      </c>
+      <c r="K37" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N37" s="35"/>
-      <c r="O37" s="32"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="31"/>
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33">
-        <v>1</v>
-      </c>
-      <c r="H38" s="33">
-        <v>1</v>
-      </c>
-      <c r="I38" s="34">
-        <v>7.5</v>
-      </c>
-      <c r="J38" s="35">
+      <c r="B38" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32">
+        <v>5</v>
+      </c>
+      <c r="H38" s="32">
+        <v>5</v>
+      </c>
+      <c r="I38" s="33">
+        <v>2</v>
+      </c>
+      <c r="J38" s="34">
         <f t="shared" si="2"/>
-        <v>7.5</v>
-      </c>
-      <c r="K38" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35">
+        <v>10</v>
+      </c>
+      <c r="K38" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N38" s="35"/>
-      <c r="O38" s="32"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="31"/>
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" s="32">
-        <v>310</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33">
+      <c r="B39" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32">
         <v>1</v>
       </c>
-      <c r="H39" s="33">
+      <c r="H39" s="32">
         <v>1</v>
       </c>
-      <c r="I39" s="34">
-        <v>23.5</v>
-      </c>
-      <c r="J39" s="35">
+      <c r="I39" s="33">
+        <v>7.5</v>
+      </c>
+      <c r="J39" s="34">
         <f t="shared" si="2"/>
-        <v>23.5</v>
-      </c>
-      <c r="K39" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="L39" s="35">
-        <v>75</v>
-      </c>
-      <c r="M39" s="35">
+        <v>7.5</v>
+      </c>
+      <c r="K39" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="N39" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="O39" s="32"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="34"/>
+      <c r="O39" s="31"/>
       <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33">
+      <c r="B40" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="31">
+        <v>310</v>
+      </c>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32">
         <v>1</v>
       </c>
-      <c r="H40" s="33">
+      <c r="H40" s="32">
         <v>1</v>
       </c>
-      <c r="I40" s="34"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35">
+      <c r="I40" s="33">
+        <v>23.5</v>
+      </c>
+      <c r="J40" s="34">
+        <f t="shared" si="2"/>
+        <v>23.5</v>
+      </c>
+      <c r="K40" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="L40" s="34">
+        <v>75</v>
+      </c>
+      <c r="M40" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="35"/>
-      <c r="O40" s="32"/>
+        <v>75</v>
+      </c>
+      <c r="N40" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="O40" s="31"/>
       <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33">
+      <c r="C41" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32">
         <v>1</v>
       </c>
-      <c r="H41" s="33">
+      <c r="H41" s="32">
         <v>1</v>
       </c>
-      <c r="I41" s="34"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35">
+      <c r="I41" s="33"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N41" s="35"/>
-      <c r="O41" s="32"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="31"/>
       <c r="P41" s="3"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33">
+        <v>36</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32">
         <v>1</v>
       </c>
-      <c r="H42" s="33">
-        <v>0</v>
-      </c>
-      <c r="I42" s="34">
-        <v>30</v>
-      </c>
-      <c r="J42" s="35">
-        <f t="shared" ref="J42:J53" si="3">H42*I42</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35">
+      <c r="H42" s="32">
+        <v>1</v>
+      </c>
+      <c r="I42" s="33"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N42" s="35"/>
-      <c r="O42" s="32"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="31"/>
       <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33">
+      <c r="E43" s="31"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32">
         <v>1</v>
       </c>
-      <c r="H43" s="33">
-        <v>0</v>
-      </c>
-      <c r="I43" s="34">
-        <v>90</v>
-      </c>
-      <c r="J43" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35">
+      <c r="H43" s="32">
+        <v>0</v>
+      </c>
+      <c r="I43" s="33">
+        <v>30</v>
+      </c>
+      <c r="J43" s="34">
+        <f t="shared" ref="J43:J56" si="3">H43*I43</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N43" s="35"/>
-      <c r="O43" s="32"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="31"/>
       <c r="P43" s="3"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33">
+        <v>104</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32">
         <v>1</v>
       </c>
-      <c r="H44" s="33">
-        <v>0</v>
-      </c>
-      <c r="I44" s="34">
-        <v>65</v>
-      </c>
-      <c r="J44" s="35">
+      <c r="H44" s="32">
+        <v>1</v>
+      </c>
+      <c r="I44" s="33">
+        <v>85</v>
+      </c>
+      <c r="J44" s="34">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35">
+        <v>85</v>
+      </c>
+      <c r="K44" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N44" s="35"/>
-      <c r="O44" s="32"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="31"/>
       <c r="P44" s="3"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33">
+      <c r="E45" s="31"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32">
         <v>1</v>
       </c>
-      <c r="H45" s="33">
-        <v>1</v>
-      </c>
-      <c r="I45" s="34">
-        <v>100</v>
-      </c>
-      <c r="J45" s="35">
+      <c r="H45" s="32">
+        <v>0</v>
+      </c>
+      <c r="I45" s="33">
+        <v>65</v>
+      </c>
+      <c r="J45" s="34">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="K45" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35">
+        <v>0</v>
+      </c>
+      <c r="K45" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N45" s="35"/>
-      <c r="O45" s="32"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="31"/>
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" s="32">
+        <v>104</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32">
+        <v>1</v>
+      </c>
+      <c r="H46" s="32">
+        <v>0</v>
+      </c>
+      <c r="I46" s="33">
         <v>100</v>
       </c>
-      <c r="F46" s="33">
-        <v>7000</v>
-      </c>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33">
-        <v>1</v>
-      </c>
-      <c r="I46" s="34">
-        <v>39</v>
-      </c>
-      <c r="J46" s="35">
+      <c r="J46" s="34">
         <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="K46" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35">
+        <v>0</v>
+      </c>
+      <c r="K46" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N46" s="35"/>
-      <c r="O46" s="32"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="31"/>
       <c r="P46" s="3"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33">
-        <v>10</v>
-      </c>
-      <c r="H47" s="33">
-        <v>10</v>
-      </c>
-      <c r="I47" s="34">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="J47" s="35">
+        <v>104</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="31"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32">
+        <v>1</v>
+      </c>
+      <c r="H47" s="32">
+        <v>1</v>
+      </c>
+      <c r="I47" s="33">
+        <v>70</v>
+      </c>
+      <c r="J47" s="34">
         <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="K47" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="L47" s="35">
-        <v>5.5</v>
-      </c>
-      <c r="M47" s="35">
+        <v>70</v>
+      </c>
+      <c r="K47" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="N47" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="O47" s="32"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="34"/>
+      <c r="O47" s="31"/>
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="32"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33">
-        <v>5</v>
-      </c>
-      <c r="H48" s="33">
-        <v>5</v>
-      </c>
-      <c r="I48" s="34">
-        <v>6</v>
-      </c>
-      <c r="J48" s="35">
+      <c r="B48" s="41"/>
+      <c r="C48" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="31">
+        <v>100</v>
+      </c>
+      <c r="F48" s="32">
+        <v>7000</v>
+      </c>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32">
+        <v>1</v>
+      </c>
+      <c r="I48" s="33">
+        <v>39</v>
+      </c>
+      <c r="J48" s="34">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="K48" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="L48" s="35">
-        <v>7</v>
-      </c>
-      <c r="M48" s="35">
+        <v>39</v>
+      </c>
+      <c r="K48" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="N48" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="O48" s="32"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="34"/>
+      <c r="O48" s="31"/>
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33">
-        <v>5</v>
-      </c>
-      <c r="H49" s="33">
-        <v>5</v>
-      </c>
-      <c r="I49" s="34">
-        <v>4</v>
-      </c>
-      <c r="J49" s="35">
+      <c r="B49" s="41"/>
+      <c r="C49" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32">
+        <v>10</v>
+      </c>
+      <c r="H49" s="32">
+        <v>10</v>
+      </c>
+      <c r="I49" s="33">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J49" s="34">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="K49" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="L49" s="35">
-        <v>6</v>
-      </c>
-      <c r="M49" s="35">
+        <v>41</v>
+      </c>
+      <c r="K49" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="L49" s="34">
+        <v>5.5</v>
+      </c>
+      <c r="M49" s="34">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="N49" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="O49" s="32"/>
+        <v>55</v>
+      </c>
+      <c r="N49" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="O49" s="31"/>
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="32">
-        <v>200</v>
-      </c>
-      <c r="F50" s="33">
-        <v>600</v>
-      </c>
-      <c r="G50" s="33">
-        <v>3</v>
-      </c>
-      <c r="H50" s="33">
-        <v>3</v>
-      </c>
-      <c r="I50" s="34">
-        <v>15</v>
-      </c>
-      <c r="J50" s="35">
+      <c r="B50" s="41"/>
+      <c r="C50" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="31"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32">
+        <v>5</v>
+      </c>
+      <c r="H50" s="32">
+        <v>5</v>
+      </c>
+      <c r="I50" s="33">
+        <v>6</v>
+      </c>
+      <c r="J50" s="34">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="K50" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="32"/>
+        <v>30</v>
+      </c>
+      <c r="K50" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="L50" s="34">
+        <v>7</v>
+      </c>
+      <c r="M50" s="34">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="N50" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="O50" s="31"/>
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E51" s="32"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33">
-        <v>3</v>
-      </c>
-      <c r="H51" s="33">
-        <v>3</v>
-      </c>
-      <c r="I51" s="34">
-        <v>11</v>
-      </c>
-      <c r="J51" s="35">
+      <c r="B51" s="41"/>
+      <c r="C51" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="31"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32">
+        <v>5</v>
+      </c>
+      <c r="H51" s="32">
+        <v>5</v>
+      </c>
+      <c r="I51" s="33">
+        <v>4</v>
+      </c>
+      <c r="J51" s="34">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="K51" s="48"/>
+        <v>20</v>
+      </c>
+      <c r="K51" s="47" t="s">
+        <v>58</v>
+      </c>
       <c r="L51" s="34">
-        <v>11</v>
-      </c>
-      <c r="M51" s="35">
-        <f>L51*H51</f>
-        <v>33</v>
-      </c>
-      <c r="N51" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="O51" s="32"/>
+        <v>6</v>
+      </c>
+      <c r="M51" s="34">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="N51" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="O51" s="31"/>
       <c r="P51" s="3"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32" t="s">
+      <c r="B52" s="41"/>
+      <c r="C52" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="31">
+        <v>200</v>
+      </c>
+      <c r="F52" s="32">
+        <v>600</v>
+      </c>
+      <c r="G52" s="32">
+        <v>3</v>
+      </c>
+      <c r="H52" s="32">
+        <v>3</v>
+      </c>
+      <c r="I52" s="33">
+        <v>15</v>
+      </c>
+      <c r="J52" s="34">
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="D52" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" s="32"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33">
-        <v>2</v>
-      </c>
-      <c r="H52" s="33">
-        <v>2</v>
-      </c>
-      <c r="I52" s="34">
-        <v>13</v>
-      </c>
-      <c r="J52" s="35">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="K52" s="48"/>
-      <c r="L52" s="34">
-        <v>13</v>
-      </c>
-      <c r="M52" s="35">
-        <f>L52*H52</f>
-        <v>26</v>
-      </c>
-      <c r="N52" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="O52" s="32"/>
+      <c r="K52" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="31"/>
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="E53" s="32">
-        <v>350</v>
-      </c>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33">
-        <v>5</v>
-      </c>
-      <c r="H53" s="33">
-        <v>5</v>
-      </c>
-      <c r="I53" s="34">
-        <v>15.6</v>
-      </c>
-      <c r="J53" s="35">
+      <c r="B53" s="31"/>
+      <c r="C53" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="31"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32">
+        <v>3</v>
+      </c>
+      <c r="H53" s="32">
+        <v>3</v>
+      </c>
+      <c r="I53" s="33">
+        <v>11</v>
+      </c>
+      <c r="J53" s="34">
         <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="K53" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="L53" s="34"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="32"/>
+        <v>33</v>
+      </c>
+      <c r="K53" s="47"/>
+      <c r="L53" s="33">
+        <v>11</v>
+      </c>
+      <c r="M53" s="34">
+        <f>L53*H53</f>
+        <v>33</v>
+      </c>
+      <c r="N53" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="O53" s="31"/>
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="E54" s="32">
-        <v>400</v>
-      </c>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33">
-        <v>1</v>
-      </c>
-      <c r="H54" s="33">
-        <v>1</v>
-      </c>
-      <c r="I54" s="34"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="L54" s="34"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="32"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="31"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32">
+        <v>2</v>
+      </c>
+      <c r="H54" s="32">
+        <v>2</v>
+      </c>
+      <c r="I54" s="33">
+        <v>13</v>
+      </c>
+      <c r="J54" s="34">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="K54" s="47"/>
+      <c r="L54" s="33">
+        <v>13</v>
+      </c>
+      <c r="M54" s="34">
+        <f>L54*H54</f>
+        <v>26</v>
+      </c>
+      <c r="N54" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O54" s="31"/>
       <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="31"/>
+      <c r="C55" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" s="31">
+        <v>350</v>
+      </c>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32">
+        <v>5</v>
+      </c>
+      <c r="H55" s="32">
+        <v>5</v>
+      </c>
+      <c r="I55" s="33">
+        <v>15.6</v>
+      </c>
+      <c r="J55" s="34">
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="E55" s="32"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33">
-        <v>1</v>
-      </c>
-      <c r="H55" s="33">
-        <v>1</v>
-      </c>
-      <c r="I55" s="34"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="32"/>
+      <c r="K55" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="L55" s="33"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="31"/>
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="E56" s="32"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33">
-        <v>2</v>
-      </c>
-      <c r="H56" s="33">
-        <v>2</v>
-      </c>
-      <c r="I56" s="34"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="32"/>
+        <v>40</v>
+      </c>
+      <c r="B56" s="31"/>
+      <c r="C56" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" s="31">
+        <v>400</v>
+      </c>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32">
+        <v>1</v>
+      </c>
+      <c r="H56" s="32">
+        <v>1</v>
+      </c>
+      <c r="I56" s="33">
+        <v>16</v>
+      </c>
+      <c r="J56" s="34">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="K56" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="L56" s="33"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="31"/>
       <c r="P56" s="3"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33">
+      <c r="D57" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="31"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32">
         <v>1</v>
       </c>
-      <c r="H57" s="33">
-        <v>0</v>
-      </c>
-      <c r="I57" s="34"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="32"/>
+      <c r="H57" s="32">
+        <v>1</v>
+      </c>
+      <c r="I57" s="33"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="31"/>
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33">
-        <v>1</v>
-      </c>
-      <c r="H58" s="33">
-        <v>0</v>
-      </c>
-      <c r="I58" s="34"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="32"/>
+        <v>72</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="31"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32">
+        <v>2</v>
+      </c>
+      <c r="H58" s="32">
+        <v>2</v>
+      </c>
+      <c r="I58" s="33"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="31"/>
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33">
+        <v>72</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32">
         <v>1</v>
       </c>
-      <c r="H59" s="33">
-        <v>1</v>
-      </c>
-      <c r="I59" s="34"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="32"/>
+      <c r="H59" s="32">
+        <v>0</v>
+      </c>
+      <c r="I59" s="33"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="31"/>
       <c r="P59" s="3"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="32"/>
+        <v>72</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32">
+        <v>1</v>
+      </c>
+      <c r="H60" s="32">
+        <v>0</v>
+      </c>
+      <c r="I60" s="33"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="31"/>
       <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="32"/>
+        <v>72</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32">
+        <v>1</v>
+      </c>
+      <c r="H61" s="32">
+        <v>1</v>
+      </c>
+      <c r="I61" s="33"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="31"/>
       <c r="P61" s="3"/>
     </row>
-    <row r="62" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="39">
-        <f>SUM(J16:J53)</f>
-        <v>985.96</v>
-      </c>
-      <c r="K62" s="49"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="6"/>
+      <c r="D64" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="54">
+        <f>SUM(J16:J56)</f>
+        <v>1059.96</v>
+      </c>
+      <c r="K64" s="48"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:P58" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A10:P60" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K46" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
-    <hyperlink ref="K47" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
-    <hyperlink ref="K48" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
-    <hyperlink ref="K49" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
-    <hyperlink ref="K50" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
-    <hyperlink ref="N51" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
-    <hyperlink ref="N52" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
+    <hyperlink ref="K48" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
+    <hyperlink ref="K49" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
+    <hyperlink ref="K50" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
+    <hyperlink ref="K51" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
+    <hyperlink ref="K52" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
+    <hyperlink ref="N53" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
+    <hyperlink ref="N54" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
     <hyperlink ref="K21" r:id="rId8" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
     <hyperlink ref="K23" r:id="rId9" display="2x Length: 45mm 4PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
-    <hyperlink ref="K34" r:id="rId10" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
+    <hyperlink ref="K35" r:id="rId10" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
     <hyperlink ref="K24" r:id="rId11" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
-    <hyperlink ref="N47" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
-    <hyperlink ref="N48" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
-    <hyperlink ref="N49" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
+    <hyperlink ref="N49" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
+    <hyperlink ref="N50" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
+    <hyperlink ref="N51" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
     <hyperlink ref="K25" r:id="rId15" xr:uid="{A8C5E0F3-B1FB-4E57-8DD8-1DF57CDC1A28}"/>
-    <hyperlink ref="K36" r:id="rId16" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
-    <hyperlink ref="K35" r:id="rId17" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
-    <hyperlink ref="K37" r:id="rId18" display="6pcs Optical Endstop" xr:uid="{0AB90FFF-9946-4F78-93E2-A102C645ECAE}"/>
-    <hyperlink ref="K38" r:id="rId19" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
+    <hyperlink ref="K37" r:id="rId16" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
+    <hyperlink ref="K36" r:id="rId17" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
+    <hyperlink ref="K38" r:id="rId18" display="6pcs Optical Endstop" xr:uid="{0AB90FFF-9946-4F78-93E2-A102C645ECAE}"/>
+    <hyperlink ref="K39" r:id="rId19" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
     <hyperlink ref="K22" r:id="rId20" xr:uid="{7E1F7424-E58C-4FCB-9D3A-3CB69F34CE9F}"/>
     <hyperlink ref="K26" r:id="rId21" xr:uid="{755FCD6D-D745-447C-AAA6-2D31A19F9A40}"/>
-    <hyperlink ref="K42" r:id="rId22" xr:uid="{A90E869A-7328-473A-BA20-82979A845F00}"/>
-    <hyperlink ref="K43" r:id="rId23" xr:uid="{37B2932B-CA7B-49AA-9F35-9BCE3D136353}"/>
-    <hyperlink ref="K44" r:id="rId24" xr:uid="{BE140B59-D4B8-46C3-B6EC-BEB5F431781F}"/>
-    <hyperlink ref="K45" r:id="rId25" xr:uid="{54817A0E-3A4B-42D7-AA92-5C84B2F161F2}"/>
-    <hyperlink ref="K39" r:id="rId26" xr:uid="{4F053E16-31A4-458E-B422-7E74FE54E665}"/>
-    <hyperlink ref="N39" r:id="rId27" display="Color: 220V 750W" xr:uid="{6A46011B-C1CA-4A88-AD58-75064F9710C4}"/>
-    <hyperlink ref="K33" r:id="rId28" xr:uid="{B9B35946-F710-4A9B-AA0F-C3E1EB8A9B02}"/>
+    <hyperlink ref="K43" r:id="rId22" xr:uid="{A90E869A-7328-473A-BA20-82979A845F00}"/>
+    <hyperlink ref="K44" r:id="rId23" xr:uid="{37B2932B-CA7B-49AA-9F35-9BCE3D136353}"/>
+    <hyperlink ref="K45" r:id="rId24" xr:uid="{BE140B59-D4B8-46C3-B6EC-BEB5F431781F}"/>
+    <hyperlink ref="K46" r:id="rId25" xr:uid="{54817A0E-3A4B-42D7-AA92-5C84B2F161F2}"/>
+    <hyperlink ref="K40" r:id="rId26" xr:uid="{4F053E16-31A4-458E-B422-7E74FE54E665}"/>
+    <hyperlink ref="N40" r:id="rId27" display="Color: 220V 750W" xr:uid="{6A46011B-C1CA-4A88-AD58-75064F9710C4}"/>
+    <hyperlink ref="K34" r:id="rId28" xr:uid="{B9B35946-F710-4A9B-AA0F-C3E1EB8A9B02}"/>
     <hyperlink ref="N25" r:id="rId29" xr:uid="{F5DB1B37-0615-45FE-8D85-29C4F7CAFAB1}"/>
     <hyperlink ref="K17" r:id="rId30" location="/56-color-silver_grey_anodized/105-length-750mm" display="https://makersupplies.dk/en/v-slot-profiles/13-v-slot-profiles-20x20-v-slot.html - /56-color-silver_grey_anodized/105-length-750mm" xr:uid="{FAA6EB39-A108-40A3-9A17-8DDFEDA57CD1}"/>
     <hyperlink ref="K27" r:id="rId31" xr:uid="{AB0B8958-9970-4FAA-8724-81774C9EF9F1}"/>
-    <hyperlink ref="K53" r:id="rId32" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{AEC77D91-6FD3-455F-B901-C8AECBF4FBFC}"/>
-    <hyperlink ref="K54" r:id="rId33" display="Color: MGN9 H" xr:uid="{EF1CF25C-A286-4000-976B-3EF1290B85D5}"/>
+    <hyperlink ref="K55" r:id="rId32" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{AEC77D91-6FD3-455F-B901-C8AECBF4FBFC}"/>
+    <hyperlink ref="K56" r:id="rId33" display="Color: MGN9 H" xr:uid="{EF1CF25C-A286-4000-976B-3EF1290B85D5}"/>
+    <hyperlink ref="K47" r:id="rId34" xr:uid="{DB0C305C-D8F4-4B4B-BC4F-C7B8CEFFD8B9}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId34"/>
-  <drawing r:id="rId35"/>
-  <legacyDrawing r:id="rId36"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId35"/>
+  <drawing r:id="rId36"/>
+  <legacyDrawing r:id="rId37"/>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1070" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9439AA5-D9B7-49C4-A5FB-F0368CB63DE1}"/>
+  <xr:revisionPtr revIDLastSave="1085" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AF5781A-EEC9-4B82-B350-670A985541EE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Base Frame BOM 02" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="158">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -578,6 +578,15 @@
   </si>
   <si>
     <t>Valkyrie HT 3D</t>
+  </si>
+  <si>
+    <t>Blade Color: 240MM</t>
+  </si>
+  <si>
+    <t>140mm reservoir</t>
+  </si>
+  <si>
+    <t>Blade Color: BF04-PR</t>
   </si>
 </sst>
 </file>
@@ -1374,6 +1383,9 @@
     <xf numFmtId="165" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1383,54 +1395,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Beregning" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Dårlig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Forklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="God" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Hyperkobling" xfId="42" builtinId="8"/>
+    <cellStyle name="Inndata" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Koblet celle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Kontrollcelle" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Merknad" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Nøytral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Overskrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Overskrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Overskrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Overskrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Tittel" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Totalt" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Utdata" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Varseltekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1500,7 +1509,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1802,96 +1811,96 @@
   <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <pane ySplit="10" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.1796875" customWidth="1"/>
+    <col min="14" max="14" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:16" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:16" s="6" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="16" t="s">
         <v>5</v>
       </c>
@@ -1941,7 +1950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
         <v>17</v>
       </c>
@@ -1974,7 +1983,7 @@
       <c r="O11" s="26"/>
       <c r="P11" s="30"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2008,7 +2017,7 @@
       <c r="O12" s="31"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2041,7 +2050,7 @@
       <c r="O13" s="31"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -2074,7 +2083,7 @@
       <c r="O14" s="31"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -2107,7 +2116,7 @@
       <c r="O15" s="31"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
@@ -2151,7 +2160,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -2197,7 +2206,7 @@
       <c r="O17" s="31"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
@@ -2235,7 +2244,7 @@
       <c r="O18" s="22"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -2273,7 +2282,7 @@
       <c r="O19" s="31"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -2311,7 +2320,7 @@
       <c r="O20" s="31"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -2355,7 +2364,7 @@
       <c r="O21" s="31"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
@@ -2397,7 +2406,7 @@
       <c r="O22" s="31"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -2439,7 +2448,7 @@
       <c r="O23" s="31"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2479,7 +2488,7 @@
       <c r="O24" s="31"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -2525,7 +2534,7 @@
       <c r="O25" s="31"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -2567,7 +2576,7 @@
       <c r="O26" s="31"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -2609,7 +2618,7 @@
       <c r="O27" s="31"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
@@ -2644,7 +2653,7 @@
       <c r="O28" s="31"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -2682,7 +2691,7 @@
       <c r="O29" s="31"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -2720,7 +2729,7 @@
       <c r="O30" s="31"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -2758,7 +2767,7 @@
       <c r="O31" s="31"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2798,7 +2807,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -2836,7 +2845,7 @@
       <c r="O33" s="31"/>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -2876,7 +2885,7 @@
       <c r="O34" s="31"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -2916,7 +2925,7 @@
       <c r="O35" s="31"/>
       <c r="P35" s="3"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -2956,7 +2965,7 @@
       <c r="O36" s="31"/>
       <c r="P36" s="3"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -2996,7 +3005,7 @@
       <c r="O37" s="31"/>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -3036,7 +3045,7 @@
       <c r="O38" s="31"/>
       <c r="P38" s="3"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
@@ -3076,7 +3085,7 @@
       <c r="O39" s="31"/>
       <c r="P39" s="3"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
@@ -3122,7 +3131,7 @@
       <c r="O40" s="31"/>
       <c r="P40" s="3"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>36</v>
       </c>
@@ -3155,7 +3164,7 @@
       <c r="O41" s="31"/>
       <c r="P41" s="3"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>36</v>
       </c>
@@ -3188,7 +3197,7 @@
       <c r="O42" s="31"/>
       <c r="P42" s="3"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>104</v>
       </c>
@@ -3213,7 +3222,7 @@
         <v>30</v>
       </c>
       <c r="J43" s="34">
-        <f t="shared" ref="J43:J56" si="3">H43*I43</f>
+        <f t="shared" ref="J43:J61" si="3">H43*I43</f>
         <v>0</v>
       </c>
       <c r="K43" s="47" t="s">
@@ -3228,7 +3237,7 @@
       <c r="O43" s="31"/>
       <c r="P43" s="3"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>104</v>
       </c>
@@ -3268,7 +3277,7 @@
       <c r="O44" s="31"/>
       <c r="P44" s="3"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>104</v>
       </c>
@@ -3308,7 +3317,7 @@
       <c r="O45" s="31"/>
       <c r="P45" s="3"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>104</v>
       </c>
@@ -3348,7 +3357,7 @@
       <c r="O46" s="31"/>
       <c r="P46" s="3"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>104</v>
       </c>
@@ -3388,7 +3397,7 @@
       <c r="O47" s="31"/>
       <c r="P47" s="3"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>40</v>
       </c>
@@ -3428,7 +3437,7 @@
       <c r="O48" s="31"/>
       <c r="P48" s="3"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>40</v>
       </c>
@@ -3470,7 +3479,7 @@
       <c r="O49" s="31"/>
       <c r="P49" s="3"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>40</v>
       </c>
@@ -3512,7 +3521,7 @@
       <c r="O50" s="31"/>
       <c r="P50" s="3"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>40</v>
       </c>
@@ -3554,7 +3563,7 @@
       <c r="O51" s="31"/>
       <c r="P51" s="3"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
@@ -3593,7 +3602,7 @@
       <c r="O52" s="31"/>
       <c r="P52" s="3"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>40</v>
       </c>
@@ -3633,7 +3642,7 @@
       <c r="O53" s="31"/>
       <c r="P53" s="3"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>40</v>
       </c>
@@ -3673,7 +3682,7 @@
       <c r="O54" s="31"/>
       <c r="P54" s="3"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>40</v>
       </c>
@@ -3710,7 +3719,7 @@
       <c r="O55" s="31"/>
       <c r="P55" s="3"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>40</v>
       </c>
@@ -3747,7 +3756,7 @@
       <c r="O56" s="31"/>
       <c r="P56" s="3"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>72</v>
       </c>
@@ -3768,16 +3777,23 @@
       <c r="H57" s="32">
         <v>1</v>
       </c>
-      <c r="I57" s="33"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="47"/>
+      <c r="I57" s="33">
+        <v>50</v>
+      </c>
+      <c r="J57" s="34">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="K57" s="47" t="s">
+        <v>155</v>
+      </c>
       <c r="L57" s="33"/>
       <c r="M57" s="34"/>
       <c r="N57" s="24"/>
       <c r="O57" s="31"/>
       <c r="P57" s="3"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>72</v>
       </c>
@@ -3798,16 +3814,23 @@
       <c r="H58" s="32">
         <v>2</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="47"/>
+      <c r="I58" s="33">
+        <v>20</v>
+      </c>
+      <c r="J58" s="34">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="K58" s="47" t="s">
+        <v>157</v>
+      </c>
       <c r="L58" s="33"/>
       <c r="M58" s="34"/>
       <c r="N58" s="24"/>
       <c r="O58" s="31"/>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>72</v>
       </c>
@@ -3827,7 +3850,10 @@
         <v>0</v>
       </c>
       <c r="I59" s="33"/>
-      <c r="J59" s="34"/>
+      <c r="J59" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K59" s="47"/>
       <c r="L59" s="33"/>
       <c r="M59" s="34"/>
@@ -3835,7 +3861,7 @@
       <c r="O59" s="31"/>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>72</v>
       </c>
@@ -3855,7 +3881,10 @@
         <v>0</v>
       </c>
       <c r="I60" s="33"/>
-      <c r="J60" s="34"/>
+      <c r="J60" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K60" s="47"/>
       <c r="L60" s="33"/>
       <c r="M60" s="34"/>
@@ -3863,7 +3892,7 @@
       <c r="O60" s="31"/>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>72</v>
       </c>
@@ -3882,16 +3911,23 @@
       <c r="H61" s="32">
         <v>1</v>
       </c>
-      <c r="I61" s="33"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="47"/>
+      <c r="I61" s="33">
+        <v>70</v>
+      </c>
+      <c r="J61" s="34">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="K61" s="47" t="s">
+        <v>156</v>
+      </c>
       <c r="L61" s="33"/>
       <c r="M61" s="34"/>
       <c r="N61" s="24"/>
       <c r="O61" s="31"/>
       <c r="P61" s="3"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>72</v>
       </c>
@@ -3915,7 +3951,7 @@
       <c r="O62" s="31"/>
       <c r="P62" s="3"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>72</v>
       </c>
@@ -3939,25 +3975,25 @@
       <c r="O63" s="31"/>
       <c r="P63" s="3"/>
     </row>
-    <row r="64" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="52" t="s">
+    <row r="64" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53" t="s">
+      <c r="B64" s="50"/>
+      <c r="C64" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="53" t="s">
+      <c r="D64" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54">
-        <f>SUM(J16:J56)</f>
-        <v>1059.96</v>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="51">
+        <f>SUM(J16:J63)</f>
+        <v>1219.96</v>
       </c>
       <c r="K64" s="48"/>
       <c r="L64" s="38"/>
@@ -4007,10 +4043,13 @@
     <hyperlink ref="K55" r:id="rId32" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{AEC77D91-6FD3-455F-B901-C8AECBF4FBFC}"/>
     <hyperlink ref="K56" r:id="rId33" display="Color: MGN9 H" xr:uid="{EF1CF25C-A286-4000-976B-3EF1290B85D5}"/>
     <hyperlink ref="K47" r:id="rId34" xr:uid="{DB0C305C-D8F4-4B4B-BC4F-C7B8CEFFD8B9}"/>
+    <hyperlink ref="K57" r:id="rId35" xr:uid="{DD8F2F46-A4D3-45B7-8C61-BE3E5D8E77D4}"/>
+    <hyperlink ref="K61" r:id="rId36" display="Blade Color: 140mm reservoir" xr:uid="{1B2FD753-14EC-44DA-A449-AA8B531B9F4C}"/>
+    <hyperlink ref="K58" r:id="rId37" xr:uid="{14075AD2-C38A-4641-AE38-8D82C15730CB}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId35"/>
-  <drawing r:id="rId36"/>
-  <legacyDrawing r:id="rId37"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId38"/>
+  <drawing r:id="rId39"/>
+  <legacyDrawing r:id="rId40"/>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1282" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0C7A258-8846-40D0-B9C4-120A44CDB380}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{B0BDE0A3-E6D2-4CB5-B3CB-54BD7EA2D1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B8D5773-DD83-4E06-B179-019CE1EC02AF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Base Frame BOM 02" sheetId="1" r:id="rId1"/>
+    <sheet name="220215 Hardware" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$10:$P$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$P$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'220215 Hardware'!$A$1:$G$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$10:$O$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$85</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +42,7 @@
     <author>Roy Berntsen</author>
   </authors>
   <commentList>
-    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{FB4E5E39-3716-46C1-9030-8ED6146980D7}">
+    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{FB4E5E39-3716-46C1-9030-8ED6146980D7}">
       <text>
         <r>
           <rPr>
@@ -84,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{F7999DE5-A231-4BE3-8A97-2FA9AF556EFC}">
+    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{F7999DE5-A231-4BE3-8A97-2FA9AF556EFC}">
       <text>
         <r>
           <rPr>
@@ -92,7 +94,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Roy Berntsen:</t>
         </r>
@@ -101,7 +103,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Budget Option</t>
@@ -113,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="222">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -211,9 +213,6 @@
     <t>Nut</t>
   </si>
   <si>
-    <t>T-Nut</t>
-  </si>
-  <si>
     <t>Washer</t>
   </si>
   <si>
@@ -253,21 +252,12 @@
     <t>Valkyrie 3d Printer Kit</t>
   </si>
   <si>
-    <t>Ball</t>
-  </si>
-  <si>
     <t>Precision Ball 10mm M4</t>
   </si>
   <si>
     <t>Size: 10pc</t>
   </si>
   <si>
-    <t>5mm Stop Washer</t>
-  </si>
-  <si>
-    <t>M5x10 Button Head Screw</t>
-  </si>
-  <si>
     <t>1x 8M Heat resistant</t>
   </si>
   <si>
@@ -442,18 +432,6 @@
     <t>Color: 110/220V 750W</t>
   </si>
   <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Frame</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>M4-D5mm - 55mm</t>
   </si>
   <si>
@@ -463,30 +441,6 @@
     <t>5x40mm Rod For AB Idlers</t>
   </si>
   <si>
-    <t>M4x20 Countersink for Ball Joints</t>
-  </si>
-  <si>
-    <t>M5 T-Nut For Frame Assembly</t>
-  </si>
-  <si>
-    <t>M5 Drop In T-Nut For Part Assembly</t>
-  </si>
-  <si>
-    <t>WC</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>AC/DC</t>
-  </si>
-  <si>
-    <t>5mm Shoulder Screw For Z Gear</t>
-  </si>
-  <si>
     <t>Matrix LC Lite</t>
   </si>
   <si>
@@ -517,12 +471,6 @@
     <t>GL: 350 - Color: MGN12 H</t>
   </si>
   <si>
-    <t>Parts</t>
-  </si>
-  <si>
-    <t>M3 Nut - Heat Insert OD 4.6 L 5.7</t>
-  </si>
-  <si>
     <t>Bontech LGX Lite</t>
   </si>
   <si>
@@ -568,9 +516,6 @@
     <t>MGN 9h - X Axis</t>
   </si>
   <si>
-    <t>ABZ</t>
-  </si>
-  <si>
     <t>Waterpump &amp; Reservoir</t>
   </si>
   <si>
@@ -629,6 +574,213 @@
   </si>
   <si>
     <t>Z 2040</t>
+  </si>
+  <si>
+    <t>10pcs M5 - Length: 10mm</t>
+  </si>
+  <si>
+    <t>M5 T-Nut</t>
+  </si>
+  <si>
+    <t>100 pcs - M5 Hammer Nut</t>
+  </si>
+  <si>
+    <t>Color: 200x50cm 10mm</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Part name</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>M3 Nut</t>
+  </si>
+  <si>
+    <t>HEX</t>
+  </si>
+  <si>
+    <t>M3 Nut Hammer Nut</t>
+  </si>
+  <si>
+    <t>M3 Nut Lock Nut</t>
+  </si>
+  <si>
+    <t>M3x08 BH</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>M3x08 SH</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>M3x10 BH</t>
+  </si>
+  <si>
+    <t>M3x14 SH</t>
+  </si>
+  <si>
+    <t>M3x20 BH</t>
+  </si>
+  <si>
+    <t>M4 D5 L55 Shoulder Screw</t>
+  </si>
+  <si>
+    <t>M4 LOCK NUT</t>
+  </si>
+  <si>
+    <t>M4 NUT</t>
+  </si>
+  <si>
+    <t>M4 WASHER</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>M4x20 CS</t>
+  </si>
+  <si>
+    <t>FH-CS</t>
+  </si>
+  <si>
+    <t>M5 Hammer-Nut</t>
+  </si>
+  <si>
+    <t>M5 Nut</t>
+  </si>
+  <si>
+    <t>M5 Nut Locknut</t>
+  </si>
+  <si>
+    <t>M5 WASHER</t>
+  </si>
+  <si>
+    <t>M5x08 BH</t>
+  </si>
+  <si>
+    <t>M5x10 BH</t>
+  </si>
+  <si>
+    <t>M5x16 BH</t>
+  </si>
+  <si>
+    <t>M5x20 BH</t>
+  </si>
+  <si>
+    <t>M5x30 BH</t>
+  </si>
+  <si>
+    <t>Bolt</t>
+  </si>
+  <si>
+    <t>M5x30 HEX</t>
+  </si>
+  <si>
+    <t>Shim</t>
+  </si>
+  <si>
+    <t>M5x6.5x1 Precision Shim</t>
+  </si>
+  <si>
+    <t>Shaft</t>
+  </si>
+  <si>
+    <t>5x25 Bearing Shaft</t>
+  </si>
+  <si>
+    <t>5x40 Bearing Shaft</t>
+  </si>
+  <si>
+    <t>5x50 Bearing Shaft</t>
+  </si>
+  <si>
+    <t>Bearing</t>
+  </si>
+  <si>
+    <t>625 2RS Ball Bearing 5x16x5</t>
+  </si>
+  <si>
+    <t>Joint</t>
+  </si>
+  <si>
+    <t>Ball End Joint</t>
+  </si>
+  <si>
+    <t>Magnet_3x</t>
+  </si>
+  <si>
+    <t>X Axis 2020 Carbon Tube</t>
+  </si>
+  <si>
+    <t>GT2 06mm Belt 200mm Loop</t>
+  </si>
+  <si>
+    <t>GT2 06mm Pulley 20T</t>
+  </si>
+  <si>
+    <t>GT2 06mm Pulley 80T</t>
+  </si>
+  <si>
+    <t>GT2 11mm Idler 20S Gates</t>
+  </si>
+  <si>
+    <t>GT2 11mm Idler 20T Gates</t>
+  </si>
+  <si>
+    <t>GT2 11mm Pulley 20T</t>
+  </si>
+  <si>
+    <t>MGN</t>
+  </si>
+  <si>
+    <t>MGN 09h 400</t>
+  </si>
+  <si>
+    <t>MGN 12h 350</t>
+  </si>
+  <si>
+    <t>MGN 12h 400</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Nema 17 40mm</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>Ball Joint</t>
+  </si>
+  <si>
+    <t>M4 Nut</t>
+  </si>
+  <si>
+    <t>M4 Nut Lock Nut</t>
+  </si>
+  <si>
+    <t>M4x15 CS</t>
+  </si>
+  <si>
+    <t>M5 Nut Hammer Nut</t>
+  </si>
+  <si>
+    <t>M5 Nut T-Nut</t>
+  </si>
+  <si>
+    <t>100 pcs - M5 Nut: Size: M5</t>
   </si>
 </sst>
 </file>
@@ -641,7 +793,7 @@
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,7 +941,6 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="Aharoni"/>
-      <charset val="177"/>
     </font>
     <font>
       <sz val="9"/>
@@ -803,19 +954,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -832,7 +970,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1010,6 +1148,24 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1342,7 +1498,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1402,18 +1558,9 @@
     <xf numFmtId="165" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1428,6 +1575,23 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1491,13 +1655,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>647506</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>300913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>651198</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>177199</xdr:rowOff>
@@ -1841,877 +2005,817 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="42"/>
+        <v>120</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>44</v>
+      </c>
       <c r="C9" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>64</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43">
-        <f>SUM(J18:J65)</f>
-        <v>1266.8</v>
-      </c>
-      <c r="K9" s="40"/>
+      <c r="I9" s="43">
+        <f>SUM(I18:I84)</f>
+        <v>1280.3</v>
+      </c>
+      <c r="J9" s="40"/>
+      <c r="K9" s="32"/>
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>60</v>
+        <v>71</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="O10" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="21">
+      <c r="C11" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="21">
         <v>339</v>
       </c>
+      <c r="E11" s="22">
+        <f>F11*D11</f>
+        <v>339</v>
+      </c>
       <c r="F11" s="22">
-        <f>G11*E11</f>
-        <v>339</v>
+        <v>1</v>
       </c>
       <c r="G11" s="22">
         <v>1</v>
       </c>
-      <c r="H11" s="22">
-        <v>1</v>
-      </c>
-      <c r="I11" s="23">
+      <c r="H11" s="23">
         <v>7.26</v>
       </c>
-      <c r="J11" s="24">
+      <c r="I11" s="24">
         <v>8</v>
       </c>
-      <c r="K11" s="47" t="s">
-        <v>162</v>
-      </c>
+      <c r="J11" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="25"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="21"/>
+      <c r="O11" s="25"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="26">
-        <f>E13</f>
+      <c r="C12" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="26">
+        <f>D13</f>
         <v>420</v>
       </c>
+      <c r="E12" s="27">
+        <f>F12*D12</f>
+        <v>420</v>
+      </c>
       <c r="F12" s="27">
-        <f>G12*E12</f>
-        <v>420</v>
+        <v>1</v>
       </c>
       <c r="G12" s="27">
         <v>1</v>
       </c>
-      <c r="H12" s="27">
-        <v>1</v>
-      </c>
-      <c r="I12" s="28">
+      <c r="H12" s="28">
         <v>9.5</v>
       </c>
-      <c r="J12" s="29">
-        <f t="shared" ref="J12:J14" si="0">H12*I12</f>
+      <c r="I12" s="29">
+        <f t="shared" ref="I12:I14" si="0">G12*H12</f>
         <v>9.5</v>
       </c>
-      <c r="K12" s="39" t="s">
-        <v>157</v>
-      </c>
+      <c r="J12" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" s="29"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="26"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" s="26">
+        <v>150</v>
+      </c>
+      <c r="D13" s="26">
         <v>420</v>
       </c>
+      <c r="E13" s="27">
+        <f>F13*D13</f>
+        <v>1680</v>
+      </c>
       <c r="F13" s="27">
-        <f>G13*E13</f>
-        <v>1680</v>
+        <v>4</v>
       </c>
       <c r="G13" s="27">
         <v>4</v>
       </c>
-      <c r="H13" s="27">
-        <v>4</v>
-      </c>
-      <c r="I13" s="28">
+      <c r="H13" s="28">
         <v>10.54</v>
       </c>
-      <c r="J13" s="29">
+      <c r="I13" s="29">
         <f t="shared" si="0"/>
         <v>42.16</v>
       </c>
-      <c r="K13" s="39" t="s">
-        <v>157</v>
-      </c>
+      <c r="J13" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="26"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>110</v>
+      <c r="B14" s="26" t="s">
+        <v>19</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="26">
+        <v>151</v>
+      </c>
+      <c r="D14" s="26">
         <v>480</v>
       </c>
+      <c r="E14" s="27">
+        <f>F14*D14</f>
+        <v>1920</v>
+      </c>
       <c r="F14" s="27">
-        <f>G14*E14</f>
-        <v>1920</v>
+        <v>4</v>
       </c>
       <c r="G14" s="27">
         <v>4</v>
       </c>
-      <c r="H14" s="27">
-        <v>4</v>
-      </c>
-      <c r="I14" s="28">
+      <c r="H14" s="28">
         <v>11.121</v>
       </c>
-      <c r="J14" s="29">
+      <c r="I14" s="29">
         <f t="shared" si="0"/>
         <v>44.484000000000002</v>
       </c>
-      <c r="K14" s="39" t="s">
-        <v>158</v>
-      </c>
+      <c r="J14" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" s="26"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>110</v>
+      <c r="B15" s="26" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="26">
+        <v>152</v>
+      </c>
+      <c r="D15" s="26">
         <v>750</v>
       </c>
+      <c r="E15" s="27">
+        <f>F15*D15</f>
+        <v>3000</v>
+      </c>
       <c r="F15" s="27">
-        <f>G15*E15</f>
-        <v>3000</v>
+        <v>4</v>
       </c>
       <c r="G15" s="27">
         <v>4</v>
       </c>
-      <c r="H15" s="27">
-        <v>4</v>
-      </c>
-      <c r="I15" s="28">
+      <c r="H15" s="28">
         <v>14.7</v>
       </c>
-      <c r="J15" s="29">
-        <f>H15*I15</f>
+      <c r="I15" s="29">
+        <f>G15*H15</f>
         <v>58.8</v>
       </c>
-      <c r="K15" s="39" t="s">
-        <v>156</v>
-      </c>
+      <c r="J15" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N15" s="26"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>110</v>
+      <c r="B16" s="26" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27">
+        <v>26</v>
+      </c>
       <c r="G16" s="27">
-        <v>26</v>
-      </c>
-      <c r="H16" s="27">
         <v>3</v>
       </c>
-      <c r="I16" s="28">
+      <c r="H16" s="28">
         <v>5.8</v>
       </c>
-      <c r="J16" s="29">
-        <f>H16*I16</f>
+      <c r="I16" s="29">
+        <f>G16*H16</f>
         <v>17.399999999999999</v>
       </c>
-      <c r="K16" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29">
-        <f>L16*H16</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="29"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29">
+        <f>K16*G16</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="29"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
+        <v>145</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27">
+        <v>8</v>
+      </c>
       <c r="G17" s="27">
         <v>8</v>
       </c>
-      <c r="H17" s="27">
-        <v>8</v>
-      </c>
-      <c r="I17" s="28">
+      <c r="H17" s="28">
         <v>6.4</v>
       </c>
-      <c r="J17" s="29">
-        <f>H17*I17</f>
+      <c r="I17" s="29">
+        <f>G17*H17</f>
         <v>51.2</v>
       </c>
-      <c r="K17" s="39" t="s">
-        <v>159</v>
-      </c>
+      <c r="J17" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="50" t="s">
+      <c r="N17" s="26"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53">
+      <c r="B18" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50">
         <v>1</v>
       </c>
-      <c r="H18" s="53">
+      <c r="G18" s="50">
         <v>1</v>
       </c>
-      <c r="I18" s="54">
+      <c r="H18" s="51">
         <v>210</v>
       </c>
-      <c r="J18" s="55">
-        <f>H18*I18</f>
+      <c r="I18" s="52">
+        <f>G18*H18</f>
         <v>210</v>
       </c>
-      <c r="K18" s="56" t="s">
-        <v>165</v>
-      </c>
+      <c r="J18" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" s="29"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="26"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="26">
+      <c r="D19" s="26">
         <v>1500</v>
       </c>
-      <c r="F19" s="30">
-        <f>F13+F14+F15</f>
+      <c r="E19" s="30">
+        <f>E13+E14+E15</f>
         <v>6600</v>
       </c>
-      <c r="G19" s="48">
-        <f>F19/E19</f>
+      <c r="F19" s="45">
+        <f>E19/D19</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="28">
+      <c r="G19" s="31"/>
+      <c r="H19" s="28">
         <v>23.2</v>
       </c>
-      <c r="J19" s="29">
-        <f t="shared" ref="J19:J28" si="1">H19*I19</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="49"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="29">
-        <f t="shared" ref="M19:M52" si="2">L19*H19</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="12"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="29">
+        <f t="shared" ref="I19:I28" si="1">G19*H19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="29">
+        <f t="shared" ref="L19:L71" si="2">K19*G19</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>110</v>
+      <c r="B20" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="26">
+      <c r="D20" s="26">
         <v>750</v>
       </c>
-      <c r="F20" s="30">
-        <f>SUM(F11:F12)</f>
+      <c r="E20" s="30">
+        <f>SUM(E11:E12)</f>
         <v>759</v>
       </c>
-      <c r="G20" s="26">
-        <f>F20/E20</f>
+      <c r="F20" s="26">
+        <f>E20/D20</f>
         <v>1.012</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="28">
+      <c r="G20" s="31"/>
+      <c r="H20" s="28">
         <v>9</v>
       </c>
-      <c r="J20" s="29">
+      <c r="I20" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29">
+      <c r="J20" s="33"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N20" s="33">
+      <c r="M20" s="33">
         <v>2020</v>
       </c>
-      <c r="O20" s="26"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="26"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18">
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18">
         <v>12</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="11">
+      <c r="G21" s="18"/>
+      <c r="H21" s="11">
         <v>2</v>
       </c>
-      <c r="J21" s="13">
+      <c r="I21" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="29">
+      <c r="J21" s="10"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M21" s="13"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>110</v>
+      <c r="B22" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="26">
+      <c r="D22" s="26">
         <v>410</v>
       </c>
+      <c r="E22" s="27">
+        <v>500</v>
+      </c>
       <c r="F22" s="27">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G22" s="27">
         <v>1</v>
       </c>
-      <c r="H22" s="27">
-        <v>1</v>
-      </c>
-      <c r="I22" s="28">
+      <c r="H22" s="28">
         <v>20</v>
       </c>
-      <c r="J22" s="29">
+      <c r="I22" s="29">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K22" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29">
+      <c r="J22" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22" s="29"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M22" s="29"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="26">
+        <v>107</v>
+      </c>
+      <c r="D23" s="26">
         <v>40</v>
       </c>
-      <c r="F23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27">
+        <v>12</v>
+      </c>
       <c r="G23" s="27">
-        <v>12</v>
-      </c>
-      <c r="H23" s="27">
         <v>3</v>
       </c>
-      <c r="I23" s="28">
+      <c r="H23" s="28">
         <v>3</v>
       </c>
-      <c r="J23" s="29">
+      <c r="I23" s="29">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K23" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29">
+      <c r="J23" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N23" s="29"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M23" s="29"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>112</v>
+      <c r="B24" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="26">
+        <v>106</v>
+      </c>
+      <c r="D24" s="26">
         <v>50</v>
       </c>
-      <c r="F24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27">
+        <v>6</v>
+      </c>
       <c r="G24" s="27">
-        <v>6</v>
-      </c>
-      <c r="H24" s="27">
         <v>2</v>
       </c>
-      <c r="I24" s="28">
+      <c r="H24" s="28">
         <v>3</v>
       </c>
-      <c r="J24" s="29">
+      <c r="I24" s="29">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K24" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29">
+      <c r="J24" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N24" s="29"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M24" s="29"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>112</v>
+      <c r="B25" s="26" t="s">
+        <v>215</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27"/>
+        <v>45</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27">
+        <v>3</v>
+      </c>
       <c r="G25" s="27">
+        <v>1</v>
+      </c>
+      <c r="H25" s="28">
         <v>3</v>
       </c>
-      <c r="H25" s="27">
-        <v>1</v>
-      </c>
-      <c r="I25" s="28">
-        <v>3</v>
-      </c>
-      <c r="J25" s="29">
+      <c r="I25" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K25" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29">
+      <c r="J25" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M25" s="29"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="27"/>
+      <c r="D26" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27">
+        <v>1225</v>
+      </c>
       <c r="G26" s="27">
         <v>1225</v>
       </c>
-      <c r="H26" s="27">
-        <v>1225</v>
-      </c>
-      <c r="I26" s="28">
+      <c r="H26" s="28">
         <v>0.08</v>
       </c>
-      <c r="J26" s="29">
+      <c r="I26" s="29">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="K26" s="39" t="s">
-        <v>76</v>
+      <c r="J26" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="29">
+        <v>0.08</v>
       </c>
       <c r="L26" s="29">
-        <v>0.08</v>
-      </c>
-      <c r="M26" s="29">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="N26" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="O26" s="26"/>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M26" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="N26" s="26"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="34">
+        <v>86</v>
+      </c>
+      <c r="D27" s="34">
         <v>30</v>
       </c>
-      <c r="F27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27">
+        <v>3</v>
+      </c>
       <c r="G27" s="27">
-        <v>3</v>
-      </c>
-      <c r="H27" s="27">
         <v>2</v>
       </c>
-      <c r="I27" s="28">
+      <c r="H27" s="28">
         <v>2.5</v>
       </c>
-      <c r="J27" s="29">
+      <c r="I27" s="29">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K27" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29">
+      <c r="J27" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="29"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M27" s="29"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
@@ -2719,1524 +2823,2809 @@
         <v>112</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="34">
+        <v>113</v>
+      </c>
+      <c r="D28" s="34">
         <v>310</v>
       </c>
-      <c r="F28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27">
+        <v>1</v>
+      </c>
       <c r="G28" s="27">
         <v>1</v>
       </c>
-      <c r="H28" s="27">
-        <v>1</v>
-      </c>
-      <c r="I28" s="28">
+      <c r="H28" s="28">
         <v>40</v>
       </c>
-      <c r="J28" s="29">
+      <c r="I28" s="29">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K28" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29">
+      <c r="J28" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="29"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M28" s="29"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="26">
-        <v>20</v>
-      </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27">
-        <v>3</v>
-      </c>
-      <c r="H29" s="27">
-        <v>3</v>
-      </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="39"/>
+      <c r="B29" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="60"/>
+      <c r="F29" s="54">
+        <v>11</v>
+      </c>
+      <c r="G29" s="60"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="29">
+        <f t="shared" ref="I29:I62" si="3">G29*H29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="38"/>
+      <c r="K29" s="29"/>
       <c r="L29" s="29"/>
-      <c r="M29" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="29"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M29" s="29"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="26" t="s">
+      <c r="B30" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27">
-        <v>76</v>
-      </c>
-      <c r="H30" s="27">
-        <v>100</v>
-      </c>
-      <c r="I30" s="28">
-        <v>0.11</v>
-      </c>
-      <c r="J30" s="29">
-        <f t="shared" ref="J30:J43" si="3">H30*I30</f>
-        <v>11</v>
-      </c>
-      <c r="K30" s="38"/>
+      <c r="C30" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="60"/>
+      <c r="F30" s="54">
+        <v>34</v>
+      </c>
+      <c r="G30" s="60"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="38"/>
+      <c r="K30" s="29"/>
       <c r="L30" s="29"/>
-      <c r="M30" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="29"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M30" s="29"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27">
-        <v>0</v>
-      </c>
-      <c r="H31" s="27">
-        <v>50</v>
-      </c>
-      <c r="I31" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="J31" s="29">
+      <c r="B31" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="60"/>
+      <c r="F31" s="54">
+        <v>8</v>
+      </c>
+      <c r="G31" s="60"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="29">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="K31" s="38"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="38"/>
+      <c r="K31" s="29"/>
       <c r="L31" s="29"/>
-      <c r="M31" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="29"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M31" s="29"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="26" t="s">
+      <c r="B32" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27">
+      <c r="C32" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="60"/>
+      <c r="F32" s="54">
+        <v>24</v>
+      </c>
+      <c r="G32" s="60"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="38"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="60"/>
+      <c r="F33" s="54">
+        <v>38</v>
+      </c>
+      <c r="G33" s="60"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="38"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="60"/>
+      <c r="F34" s="54">
+        <v>12</v>
+      </c>
+      <c r="G34" s="60"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="38"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="60"/>
+      <c r="F35" s="54">
+        <v>4</v>
+      </c>
+      <c r="G35" s="60"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="38"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="60"/>
+      <c r="F36" s="54">
+        <v>4</v>
+      </c>
+      <c r="G36" s="60"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="38"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="E37" s="60"/>
+      <c r="F37" s="54">
+        <v>3</v>
+      </c>
+      <c r="G37" s="60"/>
+      <c r="H37" s="62">
+        <v>4</v>
+      </c>
+      <c r="I37" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="E38" s="60"/>
+      <c r="F38" s="54">
+        <v>3</v>
+      </c>
+      <c r="G38" s="60"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="38"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="E39" s="60"/>
+      <c r="F39" s="54">
+        <v>3</v>
+      </c>
+      <c r="G39" s="60"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="38"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="60"/>
+      <c r="F40" s="54">
+        <v>3</v>
+      </c>
+      <c r="G40" s="60"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="38"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" s="60"/>
+      <c r="F41" s="54">
+        <v>3</v>
+      </c>
+      <c r="G41" s="60"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="61"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="60"/>
+      <c r="F42" s="54">
+        <v>3</v>
+      </c>
+      <c r="G42" s="60"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" s="60"/>
+      <c r="F43" s="54">
+        <v>4</v>
+      </c>
+      <c r="G43" s="60"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="38"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" s="60"/>
+      <c r="F44" s="54">
+        <v>29</v>
+      </c>
+      <c r="G44" s="60">
+        <v>1</v>
+      </c>
+      <c r="H44" s="62">
+        <v>11</v>
+      </c>
+      <c r="I44" s="29">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="J44" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="60"/>
+      <c r="F45" s="54">
+        <v>13</v>
+      </c>
+      <c r="G45" s="60"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="38"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" s="60"/>
+      <c r="F46" s="54">
+        <v>84</v>
+      </c>
+      <c r="G46" s="60">
+        <v>1</v>
+      </c>
+      <c r="H46" s="62">
+        <v>12.5</v>
+      </c>
+      <c r="I46" s="29">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+      <c r="J46" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="60"/>
+      <c r="F47" s="54">
+        <v>95</v>
+      </c>
+      <c r="G47" s="60">
+        <v>1</v>
+      </c>
+      <c r="H47" s="62"/>
+      <c r="I47" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="39"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="E48" s="60"/>
+      <c r="F48" s="54">
+        <v>8</v>
+      </c>
+      <c r="G48" s="60"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="38"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" s="60"/>
+      <c r="F49" s="54">
+        <v>111</v>
+      </c>
+      <c r="G49" s="60">
+        <v>12</v>
+      </c>
+      <c r="H49" s="62">
+        <v>3.5</v>
+      </c>
+      <c r="I49" s="29">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="J49" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="E50" s="60"/>
+      <c r="F50" s="54">
+        <v>2</v>
+      </c>
+      <c r="G50" s="60"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="38"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="E51" s="60"/>
+      <c r="F51" s="54">
+        <v>4</v>
+      </c>
+      <c r="G51" s="60"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="38"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52" s="60"/>
+      <c r="F52" s="54">
+        <v>4</v>
+      </c>
+      <c r="G52" s="60"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="38"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="E53" s="60"/>
+      <c r="F53" s="54">
+        <v>5</v>
+      </c>
+      <c r="G53" s="60"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="38"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" s="60"/>
+      <c r="F54" s="54">
+        <v>33</v>
+      </c>
+      <c r="G54" s="60"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="38"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="26"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27">
+        <v>1</v>
+      </c>
+      <c r="G55" s="27">
+        <v>0</v>
+      </c>
+      <c r="H55" s="28">
+        <v>70</v>
+      </c>
+      <c r="I55" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="29"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="H32" s="27">
-        <v>100</v>
-      </c>
-      <c r="I32" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="J32" s="29">
+      <c r="D56" s="26"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27">
+        <v>1</v>
+      </c>
+      <c r="G56" s="27">
+        <v>1</v>
+      </c>
+      <c r="H56" s="28">
+        <v>71</v>
+      </c>
+      <c r="I56" s="29">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="J56" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="29"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="26"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27">
+        <v>1</v>
+      </c>
+      <c r="G57" s="27">
+        <v>1</v>
+      </c>
+      <c r="H57" s="28">
+        <v>23</v>
+      </c>
+      <c r="I57" s="29">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="J57" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="29"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="26"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27">
+        <v>5</v>
+      </c>
+      <c r="G58" s="27">
+        <v>5</v>
+      </c>
+      <c r="H58" s="28">
+        <v>2</v>
+      </c>
+      <c r="I58" s="29">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K32" s="38"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29">
+      <c r="J58" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N32" s="29"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="26" t="s">
+      <c r="M58" s="29"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27">
-        <v>76</v>
-      </c>
-      <c r="H33" s="27">
+      <c r="B59" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="26"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27">
+        <v>1</v>
+      </c>
+      <c r="G59" s="27">
+        <v>1</v>
+      </c>
+      <c r="H59" s="28">
+        <v>7.5</v>
+      </c>
+      <c r="I59" s="29">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="J59" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="29"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="I33" s="28">
-        <v>0.21</v>
-      </c>
-      <c r="J33" s="29">
+      <c r="D60" s="26">
+        <v>310</v>
+      </c>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27">
+        <v>1</v>
+      </c>
+      <c r="G60" s="27">
+        <v>1</v>
+      </c>
+      <c r="H60" s="28">
+        <v>23.5</v>
+      </c>
+      <c r="I60" s="29">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="K33" s="38"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29">
+        <v>23.5</v>
+      </c>
+      <c r="J60" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="K60" s="29">
+        <v>75</v>
+      </c>
+      <c r="L60" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="29"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="3">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="M60" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="N60" s="26"/>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="26"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27">
+        <v>1</v>
+      </c>
+      <c r="G61" s="27">
+        <v>1</v>
+      </c>
+      <c r="H61" s="28">
+        <v>5.5</v>
+      </c>
+      <c r="I61" s="29">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="J61" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="29"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27">
-        <v>10</v>
-      </c>
-      <c r="H34" s="27">
-        <v>50</v>
-      </c>
-      <c r="I34" s="28">
-        <v>0.06</v>
-      </c>
-      <c r="J34" s="29">
+      <c r="D62" s="26"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27">
+        <v>1</v>
+      </c>
+      <c r="G62" s="27">
+        <v>1</v>
+      </c>
+      <c r="H62" s="28">
+        <v>3</v>
+      </c>
+      <c r="I62" s="29">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K34" s="38"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29">
+      <c r="J62" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N34" s="29"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="M62" s="29"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="26"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27">
+        <v>1</v>
+      </c>
+      <c r="G63" s="27">
+        <v>0</v>
+      </c>
+      <c r="H63" s="28">
         <v>30</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27">
-        <v>3</v>
-      </c>
-      <c r="H35" s="27">
-        <v>3</v>
-      </c>
-      <c r="I35" s="28">
-        <v>4</v>
-      </c>
-      <c r="J35" s="29">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="K35" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29">
+      <c r="I63" s="29">
+        <f t="shared" ref="I63:I84" si="4">G63*H63</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N35" s="29"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27">
+      <c r="M63" s="29"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" s="26"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27">
         <v>1</v>
       </c>
-      <c r="H36" s="27">
-        <v>0</v>
-      </c>
-      <c r="I36" s="28">
-        <v>70</v>
-      </c>
-      <c r="J36" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="29"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="3"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27">
+      <c r="G64" s="27">
         <v>1</v>
       </c>
-      <c r="H37" s="27">
-        <v>1</v>
-      </c>
-      <c r="I37" s="28">
-        <v>71</v>
-      </c>
-      <c r="J37" s="29">
-        <f t="shared" si="3"/>
-        <v>71</v>
-      </c>
-      <c r="K37" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="29"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="3"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27">
-        <v>1</v>
-      </c>
-      <c r="H38" s="27">
-        <v>1</v>
-      </c>
-      <c r="I38" s="28">
-        <v>23</v>
-      </c>
-      <c r="J38" s="29">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="K38" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="29"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="3"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27">
-        <v>5</v>
-      </c>
-      <c r="H39" s="27">
-        <v>5</v>
-      </c>
-      <c r="I39" s="28">
-        <v>2</v>
-      </c>
-      <c r="J39" s="29">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K39" s="39" t="s">
+      <c r="H64" s="28">
         <v>85</v>
       </c>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="29"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27">
-        <v>1</v>
-      </c>
-      <c r="H40" s="27">
-        <v>1</v>
-      </c>
-      <c r="I40" s="28">
-        <v>7.5</v>
-      </c>
-      <c r="J40" s="29">
-        <f t="shared" si="3"/>
-        <v>7.5</v>
-      </c>
-      <c r="K40" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="29"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="26">
-        <v>310</v>
-      </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27">
-        <v>1</v>
-      </c>
-      <c r="H41" s="27">
-        <v>1</v>
-      </c>
-      <c r="I41" s="28">
-        <v>23.5</v>
-      </c>
-      <c r="J41" s="29">
-        <f t="shared" si="3"/>
-        <v>23.5</v>
-      </c>
-      <c r="K41" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="L41" s="29">
-        <v>75</v>
-      </c>
-      <c r="M41" s="29">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="N41" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="O41" s="26"/>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27">
-        <v>1</v>
-      </c>
-      <c r="H42" s="27">
-        <v>1</v>
-      </c>
-      <c r="I42" s="28">
-        <v>5.5</v>
-      </c>
-      <c r="J42" s="29">
-        <f t="shared" si="3"/>
-        <v>5.5</v>
-      </c>
-      <c r="K42" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="29"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27">
-        <v>1</v>
-      </c>
-      <c r="H43" s="27">
-        <v>1</v>
-      </c>
-      <c r="I43" s="28">
-        <v>3</v>
-      </c>
-      <c r="J43" s="29">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="K43" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="29"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" s="26"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27">
-        <v>1</v>
-      </c>
-      <c r="H44" s="27">
-        <v>0</v>
-      </c>
-      <c r="I44" s="28">
-        <v>30</v>
-      </c>
-      <c r="J44" s="29">
-        <f t="shared" ref="J44:J60" si="4">H44*I44</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="29"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27">
-        <v>1</v>
-      </c>
-      <c r="H45" s="27">
-        <v>1</v>
-      </c>
-      <c r="I45" s="28">
-        <v>85</v>
-      </c>
-      <c r="J45" s="29">
+      <c r="I64" s="29">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="K45" s="39" t="s">
+      <c r="J64" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="29"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="26"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27">
+        <v>1</v>
+      </c>
+      <c r="G65" s="27">
+        <v>0</v>
+      </c>
+      <c r="H65" s="28">
+        <v>65</v>
+      </c>
+      <c r="I65" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="29"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="26"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27">
+        <v>1</v>
+      </c>
+      <c r="G66" s="27">
+        <v>0</v>
+      </c>
+      <c r="H66" s="28">
+        <v>100</v>
+      </c>
+      <c r="I66" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29">
+      <c r="K66" s="29"/>
+      <c r="L66" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N45" s="29"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="26"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27">
+      <c r="M66" s="29"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="26"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27">
         <v>1</v>
       </c>
-      <c r="H46" s="27">
-        <v>0</v>
-      </c>
-      <c r="I46" s="28">
-        <v>65</v>
-      </c>
-      <c r="J46" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="29"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27">
+      <c r="G67" s="27">
         <v>1</v>
       </c>
-      <c r="H47" s="27">
-        <v>0</v>
-      </c>
-      <c r="I47" s="28">
-        <v>100</v>
-      </c>
-      <c r="J47" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="29"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" s="26"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27">
-        <v>1</v>
-      </c>
-      <c r="H48" s="27">
-        <v>1</v>
-      </c>
-      <c r="I48" s="28">
+      <c r="H67" s="28">
         <v>70</v>
       </c>
-      <c r="J48" s="29">
+      <c r="I67" s="29">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="K48" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29">
+      <c r="J67" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N48" s="29"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="M67" s="29"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="26">
+      <c r="C68" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="26">
         <v>100</v>
       </c>
-      <c r="F49" s="27">
+      <c r="E68" s="27">
         <v>7000</v>
       </c>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27">
+      <c r="F68" s="27"/>
+      <c r="G68" s="27">
         <v>1</v>
       </c>
-      <c r="I49" s="28">
+      <c r="H68" s="28">
         <v>39</v>
       </c>
-      <c r="J49" s="29">
+      <c r="I68" s="29">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="K49" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29">
+      <c r="J68" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N49" s="29"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27">
+      <c r="M68" s="29"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" s="26"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27">
         <v>10</v>
       </c>
-      <c r="H50" s="27">
+      <c r="G69" s="27">
         <v>10</v>
       </c>
-      <c r="I50" s="28">
+      <c r="H69" s="28">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J50" s="29">
+      <c r="I69" s="29">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="K50" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="L50" s="29">
+      <c r="J69" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="K69" s="29">
         <v>5.5</v>
       </c>
-      <c r="M50" s="29">
+      <c r="L69" s="29">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="N50" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="O50" s="26"/>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27">
+      <c r="M69" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="N69" s="26"/>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="26"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27">
         <v>5</v>
       </c>
-      <c r="H51" s="27">
+      <c r="G70" s="27">
         <v>5</v>
       </c>
-      <c r="I51" s="28">
+      <c r="H70" s="28">
         <v>6</v>
       </c>
-      <c r="J51" s="29">
+      <c r="I70" s="29">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="K51" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="L51" s="29">
+      <c r="J70" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="K70" s="29">
         <v>7</v>
       </c>
-      <c r="M51" s="29">
+      <c r="L70" s="29">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="N51" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="O51" s="26"/>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27">
+      <c r="M70" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="N70" s="26"/>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="26"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27">
         <v>5</v>
       </c>
-      <c r="H52" s="27">
+      <c r="G71" s="27">
         <v>5</v>
       </c>
-      <c r="I52" s="28">
+      <c r="H71" s="28">
         <v>4</v>
       </c>
-      <c r="J52" s="29">
+      <c r="I71" s="29">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="K52" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="L52" s="29">
+      <c r="J71" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="K71" s="29">
         <v>6</v>
       </c>
-      <c r="M52" s="29">
+      <c r="L71" s="29">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="N52" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="O52" s="26"/>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" s="26">
+      <c r="M71" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N71" s="26"/>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="26">
         <v>200</v>
       </c>
-      <c r="F53" s="27">
+      <c r="E72" s="27">
         <v>600</v>
       </c>
-      <c r="G53" s="27">
+      <c r="F72" s="27">
         <v>3</v>
       </c>
-      <c r="H53" s="27">
+      <c r="G72" s="27">
         <v>3</v>
       </c>
-      <c r="I53" s="28">
+      <c r="H72" s="28">
         <v>15</v>
       </c>
-      <c r="J53" s="29">
+      <c r="I72" s="29">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="K53" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="E54" s="26"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27">
+      <c r="J72" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27">
         <v>5</v>
       </c>
-      <c r="H54" s="27">
+      <c r="G73" s="27">
         <v>5</v>
       </c>
-      <c r="I54" s="28">
+      <c r="H73" s="28">
         <v>14.5</v>
       </c>
-      <c r="J54" s="29">
+      <c r="I73" s="29">
         <f t="shared" si="4"/>
         <v>72.5</v>
       </c>
-      <c r="K54" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="L54" s="28">
+      <c r="J73" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="K73" s="28">
         <v>11</v>
       </c>
-      <c r="M54" s="29">
-        <f>L54*H54</f>
+      <c r="L73" s="29">
+        <f>K73*G73</f>
         <v>55</v>
       </c>
-      <c r="N54" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="O54" s="26"/>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" s="26">
+      <c r="M73" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="N73" s="26"/>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" s="26">
         <v>350</v>
       </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27">
+      <c r="E74" s="27"/>
+      <c r="F74" s="27">
         <v>3</v>
       </c>
-      <c r="H55" s="27">
+      <c r="G74" s="27">
         <v>3</v>
       </c>
-      <c r="I55" s="28">
+      <c r="H74" s="28">
         <v>15.6</v>
       </c>
-      <c r="J55" s="29">
+      <c r="I74" s="29">
         <f t="shared" si="4"/>
         <v>46.8</v>
       </c>
-      <c r="K55" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="L55" s="28"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="34" t="s">
+      <c r="J74" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="K74" s="28"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="E56" s="26">
+      <c r="D75" s="26">
         <v>400</v>
       </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27">
+      <c r="E75" s="27"/>
+      <c r="F75" s="27">
         <v>2</v>
       </c>
-      <c r="H56" s="27">
+      <c r="G75" s="27">
         <v>2</v>
       </c>
-      <c r="I56" s="28">
+      <c r="H75" s="28">
         <v>17.5</v>
       </c>
-      <c r="J56" s="29">
+      <c r="I75" s="29">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="K56" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="L56" s="28"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="E57" s="26">
+      <c r="J75" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="K75" s="28"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76" s="26">
         <v>400</v>
       </c>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27">
+      <c r="E76" s="27"/>
+      <c r="F76" s="27">
         <v>1</v>
       </c>
-      <c r="H57" s="27">
+      <c r="G76" s="27">
         <v>1</v>
       </c>
-      <c r="I57" s="28">
+      <c r="H76" s="28">
         <v>16</v>
       </c>
-      <c r="J57" s="29">
+      <c r="I76" s="29">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="K57" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="L57" s="28"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E58" s="26"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27">
+      <c r="J76" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="K76" s="28"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77" s="26"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27">
         <v>1</v>
       </c>
-      <c r="H58" s="27">
+      <c r="G77" s="27">
         <v>1</v>
       </c>
-      <c r="I58" s="28">
+      <c r="H77" s="28">
         <v>50</v>
       </c>
-      <c r="J58" s="29">
+      <c r="I77" s="29">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="K58" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="L58" s="28"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="J77" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="K77" s="28"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" s="26"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27">
+      <c r="D78" s="26"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27">
         <v>2</v>
       </c>
-      <c r="H59" s="27">
+      <c r="G78" s="27">
         <v>2</v>
       </c>
-      <c r="I59" s="28">
+      <c r="H78" s="28">
         <v>20</v>
       </c>
-      <c r="J59" s="29">
+      <c r="I78" s="29">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="K59" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="L59" s="28"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27">
+      <c r="J78" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="K78" s="28"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="3"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D79" s="26"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27">
         <v>1</v>
       </c>
-      <c r="H60" s="27">
+      <c r="G79" s="27">
         <v>1</v>
       </c>
-      <c r="I60" s="28">
+      <c r="H79" s="28">
         <v>70</v>
       </c>
-      <c r="J60" s="29">
+      <c r="I79" s="29">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="K60" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="L60" s="28"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="34" t="s">
+      <c r="J79" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="K79" s="28"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27">
+        <v>1</v>
+      </c>
+      <c r="G80" s="27"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="39"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27">
+        <v>1</v>
+      </c>
+      <c r="G81" s="27"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="39"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27">
+        <v>1</v>
+      </c>
+      <c r="G82" s="27">
+        <v>1</v>
+      </c>
+      <c r="H82" s="28">
+        <v>20</v>
+      </c>
+      <c r="I82" s="29">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="J82" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="K82" s="28"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27">
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27">
+        <v>4</v>
+      </c>
+      <c r="G83" s="27">
+        <v>4</v>
+      </c>
+      <c r="H83" s="28"/>
+      <c r="I83" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="39"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27">
         <v>1</v>
       </c>
-      <c r="H61" s="27"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27">
-        <v>1</v>
-      </c>
-      <c r="H62" s="27"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="26"/>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27">
-        <v>1</v>
-      </c>
-      <c r="H63" s="27"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27">
-        <v>1</v>
-      </c>
-      <c r="H64" s="27"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27">
-        <v>1</v>
-      </c>
-      <c r="H65" s="27"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="26"/>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D66" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="43">
-        <f>SUM(J18:J62)</f>
-        <v>1266.8</v>
-      </c>
-      <c r="K66" s="40"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="32"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="5"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="39"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="43">
+        <f>SUM(I18:I84)</f>
+        <v>1280.3</v>
+      </c>
+      <c r="J85" s="40"/>
+      <c r="K85" s="32"/>
+      <c r="L85" s="32"/>
+      <c r="M85" s="32"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:P59" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A10:O85" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K49" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
-    <hyperlink ref="K50" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
-    <hyperlink ref="K51" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
-    <hyperlink ref="K52" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
-    <hyperlink ref="K53" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
-    <hyperlink ref="N54" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
-    <hyperlink ref="K22" r:id="rId7" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
-    <hyperlink ref="K24" r:id="rId8" display="2x Length: 45mm 4PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
-    <hyperlink ref="K36" r:id="rId9" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
-    <hyperlink ref="K25" r:id="rId10" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
-    <hyperlink ref="N50" r:id="rId11" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
-    <hyperlink ref="N51" r:id="rId12" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
-    <hyperlink ref="N52" r:id="rId13" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
-    <hyperlink ref="K26" r:id="rId14" xr:uid="{A8C5E0F3-B1FB-4E57-8DD8-1DF57CDC1A28}"/>
-    <hyperlink ref="K38" r:id="rId15" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
-    <hyperlink ref="K37" r:id="rId16" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
-    <hyperlink ref="K39" r:id="rId17" display="6pcs Optical Endstop" xr:uid="{0AB90FFF-9946-4F78-93E2-A102C645ECAE}"/>
-    <hyperlink ref="K40" r:id="rId18" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
-    <hyperlink ref="K23" r:id="rId19" xr:uid="{7E1F7424-E58C-4FCB-9D3A-3CB69F34CE9F}"/>
-    <hyperlink ref="K27" r:id="rId20" xr:uid="{755FCD6D-D745-447C-AAA6-2D31A19F9A40}"/>
-    <hyperlink ref="K44" r:id="rId21" xr:uid="{A90E869A-7328-473A-BA20-82979A845F00}"/>
-    <hyperlink ref="K45" r:id="rId22" xr:uid="{37B2932B-CA7B-49AA-9F35-9BCE3D136353}"/>
-    <hyperlink ref="K46" r:id="rId23" xr:uid="{BE140B59-D4B8-46C3-B6EC-BEB5F431781F}"/>
-    <hyperlink ref="K47" r:id="rId24" xr:uid="{54817A0E-3A4B-42D7-AA92-5C84B2F161F2}"/>
-    <hyperlink ref="K41" r:id="rId25" xr:uid="{4F053E16-31A4-458E-B422-7E74FE54E665}"/>
-    <hyperlink ref="N41" r:id="rId26" display="Color: 220V 750W" xr:uid="{6A46011B-C1CA-4A88-AD58-75064F9710C4}"/>
-    <hyperlink ref="K35" r:id="rId27" xr:uid="{B9B35946-F710-4A9B-AA0F-C3E1EB8A9B02}"/>
-    <hyperlink ref="N26" r:id="rId28" xr:uid="{F5DB1B37-0615-45FE-8D85-29C4F7CAFAB1}"/>
-    <hyperlink ref="K28" r:id="rId29" xr:uid="{AB0B8958-9970-4FAA-8724-81774C9EF9F1}"/>
-    <hyperlink ref="K55" r:id="rId30" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{AEC77D91-6FD3-455F-B901-C8AECBF4FBFC}"/>
-    <hyperlink ref="K57" r:id="rId31" display="Color: MGN9 H" xr:uid="{EF1CF25C-A286-4000-976B-3EF1290B85D5}"/>
-    <hyperlink ref="K48" r:id="rId32" xr:uid="{DB0C305C-D8F4-4B4B-BC4F-C7B8CEFFD8B9}"/>
-    <hyperlink ref="K58" r:id="rId33" xr:uid="{DD8F2F46-A4D3-45B7-8C61-BE3E5D8E77D4}"/>
-    <hyperlink ref="K60" r:id="rId34" display="Blade Color: 140mm reservoir" xr:uid="{1B2FD753-14EC-44DA-A449-AA8B531B9F4C}"/>
-    <hyperlink ref="K59" r:id="rId35" xr:uid="{14075AD2-C38A-4641-AE38-8D82C15730CB}"/>
-    <hyperlink ref="K56" r:id="rId36" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{87ABA4C9-E494-4982-9A2A-9EB09D4C4F32}"/>
-    <hyperlink ref="K43" r:id="rId37" xr:uid="{7420580F-5469-4338-8D3D-9259352A596B}"/>
-    <hyperlink ref="K42" r:id="rId38" xr:uid="{EFED6ED9-EE5F-46BC-B31F-70D83F581B59}"/>
-    <hyperlink ref="K15" r:id="rId39" xr:uid="{295A4C29-D457-4346-89F2-C8F491474683}"/>
-    <hyperlink ref="K14" r:id="rId40" display="Color: 750 mm" xr:uid="{94C730F7-348B-41A5-806E-F0BF24EB60AA}"/>
-    <hyperlink ref="K13" r:id="rId41" display="Color: 750 mm" xr:uid="{4033F5F5-D2DC-4E1B-9028-50B6F444F7CD}"/>
-    <hyperlink ref="K12" r:id="rId42" display="Color: 250 mm" xr:uid="{E0A63DCC-F535-4BC5-9F41-DCCE7FE857A6}"/>
-    <hyperlink ref="K11" r:id="rId43" display="Color: 250 mm" xr:uid="{390B4AE1-6B94-48FE-992C-92B2C04994E2}"/>
-    <hyperlink ref="K17" r:id="rId44" xr:uid="{563E21C0-381D-44F8-8FBC-944CF9FE7B6A}"/>
-    <hyperlink ref="K16" r:id="rId45" display="Color: 5pcs 2028" xr:uid="{1C87A78E-750D-441D-BDAF-8A3315D08535}"/>
-    <hyperlink ref="N20" r:id="rId46" location="/56-color-silver_grey_anodized/105-length-750mm" display="https://makersupplies.dk/en/v-slot-profiles/13-v-slot-profiles-20x20-v-slot.html - /56-color-silver_grey_anodized/105-length-750mm" xr:uid="{B4B0AE2C-70F2-449C-BC20-9BB60F3DB087}"/>
-    <hyperlink ref="K54" r:id="rId47" xr:uid="{991F3D10-4224-4E86-BCB4-AFCFA2A64478}"/>
-    <hyperlink ref="K18" r:id="rId48" display="WIP" xr:uid="{A48579E2-EF49-4729-81C6-C54E4E73F150}"/>
+    <hyperlink ref="J68" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
+    <hyperlink ref="J69" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
+    <hyperlink ref="J70" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
+    <hyperlink ref="J71" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
+    <hyperlink ref="J72" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
+    <hyperlink ref="M73" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
+    <hyperlink ref="J22" r:id="rId7" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
+    <hyperlink ref="J24" r:id="rId8" display="2x Length: 45mm 4PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
+    <hyperlink ref="J55" r:id="rId9" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
+    <hyperlink ref="J25" r:id="rId10" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
+    <hyperlink ref="M69" r:id="rId11" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
+    <hyperlink ref="M70" r:id="rId12" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
+    <hyperlink ref="M71" r:id="rId13" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
+    <hyperlink ref="J26" r:id="rId14" xr:uid="{A8C5E0F3-B1FB-4E57-8DD8-1DF57CDC1A28}"/>
+    <hyperlink ref="J57" r:id="rId15" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
+    <hyperlink ref="J56" r:id="rId16" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
+    <hyperlink ref="J58" r:id="rId17" display="6pcs Optical Endstop" xr:uid="{0AB90FFF-9946-4F78-93E2-A102C645ECAE}"/>
+    <hyperlink ref="J59" r:id="rId18" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
+    <hyperlink ref="J23" r:id="rId19" xr:uid="{7E1F7424-E58C-4FCB-9D3A-3CB69F34CE9F}"/>
+    <hyperlink ref="J27" r:id="rId20" xr:uid="{755FCD6D-D745-447C-AAA6-2D31A19F9A40}"/>
+    <hyperlink ref="J63" r:id="rId21" xr:uid="{A90E869A-7328-473A-BA20-82979A845F00}"/>
+    <hyperlink ref="J64" r:id="rId22" xr:uid="{37B2932B-CA7B-49AA-9F35-9BCE3D136353}"/>
+    <hyperlink ref="J65" r:id="rId23" xr:uid="{BE140B59-D4B8-46C3-B6EC-BEB5F431781F}"/>
+    <hyperlink ref="J66" r:id="rId24" xr:uid="{54817A0E-3A4B-42D7-AA92-5C84B2F161F2}"/>
+    <hyperlink ref="J60" r:id="rId25" xr:uid="{4F053E16-31A4-458E-B422-7E74FE54E665}"/>
+    <hyperlink ref="M60" r:id="rId26" display="Color: 220V 750W" xr:uid="{6A46011B-C1CA-4A88-AD58-75064F9710C4}"/>
+    <hyperlink ref="M26" r:id="rId27" xr:uid="{F5DB1B37-0615-45FE-8D85-29C4F7CAFAB1}"/>
+    <hyperlink ref="J28" r:id="rId28" xr:uid="{AB0B8958-9970-4FAA-8724-81774C9EF9F1}"/>
+    <hyperlink ref="J74" r:id="rId29" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{AEC77D91-6FD3-455F-B901-C8AECBF4FBFC}"/>
+    <hyperlink ref="J76" r:id="rId30" display="Color: MGN9 H" xr:uid="{EF1CF25C-A286-4000-976B-3EF1290B85D5}"/>
+    <hyperlink ref="J67" r:id="rId31" xr:uid="{DB0C305C-D8F4-4B4B-BC4F-C7B8CEFFD8B9}"/>
+    <hyperlink ref="J77" r:id="rId32" xr:uid="{DD8F2F46-A4D3-45B7-8C61-BE3E5D8E77D4}"/>
+    <hyperlink ref="J79" r:id="rId33" display="Blade Color: 140mm reservoir" xr:uid="{1B2FD753-14EC-44DA-A449-AA8B531B9F4C}"/>
+    <hyperlink ref="J78" r:id="rId34" xr:uid="{14075AD2-C38A-4641-AE38-8D82C15730CB}"/>
+    <hyperlink ref="J75" r:id="rId35" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{87ABA4C9-E494-4982-9A2A-9EB09D4C4F32}"/>
+    <hyperlink ref="J62" r:id="rId36" xr:uid="{7420580F-5469-4338-8D3D-9259352A596B}"/>
+    <hyperlink ref="J61" r:id="rId37" xr:uid="{EFED6ED9-EE5F-46BC-B31F-70D83F581B59}"/>
+    <hyperlink ref="J15" r:id="rId38" xr:uid="{295A4C29-D457-4346-89F2-C8F491474683}"/>
+    <hyperlink ref="J14" r:id="rId39" display="Color: 750 mm" xr:uid="{94C730F7-348B-41A5-806E-F0BF24EB60AA}"/>
+    <hyperlink ref="J13" r:id="rId40" display="Color: 750 mm" xr:uid="{4033F5F5-D2DC-4E1B-9028-50B6F444F7CD}"/>
+    <hyperlink ref="J12" r:id="rId41" display="Color: 250 mm" xr:uid="{E0A63DCC-F535-4BC5-9F41-DCCE7FE857A6}"/>
+    <hyperlink ref="J11" r:id="rId42" display="Color: 250 mm" xr:uid="{390B4AE1-6B94-48FE-992C-92B2C04994E2}"/>
+    <hyperlink ref="J17" r:id="rId43" xr:uid="{563E21C0-381D-44F8-8FBC-944CF9FE7B6A}"/>
+    <hyperlink ref="J16" r:id="rId44" display="Color: 5pcs 2028" xr:uid="{1C87A78E-750D-441D-BDAF-8A3315D08535}"/>
+    <hyperlink ref="M20" r:id="rId45" location="/56-color-silver_grey_anodized/105-length-750mm" display="https://makersupplies.dk/en/v-slot-profiles/13-v-slot-profiles-20x20-v-slot.html - /56-color-silver_grey_anodized/105-length-750mm" xr:uid="{B4B0AE2C-70F2-449C-BC20-9BB60F3DB087}"/>
+    <hyperlink ref="J73" r:id="rId46" xr:uid="{991F3D10-4224-4E86-BCB4-AFCFA2A64478}"/>
+    <hyperlink ref="J18" r:id="rId47" display="WIP" xr:uid="{A48579E2-EF49-4729-81C6-C54E4E73F150}"/>
+    <hyperlink ref="J82" r:id="rId48" xr:uid="{894E09D5-8AF5-4C2F-A85D-98661DCBF526}"/>
+    <hyperlink ref="J37" r:id="rId49" xr:uid="{AA489145-7D60-48E1-9C07-306F8FEB2BFC}"/>
+    <hyperlink ref="J49" r:id="rId50" xr:uid="{EDF6505F-9619-435E-B46E-B9123E7D7A43}"/>
+    <hyperlink ref="J44" r:id="rId51" display="M5 Hammer Nut" xr:uid="{41B5B8CF-1C49-4CCA-B8BD-4BF45C65F224}"/>
+    <hyperlink ref="J46" r:id="rId52" display="Size: M5" xr:uid="{D4E2B164-D518-40F4-9BD9-52532DC985DA}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId49"/>
-  <drawing r:id="rId50"/>
-  <legacyDrawing r:id="rId51"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId53"/>
+  <drawing r:id="rId54"/>
+  <legacyDrawing r:id="rId55"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C856EF-C61B-4CD0-9EB5-7A3D3F54F93A}">
+  <dimension ref="A1:G45"/>
+  <sheetViews>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="54">
+        <v>11</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="54">
+        <v>34</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="54">
+        <v>8</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="54">
+        <v>24</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="54">
+        <v>38</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="54">
+        <v>912</v>
+      </c>
+      <c r="G6" s="54">
+        <v>4762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="54">
+        <v>12</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="54">
+        <v>4</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="54">
+        <v>912</v>
+      </c>
+      <c r="G8" s="54">
+        <v>4762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="54">
+        <v>4</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="54">
+        <v>3</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="54">
+        <v>3</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="54">
+        <v>3</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="54">
+        <v>3</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="54">
+        <v>3</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="54">
+        <v>7991</v>
+      </c>
+      <c r="G14" s="54">
+        <v>10642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="54">
+        <v>29</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="54">
+        <v>4</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="54">
+        <v>13</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="54">
+        <v>84</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="54">
+        <v>95</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="54">
+        <v>8</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="54">
+        <v>111</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="54">
+        <v>2</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="54">
+        <v>4</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="54">
+        <v>4</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="54">
+        <v>5</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="54">
+        <v>933</v>
+      </c>
+      <c r="G25" s="54">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" s="54">
+        <v>33</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="55">
+        <v>26</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="55">
+        <v>8</v>
+      </c>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" s="55">
+        <v>5</v>
+      </c>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" s="55">
+        <v>10</v>
+      </c>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="55">
+        <v>6</v>
+      </c>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" s="55">
+        <v>6</v>
+      </c>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="55">
+        <v>3</v>
+      </c>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="55">
+        <v>3</v>
+      </c>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" s="55">
+        <v>1</v>
+      </c>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" s="56">
+        <v>3</v>
+      </c>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" s="56">
+        <v>3</v>
+      </c>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="56">
+        <v>3</v>
+      </c>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="56">
+        <v>10</v>
+      </c>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" s="56">
+        <v>5</v>
+      </c>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="56">
+        <v>5</v>
+      </c>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="56">
+        <v>1</v>
+      </c>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="56">
+        <v>3</v>
+      </c>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" s="56">
+        <v>2</v>
+      </c>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" s="56">
+        <v>5</v>
+      </c>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G45" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G45">
+      <sortCondition ref="A2:A45"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{B0BDE0A3-E6D2-4CB5-B3CB-54BD7EA2D1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B8D5773-DD83-4E06-B179-019CE1EC02AF}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{B0BDE0A3-E6D2-4CB5-B3CB-54BD7EA2D1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1F63CAC-7F00-4C8E-A723-FC5C48D31C2B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'220215 Hardware'!$A$1:$G$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$10:$O$85</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$10:$O$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$81</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +42,7 @@
     <author>Roy Berntsen</author>
   </authors>
   <commentList>
-    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{FB4E5E39-3716-46C1-9030-8ED6146980D7}">
+    <comment ref="C53" authorId="0" shapeId="0" xr:uid="{FB4E5E39-3716-46C1-9030-8ED6146980D7}">
       <text>
         <r>
           <rPr>
@@ -86,36 +86,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{F7999DE5-A231-4BE3-8A97-2FA9AF556EFC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Roy Berntsen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Budget Option</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="220">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -382,12 +358,6 @@
   </si>
   <si>
     <t>Hotend</t>
-  </si>
-  <si>
-    <t>Arethusa LC Hotend</t>
-  </si>
-  <si>
-    <t>Size: 24V</t>
   </si>
   <si>
     <t>Dragon LC Hotend</t>
@@ -1578,6 +1548,11 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1587,11 +1562,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1655,16 +1625,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647506</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>229872</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>300913</xdr:rowOff>
+      <xdr:rowOff>308240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>651198</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>138314</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>177199</xdr:rowOff>
+      <xdr:rowOff>184526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1692,8 +1662,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5837659" y="300913"/>
-          <a:ext cx="2404381" cy="1373072"/>
+          <a:off x="5527237" y="308240"/>
+          <a:ext cx="2392269" cy="1356324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2005,11 +1975,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,44 +2001,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2093,7 +2063,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9" s="42" t="s">
         <v>44</v>
@@ -2107,8 +2077,8 @@
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
       <c r="I9" s="43">
-        <f>SUM(I18:I84)</f>
-        <v>1280.3</v>
+        <f>SUM(I18:I80)</f>
+        <v>1450.3</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9" s="32"/>
@@ -2172,7 +2142,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D11" s="21">
         <v>339</v>
@@ -2194,7 +2164,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
@@ -2210,7 +2180,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="26">
         <f>D13</f>
@@ -2234,7 +2204,7 @@
         <v>9.5</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -2250,7 +2220,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D13" s="26">
         <v>420</v>
@@ -2273,7 +2243,7 @@
         <v>42.16</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
@@ -2289,7 +2259,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D14" s="26">
         <v>480</v>
@@ -2312,7 +2282,7 @@
         <v>44.484000000000002</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
@@ -2328,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D15" s="26">
         <v>750</v>
@@ -2351,7 +2321,7 @@
         <v>58.8</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
@@ -2385,7 +2355,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K16" s="29"/>
       <c r="L16" s="29">
@@ -2404,7 +2374,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="27"/>
@@ -2422,7 +2392,7 @@
         <v>51.2</v>
       </c>
       <c r="J17" s="39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
@@ -2435,10 +2405,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="49"/>
@@ -2456,7 +2426,7 @@
         <v>210</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
@@ -2496,7 +2466,7 @@
       <c r="J19" s="46"/>
       <c r="K19" s="12"/>
       <c r="L19" s="29">
-        <f t="shared" ref="L19:L71" si="2">K19*G19</f>
+        <f t="shared" ref="L19:L67" si="2">K19*G19</f>
         <v>0</v>
       </c>
       <c r="M19" s="12"/>
@@ -2626,7 +2596,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D23" s="26">
         <v>40</v>
@@ -2665,7 +2635,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D24" s="26">
         <v>50</v>
@@ -2685,7 +2655,7 @@
         <v>6</v>
       </c>
       <c r="J24" s="39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K24" s="29"/>
       <c r="L24" s="29">
@@ -2701,7 +2671,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>45</v>
@@ -2744,7 +2714,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="27">
@@ -2820,10 +2790,10 @@
         <v>17</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D28" s="34">
         <v>310</v>
@@ -2843,7 +2813,7 @@
         <v>40</v>
       </c>
       <c r="J28" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K28" s="29"/>
       <c r="L28" s="29">
@@ -2862,16 +2832,16 @@
         <v>31</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="E29" s="60"/>
+        <v>159</v>
+      </c>
+      <c r="E29" s="57"/>
       <c r="F29" s="54">
         <v>11</v>
       </c>
-      <c r="G29" s="60"/>
-      <c r="H29" s="62"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="59"/>
       <c r="I29" s="29">
-        <f t="shared" ref="I29:I62" si="3">G29*H29</f>
+        <f t="shared" ref="I29:I59" si="3">G29*H29</f>
         <v>0</v>
       </c>
       <c r="J29" s="38"/>
@@ -2889,14 +2859,14 @@
         <v>31</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" s="60"/>
+        <v>161</v>
+      </c>
+      <c r="E30" s="57"/>
       <c r="F30" s="54">
         <v>34</v>
       </c>
-      <c r="G30" s="60"/>
-      <c r="H30" s="62"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="59"/>
       <c r="I30" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2916,14 +2886,14 @@
         <v>31</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31" s="60"/>
+        <v>162</v>
+      </c>
+      <c r="E31" s="57"/>
       <c r="F31" s="54">
         <v>8</v>
       </c>
-      <c r="G31" s="60"/>
-      <c r="H31" s="62"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="59"/>
       <c r="I31" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2943,14 +2913,14 @@
         <v>33</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="60"/>
+        <v>163</v>
+      </c>
+      <c r="E32" s="57"/>
       <c r="F32" s="54">
         <v>24</v>
       </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="62"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="59"/>
       <c r="I32" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2970,14 +2940,14 @@
         <v>33</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="E33" s="60"/>
+        <v>165</v>
+      </c>
+      <c r="E33" s="57"/>
       <c r="F33" s="54">
         <v>38</v>
       </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="62"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="59"/>
       <c r="I33" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2997,14 +2967,14 @@
         <v>33</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" s="60"/>
+        <v>167</v>
+      </c>
+      <c r="E34" s="57"/>
       <c r="F34" s="54">
         <v>12</v>
       </c>
-      <c r="G34" s="60"/>
-      <c r="H34" s="62"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="59"/>
       <c r="I34" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3024,14 +2994,14 @@
         <v>33</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" s="60"/>
+        <v>168</v>
+      </c>
+      <c r="E35" s="57"/>
       <c r="F35" s="54">
         <v>4</v>
       </c>
-      <c r="G35" s="60"/>
-      <c r="H35" s="62"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="59"/>
       <c r="I35" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3051,14 +3021,14 @@
         <v>33</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="E36" s="60"/>
+        <v>169</v>
+      </c>
+      <c r="E36" s="57"/>
       <c r="F36" s="54">
         <v>4</v>
       </c>
-      <c r="G36" s="60"/>
-      <c r="H36" s="62"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="59"/>
       <c r="I36" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3078,14 +3048,14 @@
         <v>33</v>
       </c>
       <c r="C37" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="E37" s="60"/>
+        <v>170</v>
+      </c>
+      <c r="E37" s="57"/>
       <c r="F37" s="54">
         <v>3</v>
       </c>
-      <c r="G37" s="60"/>
-      <c r="H37" s="62">
+      <c r="G37" s="57"/>
+      <c r="H37" s="59">
         <v>4</v>
       </c>
       <c r="I37" s="29">
@@ -3093,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
@@ -3109,14 +3079,14 @@
         <v>31</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="E38" s="60"/>
+        <v>214</v>
+      </c>
+      <c r="E38" s="57"/>
       <c r="F38" s="54">
         <v>3</v>
       </c>
-      <c r="G38" s="60"/>
-      <c r="H38" s="62"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="59"/>
       <c r="I38" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3136,14 +3106,14 @@
         <v>31</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="E39" s="60"/>
+        <v>215</v>
+      </c>
+      <c r="E39" s="57"/>
       <c r="F39" s="54">
         <v>3</v>
       </c>
-      <c r="G39" s="60"/>
-      <c r="H39" s="62"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="59"/>
       <c r="I39" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3163,14 +3133,14 @@
         <v>32</v>
       </c>
       <c r="C40" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="E40" s="60"/>
+        <v>173</v>
+      </c>
+      <c r="E40" s="57"/>
       <c r="F40" s="54">
         <v>3</v>
       </c>
-      <c r="G40" s="60"/>
-      <c r="H40" s="62"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="59"/>
       <c r="I40" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3190,19 +3160,19 @@
         <v>33</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="E41" s="60"/>
+        <v>216</v>
+      </c>
+      <c r="E41" s="57"/>
       <c r="F41" s="54">
         <v>3</v>
       </c>
-      <c r="G41" s="60"/>
-      <c r="H41" s="62"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="59"/>
       <c r="I41" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J41" s="61"/>
+      <c r="J41" s="58"/>
       <c r="K41" s="29"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
@@ -3217,14 +3187,14 @@
         <v>33</v>
       </c>
       <c r="C42" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" s="60"/>
+        <v>175</v>
+      </c>
+      <c r="E42" s="57"/>
       <c r="F42" s="54">
         <v>3</v>
       </c>
-      <c r="G42" s="60"/>
-      <c r="H42" s="62"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="59"/>
       <c r="I42" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3244,14 +3214,14 @@
         <v>31</v>
       </c>
       <c r="C43" s="54" t="s">
-        <v>180</v>
-      </c>
-      <c r="E43" s="60"/>
+        <v>178</v>
+      </c>
+      <c r="E43" s="57"/>
       <c r="F43" s="54">
         <v>4</v>
       </c>
-      <c r="G43" s="60"/>
-      <c r="H43" s="62"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="59"/>
       <c r="I43" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3271,16 +3241,16 @@
         <v>31</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="E44" s="60"/>
+        <v>217</v>
+      </c>
+      <c r="E44" s="57"/>
       <c r="F44" s="54">
         <v>29</v>
       </c>
-      <c r="G44" s="60">
+      <c r="G44" s="57">
         <v>1</v>
       </c>
-      <c r="H44" s="62">
+      <c r="H44" s="59">
         <v>11</v>
       </c>
       <c r="I44" s="29">
@@ -3288,7 +3258,7 @@
         <v>11</v>
       </c>
       <c r="J44" s="39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
@@ -3304,14 +3274,14 @@
         <v>31</v>
       </c>
       <c r="C45" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="E45" s="60"/>
+        <v>179</v>
+      </c>
+      <c r="E45" s="57"/>
       <c r="F45" s="54">
         <v>13</v>
       </c>
-      <c r="G45" s="60"/>
-      <c r="H45" s="62"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="59"/>
       <c r="I45" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3331,16 +3301,16 @@
         <v>31</v>
       </c>
       <c r="C46" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="E46" s="60"/>
+        <v>218</v>
+      </c>
+      <c r="E46" s="57"/>
       <c r="F46" s="54">
         <v>84</v>
       </c>
-      <c r="G46" s="60">
+      <c r="G46" s="57">
         <v>1</v>
       </c>
-      <c r="H46" s="62">
+      <c r="H46" s="59">
         <v>12.5</v>
       </c>
       <c r="I46" s="29">
@@ -3348,7 +3318,7 @@
         <v>12.5</v>
       </c>
       <c r="J46" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K46" s="29"/>
       <c r="L46" s="29"/>
@@ -3364,16 +3334,16 @@
         <v>32</v>
       </c>
       <c r="C47" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="60"/>
+        <v>180</v>
+      </c>
+      <c r="E47" s="57"/>
       <c r="F47" s="54">
         <v>95</v>
       </c>
-      <c r="G47" s="60">
+      <c r="G47" s="57">
         <v>1</v>
       </c>
-      <c r="H47" s="62"/>
+      <c r="H47" s="59"/>
       <c r="I47" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3393,19 +3363,25 @@
         <v>33</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="E48" s="60"/>
+        <v>182</v>
+      </c>
+      <c r="E48" s="57"/>
       <c r="F48" s="54">
-        <v>8</v>
-      </c>
-      <c r="G48" s="60"/>
-      <c r="H48" s="62"/>
+        <v>111</v>
+      </c>
+      <c r="G48" s="57">
+        <v>12</v>
+      </c>
+      <c r="H48" s="59">
+        <v>3.5</v>
+      </c>
       <c r="I48" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="38"/>
+        <v>42</v>
+      </c>
+      <c r="J48" s="39" t="s">
+        <v>151</v>
+      </c>
       <c r="K48" s="29"/>
       <c r="L48" s="29"/>
       <c r="M48" s="29"/>
@@ -3422,23 +3398,17 @@
       <c r="C49" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="E49" s="60"/>
+      <c r="E49" s="57"/>
       <c r="F49" s="54">
-        <v>111</v>
-      </c>
-      <c r="G49" s="60">
-        <v>12</v>
-      </c>
-      <c r="H49" s="62">
-        <v>3.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G49" s="57"/>
+      <c r="H49" s="59"/>
       <c r="I49" s="29">
         <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="J49" s="39" t="s">
-        <v>153</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" s="38"/>
       <c r="K49" s="29"/>
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
@@ -3450,17 +3420,17 @@
         <v>30</v>
       </c>
       <c r="B50" s="54" t="s">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="C50" s="54" t="s">
-        <v>185</v>
-      </c>
-      <c r="E50" s="60"/>
+        <v>187</v>
+      </c>
+      <c r="E50" s="57"/>
       <c r="F50" s="54">
-        <v>2</v>
-      </c>
-      <c r="G50" s="60"/>
-      <c r="H50" s="62"/>
+        <v>5</v>
+      </c>
+      <c r="G50" s="57"/>
+      <c r="H50" s="59"/>
       <c r="I50" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3477,17 +3447,17 @@
         <v>30</v>
       </c>
       <c r="B51" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="E51" s="57"/>
+      <c r="F51" s="54">
         <v>33</v>
       </c>
-      <c r="C51" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="E51" s="60"/>
-      <c r="F51" s="54">
-        <v>4</v>
-      </c>
-      <c r="G51" s="60"/>
-      <c r="H51" s="62"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="59"/>
       <c r="I51" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3501,81 +3471,111 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="E52" s="60"/>
-      <c r="F52" s="54">
-        <v>4</v>
-      </c>
-      <c r="G52" s="60"/>
-      <c r="H52" s="62"/>
+        <v>34</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="26"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27">
+        <v>1</v>
+      </c>
+      <c r="G52" s="27">
+        <v>0</v>
+      </c>
+      <c r="H52" s="28">
+        <v>70</v>
+      </c>
       <c r="I52" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J52" s="38"/>
+      <c r="J52" s="39" t="s">
+        <v>37</v>
+      </c>
       <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
+      <c r="L52" s="29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M52" s="29"/>
       <c r="N52" s="26"/>
       <c r="O52" s="3"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="E53" s="60"/>
-      <c r="F53" s="54">
-        <v>5</v>
-      </c>
-      <c r="G53" s="60"/>
-      <c r="H53" s="62"/>
+        <v>34</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="26"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27">
+        <v>1</v>
+      </c>
+      <c r="G53" s="27">
+        <v>1</v>
+      </c>
+      <c r="H53" s="28">
+        <v>71</v>
+      </c>
       <c r="I53" s="29">
         <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="J53" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J53" s="38"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
       <c r="M53" s="29"/>
       <c r="N53" s="26"/>
       <c r="O53" s="3"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="C54" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="E54" s="60"/>
-      <c r="F54" s="54">
-        <v>33</v>
-      </c>
-      <c r="G54" s="60"/>
-      <c r="H54" s="62"/>
+        <v>34</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27">
+        <v>1</v>
+      </c>
+      <c r="G54" s="27">
+        <v>1</v>
+      </c>
+      <c r="H54" s="28">
+        <v>23</v>
+      </c>
       <c r="I54" s="29">
         <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="J54" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J54" s="38"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
       <c r="M54" s="29"/>
       <c r="N54" s="26"/>
       <c r="O54" s="3"/>
@@ -3584,29 +3584,29 @@
       <c r="A55" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>36</v>
+      <c r="B55" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>80</v>
       </c>
       <c r="D55" s="26"/>
       <c r="E55" s="27"/>
       <c r="F55" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G55" s="27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H55" s="28">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="I55" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J55" s="39" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K55" s="29"/>
       <c r="L55" s="29">
@@ -3622,10 +3622,10 @@
         <v>34</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D56" s="26"/>
       <c r="E56" s="27"/>
@@ -3636,14 +3636,14 @@
         <v>1</v>
       </c>
       <c r="H56" s="28">
-        <v>71</v>
+        <v>7.5</v>
       </c>
       <c r="I56" s="29">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>7.5</v>
       </c>
       <c r="J56" s="39" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K56" s="29"/>
       <c r="L56" s="29">
@@ -3659,12 +3659,14 @@
         <v>34</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" s="26"/>
+        <v>98</v>
+      </c>
+      <c r="D57" s="26">
+        <v>310</v>
+      </c>
       <c r="E57" s="27"/>
       <c r="F57" s="27">
         <v>1</v>
@@ -3673,21 +3675,25 @@
         <v>1</v>
       </c>
       <c r="H57" s="28">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="I57" s="29">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="J57" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="K57" s="29">
         <v>75</v>
       </c>
-      <c r="K57" s="29"/>
       <c r="L57" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="29"/>
+        <v>75</v>
+      </c>
+      <c r="M57" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="N57" s="26"/>
       <c r="O57" s="3"/>
     </row>
@@ -3699,25 +3705,25 @@
         <v>78</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D58" s="26"/>
       <c r="E58" s="27"/>
       <c r="F58" s="27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G58" s="27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H58" s="28">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="J58" s="39" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="K58" s="29"/>
       <c r="L58" s="29">
@@ -3733,10 +3739,10 @@
         <v>34</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="D59" s="26"/>
       <c r="E59" s="27"/>
@@ -3747,14 +3753,14 @@
         <v>1</v>
       </c>
       <c r="H59" s="28">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="I59" s="29">
         <f t="shared" si="3"/>
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="J59" s="39" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="K59" s="29"/>
       <c r="L59" s="29">
@@ -3767,17 +3773,15 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" s="26">
-        <v>310</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D60" s="26"/>
       <c r="E60" s="27"/>
       <c r="F60" s="27">
         <v>1</v>
@@ -3786,37 +3790,33 @@
         <v>1</v>
       </c>
       <c r="H60" s="28">
-        <v>23.5</v>
+        <v>85</v>
       </c>
       <c r="I60" s="29">
-        <f t="shared" si="3"/>
-        <v>23.5</v>
+        <f t="shared" ref="I60:I80" si="4">G60*H60</f>
+        <v>85</v>
       </c>
       <c r="J60" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="K60" s="29">
-        <v>75</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="K60" s="29"/>
       <c r="L60" s="29">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="M60" s="19" t="s">
-        <v>104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M60" s="29"/>
       <c r="N60" s="26"/>
       <c r="O60" s="3"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D61" s="26"/>
       <c r="E61" s="27"/>
@@ -3824,17 +3824,17 @@
         <v>1</v>
       </c>
       <c r="G61" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="28">
-        <v>5.5</v>
+        <v>65</v>
       </c>
       <c r="I61" s="29">
-        <f t="shared" si="3"/>
-        <v>5.5</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="J61" s="39" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="K61" s="29"/>
       <c r="L61" s="29">
@@ -3847,13 +3847,13 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="D62" s="26"/>
       <c r="E62" s="27"/>
@@ -3861,17 +3861,17 @@
         <v>1</v>
       </c>
       <c r="G62" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="28">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="I62" s="29">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="J62" s="39" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="K62" s="29"/>
       <c r="L62" s="29">
@@ -3884,13 +3884,13 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D63" s="26"/>
       <c r="E63" s="27"/>
@@ -3898,17 +3898,17 @@
         <v>1</v>
       </c>
       <c r="G63" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="28">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I63" s="29">
-        <f t="shared" ref="I63:I84" si="4">G63*H63</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="J63" s="39" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="K63" s="29"/>
       <c r="L63" s="29">
@@ -3921,31 +3921,33 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="26">
+        <v>100</v>
+      </c>
+      <c r="E64" s="27">
+        <v>8000</v>
+      </c>
+      <c r="F64" s="27"/>
       <c r="G64" s="27">
         <v>1</v>
       </c>
       <c r="H64" s="28">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="I64" s="29">
         <f t="shared" si="4"/>
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="J64" s="39" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="K64" s="29"/>
       <c r="L64" s="29">
@@ -3958,112 +3960,124 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B65" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>94</v>
+        <v>38</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="D65" s="26"/>
       <c r="E65" s="27"/>
       <c r="F65" s="27">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G65" s="27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H65" s="28">
-        <v>65</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I65" s="29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J65" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="K65" s="29"/>
+        <v>48</v>
+      </c>
+      <c r="K65" s="29">
+        <v>5.5</v>
+      </c>
       <c r="L65" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="29"/>
+        <v>55</v>
+      </c>
+      <c r="M65" s="19" t="s">
+        <v>58</v>
+      </c>
       <c r="N65" s="26"/>
       <c r="O65" s="3"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>108</v>
+        <v>38</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="D66" s="26"/>
       <c r="E66" s="27"/>
       <c r="F66" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G66" s="27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H66" s="28">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="I66" s="29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J66" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="K66" s="29"/>
+        <v>49</v>
+      </c>
+      <c r="K66" s="29">
+        <v>7</v>
+      </c>
       <c r="L66" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="29"/>
+        <v>35</v>
+      </c>
+      <c r="M66" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="N66" s="26"/>
       <c r="O66" s="3"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>118</v>
+        <v>38</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="D67" s="26"/>
       <c r="E67" s="27"/>
       <c r="F67" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G67" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H67" s="28">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="I67" s="29">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="J67" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="K67" s="29"/>
+        <v>53</v>
+      </c>
+      <c r="K67" s="29">
+        <v>6</v>
+      </c>
       <c r="L67" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="29"/>
+        <v>30</v>
+      </c>
+      <c r="M67" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="N67" s="26"/>
       <c r="O67" s="3"/>
     </row>
@@ -4072,36 +4086,35 @@
         <v>38</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D68" s="26">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E68" s="27">
-        <v>7000</v>
-      </c>
-      <c r="F68" s="27"/>
+        <v>600</v>
+      </c>
+      <c r="F68" s="27">
+        <v>3</v>
+      </c>
       <c r="G68" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68" s="28">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="I68" s="29">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J68" s="39" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="K68" s="29"/>
-      <c r="L68" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L68" s="29"/>
       <c r="M68" s="29"/>
       <c r="N68" s="26"/>
       <c r="O68" s="3"/>
@@ -4111,38 +4124,38 @@
         <v>38</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="D69" s="26"/>
       <c r="E69" s="27"/>
       <c r="F69" s="27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G69" s="27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H69" s="28">
-        <v>4.0999999999999996</v>
+        <v>14.5</v>
       </c>
       <c r="I69" s="29">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>72.5</v>
       </c>
       <c r="J69" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="K69" s="29">
-        <v>5.5</v>
+        <v>140</v>
+      </c>
+      <c r="K69" s="28">
+        <v>11</v>
       </c>
       <c r="L69" s="29">
-        <f t="shared" si="2"/>
+        <f>K69*G69</f>
         <v>55</v>
       </c>
       <c r="M69" s="19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N69" s="26"/>
       <c r="O69" s="3"/>
@@ -4151,40 +4164,35 @@
       <c r="A70" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70" s="26"/>
+      <c r="B70" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="26">
+        <v>350</v>
+      </c>
       <c r="E70" s="27"/>
       <c r="F70" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G70" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H70" s="28">
-        <v>6</v>
+        <v>15.6</v>
       </c>
       <c r="I70" s="29">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>46.8</v>
       </c>
       <c r="J70" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="K70" s="29">
-        <v>7</v>
-      </c>
-      <c r="L70" s="29">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="M70" s="19" t="s">
-        <v>57</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K70" s="28"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="19"/>
       <c r="N70" s="26"/>
       <c r="O70" s="3"/>
     </row>
@@ -4192,40 +4200,35 @@
       <c r="A71" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B71" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="26"/>
+      <c r="B71" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="26">
+        <v>400</v>
+      </c>
       <c r="E71" s="27"/>
       <c r="F71" s="27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G71" s="27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H71" s="28">
-        <v>4</v>
+        <v>17.5</v>
       </c>
       <c r="I71" s="29">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J71" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="K71" s="29">
-        <v>6</v>
-      </c>
-      <c r="L71" s="29">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="M71" s="19" t="s">
-        <v>59</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="K71" s="28"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="19"/>
       <c r="N71" s="26"/>
       <c r="O71" s="3"/>
     </row>
@@ -4233,110 +4236,99 @@
       <c r="A72" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B72" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>42</v>
+      <c r="B72" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="D72" s="26">
-        <v>200</v>
-      </c>
-      <c r="E72" s="27">
-        <v>600</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="E72" s="27"/>
       <c r="F72" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G72" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H72" s="28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I72" s="29">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="J72" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="K72" s="29"/>
+        <v>114</v>
+      </c>
+      <c r="K72" s="28"/>
       <c r="L72" s="29"/>
-      <c r="M72" s="29"/>
+      <c r="M72" s="19"/>
       <c r="N72" s="26"/>
       <c r="O72" s="3"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>141</v>
+        <v>64</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>67</v>
       </c>
       <c r="D73" s="26"/>
       <c r="E73" s="27"/>
       <c r="F73" s="27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G73" s="27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H73" s="28">
-        <v>14.5</v>
+        <v>50</v>
       </c>
       <c r="I73" s="29">
         <f t="shared" si="4"/>
-        <v>72.5</v>
+        <v>50</v>
       </c>
       <c r="J73" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="K73" s="28">
-        <v>11</v>
-      </c>
-      <c r="L73" s="29">
-        <f>K73*G73</f>
-        <v>55</v>
-      </c>
-      <c r="M73" s="19" t="s">
-        <v>61</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="K73" s="28"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="19"/>
       <c r="N73" s="26"/>
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D74" s="26">
-        <v>350</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D74" s="26"/>
       <c r="E74" s="27"/>
       <c r="F74" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G74" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H74" s="28">
-        <v>15.6</v>
+        <v>20</v>
       </c>
       <c r="I74" s="29">
         <f t="shared" si="4"/>
-        <v>46.8</v>
+        <v>40</v>
       </c>
       <c r="J74" s="39" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K74" s="28"/>
       <c r="L74" s="29"/>
@@ -4346,33 +4338,31 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C75" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="D75" s="26">
-        <v>400</v>
-      </c>
+      <c r="D75" s="26"/>
       <c r="E75" s="27"/>
       <c r="F75" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" s="28">
-        <v>17.5</v>
+        <v>70</v>
       </c>
       <c r="I75" s="29">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="J75" s="39" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="K75" s="28"/>
       <c r="L75" s="29"/>
@@ -4382,17 +4372,13 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D76" s="26">
-        <v>400</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
       <c r="E76" s="27"/>
       <c r="F76" s="27">
         <v>1</v>
@@ -4401,15 +4387,13 @@
         <v>1</v>
       </c>
       <c r="H76" s="28">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I76" s="29">
         <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="J76" s="39" t="s">
-        <v>116</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J76" s="39"/>
       <c r="K76" s="28"/>
       <c r="L76" s="29"/>
       <c r="M76" s="19"/>
@@ -4421,11 +4405,9 @@
         <v>64</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77" s="34" t="s">
-        <v>67</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C77" s="26"/>
       <c r="D77" s="26"/>
       <c r="E77" s="27"/>
       <c r="F77" s="27">
@@ -4435,15 +4417,13 @@
         <v>1</v>
       </c>
       <c r="H77" s="28">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I77" s="29">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="J77" s="39" t="s">
-        <v>121</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J77" s="39"/>
       <c r="K77" s="28"/>
       <c r="L77" s="29"/>
       <c r="M77" s="19"/>
@@ -4452,31 +4432,29 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C78" s="34" t="s">
-        <v>68</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C78" s="26"/>
       <c r="D78" s="26"/>
       <c r="E78" s="27"/>
       <c r="F78" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" s="28">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I78" s="29">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J78" s="39" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="K78" s="28"/>
       <c r="L78" s="29"/>
@@ -4486,32 +4464,28 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C79" s="34" t="s">
-        <v>133</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C79" s="26"/>
       <c r="D79" s="26"/>
       <c r="E79" s="27"/>
       <c r="F79" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G79" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H79" s="28">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I79" s="29">
         <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="J79" s="39" t="s">
-        <v>122</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="J79" s="39"/>
       <c r="K79" s="28"/>
       <c r="L79" s="29"/>
       <c r="M79" s="19"/>
@@ -4520,10 +4494,10 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
@@ -4532,7 +4506,9 @@
         <v>1</v>
       </c>
       <c r="G80" s="27"/>
-      <c r="H80" s="28"/>
+      <c r="H80" s="28">
+        <v>20</v>
+      </c>
       <c r="I80" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4544,208 +4520,95 @@
       <c r="N80" s="26"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B81" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27">
-        <v>1</v>
-      </c>
-      <c r="G81" s="27"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="39"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="29"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="26"/>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B82" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27">
-        <v>1</v>
-      </c>
-      <c r="G82" s="27">
-        <v>1</v>
-      </c>
-      <c r="H82" s="28">
-        <v>20</v>
-      </c>
-      <c r="I82" s="29">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="J82" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="K82" s="28"/>
-      <c r="L82" s="29"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B83" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27">
-        <v>4</v>
-      </c>
-      <c r="G83" s="27">
-        <v>4</v>
-      </c>
-      <c r="H83" s="28"/>
-      <c r="I83" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="39"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="19"/>
-      <c r="N83" s="26"/>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B84" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27">
-        <v>1</v>
-      </c>
-      <c r="G84" s="27"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="39"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="26"/>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="B85" s="42" t="s">
+    <row r="81" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C85" s="42" t="s">
+      <c r="C81" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="43">
-        <f>SUM(I18:I84)</f>
-        <v>1280.3</v>
-      </c>
-      <c r="J85" s="40"/>
-      <c r="K85" s="32"/>
-      <c r="L85" s="32"/>
-      <c r="M85" s="32"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="5"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="43">
+        <f>SUM(I18:I80)</f>
+        <v>1450.3</v>
+      </c>
+      <c r="J81" s="40"/>
+      <c r="K81" s="32"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="32"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:O85" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A10:O81" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J68" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
-    <hyperlink ref="J69" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
-    <hyperlink ref="J70" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
-    <hyperlink ref="J71" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
-    <hyperlink ref="J72" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
-    <hyperlink ref="M73" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
+    <hyperlink ref="J64" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
+    <hyperlink ref="J65" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
+    <hyperlink ref="J66" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
+    <hyperlink ref="J67" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
+    <hyperlink ref="J68" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
+    <hyperlink ref="M69" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
     <hyperlink ref="J22" r:id="rId7" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
     <hyperlink ref="J24" r:id="rId8" display="2x Length: 45mm 4PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
-    <hyperlink ref="J55" r:id="rId9" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
+    <hyperlink ref="J52" r:id="rId9" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
     <hyperlink ref="J25" r:id="rId10" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
-    <hyperlink ref="M69" r:id="rId11" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
-    <hyperlink ref="M70" r:id="rId12" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
-    <hyperlink ref="M71" r:id="rId13" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
+    <hyperlink ref="M65" r:id="rId11" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
+    <hyperlink ref="M66" r:id="rId12" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
+    <hyperlink ref="M67" r:id="rId13" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
     <hyperlink ref="J26" r:id="rId14" xr:uid="{A8C5E0F3-B1FB-4E57-8DD8-1DF57CDC1A28}"/>
-    <hyperlink ref="J57" r:id="rId15" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
-    <hyperlink ref="J56" r:id="rId16" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
-    <hyperlink ref="J58" r:id="rId17" display="6pcs Optical Endstop" xr:uid="{0AB90FFF-9946-4F78-93E2-A102C645ECAE}"/>
-    <hyperlink ref="J59" r:id="rId18" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
+    <hyperlink ref="J54" r:id="rId15" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
+    <hyperlink ref="J53" r:id="rId16" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
+    <hyperlink ref="J55" r:id="rId17" display="6pcs Optical Endstop" xr:uid="{0AB90FFF-9946-4F78-93E2-A102C645ECAE}"/>
+    <hyperlink ref="J56" r:id="rId18" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
     <hyperlink ref="J23" r:id="rId19" xr:uid="{7E1F7424-E58C-4FCB-9D3A-3CB69F34CE9F}"/>
     <hyperlink ref="J27" r:id="rId20" xr:uid="{755FCD6D-D745-447C-AAA6-2D31A19F9A40}"/>
-    <hyperlink ref="J63" r:id="rId21" xr:uid="{A90E869A-7328-473A-BA20-82979A845F00}"/>
-    <hyperlink ref="J64" r:id="rId22" xr:uid="{37B2932B-CA7B-49AA-9F35-9BCE3D136353}"/>
-    <hyperlink ref="J65" r:id="rId23" xr:uid="{BE140B59-D4B8-46C3-B6EC-BEB5F431781F}"/>
-    <hyperlink ref="J66" r:id="rId24" xr:uid="{54817A0E-3A4B-42D7-AA92-5C84B2F161F2}"/>
-    <hyperlink ref="J60" r:id="rId25" xr:uid="{4F053E16-31A4-458E-B422-7E74FE54E665}"/>
-    <hyperlink ref="M60" r:id="rId26" display="Color: 220V 750W" xr:uid="{6A46011B-C1CA-4A88-AD58-75064F9710C4}"/>
-    <hyperlink ref="M26" r:id="rId27" xr:uid="{F5DB1B37-0615-45FE-8D85-29C4F7CAFAB1}"/>
-    <hyperlink ref="J28" r:id="rId28" xr:uid="{AB0B8958-9970-4FAA-8724-81774C9EF9F1}"/>
-    <hyperlink ref="J74" r:id="rId29" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{AEC77D91-6FD3-455F-B901-C8AECBF4FBFC}"/>
-    <hyperlink ref="J76" r:id="rId30" display="Color: MGN9 H" xr:uid="{EF1CF25C-A286-4000-976B-3EF1290B85D5}"/>
-    <hyperlink ref="J67" r:id="rId31" xr:uid="{DB0C305C-D8F4-4B4B-BC4F-C7B8CEFFD8B9}"/>
-    <hyperlink ref="J77" r:id="rId32" xr:uid="{DD8F2F46-A4D3-45B7-8C61-BE3E5D8E77D4}"/>
-    <hyperlink ref="J79" r:id="rId33" display="Blade Color: 140mm reservoir" xr:uid="{1B2FD753-14EC-44DA-A449-AA8B531B9F4C}"/>
-    <hyperlink ref="J78" r:id="rId34" xr:uid="{14075AD2-C38A-4641-AE38-8D82C15730CB}"/>
-    <hyperlink ref="J75" r:id="rId35" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{87ABA4C9-E494-4982-9A2A-9EB09D4C4F32}"/>
-    <hyperlink ref="J62" r:id="rId36" xr:uid="{7420580F-5469-4338-8D3D-9259352A596B}"/>
-    <hyperlink ref="J61" r:id="rId37" xr:uid="{EFED6ED9-EE5F-46BC-B31F-70D83F581B59}"/>
-    <hyperlink ref="J15" r:id="rId38" xr:uid="{295A4C29-D457-4346-89F2-C8F491474683}"/>
-    <hyperlink ref="J14" r:id="rId39" display="Color: 750 mm" xr:uid="{94C730F7-348B-41A5-806E-F0BF24EB60AA}"/>
-    <hyperlink ref="J13" r:id="rId40" display="Color: 750 mm" xr:uid="{4033F5F5-D2DC-4E1B-9028-50B6F444F7CD}"/>
-    <hyperlink ref="J12" r:id="rId41" display="Color: 250 mm" xr:uid="{E0A63DCC-F535-4BC5-9F41-DCCE7FE857A6}"/>
-    <hyperlink ref="J11" r:id="rId42" display="Color: 250 mm" xr:uid="{390B4AE1-6B94-48FE-992C-92B2C04994E2}"/>
-    <hyperlink ref="J17" r:id="rId43" xr:uid="{563E21C0-381D-44F8-8FBC-944CF9FE7B6A}"/>
-    <hyperlink ref="J16" r:id="rId44" display="Color: 5pcs 2028" xr:uid="{1C87A78E-750D-441D-BDAF-8A3315D08535}"/>
-    <hyperlink ref="M20" r:id="rId45" location="/56-color-silver_grey_anodized/105-length-750mm" display="https://makersupplies.dk/en/v-slot-profiles/13-v-slot-profiles-20x20-v-slot.html - /56-color-silver_grey_anodized/105-length-750mm" xr:uid="{B4B0AE2C-70F2-449C-BC20-9BB60F3DB087}"/>
-    <hyperlink ref="J73" r:id="rId46" xr:uid="{991F3D10-4224-4E86-BCB4-AFCFA2A64478}"/>
-    <hyperlink ref="J18" r:id="rId47" display="WIP" xr:uid="{A48579E2-EF49-4729-81C6-C54E4E73F150}"/>
-    <hyperlink ref="J82" r:id="rId48" xr:uid="{894E09D5-8AF5-4C2F-A85D-98661DCBF526}"/>
-    <hyperlink ref="J37" r:id="rId49" xr:uid="{AA489145-7D60-48E1-9C07-306F8FEB2BFC}"/>
-    <hyperlink ref="J49" r:id="rId50" xr:uid="{EDF6505F-9619-435E-B46E-B9123E7D7A43}"/>
-    <hyperlink ref="J44" r:id="rId51" display="M5 Hammer Nut" xr:uid="{41B5B8CF-1C49-4CCA-B8BD-4BF45C65F224}"/>
-    <hyperlink ref="J46" r:id="rId52" display="Size: M5" xr:uid="{D4E2B164-D518-40F4-9BD9-52532DC985DA}"/>
+    <hyperlink ref="J60" r:id="rId21" xr:uid="{37B2932B-CA7B-49AA-9F35-9BCE3D136353}"/>
+    <hyperlink ref="J61" r:id="rId22" xr:uid="{BE140B59-D4B8-46C3-B6EC-BEB5F431781F}"/>
+    <hyperlink ref="J62" r:id="rId23" xr:uid="{54817A0E-3A4B-42D7-AA92-5C84B2F161F2}"/>
+    <hyperlink ref="J57" r:id="rId24" xr:uid="{4F053E16-31A4-458E-B422-7E74FE54E665}"/>
+    <hyperlink ref="M57" r:id="rId25" display="Color: 220V 750W" xr:uid="{6A46011B-C1CA-4A88-AD58-75064F9710C4}"/>
+    <hyperlink ref="M26" r:id="rId26" xr:uid="{F5DB1B37-0615-45FE-8D85-29C4F7CAFAB1}"/>
+    <hyperlink ref="J28" r:id="rId27" xr:uid="{AB0B8958-9970-4FAA-8724-81774C9EF9F1}"/>
+    <hyperlink ref="J70" r:id="rId28" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{AEC77D91-6FD3-455F-B901-C8AECBF4FBFC}"/>
+    <hyperlink ref="J72" r:id="rId29" display="Color: MGN9 H" xr:uid="{EF1CF25C-A286-4000-976B-3EF1290B85D5}"/>
+    <hyperlink ref="J63" r:id="rId30" xr:uid="{DB0C305C-D8F4-4B4B-BC4F-C7B8CEFFD8B9}"/>
+    <hyperlink ref="J73" r:id="rId31" xr:uid="{DD8F2F46-A4D3-45B7-8C61-BE3E5D8E77D4}"/>
+    <hyperlink ref="J75" r:id="rId32" display="Blade Color: 140mm reservoir" xr:uid="{1B2FD753-14EC-44DA-A449-AA8B531B9F4C}"/>
+    <hyperlink ref="J74" r:id="rId33" xr:uid="{14075AD2-C38A-4641-AE38-8D82C15730CB}"/>
+    <hyperlink ref="J71" r:id="rId34" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{87ABA4C9-E494-4982-9A2A-9EB09D4C4F32}"/>
+    <hyperlink ref="J59" r:id="rId35" xr:uid="{7420580F-5469-4338-8D3D-9259352A596B}"/>
+    <hyperlink ref="J58" r:id="rId36" xr:uid="{EFED6ED9-EE5F-46BC-B31F-70D83F581B59}"/>
+    <hyperlink ref="J15" r:id="rId37" xr:uid="{295A4C29-D457-4346-89F2-C8F491474683}"/>
+    <hyperlink ref="J14" r:id="rId38" display="Color: 750 mm" xr:uid="{94C730F7-348B-41A5-806E-F0BF24EB60AA}"/>
+    <hyperlink ref="J13" r:id="rId39" display="Color: 750 mm" xr:uid="{4033F5F5-D2DC-4E1B-9028-50B6F444F7CD}"/>
+    <hyperlink ref="J12" r:id="rId40" display="Color: 250 mm" xr:uid="{E0A63DCC-F535-4BC5-9F41-DCCE7FE857A6}"/>
+    <hyperlink ref="J11" r:id="rId41" display="Color: 250 mm" xr:uid="{390B4AE1-6B94-48FE-992C-92B2C04994E2}"/>
+    <hyperlink ref="J17" r:id="rId42" xr:uid="{563E21C0-381D-44F8-8FBC-944CF9FE7B6A}"/>
+    <hyperlink ref="J16" r:id="rId43" display="Color: 5pcs 2028" xr:uid="{1C87A78E-750D-441D-BDAF-8A3315D08535}"/>
+    <hyperlink ref="M20" r:id="rId44" location="/56-color-silver_grey_anodized/105-length-750mm" display="https://makersupplies.dk/en/v-slot-profiles/13-v-slot-profiles-20x20-v-slot.html - /56-color-silver_grey_anodized/105-length-750mm" xr:uid="{B4B0AE2C-70F2-449C-BC20-9BB60F3DB087}"/>
+    <hyperlink ref="J69" r:id="rId45" xr:uid="{991F3D10-4224-4E86-BCB4-AFCFA2A64478}"/>
+    <hyperlink ref="J18" r:id="rId46" display="WIP" xr:uid="{A48579E2-EF49-4729-81C6-C54E4E73F150}"/>
+    <hyperlink ref="J78" r:id="rId47" xr:uid="{894E09D5-8AF5-4C2F-A85D-98661DCBF526}"/>
+    <hyperlink ref="J37" r:id="rId48" xr:uid="{AA489145-7D60-48E1-9C07-306F8FEB2BFC}"/>
+    <hyperlink ref="J48" r:id="rId49" xr:uid="{EDF6505F-9619-435E-B46E-B9123E7D7A43}"/>
+    <hyperlink ref="J44" r:id="rId50" display="M5 Hammer Nut" xr:uid="{41B5B8CF-1C49-4CCA-B8BD-4BF45C65F224}"/>
+    <hyperlink ref="J46" r:id="rId51" display="Size: M5" xr:uid="{D4E2B164-D518-40F4-9BD9-52532DC985DA}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId53"/>
-  <drawing r:id="rId54"/>
-  <legacyDrawing r:id="rId55"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId52"/>
+  <drawing r:id="rId53"/>
+  <legacyDrawing r:id="rId54"/>
 </worksheet>
 </file>
 
@@ -4755,7 +4618,7 @@
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:C9"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4772,16 +4635,16 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -4798,13 +4661,13 @@
         <v>31</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D2" s="54">
         <v>11</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F2" s="54"/>
       <c r="G2" s="54"/>
@@ -4817,13 +4680,13 @@
         <v>31</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D3" s="54">
         <v>34</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
@@ -4836,13 +4699,13 @@
         <v>31</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D4" s="54">
         <v>8</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F4" s="54"/>
       <c r="G4" s="54"/>
@@ -4855,13 +4718,13 @@
         <v>33</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D5" s="54">
         <v>24</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F5" s="54"/>
       <c r="G5" s="54">
@@ -4876,13 +4739,13 @@
         <v>33</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D6" s="54">
         <v>38</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F6" s="54">
         <v>912</v>
@@ -4899,13 +4762,13 @@
         <v>33</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D7" s="54">
         <v>12</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F7" s="54"/>
       <c r="G7" s="54">
@@ -4920,13 +4783,13 @@
         <v>33</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D8" s="54">
         <v>4</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F8" s="54">
         <v>912</v>
@@ -4943,13 +4806,13 @@
         <v>33</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D9" s="54">
         <v>4</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F9" s="54"/>
       <c r="G9" s="54">
@@ -4964,13 +4827,13 @@
         <v>33</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D10" s="54">
         <v>3</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
@@ -4983,13 +4846,13 @@
         <v>31</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D11" s="54">
         <v>3</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F11" s="54"/>
       <c r="G11" s="54"/>
@@ -5002,13 +4865,13 @@
         <v>31</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D12" s="54">
         <v>3</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
@@ -5021,13 +4884,13 @@
         <v>32</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D13" s="54">
         <v>3</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
@@ -5040,13 +4903,13 @@
         <v>33</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D14" s="54">
         <v>3</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F14" s="54">
         <v>7991</v>
@@ -5063,13 +4926,13 @@
         <v>31</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D15" s="54">
         <v>29</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
@@ -5082,13 +4945,13 @@
         <v>31</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D16" s="54">
         <v>4</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -5101,13 +4964,13 @@
         <v>31</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D17" s="54">
         <v>13</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
@@ -5120,13 +4983,13 @@
         <v>31</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D18" s="54">
         <v>84</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
@@ -5139,13 +5002,13 @@
         <v>32</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D19" s="54">
         <v>95</v>
       </c>
       <c r="E19" s="54" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
@@ -5158,13 +5021,13 @@
         <v>33</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D20" s="54">
         <v>8</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F20" s="54"/>
       <c r="G20" s="54">
@@ -5179,13 +5042,13 @@
         <v>33</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D21" s="54">
         <v>111</v>
       </c>
       <c r="E21" s="54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F21" s="54"/>
       <c r="G21" s="54">
@@ -5200,13 +5063,13 @@
         <v>33</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D22" s="54">
         <v>2</v>
       </c>
       <c r="E22" s="54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F22" s="54"/>
       <c r="G22" s="54">
@@ -5221,13 +5084,13 @@
         <v>33</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D23" s="54">
         <v>4</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F23" s="54"/>
       <c r="G23" s="54">
@@ -5242,13 +5105,13 @@
         <v>33</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D24" s="54">
         <v>4</v>
       </c>
       <c r="E24" s="54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F24" s="54"/>
       <c r="G24" s="54">
@@ -5260,16 +5123,16 @@
         <v>30</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D25" s="54">
         <v>5</v>
       </c>
       <c r="E25" s="54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F25" s="54">
         <v>933</v>
@@ -5283,16 +5146,16 @@
         <v>30</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D26" s="54">
         <v>33</v>
       </c>
       <c r="E26" s="54" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
@@ -5322,7 +5185,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D28" s="55">
         <v>8</v>
@@ -5336,10 +5199,10 @@
         <v>17</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D29" s="55">
         <v>5</v>
@@ -5353,10 +5216,10 @@
         <v>17</v>
       </c>
       <c r="B30" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" s="55" t="s">
         <v>192</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>194</v>
       </c>
       <c r="D30" s="55">
         <v>10</v>
@@ -5370,10 +5233,10 @@
         <v>17</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D31" s="55">
         <v>6</v>
@@ -5387,10 +5250,10 @@
         <v>17</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D32" s="55">
         <v>6</v>
@@ -5404,10 +5267,10 @@
         <v>17</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D33" s="55">
         <v>3</v>
@@ -5424,7 +5287,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D34" s="55">
         <v>3</v>
@@ -5441,7 +5304,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D35" s="55">
         <v>1</v>
@@ -5458,7 +5321,7 @@
         <v>39</v>
       </c>
       <c r="C36" s="56" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D36" s="56">
         <v>3</v>
@@ -5475,7 +5338,7 @@
         <v>41</v>
       </c>
       <c r="C37" s="56" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D37" s="56">
         <v>3</v>
@@ -5492,7 +5355,7 @@
         <v>41</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D38" s="56">
         <v>3</v>
@@ -5509,7 +5372,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="56" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D39" s="56">
         <v>10</v>
@@ -5526,7 +5389,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D40" s="56">
         <v>5</v>
@@ -5543,7 +5406,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="56" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D41" s="56">
         <v>5</v>
@@ -5557,10 +5420,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D42" s="56">
         <v>1</v>
@@ -5574,10 +5437,10 @@
         <v>38</v>
       </c>
       <c r="B43" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="56" t="s">
         <v>208</v>
-      </c>
-      <c r="C43" s="56" t="s">
-        <v>210</v>
       </c>
       <c r="D43" s="56">
         <v>3</v>
@@ -5591,10 +5454,10 @@
         <v>38</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C44" s="56" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D44" s="56">
         <v>2</v>
@@ -5608,10 +5471,10 @@
         <v>38</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C45" s="56" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D45" s="56">
         <v>5</v>

--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="8_{B0BDE0A3-E6D2-4CB5-B3CB-54BD7EA2D1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0748E4EE-7932-497F-9B2C-F38E73C3F123}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="8_{B0BDE0A3-E6D2-4CB5-B3CB-54BD7EA2D1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43B85C20-7041-47EF-A78B-2629839EDF62}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Valkyrie Base Frame BOM 02" sheetId="1" r:id="rId1"/>
-    <sheet name="220215 Hardware" sheetId="2" r:id="rId2"/>
+    <sheet name="Valkyrie Stage 1" sheetId="3" r:id="rId1"/>
+    <sheet name="Valkyrie Final Stage" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'220215 Hardware'!$A$1:$G$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$10:$O$83</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Valkyrie Final Stage'!$A$10:$O$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage 1'!$A$10:$O$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Valkyrie Final Stage'!$A$1:$O$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Stage 1'!$A$1:$O$73</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,6 +38,60 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Roy Berntsen</author>
+  </authors>
+  <commentList>
+    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{56BD2E79-7DEB-4DD8-AF0F-C0B35A444683}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Big Dipper is a combination of duet3 mini5 + and Mini 2 +. Its main control and pin allocation are completely consistent with mini5 +, and the firmware of mini5 + can be used directly. At the same time, the power supply and IO protection have been upgraded to a certain extent to make it safer. The switching between WiFi version and Ethernet version can be realized by replacing the module. WiFi supports external antenna.
+Based on the good ecology of RRF firmware and the on-board 7-axis (7xtmc2209), the board can be easily configured for a variety of models, such as Voron series, multi z-axis models, dual x models, etc.
+Size: 148.5 x 87mm
+Based on same54p20 (arm cortex M4 @ 120mhz), it is fully compatible with duet3 mini5 +
+Onboard 7-way tmc2209 stepper motor drive
+Input / output IO full TVs protection
+28V maximum input, 12V@2A DC-DC (12V fan supply), 5V@8A DC-DC (power supply for raspberry pie and system), two 3 3V@0.6A LDO (power supply for MCU and 3.3V peripherals respectively)
+Two automotive fuses for hot bed input and main power input
+Using xh2.54 connector, the functions of each interface are completely consistent with mini5 +
+7x PWM power MOSFET output (1 for hot bed, 2 for hot end, 4 for fan,)
+Reprap discount smart controller compatible sockets, Exp1 and exp2. It supports monochrome displays such as 200412864.
+Uart1 raspberry PI row needle (including 5V@5A Power supply)
+2x4 row pin lead out for external SD card module
+On board TF card slot
+Type-C USB socket
+3 Thermistor/PT1000 inputs and support for 2 PT100 or thermocouple inputs via the optional daughterboards.
+Both Wifi and Ethernet versions
+CAN-FD bus that supports the next generation of Duet3D expansion boards, smart tools and custom addons.
+Set up your printer and update the firmware through the web interface.
+All common 3D printer geometries are supported
+Support for a wide range of Z probes including DC42’s IR Z probe and the Duet3D Smart Effector for delta printers.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Roy Berntsen</author>
@@ -91,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="185">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -540,84 +595,36 @@
     <t>10pcs M5 - Length: 10mm</t>
   </si>
   <si>
-    <t>M5 T-Nut</t>
-  </si>
-  <si>
     <t>100 pcs - M5 Hammer Nut</t>
   </si>
   <si>
     <t>Color: 200x50cm 10mm</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Part name</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Head</t>
-  </si>
-  <si>
     <t>M3 Nut</t>
   </si>
   <si>
-    <t>HEX</t>
-  </si>
-  <si>
     <t>M3 Nut Hammer Nut</t>
   </si>
   <si>
-    <t>M3 Nut Lock Nut</t>
-  </si>
-  <si>
     <t>M3x08 BH</t>
   </si>
   <si>
-    <t>BH</t>
-  </si>
-  <si>
     <t>M3x08 SH</t>
   </si>
   <si>
-    <t>SH</t>
-  </si>
-  <si>
     <t>M3x10 BH</t>
   </si>
   <si>
-    <t>M3x14 SH</t>
-  </si>
-  <si>
-    <t>M3x20 BH</t>
-  </si>
-  <si>
     <t>M4 D5 L55 Shoulder Screw</t>
   </si>
   <si>
-    <t>M4 LOCK NUT</t>
-  </si>
-  <si>
-    <t>M4 NUT</t>
-  </si>
-  <si>
     <t>M4 WASHER</t>
   </si>
   <si>
-    <t>Round</t>
-  </si>
-  <si>
     <t>M4x20 CS</t>
   </si>
   <si>
-    <t>FH-CS</t>
-  </si>
-  <si>
-    <t>M5 Hammer-Nut</t>
-  </si>
-  <si>
     <t>M5 Nut</t>
   </si>
   <si>
@@ -627,21 +634,12 @@
     <t>M5 WASHER</t>
   </si>
   <si>
-    <t>M5x08 BH</t>
-  </si>
-  <si>
     <t>M5x10 BH</t>
   </si>
   <si>
-    <t>M5x16 BH</t>
-  </si>
-  <si>
     <t>M5x20 BH</t>
   </si>
   <si>
-    <t>M5x30 BH</t>
-  </si>
-  <si>
     <t>Bolt</t>
   </si>
   <si>
@@ -652,75 +650,6 @@
   </si>
   <si>
     <t>M5x6.5x1 Precision Shim</t>
-  </si>
-  <si>
-    <t>Shaft</t>
-  </si>
-  <si>
-    <t>5x25 Bearing Shaft</t>
-  </si>
-  <si>
-    <t>5x40 Bearing Shaft</t>
-  </si>
-  <si>
-    <t>5x50 Bearing Shaft</t>
-  </si>
-  <si>
-    <t>Bearing</t>
-  </si>
-  <si>
-    <t>625 2RS Ball Bearing 5x16x5</t>
-  </si>
-  <si>
-    <t>Joint</t>
-  </si>
-  <si>
-    <t>Ball End Joint</t>
-  </si>
-  <si>
-    <t>Magnet_3x</t>
-  </si>
-  <si>
-    <t>X Axis 2020 Carbon Tube</t>
-  </si>
-  <si>
-    <t>GT2 06mm Belt 200mm Loop</t>
-  </si>
-  <si>
-    <t>GT2 06mm Pulley 20T</t>
-  </si>
-  <si>
-    <t>GT2 06mm Pulley 80T</t>
-  </si>
-  <si>
-    <t>GT2 11mm Idler 20S Gates</t>
-  </si>
-  <si>
-    <t>GT2 11mm Idler 20T Gates</t>
-  </si>
-  <si>
-    <t>GT2 11mm Pulley 20T</t>
-  </si>
-  <si>
-    <t>MGN</t>
-  </si>
-  <si>
-    <t>MGN 09h 400</t>
-  </si>
-  <si>
-    <t>MGN 12h 350</t>
-  </si>
-  <si>
-    <t>MGN 12h 400</t>
-  </si>
-  <si>
-    <t>Motor</t>
-  </si>
-  <si>
-    <t>Nema 17 40mm</t>
-  </si>
-  <si>
-    <t>Square</t>
   </si>
   <si>
     <t>Ball Joint</t>
@@ -961,7 +890,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1139,24 +1068,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1511,7 +1422,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1547,90 +1458,78 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="36" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="21" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="39" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="39" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="39" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="21" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="39" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="39" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="39" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="39" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="39" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="39" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="39" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="39" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="25" xfId="42" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="36" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="25" xfId="42" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1640,13 +1539,22 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="39" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="39" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="39" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="14" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="36" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="36" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="36" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="14" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1708,6 +1616,60 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>229872</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>308240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>138314</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>184526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0919AA91-60A7-4C16-9F56-53BCD83E66C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5525772" y="308240"/>
+          <a:ext cx="2394467" cy="1352661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2057,15 +2019,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277AFE07-5107-4732-83E9-E20D9223E5C4}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,40 +2049,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2163,8 +2125,8 @@
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="24">
-        <f>SUM(I20:I78)</f>
-        <v>1479</v>
+        <f>SUM(I20:I70)</f>
+        <v>1109</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="17"/>
@@ -2174,34 +2136,34 @@
       <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="86" t="s">
+      <c r="G10" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="86" t="s">
+      <c r="I10" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="87" t="s">
+      <c r="J10" s="81" t="s">
         <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
@@ -2221,35 +2183,35 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="51">
         <v>339</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="53">
         <f>F11*D11</f>
         <v>339</v>
       </c>
-      <c r="F11" s="59">
-        <v>1</v>
-      </c>
-      <c r="G11" s="59">
-        <v>1</v>
-      </c>
-      <c r="H11" s="60">
+      <c r="F11" s="53">
+        <v>1</v>
+      </c>
+      <c r="G11" s="53">
+        <v>1</v>
+      </c>
+      <c r="H11" s="54">
         <v>7.26</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11" s="55">
         <v>8</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="56" t="s">
         <v>138</v>
       </c>
       <c r="K11" s="11"/>
@@ -2259,37 +2221,37 @@
       <c r="O11" s="12"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="58">
         <f>D13</f>
         <v>420</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="60">
         <f>F12*D12</f>
         <v>420</v>
       </c>
-      <c r="F12" s="66">
-        <v>1</v>
-      </c>
-      <c r="G12" s="66">
-        <v>1</v>
-      </c>
-      <c r="H12" s="67">
+      <c r="F12" s="60">
+        <v>1</v>
+      </c>
+      <c r="G12" s="60">
+        <v>1</v>
+      </c>
+      <c r="H12" s="61">
         <v>9.5</v>
       </c>
-      <c r="I12" s="68">
-        <f t="shared" ref="I12:I14" si="0">G12*H12</f>
+      <c r="I12" s="62">
+        <f t="shared" ref="I12:I27" si="0">G12*H12</f>
         <v>9.5</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="63" t="s">
         <v>133</v>
       </c>
       <c r="K12" s="16"/>
@@ -2299,36 +2261,36 @@
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="58">
         <v>420</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="60">
         <f>F13*D13</f>
         <v>1680</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="60">
         <v>4</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="60">
         <v>4</v>
       </c>
-      <c r="H13" s="67">
+      <c r="H13" s="61">
         <v>10.54</v>
       </c>
-      <c r="I13" s="68">
+      <c r="I13" s="62">
         <f t="shared" si="0"/>
         <v>42.16</v>
       </c>
-      <c r="J13" s="69" t="s">
+      <c r="J13" s="63" t="s">
         <v>133</v>
       </c>
       <c r="K13" s="16"/>
@@ -2338,36 +2300,36 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="58">
         <v>480</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="60">
         <f>F14*D14</f>
         <v>1920</v>
       </c>
-      <c r="F14" s="66">
+      <c r="F14" s="60">
         <v>4</v>
       </c>
-      <c r="G14" s="66">
+      <c r="G14" s="60">
         <v>4</v>
       </c>
-      <c r="H14" s="67">
+      <c r="H14" s="61">
         <v>11.121</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I14" s="62">
         <f t="shared" si="0"/>
         <v>44.484000000000002</v>
       </c>
-      <c r="J14" s="69" t="s">
+      <c r="J14" s="63" t="s">
         <v>134</v>
       </c>
       <c r="K14" s="16"/>
@@ -2377,36 +2339,36 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="58">
         <v>750</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="60">
         <f>F15*D15</f>
         <v>3000</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="60">
         <v>4</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="60">
         <v>4</v>
       </c>
-      <c r="H15" s="67">
+      <c r="H15" s="61">
         <v>14.7</v>
       </c>
-      <c r="I15" s="68">
-        <f>G15*H15</f>
+      <c r="I15" s="62">
+        <f t="shared" si="0"/>
         <v>58.8</v>
       </c>
-      <c r="J15" s="69" t="s">
+      <c r="J15" s="63" t="s">
         <v>132</v>
       </c>
       <c r="K15" s="16"/>
@@ -2416,28 +2378,28 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72">
+      <c r="D16" s="65"/>
+      <c r="E16" s="66">
         <f>E13+E14+E15</f>
         <v>6600</v>
       </c>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="76">
-        <f>G16*H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="77"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="71"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -2445,28 +2407,28 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80">
+      <c r="D17" s="73"/>
+      <c r="E17" s="74">
         <f>SUM(E11:E12)</f>
         <v>759</v>
       </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="83">
-        <f>G17*H17</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="84"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="78"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -2474,31 +2436,31 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66">
+      <c r="D18" s="58"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60">
         <v>26</v>
       </c>
-      <c r="G18" s="66">
+      <c r="G18" s="60">
         <v>3</v>
       </c>
-      <c r="H18" s="67">
+      <c r="H18" s="61">
         <v>5.8</v>
       </c>
-      <c r="I18" s="68">
-        <f>G18*H18</f>
+      <c r="I18" s="62">
+        <f t="shared" si="0"/>
         <v>17.399999999999999</v>
       </c>
-      <c r="J18" s="69" t="s">
+      <c r="J18" s="63" t="s">
         <v>139</v>
       </c>
       <c r="K18" s="16"/>
@@ -2511,31 +2473,31 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66">
+      <c r="D19" s="58"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60">
         <v>8</v>
       </c>
-      <c r="G19" s="66">
+      <c r="G19" s="60">
         <v>8</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="61">
         <v>6.4</v>
       </c>
-      <c r="I19" s="68">
-        <f>G19*H19</f>
+      <c r="I19" s="62">
+        <f t="shared" si="0"/>
         <v>51.2</v>
       </c>
-      <c r="J19" s="69" t="s">
+      <c r="J19" s="63" t="s">
         <v>135</v>
       </c>
       <c r="K19" s="16"/>
@@ -2545,31 +2507,31 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="66">
-        <v>1</v>
-      </c>
-      <c r="G20" s="66">
-        <v>1</v>
-      </c>
-      <c r="H20" s="67">
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="60">
+        <v>1</v>
+      </c>
+      <c r="G20" s="60">
+        <v>1</v>
+      </c>
+      <c r="H20" s="61">
         <v>210</v>
       </c>
-      <c r="I20" s="68">
-        <f>G20*H20</f>
+      <c r="I20" s="62">
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="J20" s="69" t="s">
+      <c r="J20" s="63" t="s">
         <v>141</v>
       </c>
       <c r="K20" s="16"/>
@@ -2579,40 +2541,40 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="89">
+      <c r="D21" s="83">
         <v>410</v>
       </c>
-      <c r="E21" s="90">
+      <c r="E21" s="84">
         <v>500</v>
       </c>
-      <c r="F21" s="90">
-        <v>1</v>
-      </c>
-      <c r="G21" s="90">
-        <v>1</v>
-      </c>
-      <c r="H21" s="91">
+      <c r="F21" s="84">
+        <v>1</v>
+      </c>
+      <c r="G21" s="84">
+        <v>1</v>
+      </c>
+      <c r="H21" s="85">
         <v>20</v>
       </c>
-      <c r="I21" s="92">
-        <f t="shared" ref="I21:I27" si="1">G21*H21</f>
+      <c r="I21" s="86">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J21" s="93" t="s">
+      <c r="J21" s="87" t="s">
         <v>54</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="16">
-        <f t="shared" ref="L21:L65" si="2">K21*G21</f>
+        <f t="shared" ref="L21:L65" si="1">K21*G21</f>
         <v>0</v>
       </c>
       <c r="M21" s="16"/>
@@ -2620,33 +2582,33 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="D22" s="64">
+      <c r="C22" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="58">
         <v>350</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66">
+      <c r="E22" s="60"/>
+      <c r="F22" s="60">
         <v>1225</v>
       </c>
-      <c r="G22" s="66">
+      <c r="G22" s="60">
         <v>1225</v>
       </c>
-      <c r="H22" s="67">
+      <c r="H22" s="61">
         <v>0.08</v>
       </c>
-      <c r="I22" s="68">
+      <c r="I22" s="62">
         <f>G22*H22</f>
         <v>98</v>
       </c>
-      <c r="J22" s="69" t="s">
+      <c r="J22" s="63" t="s">
         <v>71</v>
       </c>
       <c r="K22" s="16">
@@ -2709,7 +2671,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="D24" s="18">
         <v>30</v>
@@ -2725,11 +2687,11 @@
         <v>1.2</v>
       </c>
       <c r="I24" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
@@ -2761,7 +2723,7 @@
         <v>3</v>
       </c>
       <c r="I25" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="J25" s="20" t="s">
@@ -2769,7 +2731,7 @@
       </c>
       <c r="K25" s="16"/>
       <c r="L25" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M25" s="16"/>
@@ -2800,7 +2762,7 @@
         <v>3</v>
       </c>
       <c r="I26" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J26" s="20" t="s">
@@ -2808,7 +2770,7 @@
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M26" s="16"/>
@@ -2820,7 +2782,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>44</v>
@@ -2837,7 +2799,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J27" s="20" t="s">
@@ -2845,7 +2807,7 @@
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M27" s="16"/>
@@ -2895,21 +2857,21 @@
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="33">
+      <c r="B29" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="27">
         <v>6</v>
       </c>
-      <c r="G29" s="28">
-        <v>1</v>
-      </c>
-      <c r="H29" s="29">
+      <c r="G29" s="25">
+        <v>1</v>
+      </c>
+      <c r="H29" s="26">
         <v>7.5</v>
       </c>
       <c r="I29" s="16">
@@ -2917,7 +2879,7 @@
         <v>7.5</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="K29" s="16"/>
       <c r="L29" s="16">
@@ -2929,27 +2891,27 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="48">
+      <c r="C30" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="42">
         <v>21</v>
       </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51">
-        <f t="shared" ref="I30:I57" si="3">G30*H30</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="52"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="45">
+        <f t="shared" ref="I30:I70" si="2">G30*H30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="46"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
@@ -2957,27 +2919,27 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="48">
+      <c r="C31" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="42">
         <v>34</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="52"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="46"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
@@ -2985,27 +2947,27 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="48">
+      <c r="C32" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="42">
         <v>24</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="52"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="46"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
@@ -3013,27 +2975,27 @@
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="48">
+      <c r="C33" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="42">
         <v>34</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="52"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="46"/>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
@@ -3041,27 +3003,27 @@
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="48">
+      <c r="C34" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="42">
         <v>33</v>
       </c>
-      <c r="G34" s="49"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="52"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="46"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
@@ -3069,27 +3031,27 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="48">
+      <c r="C35" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="42">
         <v>8</v>
       </c>
-      <c r="G35" s="49"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="52"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="46"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
@@ -3097,29 +3059,29 @@
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="48">
+      <c r="C36" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="42">
         <v>3</v>
       </c>
-      <c r="G36" s="49"/>
-      <c r="H36" s="50">
+      <c r="G36" s="43"/>
+      <c r="H36" s="44">
         <v>4</v>
       </c>
-      <c r="I36" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="53" t="s">
+      <c r="I36" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="47" t="s">
         <v>101</v>
       </c>
       <c r="K36" s="16"/>
@@ -3129,27 +3091,27 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="48">
+      <c r="C37" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="42">
         <v>6</v>
       </c>
-      <c r="G37" s="49"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="52"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="46"/>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
@@ -3157,27 +3119,27 @@
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="48">
+      <c r="C38" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="42">
         <v>3</v>
       </c>
-      <c r="G38" s="49"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="52"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="46"/>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
@@ -3185,27 +3147,27 @@
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="48">
+      <c r="C39" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="42">
         <v>3</v>
       </c>
-      <c r="G39" s="49"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="54"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="48"/>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
@@ -3213,27 +3175,27 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" s="48"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="48">
+      <c r="C40" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="42">
         <v>3</v>
       </c>
-      <c r="G40" s="49"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="55"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="49"/>
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
@@ -3241,27 +3203,27 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="48">
+      <c r="C41" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="42"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="42">
         <v>4</v>
       </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="52"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="46"/>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
@@ -3269,32 +3231,32 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="48">
+      <c r="C42" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="42"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="42">
         <v>30</v>
       </c>
-      <c r="G42" s="49">
-        <v>1</v>
-      </c>
-      <c r="H42" s="50">
+      <c r="G42" s="43">
+        <v>1</v>
+      </c>
+      <c r="H42" s="44">
         <v>11</v>
       </c>
-      <c r="I42" s="51">
-        <f t="shared" si="3"/>
+      <c r="I42" s="45">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J42" s="53" t="s">
-        <v>150</v>
+      <c r="J42" s="47" t="s">
+        <v>149</v>
       </c>
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
@@ -3303,27 +3265,27 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="48">
+      <c r="C43" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="42"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="42">
         <v>5</v>
       </c>
-      <c r="G43" s="49"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="52"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="46"/>
       <c r="K43" s="16"/>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
@@ -3331,32 +3293,32 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="48">
+      <c r="C44" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="42"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="42">
         <v>84</v>
       </c>
-      <c r="G44" s="49">
-        <v>1</v>
-      </c>
-      <c r="H44" s="50">
+      <c r="G44" s="43">
+        <v>1</v>
+      </c>
+      <c r="H44" s="44">
         <v>12.5</v>
       </c>
-      <c r="I44" s="51">
-        <f t="shared" si="3"/>
+      <c r="I44" s="45">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
-      <c r="J44" s="53" t="s">
-        <v>215</v>
+      <c r="J44" s="47" t="s">
+        <v>173</v>
       </c>
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
@@ -3365,29 +3327,29 @@
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="D45" s="48"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="48">
+      <c r="C45" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="42"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="42">
         <v>89</v>
       </c>
-      <c r="G45" s="49">
-        <v>1</v>
-      </c>
-      <c r="H45" s="50"/>
-      <c r="I45" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="53"/>
+      <c r="G45" s="43">
+        <v>1</v>
+      </c>
+      <c r="H45" s="44"/>
+      <c r="I45" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="47"/>
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
@@ -3395,31 +3357,31 @@
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="48">
+      <c r="C46" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="42"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="42">
         <v>111</v>
       </c>
-      <c r="G46" s="49">
+      <c r="G46" s="43">
         <v>12</v>
       </c>
-      <c r="H46" s="50">
+      <c r="H46" s="44">
         <v>3.5</v>
       </c>
-      <c r="I46" s="51">
-        <f t="shared" si="3"/>
+      <c r="I46" s="45">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="J46" s="53" t="s">
+      <c r="J46" s="47" t="s">
         <v>148</v>
       </c>
       <c r="K46" s="16"/>
@@ -3429,27 +3391,27 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="48">
+      <c r="C47" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="42">
         <v>7</v>
       </c>
-      <c r="G47" s="49"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="52"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="46"/>
       <c r="K47" s="16"/>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
@@ -3457,27 +3419,27 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="C48" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="48">
+      <c r="B48" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="42"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="42">
         <v>5</v>
       </c>
-      <c r="G48" s="49"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="52"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="46"/>
       <c r="K48" s="16"/>
       <c r="L48" s="16"/>
       <c r="M48" s="16"/>
@@ -3485,27 +3447,27 @@
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="C49" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="48">
+      <c r="B49" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="42"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="42">
         <v>33</v>
       </c>
-      <c r="G49" s="49"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="52"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="46"/>
       <c r="K49" s="16"/>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
@@ -3534,7 +3496,7 @@
         <v>70</v>
       </c>
       <c r="I50" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J50" s="20" t="s">
@@ -3542,7 +3504,7 @@
       </c>
       <c r="K50" s="16"/>
       <c r="L50" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M50" s="16"/>
@@ -3571,7 +3533,7 @@
         <v>71</v>
       </c>
       <c r="I51" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="J51" s="20" t="s">
@@ -3579,7 +3541,7 @@
       </c>
       <c r="K51" s="16"/>
       <c r="L51" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M51" s="16"/>
@@ -3608,7 +3570,7 @@
         <v>23</v>
       </c>
       <c r="I52" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="J52" s="20" t="s">
@@ -3616,7 +3578,7 @@
       </c>
       <c r="K52" s="16"/>
       <c r="L52" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M52" s="16"/>
@@ -3645,7 +3607,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J53" s="20" t="s">
@@ -3653,7 +3615,7 @@
       </c>
       <c r="K53" s="16"/>
       <c r="L53" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M53" s="16"/>
@@ -3682,7 +3644,7 @@
         <v>7.5</v>
       </c>
       <c r="I54" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="J54" s="20" t="s">
@@ -3690,7 +3652,7 @@
       </c>
       <c r="K54" s="16"/>
       <c r="L54" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M54" s="16"/>
@@ -3721,7 +3683,7 @@
         <v>23.5</v>
       </c>
       <c r="I55" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23.5</v>
       </c>
       <c r="J55" s="20" t="s">
@@ -3731,7 +3693,7 @@
         <v>75</v>
       </c>
       <c r="L55" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="M55" s="9" t="s">
@@ -3762,7 +3724,7 @@
         <v>5.5</v>
       </c>
       <c r="I56" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
       <c r="J56" s="20" t="s">
@@ -3770,7 +3732,7 @@
       </c>
       <c r="K56" s="16"/>
       <c r="L56" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M56" s="16"/>
@@ -3799,7 +3761,7 @@
         <v>3</v>
       </c>
       <c r="I57" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J57" s="20" t="s">
@@ -3807,7 +3769,7 @@
       </c>
       <c r="K57" s="16"/>
       <c r="L57" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M57" s="16"/>
@@ -3836,7 +3798,7 @@
         <v>85</v>
       </c>
       <c r="I58" s="16">
-        <f t="shared" ref="I58:I78" si="4">G58*H58</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="J58" s="20" t="s">
@@ -3844,7 +3806,7 @@
       </c>
       <c r="K58" s="16"/>
       <c r="L58" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M58" s="16"/>
@@ -3873,7 +3835,7 @@
         <v>65</v>
       </c>
       <c r="I59" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J59" s="20" t="s">
@@ -3881,7 +3843,7 @@
       </c>
       <c r="K59" s="16"/>
       <c r="L59" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M59" s="16"/>
@@ -3910,7 +3872,7 @@
         <v>100</v>
       </c>
       <c r="I60" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J60" s="20" t="s">
@@ -3918,7 +3880,7 @@
       </c>
       <c r="K60" s="16"/>
       <c r="L60" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M60" s="16"/>
@@ -3947,7 +3909,7 @@
         <v>70</v>
       </c>
       <c r="I61" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="J61" s="20" t="s">
@@ -3955,7 +3917,7 @@
       </c>
       <c r="K61" s="16"/>
       <c r="L61" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M61" s="16"/>
@@ -3986,7 +3948,7 @@
         <v>39</v>
       </c>
       <c r="I62" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="J62" s="20" t="s">
@@ -3994,7 +3956,7 @@
       </c>
       <c r="K62" s="16"/>
       <c r="L62" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M62" s="16"/>
@@ -4023,7 +3985,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I63" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="J63" s="20" t="s">
@@ -4033,7 +3995,7 @@
         <v>5.5</v>
       </c>
       <c r="L63" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="M63" s="9" t="s">
@@ -4064,7 +4026,7 @@
         <v>6</v>
       </c>
       <c r="I64" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="J64" s="20" t="s">
@@ -4074,7 +4036,7 @@
         <v>7</v>
       </c>
       <c r="L64" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="M64" s="9" t="s">
@@ -4105,7 +4067,7 @@
         <v>4</v>
       </c>
       <c r="I65" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="J65" s="20" t="s">
@@ -4115,7 +4077,7 @@
         <v>6</v>
       </c>
       <c r="L65" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="M65" s="9" t="s">
@@ -4150,7 +4112,7 @@
         <v>15</v>
       </c>
       <c r="I66" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="J66" s="20" t="s">
@@ -4184,7 +4146,7 @@
         <v>14.5</v>
       </c>
       <c r="I67" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>72.5</v>
       </c>
       <c r="J67" s="20" t="s">
@@ -4227,7 +4189,7 @@
         <v>15.6</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>46.8</v>
       </c>
       <c r="J68" s="20" t="s">
@@ -4263,7 +4225,7 @@
         <v>17.5</v>
       </c>
       <c r="I69" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="J69" s="20" t="s">
@@ -4299,7 +4261,7 @@
         <v>16</v>
       </c>
       <c r="I70" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="J70" s="20" t="s">
@@ -4312,33 +4274,22 @@
       <c r="O70" s="3"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D71" s="42"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43">
-        <v>1</v>
-      </c>
-      <c r="G71" s="43">
-        <v>1</v>
-      </c>
-      <c r="H71" s="44">
-        <v>50</v>
-      </c>
-      <c r="I71" s="45">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="J71" s="46" t="s">
-        <v>117</v>
-      </c>
+      <c r="A71" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" s="30"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="34"/>
       <c r="K71" s="15"/>
       <c r="L71" s="16"/>
       <c r="M71" s="9"/>
@@ -4346,66 +4297,2444 @@
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D72" s="42"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43">
-        <v>2</v>
-      </c>
-      <c r="G72" s="43">
-        <v>2</v>
-      </c>
-      <c r="H72" s="44">
-        <v>20</v>
-      </c>
-      <c r="I72" s="45">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="J72" s="46" t="s">
-        <v>119</v>
-      </c>
+      <c r="A72" s="29"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="34"/>
       <c r="K72" s="15"/>
       <c r="L72" s="16"/>
       <c r="M72" s="9"/>
       <c r="N72" s="13"/>
       <c r="O72" s="3"/>
     </row>
+    <row r="73" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="24">
+        <f>SUM(I18:I70)</f>
+        <v>1177.5999999999999</v>
+      </c>
+      <c r="J73" s="21"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="5"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A10:O73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J62" r:id="rId1" xr:uid="{470D3E09-926A-4D3A-91B4-7461D04E5E84}"/>
+    <hyperlink ref="J63" r:id="rId2" display="Link" xr:uid="{B771396D-3B6B-401B-ABD0-DFDF847060BB}"/>
+    <hyperlink ref="J64" r:id="rId3" display="Link" xr:uid="{DD381683-11FD-47B6-8058-4EE70A74554F}"/>
+    <hyperlink ref="J65" r:id="rId4" display="Link" xr:uid="{E6D2A651-3F01-4AA6-90CF-1EC3F678EBDF}"/>
+    <hyperlink ref="J66" r:id="rId5" display="Link" xr:uid="{02713422-DB48-4995-A75F-C89976BBE2C4}"/>
+    <hyperlink ref="M67" r:id="rId6" display="Compact Powerful Motor" xr:uid="{A9A04EEF-171A-4567-95B2-7A17DFAC16BE}"/>
+    <hyperlink ref="J21" r:id="rId7" display="Link" xr:uid="{E52A9101-03CE-464C-9192-E712868CA218}"/>
+    <hyperlink ref="J26" r:id="rId8" display="2x Length: 45mm 4PC" xr:uid="{80D1EF4D-4E35-4EBD-899E-F6925D418FD4}"/>
+    <hyperlink ref="J50" r:id="rId9" xr:uid="{16817930-1BAB-405D-9B12-971AF725B14C}"/>
+    <hyperlink ref="J27" r:id="rId10" xr:uid="{68FC1ED9-6334-46B0-9D1B-1D5DADAB8D1E}"/>
+    <hyperlink ref="M63" r:id="rId11" display="Gates" xr:uid="{14CE2982-1776-4414-9240-E5EE4967E426}"/>
+    <hyperlink ref="M64" r:id="rId12" display="Gates" xr:uid="{209F4BE1-9B49-40F0-992B-064699A21ADF}"/>
+    <hyperlink ref="M65" r:id="rId13" display="Pulley 20 Tooth 9mm" xr:uid="{797BF3FA-B75B-41CB-8845-0B05868D7588}"/>
+    <hyperlink ref="J22" r:id="rId14" xr:uid="{FF8EAEE5-AC4E-4085-A4A5-8F5EBAC86F43}"/>
+    <hyperlink ref="J52" r:id="rId15" xr:uid="{B0A52E4D-453D-4811-AA6F-5EF9EF90E301}"/>
+    <hyperlink ref="J51" r:id="rId16" display="FYSETC Big Dipper" xr:uid="{E25FE31D-BA25-4D4B-AFED-C91A71DFB8FC}"/>
+    <hyperlink ref="J53" r:id="rId17" display="6pcs Optical Endstop" xr:uid="{D2913CD1-DF78-4DA1-A825-9904F5AFED85}"/>
+    <hyperlink ref="J54" r:id="rId18" xr:uid="{1D19593D-6511-4042-8FE8-C2BC9ADC5007}"/>
+    <hyperlink ref="J25" r:id="rId19" xr:uid="{366E038A-982E-41CA-B160-DA64B8173005}"/>
+    <hyperlink ref="J28" r:id="rId20" xr:uid="{666D9CA7-33A6-4006-9F73-C192110684CD}"/>
+    <hyperlink ref="J58" r:id="rId21" xr:uid="{10E4F4C3-9E91-4703-A3A0-9B953429E7AA}"/>
+    <hyperlink ref="J59" r:id="rId22" xr:uid="{0D57D4F4-5A25-4EA6-A348-6ED0CF6B732A}"/>
+    <hyperlink ref="J60" r:id="rId23" xr:uid="{912B955C-3B27-4761-8540-DCCCB1938CD2}"/>
+    <hyperlink ref="J55" r:id="rId24" xr:uid="{AA51340B-B28E-4C60-B93A-7589AA69D2CC}"/>
+    <hyperlink ref="M55" r:id="rId25" display="Color: 220V 750W" xr:uid="{E72A25EF-4F1F-452A-9D0D-652AF6E7B80E}"/>
+    <hyperlink ref="M22" r:id="rId26" xr:uid="{7CE79CD2-A61D-428B-8DB5-9B45E285A5A1}"/>
+    <hyperlink ref="J23" r:id="rId27" xr:uid="{37AD1F2B-6784-4396-935D-00D574B194A1}"/>
+    <hyperlink ref="J68" r:id="rId28" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{36604E34-3767-47E8-9D68-3224FA47BAD7}"/>
+    <hyperlink ref="J70" r:id="rId29" display="Color: MGN9 H" xr:uid="{A7F96524-FB6C-46B0-9073-280672E46815}"/>
+    <hyperlink ref="J61" r:id="rId30" xr:uid="{9E060D84-2888-4E7A-9240-D0D50BB44C8B}"/>
+    <hyperlink ref="J69" r:id="rId31" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{8E7CE0E4-7C6B-4B1C-8596-20FB16FA9B52}"/>
+    <hyperlink ref="J57" r:id="rId32" xr:uid="{5814533E-0B18-40C7-BBD9-16B69B7A6DEE}"/>
+    <hyperlink ref="J56" r:id="rId33" xr:uid="{48FC6FE4-5066-49DB-A409-7F1FBE2EF7B8}"/>
+    <hyperlink ref="J15" r:id="rId34" xr:uid="{3AEC6389-3C1E-4010-BF1F-FC26344ADB18}"/>
+    <hyperlink ref="J14" r:id="rId35" display="Color: 750 mm" xr:uid="{DC134816-48B7-4D08-A1F3-EE499D174B84}"/>
+    <hyperlink ref="J13" r:id="rId36" display="Color: 750 mm" xr:uid="{A3EA9FE7-DF1E-489F-9C20-2C8B4A8F3998}"/>
+    <hyperlink ref="J12" r:id="rId37" display="Color: 250 mm" xr:uid="{AF637EA7-8653-4B62-9E18-2D36C247C3A6}"/>
+    <hyperlink ref="J11" r:id="rId38" display="Color: 250 mm" xr:uid="{8E88954A-9B9C-4CFB-9628-6B07CF99FA58}"/>
+    <hyperlink ref="J19" r:id="rId39" xr:uid="{32AB889D-9001-42C3-BE94-03EA862B7BE0}"/>
+    <hyperlink ref="J18" r:id="rId40" display="Color: 5pcs 2028" xr:uid="{0AF8C64A-7681-4C12-9F81-9C412B90CBD8}"/>
+    <hyperlink ref="J67" r:id="rId41" xr:uid="{AC843B0A-CBC9-4966-B47F-EF4149117169}"/>
+    <hyperlink ref="J20" r:id="rId42" display="WIP" xr:uid="{62D7CE1A-7D31-434D-B8C5-08BB38D408F9}"/>
+    <hyperlink ref="J36" r:id="rId43" xr:uid="{E5B6A8C9-52B9-40BE-B248-BD034E05F801}"/>
+    <hyperlink ref="J46" r:id="rId44" xr:uid="{93693BCF-0239-4D66-94F6-D56F29E9F804}"/>
+    <hyperlink ref="J42" r:id="rId45" display="M5 Hammer Nut" xr:uid="{1BDF168B-F4AF-4241-B89F-DFA08A717758}"/>
+    <hyperlink ref="J44" r:id="rId46" display="Size: M5" xr:uid="{7CFDA64F-0B09-4C6E-8064-AAF73E7FE260}"/>
+    <hyperlink ref="J24" r:id="rId47" xr:uid="{64ACA354-4D0B-4C7F-86F1-5A445372A527}"/>
+    <hyperlink ref="J29" r:id="rId48" xr:uid="{BBBC293A-3FF7-4CD3-B3A0-84C0BCE6478B}"/>
+  </hyperlinks>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId49"/>
+  <drawing r:id="rId50"/>
+  <legacyDrawing r:id="rId51"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O85"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I80" sqref="I80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24">
+        <f>SUM(I20:I79)</f>
+        <v>1479</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="51">
+        <v>339</v>
+      </c>
+      <c r="E11" s="53">
+        <f>F11*D11</f>
+        <v>339</v>
+      </c>
+      <c r="F11" s="53">
+        <v>1</v>
+      </c>
+      <c r="G11" s="53">
+        <v>1</v>
+      </c>
+      <c r="H11" s="54">
+        <v>7.26</v>
+      </c>
+      <c r="I11" s="55">
+        <v>8</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="58">
+        <f>D13</f>
+        <v>420</v>
+      </c>
+      <c r="E12" s="60">
+        <f>F12*D12</f>
+        <v>420</v>
+      </c>
+      <c r="F12" s="60">
+        <v>1</v>
+      </c>
+      <c r="G12" s="60">
+        <v>1</v>
+      </c>
+      <c r="H12" s="61">
+        <v>9.5</v>
+      </c>
+      <c r="I12" s="62">
+        <f t="shared" ref="I12:I14" si="0">G12*H12</f>
+        <v>9.5</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="58">
+        <v>420</v>
+      </c>
+      <c r="E13" s="60">
+        <f>F13*D13</f>
+        <v>1680</v>
+      </c>
+      <c r="F13" s="60">
+        <v>4</v>
+      </c>
+      <c r="G13" s="60">
+        <v>4</v>
+      </c>
+      <c r="H13" s="61">
+        <v>10.54</v>
+      </c>
+      <c r="I13" s="62">
+        <f t="shared" si="0"/>
+        <v>42.16</v>
+      </c>
+      <c r="J13" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="58">
+        <v>480</v>
+      </c>
+      <c r="E14" s="60">
+        <f>F14*D14</f>
+        <v>1920</v>
+      </c>
+      <c r="F14" s="60">
+        <v>4</v>
+      </c>
+      <c r="G14" s="60">
+        <v>4</v>
+      </c>
+      <c r="H14" s="61">
+        <v>11.121</v>
+      </c>
+      <c r="I14" s="62">
+        <f t="shared" si="0"/>
+        <v>44.484000000000002</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="58">
+        <v>750</v>
+      </c>
+      <c r="E15" s="60">
+        <f>F15*D15</f>
+        <v>3000</v>
+      </c>
+      <c r="F15" s="60">
+        <v>4</v>
+      </c>
+      <c r="G15" s="60">
+        <v>4</v>
+      </c>
+      <c r="H15" s="61">
+        <v>14.7</v>
+      </c>
+      <c r="I15" s="62">
+        <f t="shared" ref="I15:I20" si="1">G15*H15</f>
+        <v>58.8</v>
+      </c>
+      <c r="J15" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66">
+        <f>E13+E14+E15</f>
+        <v>6600</v>
+      </c>
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="71"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74">
+        <f>SUM(E11:E12)</f>
+        <v>759</v>
+      </c>
+      <c r="F17" s="73"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="78"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60">
+        <v>26</v>
+      </c>
+      <c r="G18" s="60">
+        <v>3</v>
+      </c>
+      <c r="H18" s="61">
+        <v>5.8</v>
+      </c>
+      <c r="I18" s="62">
+        <f t="shared" si="1"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16">
+        <f>K18*G18</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="16"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60">
+        <v>8</v>
+      </c>
+      <c r="G19" s="60">
+        <v>8</v>
+      </c>
+      <c r="H19" s="61">
+        <v>6.4</v>
+      </c>
+      <c r="I19" s="62">
+        <f t="shared" si="1"/>
+        <v>51.2</v>
+      </c>
+      <c r="J19" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="60">
+        <v>1</v>
+      </c>
+      <c r="G20" s="60">
+        <v>1</v>
+      </c>
+      <c r="H20" s="61">
+        <v>210</v>
+      </c>
+      <c r="I20" s="62">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="J20" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="83">
+        <v>410</v>
+      </c>
+      <c r="E21" s="84">
+        <v>500</v>
+      </c>
+      <c r="F21" s="84">
+        <v>1</v>
+      </c>
+      <c r="G21" s="84">
+        <v>1</v>
+      </c>
+      <c r="H21" s="85">
+        <v>20</v>
+      </c>
+      <c r="I21" s="86">
+        <f t="shared" ref="I21:I27" si="2">G21*H21</f>
+        <v>20</v>
+      </c>
+      <c r="J21" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16">
+        <f t="shared" ref="L21:L65" si="3">K21*G21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="16"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="58">
+        <v>350</v>
+      </c>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60">
+        <v>1225</v>
+      </c>
+      <c r="G22" s="60">
+        <v>1225</v>
+      </c>
+      <c r="H22" s="61">
+        <v>0.08</v>
+      </c>
+      <c r="I22" s="62">
+        <f>G22*H22</f>
+        <v>98</v>
+      </c>
+      <c r="J22" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="L22" s="16">
+        <f>K22*G22</f>
+        <v>98</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N22" s="13"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="18">
+        <v>310</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14">
+        <v>1</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15">
+        <v>40</v>
+      </c>
+      <c r="I23" s="16">
+        <f>G23*H23</f>
+        <v>40</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16">
+        <f>K23*G23</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="16"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="18">
+        <v>30</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14">
+        <v>5</v>
+      </c>
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="I24" s="16">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="13">
+        <v>40</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14">
+        <v>12</v>
+      </c>
+      <c r="G25" s="14">
+        <v>3</v>
+      </c>
+      <c r="H25" s="15">
+        <v>3</v>
+      </c>
+      <c r="I25" s="16">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="16"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="13">
+        <v>50</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14">
+        <v>6</v>
+      </c>
+      <c r="G26" s="14">
+        <v>2</v>
+      </c>
+      <c r="H26" s="15">
+        <v>3</v>
+      </c>
+      <c r="I26" s="16">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="16"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14">
+        <v>3</v>
+      </c>
+      <c r="G27" s="14">
+        <v>1</v>
+      </c>
+      <c r="H27" s="15">
+        <v>3</v>
+      </c>
+      <c r="I27" s="16">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="16"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="18">
+        <v>30</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14">
+        <v>3</v>
+      </c>
+      <c r="G28" s="14">
+        <v>2</v>
+      </c>
+      <c r="H28" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="I28" s="16">
+        <f>G28*H28</f>
+        <v>5</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16">
+        <f>K28*G28</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="16"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="27">
+        <v>6</v>
+      </c>
+      <c r="G29" s="25">
+        <v>1</v>
+      </c>
+      <c r="H29" s="26">
+        <v>7.5</v>
+      </c>
+      <c r="I29" s="16">
+        <f>G29*H29</f>
+        <v>7.5</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16">
+        <f>K29*G29</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="16"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="42">
+        <v>21</v>
+      </c>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="45">
+        <f t="shared" ref="I30:I57" si="4">G30*H30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="46"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="42">
+        <v>34</v>
+      </c>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="46"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="42">
+        <v>24</v>
+      </c>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="46"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="42">
+        <v>34</v>
+      </c>
+      <c r="G33" s="43"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="46"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="42">
+        <v>33</v>
+      </c>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="46"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="42">
+        <v>8</v>
+      </c>
+      <c r="G35" s="43"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="46"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="42">
+        <v>3</v>
+      </c>
+      <c r="G36" s="43"/>
+      <c r="H36" s="44">
+        <v>4</v>
+      </c>
+      <c r="I36" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="42">
+        <v>6</v>
+      </c>
+      <c r="G37" s="43"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="46"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="42">
+        <v>3</v>
+      </c>
+      <c r="G38" s="43"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="46"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="42">
+        <v>3</v>
+      </c>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="48"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="42">
+        <v>3</v>
+      </c>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="49"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="42"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="42">
+        <v>4</v>
+      </c>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="46"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="42"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="42">
+        <v>30</v>
+      </c>
+      <c r="G42" s="43">
+        <v>1</v>
+      </c>
+      <c r="H42" s="44">
+        <v>11</v>
+      </c>
+      <c r="I42" s="45">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="J42" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="42"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="42">
+        <v>5</v>
+      </c>
+      <c r="G43" s="43"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="46"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="42"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="42">
+        <v>84</v>
+      </c>
+      <c r="G44" s="43">
+        <v>1</v>
+      </c>
+      <c r="H44" s="44">
+        <v>12.5</v>
+      </c>
+      <c r="I44" s="45">
+        <f t="shared" si="4"/>
+        <v>12.5</v>
+      </c>
+      <c r="J44" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="42"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="42">
+        <v>89</v>
+      </c>
+      <c r="G45" s="43">
+        <v>1</v>
+      </c>
+      <c r="H45" s="44"/>
+      <c r="I45" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="47"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="42"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="42">
+        <v>111</v>
+      </c>
+      <c r="G46" s="43">
+        <v>12</v>
+      </c>
+      <c r="H46" s="44">
+        <v>3.5</v>
+      </c>
+      <c r="I46" s="45">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="J46" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="42">
+        <v>7</v>
+      </c>
+      <c r="G47" s="43"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="46"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="42"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="42">
+        <v>5</v>
+      </c>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="46"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="42"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="42">
+        <v>33</v>
+      </c>
+      <c r="G49" s="43"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="46"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14">
+        <v>1</v>
+      </c>
+      <c r="G50" s="14">
+        <v>0</v>
+      </c>
+      <c r="H50" s="15">
+        <v>70</v>
+      </c>
+      <c r="I50" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="16"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14">
+        <v>1</v>
+      </c>
+      <c r="G51" s="14">
+        <v>1</v>
+      </c>
+      <c r="H51" s="15">
+        <v>71</v>
+      </c>
+      <c r="I51" s="16">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="J51" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="16"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14">
+        <v>1</v>
+      </c>
+      <c r="G52" s="14">
+        <v>1</v>
+      </c>
+      <c r="H52" s="15">
+        <v>23</v>
+      </c>
+      <c r="I52" s="16">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="16"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14">
+        <v>5</v>
+      </c>
+      <c r="G53" s="14">
+        <v>5</v>
+      </c>
+      <c r="H53" s="15">
+        <v>2</v>
+      </c>
+      <c r="I53" s="16">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="J53" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="16"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14">
+        <v>1</v>
+      </c>
+      <c r="G54" s="14">
+        <v>1</v>
+      </c>
+      <c r="H54" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="I54" s="16">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="J54" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="16"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="13">
+        <v>310</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14">
+        <v>1</v>
+      </c>
+      <c r="G55" s="14">
+        <v>1</v>
+      </c>
+      <c r="H55" s="15">
+        <v>23.5</v>
+      </c>
+      <c r="I55" s="16">
+        <f t="shared" si="4"/>
+        <v>23.5</v>
+      </c>
+      <c r="J55" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="K55" s="16">
+        <v>75</v>
+      </c>
+      <c r="L55" s="16">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N55" s="13"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14">
+        <v>1</v>
+      </c>
+      <c r="G56" s="14">
+        <v>1</v>
+      </c>
+      <c r="H56" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="I56" s="16">
+        <f t="shared" si="4"/>
+        <v>5.5</v>
+      </c>
+      <c r="J56" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="16"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14">
+        <v>1</v>
+      </c>
+      <c r="G57" s="14">
+        <v>1</v>
+      </c>
+      <c r="H57" s="15">
+        <v>3</v>
+      </c>
+      <c r="I57" s="16">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J57" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="16"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14">
+        <v>1</v>
+      </c>
+      <c r="G58" s="14">
+        <v>1</v>
+      </c>
+      <c r="H58" s="15">
+        <v>85</v>
+      </c>
+      <c r="I58" s="16">
+        <f t="shared" ref="I58:I79" si="5">G58*H58</f>
+        <v>85</v>
+      </c>
+      <c r="J58" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="16"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14">
+        <v>1</v>
+      </c>
+      <c r="G59" s="14">
+        <v>0</v>
+      </c>
+      <c r="H59" s="15">
+        <v>65</v>
+      </c>
+      <c r="I59" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="16"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14">
+        <v>1</v>
+      </c>
+      <c r="G60" s="14">
+        <v>0</v>
+      </c>
+      <c r="H60" s="15">
+        <v>100</v>
+      </c>
+      <c r="I60" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="16"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14">
+        <v>1</v>
+      </c>
+      <c r="G61" s="14">
+        <v>1</v>
+      </c>
+      <c r="H61" s="15">
+        <v>70</v>
+      </c>
+      <c r="I61" s="16">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="J61" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="16"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="13">
+        <v>100</v>
+      </c>
+      <c r="E62" s="14">
+        <v>8000</v>
+      </c>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14">
+        <v>1</v>
+      </c>
+      <c r="H62" s="15">
+        <v>39</v>
+      </c>
+      <c r="I62" s="16">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="J62" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="16"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14">
+        <v>10</v>
+      </c>
+      <c r="G63" s="14">
+        <v>10</v>
+      </c>
+      <c r="H63" s="15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I63" s="16">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="J63" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K63" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="L63" s="16">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N63" s="13"/>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14">
+        <v>5</v>
+      </c>
+      <c r="G64" s="14">
+        <v>5</v>
+      </c>
+      <c r="H64" s="15">
+        <v>6</v>
+      </c>
+      <c r="I64" s="16">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="J64" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K64" s="16">
+        <v>7</v>
+      </c>
+      <c r="L64" s="16">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N64" s="13"/>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14">
+        <v>5</v>
+      </c>
+      <c r="G65" s="14">
+        <v>5</v>
+      </c>
+      <c r="H65" s="15">
+        <v>4</v>
+      </c>
+      <c r="I65" s="16">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="J65" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K65" s="16">
+        <v>6</v>
+      </c>
+      <c r="L65" s="16">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N65" s="13"/>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="13">
+        <v>200</v>
+      </c>
+      <c r="E66" s="14">
+        <v>600</v>
+      </c>
+      <c r="F66" s="14">
+        <v>3</v>
+      </c>
+      <c r="G66" s="14">
+        <v>3</v>
+      </c>
+      <c r="H66" s="15">
+        <v>15</v>
+      </c>
+      <c r="I66" s="16">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J66" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14">
+        <v>5</v>
+      </c>
+      <c r="G67" s="14">
+        <v>5</v>
+      </c>
+      <c r="H67" s="15">
+        <v>14.5</v>
+      </c>
+      <c r="I67" s="16">
+        <f t="shared" si="5"/>
+        <v>72.5</v>
+      </c>
+      <c r="J67" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K67" s="15">
+        <v>11</v>
+      </c>
+      <c r="L67" s="16">
+        <f>K67*G67</f>
+        <v>55</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N67" s="13"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" s="13">
+        <v>350</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14">
+        <v>3</v>
+      </c>
+      <c r="G68" s="14">
+        <v>3</v>
+      </c>
+      <c r="H68" s="15">
+        <v>15.6</v>
+      </c>
+      <c r="I68" s="16">
+        <f t="shared" si="5"/>
+        <v>46.8</v>
+      </c>
+      <c r="J68" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="K68" s="15"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" s="13">
+        <v>400</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14">
+        <v>2</v>
+      </c>
+      <c r="G69" s="14">
+        <v>2</v>
+      </c>
+      <c r="H69" s="15">
+        <v>17.5</v>
+      </c>
+      <c r="I69" s="16">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="J69" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="K69" s="15"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" s="13">
+        <v>400</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14">
+        <v>1</v>
+      </c>
+      <c r="G70" s="14">
+        <v>1</v>
+      </c>
+      <c r="H70" s="15">
+        <v>16</v>
+      </c>
+      <c r="I70" s="16">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="J70" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="K70" s="15"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" s="36"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37">
+        <v>1</v>
+      </c>
+      <c r="G72" s="37">
+        <v>1</v>
+      </c>
+      <c r="H72" s="38">
+        <v>50</v>
+      </c>
+      <c r="I72" s="39">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="J72" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="K72" s="15"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="3"/>
+    </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="41" t="s">
+      <c r="A73" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B73" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="D73" s="42"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43">
-        <v>1</v>
-      </c>
-      <c r="G73" s="43">
-        <v>1</v>
-      </c>
-      <c r="H73" s="44">
-        <v>70</v>
-      </c>
-      <c r="I73" s="45">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="J73" s="46" t="s">
-        <v>118</v>
+      <c r="B73" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="36"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37">
+        <v>2</v>
+      </c>
+      <c r="G73" s="37">
+        <v>2</v>
+      </c>
+      <c r="H73" s="38">
+        <v>20</v>
+      </c>
+      <c r="I73" s="39">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="J73" s="40" t="s">
+        <v>119</v>
       </c>
       <c r="K73" s="15"/>
       <c r="L73" s="16"/>
@@ -4414,29 +6743,33 @@
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B74" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43">
-        <v>1</v>
-      </c>
-      <c r="G74" s="43">
-        <v>1</v>
-      </c>
-      <c r="H74" s="44">
-        <v>20</v>
-      </c>
-      <c r="I74" s="45">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="J74" s="46"/>
+      <c r="B74" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D74" s="36"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37">
+        <v>1</v>
+      </c>
+      <c r="G74" s="37">
+        <v>1</v>
+      </c>
+      <c r="H74" s="38">
+        <v>70</v>
+      </c>
+      <c r="I74" s="39">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="J74" s="40" t="s">
+        <v>118</v>
+      </c>
       <c r="K74" s="15"/>
       <c r="L74" s="16"/>
       <c r="M74" s="9"/>
@@ -4444,29 +6777,29 @@
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="41" t="s">
+      <c r="A75" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B75" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43">
-        <v>1</v>
-      </c>
-      <c r="G75" s="43">
-        <v>1</v>
-      </c>
-      <c r="H75" s="44">
+      <c r="B75" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37">
+        <v>1</v>
+      </c>
+      <c r="G75" s="37">
+        <v>1</v>
+      </c>
+      <c r="H75" s="38">
         <v>20</v>
       </c>
-      <c r="I75" s="45">
-        <f t="shared" si="4"/>
+      <c r="I75" s="39">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="J75" s="46"/>
+      <c r="J75" s="40"/>
       <c r="K75" s="15"/>
       <c r="L75" s="16"/>
       <c r="M75" s="9"/>
@@ -4474,31 +6807,29 @@
       <c r="O75" s="3"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="B76" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43">
-        <v>1</v>
-      </c>
-      <c r="G76" s="43">
-        <v>1</v>
-      </c>
-      <c r="H76" s="44">
-        <v>50</v>
-      </c>
-      <c r="I76" s="45">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="J76" s="46" t="s">
-        <v>151</v>
-      </c>
+      <c r="A76" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37">
+        <v>1</v>
+      </c>
+      <c r="G76" s="37">
+        <v>1</v>
+      </c>
+      <c r="H76" s="38">
+        <v>20</v>
+      </c>
+      <c r="I76" s="39">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="J76" s="40"/>
       <c r="K76" s="15"/>
       <c r="L76" s="16"/>
       <c r="M76" s="9"/>
@@ -4506,29 +6837,31 @@
       <c r="O76" s="3"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="41" t="s">
+      <c r="A77" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="B77" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43">
-        <v>4</v>
-      </c>
-      <c r="G77" s="43">
-        <v>4</v>
-      </c>
-      <c r="H77" s="44">
-        <v>25</v>
-      </c>
-      <c r="I77" s="45">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="J77" s="46"/>
+      <c r="B77" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37">
+        <v>1</v>
+      </c>
+      <c r="G77" s="37">
+        <v>1</v>
+      </c>
+      <c r="H77" s="38">
+        <v>50</v>
+      </c>
+      <c r="I77" s="39">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="J77" s="40" t="s">
+        <v>150</v>
+      </c>
       <c r="K77" s="15"/>
       <c r="L77" s="16"/>
       <c r="M77" s="9"/>
@@ -4536,29 +6869,29 @@
       <c r="O77" s="3"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="41" t="s">
+      <c r="A78" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43">
-        <v>1</v>
-      </c>
-      <c r="G78" s="43">
-        <v>1</v>
-      </c>
-      <c r="H78" s="44">
-        <v>20</v>
-      </c>
-      <c r="I78" s="45">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="J78" s="46"/>
+      <c r="B78" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37">
+        <v>4</v>
+      </c>
+      <c r="G78" s="37">
+        <v>4</v>
+      </c>
+      <c r="H78" s="38">
+        <v>25</v>
+      </c>
+      <c r="I78" s="39">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="J78" s="40"/>
       <c r="K78" s="15"/>
       <c r="L78" s="16"/>
       <c r="M78" s="9"/>
@@ -4567,20 +6900,27 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="35" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="36" t="s">
-        <v>217</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C79" s="36"/>
       <c r="D79" s="36"/>
       <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="39"/>
+      <c r="F79" s="37">
+        <v>1</v>
+      </c>
+      <c r="G79" s="37">
+        <v>1</v>
+      </c>
+      <c r="H79" s="38">
+        <v>20</v>
+      </c>
+      <c r="I79" s="39">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
       <c r="J79" s="40"/>
       <c r="K79" s="15"/>
       <c r="L79" s="16"/>
@@ -4589,15 +6929,9 @@
       <c r="O79" s="3"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="B80" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" s="36" t="s">
-        <v>218</v>
-      </c>
+      <c r="A80" s="35"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
       <c r="D80" s="36"/>
       <c r="E80" s="37"/>
       <c r="F80" s="37"/>
@@ -4612,22 +6946,22 @@
       <c r="O80" s="3"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="B81" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="C81" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="D81" s="36"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="40"/>
+      <c r="A81" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D81" s="30"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="34"/>
       <c r="K81" s="15"/>
       <c r="L81" s="16"/>
       <c r="M81" s="9"/>
@@ -4635,50 +6969,96 @@
       <c r="O81" s="3"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="35"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="40"/>
+      <c r="A82" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" s="30"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="34"/>
       <c r="K82" s="15"/>
       <c r="L82" s="16"/>
       <c r="M82" s="9"/>
       <c r="N82" s="13"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="22" t="s">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D83" s="30"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="29"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B85" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C85" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="24">
-        <f>SUM(I20:I78)</f>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="24">
+        <f>SUM(I20:I79)</f>
         <v>1479</v>
       </c>
-      <c r="J83" s="21"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="5"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:O83" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A10:O85" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
@@ -4714,9 +7094,9 @@
     <hyperlink ref="J68" r:id="rId28" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{AEC77D91-6FD3-455F-B901-C8AECBF4FBFC}"/>
     <hyperlink ref="J70" r:id="rId29" display="Color: MGN9 H" xr:uid="{EF1CF25C-A286-4000-976B-3EF1290B85D5}"/>
     <hyperlink ref="J61" r:id="rId30" xr:uid="{DB0C305C-D8F4-4B4B-BC4F-C7B8CEFFD8B9}"/>
-    <hyperlink ref="J71" r:id="rId31" xr:uid="{DD8F2F46-A4D3-45B7-8C61-BE3E5D8E77D4}"/>
-    <hyperlink ref="J73" r:id="rId32" display="Blade Color: 140mm reservoir" xr:uid="{1B2FD753-14EC-44DA-A449-AA8B531B9F4C}"/>
-    <hyperlink ref="J72" r:id="rId33" xr:uid="{14075AD2-C38A-4641-AE38-8D82C15730CB}"/>
+    <hyperlink ref="J72" r:id="rId31" xr:uid="{DD8F2F46-A4D3-45B7-8C61-BE3E5D8E77D4}"/>
+    <hyperlink ref="J74" r:id="rId32" display="Blade Color: 140mm reservoir" xr:uid="{1B2FD753-14EC-44DA-A449-AA8B531B9F4C}"/>
+    <hyperlink ref="J73" r:id="rId33" xr:uid="{14075AD2-C38A-4641-AE38-8D82C15730CB}"/>
     <hyperlink ref="J69" r:id="rId34" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{87ABA4C9-E494-4982-9A2A-9EB09D4C4F32}"/>
     <hyperlink ref="J57" r:id="rId35" xr:uid="{7420580F-5469-4338-8D3D-9259352A596B}"/>
     <hyperlink ref="J56" r:id="rId36" xr:uid="{EFED6ED9-EE5F-46BC-B31F-70D83F581B59}"/>
@@ -4729,7 +7109,7 @@
     <hyperlink ref="J18" r:id="rId43" display="Color: 5pcs 2028" xr:uid="{1C87A78E-750D-441D-BDAF-8A3315D08535}"/>
     <hyperlink ref="J67" r:id="rId44" xr:uid="{991F3D10-4224-4E86-BCB4-AFCFA2A64478}"/>
     <hyperlink ref="J20" r:id="rId45" display="WIP" xr:uid="{A48579E2-EF49-4729-81C6-C54E4E73F150}"/>
-    <hyperlink ref="J76" r:id="rId46" xr:uid="{894E09D5-8AF5-4C2F-A85D-98661DCBF526}"/>
+    <hyperlink ref="J77" r:id="rId46" xr:uid="{894E09D5-8AF5-4C2F-A85D-98661DCBF526}"/>
     <hyperlink ref="J36" r:id="rId47" xr:uid="{AA489145-7D60-48E1-9C07-306F8FEB2BFC}"/>
     <hyperlink ref="J46" r:id="rId48" xr:uid="{EDF6505F-9619-435E-B46E-B9123E7D7A43}"/>
     <hyperlink ref="J42" r:id="rId49" display="M5 Hammer Nut" xr:uid="{41B5B8CF-1C49-4CCA-B8BD-4BF45C65F224}"/>
@@ -4742,885 +7122,4 @@
   <drawing r:id="rId54"/>
   <legacyDrawing r:id="rId55"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C856EF-C61B-4CD0-9EB5-7A3D3F54F93A}">
-  <dimension ref="A1:G45"/>
-  <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="25">
-        <v>11</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="25">
-        <v>34</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="25">
-        <v>8</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="25">
-        <v>24</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="25">
-        <v>38</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="25">
-        <v>912</v>
-      </c>
-      <c r="G6" s="25">
-        <v>4762</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="25">
-        <v>12</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="25">
-        <v>4</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="25">
-        <v>912</v>
-      </c>
-      <c r="G8" s="25">
-        <v>4762</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="25">
-        <v>4</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="25">
-        <v>3</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="25">
-        <v>3</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="25">
-        <v>3</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="25">
-        <v>3</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="25">
-        <v>3</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="F14" s="25">
-        <v>7991</v>
-      </c>
-      <c r="G14" s="25">
-        <v>10642</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="25">
-        <v>29</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="25">
-        <v>4</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="25">
-        <v>13</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="25">
-        <v>84</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="25">
-        <v>95</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" s="25">
-        <v>8</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" s="25">
-        <v>111</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" s="25">
-        <v>2</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" s="25">
-        <v>4</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="25">
-        <v>4</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="25">
-        <v>5</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="25">
-        <v>933</v>
-      </c>
-      <c r="G25" s="25">
-        <v>4017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="D26" s="25">
-        <v>33</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="26">
-        <v>26</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="26">
-        <v>8</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" s="26">
-        <v>5</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" s="26">
-        <v>10</v>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D31" s="26">
-        <v>6</v>
-      </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D32" s="26">
-        <v>6</v>
-      </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="D33" s="26">
-        <v>3</v>
-      </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D34" s="26">
-        <v>3</v>
-      </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="D35" s="26">
-        <v>1</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="D36" s="27">
-        <v>3</v>
-      </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D37" s="27">
-        <v>3</v>
-      </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="D38" s="27">
-        <v>3</v>
-      </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="D39" s="27">
-        <v>10</v>
-      </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" s="27">
-        <v>5</v>
-      </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" s="27">
-        <v>5</v>
-      </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="D42" s="27">
-        <v>1</v>
-      </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="D43" s="27">
-        <v>3</v>
-      </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="D44" s="27">
-        <v>2</v>
-      </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="D45" s="27">
-        <v>5</v>
-      </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G45" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G45">
-      <sortCondition ref="A2:A45"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="8_{B0BDE0A3-E6D2-4CB5-B3CB-54BD7EA2D1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43B85C20-7041-47EF-A78B-2629839EDF62}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="8_{B0BDE0A3-E6D2-4CB5-B3CB-54BD7EA2D1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B35BC47E-CAD1-425F-AEEF-5252DC85D996}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Stage 1" sheetId="3" r:id="rId1"/>
@@ -18,9 +18,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Valkyrie Final Stage'!$A$10:$O$85</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage 1'!$A$10:$O$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage 1'!$A$10:$L$73</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Valkyrie Final Stage'!$A$1:$O$85</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Stage 1'!$A$1:$O$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Stage 1'!$A$1:$L$73</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="188">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -701,6 +701,15 @@
   </si>
   <si>
     <t>Draw Slides</t>
+  </si>
+  <si>
+    <t>50pcs M3 - Length: 08mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100pcs M5 Flat Washer </t>
+  </si>
+  <si>
+    <t>Valkyrie S1</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1431,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1556,6 +1565,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="20" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="42" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1619,16 +1651,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>229872</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2159720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>308240</xdr:rowOff>
+      <xdr:rowOff>324805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>138314</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>184526</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>444771</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1656,8 +1688,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5525772" y="308240"/>
-          <a:ext cx="2394467" cy="1352661"/>
+          <a:off x="4445720" y="324805"/>
+          <a:ext cx="2393225" cy="1350590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2023,11 +2055,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,14 +2073,12 @@
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
@@ -2063,11 +2093,8 @@
       <c r="J1" s="89"/>
       <c r="K1" s="89"/>
       <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="90"/>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
@@ -2080,38 +2107,35 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
       <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>43</v>
@@ -2125,17 +2149,14 @@
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="24">
-        <f>SUM(I20:I70)</f>
-        <v>1109</v>
+        <f>SUM(I18:I70)</f>
+        <v>1183.3499999999999</v>
       </c>
       <c r="J9" s="21"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+    </row>
+    <row r="10" spans="1:12" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="79" t="s">
         <v>5</v>
       </c>
@@ -2167,22 +2188,13 @@
         <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="L10" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>17</v>
       </c>
@@ -2214,13 +2226,10 @@
       <c r="J11" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="12"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>17</v>
       </c>
@@ -2254,13 +2263,10 @@
       <c r="J12" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
         <v>17</v>
       </c>
@@ -2293,13 +2299,10 @@
       <c r="J13" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
         <v>17</v>
       </c>
@@ -2332,13 +2335,10 @@
       <c r="J14" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
         <v>17</v>
       </c>
@@ -2371,13 +2371,10 @@
       <c r="J15" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="s">
         <v>17</v>
       </c>
@@ -2400,13 +2397,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="71"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="72" t="s">
         <v>17</v>
       </c>
@@ -2429,13 +2423,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="78"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
         <v>17</v>
       </c>
@@ -2463,16 +2454,10 @@
       <c r="J18" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16">
-        <f>K18*G18</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>17</v>
       </c>
@@ -2500,13 +2485,10 @@
       <c r="J19" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
         <v>17</v>
       </c>
@@ -2534,13 +2516,10 @@
       <c r="J20" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="82" t="s">
         <v>17</v>
       </c>
@@ -2572,16 +2551,10 @@
       <c r="J21" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16">
-        <f t="shared" ref="L21:L65" si="1">K21*G21</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="16"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
         <v>17</v>
       </c>
@@ -2611,20 +2584,10 @@
       <c r="J22" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="L22" s="16">
-        <f>K22*G22</f>
-        <v>98</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -2654,16 +2617,10 @@
       <c r="J23" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16">
-        <f>K23*G23</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2693,13 +2650,10 @@
       <c r="J24" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -2729,16 +2683,10 @@
       <c r="J25" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="16"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -2768,16 +2716,10 @@
       <c r="J26" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="16"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -2805,16 +2747,10 @@
       <c r="J27" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="16"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
@@ -2844,16 +2780,10 @@
       <c r="J28" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16">
-        <f>K28*G28</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="16"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
@@ -2881,16 +2811,10 @@
       <c r="J29" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16">
-        <f>K29*G29</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
         <v>29</v>
       </c>
@@ -2908,17 +2832,18 @@
       <c r="G30" s="43"/>
       <c r="H30" s="44"/>
       <c r="I30" s="45">
-        <f t="shared" ref="I30:I70" si="2">G30*H30</f>
+        <f t="shared" ref="I30:I70" si="1">G30*H30</f>
         <v>0</v>
       </c>
       <c r="J30" s="46"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K30" s="96">
+        <v>934</v>
+      </c>
+      <c r="L30" s="96">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>29</v>
       </c>
@@ -2936,17 +2861,14 @@
       <c r="G31" s="43"/>
       <c r="H31" s="44"/>
       <c r="I31" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31" s="46"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>29</v>
       </c>
@@ -2962,19 +2884,22 @@
         <v>24</v>
       </c>
       <c r="G32" s="43"/>
-      <c r="H32" s="44"/>
+      <c r="H32" s="44">
+        <v>5.6</v>
+      </c>
       <c r="I32" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="46"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
         <v>29</v>
       </c>
@@ -2992,17 +2917,16 @@
       <c r="G33" s="43"/>
       <c r="H33" s="44"/>
       <c r="I33" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J33" s="46"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K33" s="96">
+        <v>912</v>
+      </c>
+      <c r="L33" s="96"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>29</v>
       </c>
@@ -3020,17 +2944,16 @@
       <c r="G34" s="43"/>
       <c r="H34" s="44"/>
       <c r="I34" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J34" s="46"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K34" s="96"/>
+      <c r="L34" s="96">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
         <v>29</v>
       </c>
@@ -3048,17 +2971,16 @@
       <c r="G35" s="43"/>
       <c r="H35" s="44"/>
       <c r="I35" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J35" s="46"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K35" s="96"/>
+      <c r="L35" s="96">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>29</v>
       </c>
@@ -3078,19 +3000,16 @@
         <v>4</v>
       </c>
       <c r="I36" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J36" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K36" s="97"/>
+      <c r="L36" s="97"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>29</v>
       </c>
@@ -3108,17 +3027,18 @@
       <c r="G37" s="43"/>
       <c r="H37" s="44"/>
       <c r="I37" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J37" s="46"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K37" s="96">
+        <v>934</v>
+      </c>
+      <c r="L37" s="96">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
         <v>29</v>
       </c>
@@ -3136,17 +3056,14 @@
       <c r="G38" s="43"/>
       <c r="H38" s="44"/>
       <c r="I38" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J38" s="46"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K38" s="96"/>
+      <c r="L38" s="96"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>29</v>
       </c>
@@ -3164,17 +3081,14 @@
       <c r="G39" s="43"/>
       <c r="H39" s="44"/>
       <c r="I39" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J39" s="48"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>29</v>
       </c>
@@ -3192,17 +3106,14 @@
       <c r="G40" s="43"/>
       <c r="H40" s="44"/>
       <c r="I40" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J40" s="49"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K40" s="98"/>
+      <c r="L40" s="98"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>29</v>
       </c>
@@ -3220,17 +3131,18 @@
       <c r="G41" s="43"/>
       <c r="H41" s="44"/>
       <c r="I41" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J41" s="46"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K41" s="96">
+        <v>934</v>
+      </c>
+      <c r="L41" s="96">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>29</v>
       </c>
@@ -3252,19 +3164,16 @@
         <v>11</v>
       </c>
       <c r="I42" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J42" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K42" s="97"/>
+      <c r="L42" s="97"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>29</v>
       </c>
@@ -3282,17 +3191,14 @@
       <c r="G43" s="43"/>
       <c r="H43" s="44"/>
       <c r="I43" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J43" s="46"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
         <v>29</v>
       </c>
@@ -3314,19 +3220,16 @@
         <v>12.5</v>
       </c>
       <c r="I44" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="J44" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
         <v>29</v>
       </c>
@@ -3344,19 +3247,20 @@
       <c r="G45" s="43">
         <v>1</v>
       </c>
-      <c r="H45" s="44"/>
+      <c r="H45" s="44">
+        <v>5.75</v>
+      </c>
       <c r="I45" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="47"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
+      <c r="J45" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
         <v>29</v>
       </c>
@@ -3378,19 +3282,18 @@
         <v>3.5</v>
       </c>
       <c r="I46" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="J46" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K46" s="97"/>
+      <c r="L46" s="96">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
         <v>29</v>
       </c>
@@ -3408,17 +3311,16 @@
       <c r="G47" s="43"/>
       <c r="H47" s="44"/>
       <c r="I47" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J47" s="46"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K47" s="96"/>
+      <c r="L47" s="96">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
         <v>29</v>
       </c>
@@ -3436,17 +3338,16 @@
       <c r="G48" s="43"/>
       <c r="H48" s="44"/>
       <c r="I48" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J48" s="46"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K48" s="96"/>
+      <c r="L48" s="96">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
         <v>29</v>
       </c>
@@ -3464,17 +3365,14 @@
       <c r="G49" s="43"/>
       <c r="H49" s="44"/>
       <c r="I49" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J49" s="46"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K49" s="96"/>
+      <c r="L49" s="96"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>33</v>
       </c>
@@ -3496,22 +3394,16 @@
         <v>70</v>
       </c>
       <c r="I50" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J50" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="16"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K50" s="95"/>
+      <c r="L50" s="95"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>33</v>
       </c>
@@ -3533,22 +3425,16 @@
         <v>71</v>
       </c>
       <c r="I51" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="J51" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="16"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K51" s="95"/>
+      <c r="L51" s="95"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>33</v>
       </c>
@@ -3570,22 +3456,16 @@
         <v>23</v>
       </c>
       <c r="I52" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="J52" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="16"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K52" s="95"/>
+      <c r="L52" s="95"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>33</v>
       </c>
@@ -3607,22 +3487,16 @@
         <v>2</v>
       </c>
       <c r="I53" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J53" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M53" s="16"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K53" s="95"/>
+      <c r="L53" s="95"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>33</v>
       </c>
@@ -3644,22 +3518,16 @@
         <v>7.5</v>
       </c>
       <c r="I54" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="J54" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="16"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K54" s="95"/>
+      <c r="L54" s="95"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>33</v>
       </c>
@@ -3683,26 +3551,16 @@
         <v>23.5</v>
       </c>
       <c r="I55" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
       <c r="J55" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="K55" s="16">
-        <v>75</v>
-      </c>
-      <c r="L55" s="16">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="M55" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="N55" s="13"/>
-      <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K55" s="95"/>
+      <c r="L55" s="95"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>33</v>
       </c>
@@ -3724,22 +3582,16 @@
         <v>5.5</v>
       </c>
       <c r="I56" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="J56" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="16"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K56" s="95"/>
+      <c r="L56" s="95"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>33</v>
       </c>
@@ -3761,22 +3613,16 @@
         <v>3</v>
       </c>
       <c r="I57" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J57" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="16"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K57" s="95"/>
+      <c r="L57" s="95"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>89</v>
       </c>
@@ -3798,22 +3644,16 @@
         <v>85</v>
       </c>
       <c r="I58" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="J58" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="16"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K58" s="95"/>
+      <c r="L58" s="95"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>89</v>
       </c>
@@ -3835,22 +3675,16 @@
         <v>65</v>
       </c>
       <c r="I59" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J59" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M59" s="16"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K59" s="95"/>
+      <c r="L59" s="95"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>89</v>
       </c>
@@ -3872,22 +3706,16 @@
         <v>100</v>
       </c>
       <c r="I60" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J60" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="16"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K60" s="95"/>
+      <c r="L60" s="95"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>89</v>
       </c>
@@ -3909,22 +3737,16 @@
         <v>70</v>
       </c>
       <c r="I61" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="J61" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M61" s="16"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K61" s="95"/>
+      <c r="L61" s="95"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>37</v>
       </c>
@@ -3948,22 +3770,16 @@
         <v>39</v>
       </c>
       <c r="I62" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="J62" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="16"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K62" s="95"/>
+      <c r="L62" s="95"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>37</v>
       </c>
@@ -3985,26 +3801,16 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I63" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="J63" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="K63" s="16">
-        <v>5.5</v>
-      </c>
-      <c r="L63" s="16">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="M63" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N63" s="13"/>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K63" s="95"/>
+      <c r="L63" s="95"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>37</v>
       </c>
@@ -4026,26 +3832,16 @@
         <v>6</v>
       </c>
       <c r="I64" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J64" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="K64" s="16">
-        <v>7</v>
-      </c>
-      <c r="L64" s="16">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="N64" s="13"/>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K64" s="95"/>
+      <c r="L64" s="95"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>37</v>
       </c>
@@ -4067,26 +3863,16 @@
         <v>4</v>
       </c>
       <c r="I65" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J65" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="K65" s="16">
-        <v>6</v>
-      </c>
-      <c r="L65" s="16">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N65" s="13"/>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K65" s="95"/>
+      <c r="L65" s="95"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>37</v>
       </c>
@@ -4112,19 +3898,16 @@
         <v>15</v>
       </c>
       <c r="I66" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="J66" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K66" s="95"/>
+      <c r="L66" s="95"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>37</v>
       </c>
@@ -4146,26 +3929,16 @@
         <v>14.5</v>
       </c>
       <c r="I67" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
       <c r="J67" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="K67" s="15">
-        <v>11</v>
-      </c>
-      <c r="L67" s="16">
-        <f>K67*G67</f>
-        <v>55</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N67" s="13"/>
-      <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K67" s="95"/>
+      <c r="L67" s="95"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>37</v>
       </c>
@@ -4189,19 +3962,16 @@
         <v>15.6</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>46.8</v>
       </c>
       <c r="J68" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="K68" s="15"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K68" s="95"/>
+      <c r="L68" s="95"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>37</v>
       </c>
@@ -4225,19 +3995,16 @@
         <v>17.5</v>
       </c>
       <c r="I69" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="J69" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="K69" s="15"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K69" s="95"/>
+      <c r="L69" s="95"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>37</v>
       </c>
@@ -4261,19 +4028,16 @@
         <v>16</v>
       </c>
       <c r="I70" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="J70" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="K70" s="15"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K70" s="95"/>
+      <c r="L70" s="95"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
         <v>174</v>
       </c>
@@ -4290,13 +4054,10 @@
       <c r="H71" s="32"/>
       <c r="I71" s="33"/>
       <c r="J71" s="34"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K71" s="99"/>
+      <c r="L71" s="99"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="29"/>
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
@@ -4307,13 +4068,10 @@
       <c r="H72" s="32"/>
       <c r="I72" s="33"/>
       <c r="J72" s="34"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K72" s="99"/>
+      <c r="L72" s="99"/>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="22" t="s">
         <v>116</v>
       </c>
@@ -4330,20 +4088,17 @@
       <c r="H73" s="23"/>
       <c r="I73" s="24">
         <f>SUM(I18:I70)</f>
-        <v>1177.5999999999999</v>
+        <v>1183.3499999999999</v>
       </c>
       <c r="J73" s="21"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="5"/>
+      <c r="K73" s="91"/>
+      <c r="L73" s="91"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:O73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A10:L73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J62" r:id="rId1" xr:uid="{470D3E09-926A-4D3A-91B4-7461D04E5E84}"/>
@@ -4351,54 +4106,50 @@
     <hyperlink ref="J64" r:id="rId3" display="Link" xr:uid="{DD381683-11FD-47B6-8058-4EE70A74554F}"/>
     <hyperlink ref="J65" r:id="rId4" display="Link" xr:uid="{E6D2A651-3F01-4AA6-90CF-1EC3F678EBDF}"/>
     <hyperlink ref="J66" r:id="rId5" display="Link" xr:uid="{02713422-DB48-4995-A75F-C89976BBE2C4}"/>
-    <hyperlink ref="M67" r:id="rId6" display="Compact Powerful Motor" xr:uid="{A9A04EEF-171A-4567-95B2-7A17DFAC16BE}"/>
-    <hyperlink ref="J21" r:id="rId7" display="Link" xr:uid="{E52A9101-03CE-464C-9192-E712868CA218}"/>
-    <hyperlink ref="J26" r:id="rId8" display="2x Length: 45mm 4PC" xr:uid="{80D1EF4D-4E35-4EBD-899E-F6925D418FD4}"/>
-    <hyperlink ref="J50" r:id="rId9" xr:uid="{16817930-1BAB-405D-9B12-971AF725B14C}"/>
-    <hyperlink ref="J27" r:id="rId10" xr:uid="{68FC1ED9-6334-46B0-9D1B-1D5DADAB8D1E}"/>
-    <hyperlink ref="M63" r:id="rId11" display="Gates" xr:uid="{14CE2982-1776-4414-9240-E5EE4967E426}"/>
-    <hyperlink ref="M64" r:id="rId12" display="Gates" xr:uid="{209F4BE1-9B49-40F0-992B-064699A21ADF}"/>
-    <hyperlink ref="M65" r:id="rId13" display="Pulley 20 Tooth 9mm" xr:uid="{797BF3FA-B75B-41CB-8845-0B05868D7588}"/>
-    <hyperlink ref="J22" r:id="rId14" xr:uid="{FF8EAEE5-AC4E-4085-A4A5-8F5EBAC86F43}"/>
-    <hyperlink ref="J52" r:id="rId15" xr:uid="{B0A52E4D-453D-4811-AA6F-5EF9EF90E301}"/>
-    <hyperlink ref="J51" r:id="rId16" display="FYSETC Big Dipper" xr:uid="{E25FE31D-BA25-4D4B-AFED-C91A71DFB8FC}"/>
-    <hyperlink ref="J53" r:id="rId17" display="6pcs Optical Endstop" xr:uid="{D2913CD1-DF78-4DA1-A825-9904F5AFED85}"/>
-    <hyperlink ref="J54" r:id="rId18" xr:uid="{1D19593D-6511-4042-8FE8-C2BC9ADC5007}"/>
-    <hyperlink ref="J25" r:id="rId19" xr:uid="{366E038A-982E-41CA-B160-DA64B8173005}"/>
-    <hyperlink ref="J28" r:id="rId20" xr:uid="{666D9CA7-33A6-4006-9F73-C192110684CD}"/>
-    <hyperlink ref="J58" r:id="rId21" xr:uid="{10E4F4C3-9E91-4703-A3A0-9B953429E7AA}"/>
-    <hyperlink ref="J59" r:id="rId22" xr:uid="{0D57D4F4-5A25-4EA6-A348-6ED0CF6B732A}"/>
-    <hyperlink ref="J60" r:id="rId23" xr:uid="{912B955C-3B27-4761-8540-DCCCB1938CD2}"/>
-    <hyperlink ref="J55" r:id="rId24" xr:uid="{AA51340B-B28E-4C60-B93A-7589AA69D2CC}"/>
-    <hyperlink ref="M55" r:id="rId25" display="Color: 220V 750W" xr:uid="{E72A25EF-4F1F-452A-9D0D-652AF6E7B80E}"/>
-    <hyperlink ref="M22" r:id="rId26" xr:uid="{7CE79CD2-A61D-428B-8DB5-9B45E285A5A1}"/>
-    <hyperlink ref="J23" r:id="rId27" xr:uid="{37AD1F2B-6784-4396-935D-00D574B194A1}"/>
-    <hyperlink ref="J68" r:id="rId28" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{36604E34-3767-47E8-9D68-3224FA47BAD7}"/>
-    <hyperlink ref="J70" r:id="rId29" display="Color: MGN9 H" xr:uid="{A7F96524-FB6C-46B0-9073-280672E46815}"/>
-    <hyperlink ref="J61" r:id="rId30" xr:uid="{9E060D84-2888-4E7A-9240-D0D50BB44C8B}"/>
-    <hyperlink ref="J69" r:id="rId31" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{8E7CE0E4-7C6B-4B1C-8596-20FB16FA9B52}"/>
-    <hyperlink ref="J57" r:id="rId32" xr:uid="{5814533E-0B18-40C7-BBD9-16B69B7A6DEE}"/>
-    <hyperlink ref="J56" r:id="rId33" xr:uid="{48FC6FE4-5066-49DB-A409-7F1FBE2EF7B8}"/>
-    <hyperlink ref="J15" r:id="rId34" xr:uid="{3AEC6389-3C1E-4010-BF1F-FC26344ADB18}"/>
-    <hyperlink ref="J14" r:id="rId35" display="Color: 750 mm" xr:uid="{DC134816-48B7-4D08-A1F3-EE499D174B84}"/>
-    <hyperlink ref="J13" r:id="rId36" display="Color: 750 mm" xr:uid="{A3EA9FE7-DF1E-489F-9C20-2C8B4A8F3998}"/>
-    <hyperlink ref="J12" r:id="rId37" display="Color: 250 mm" xr:uid="{AF637EA7-8653-4B62-9E18-2D36C247C3A6}"/>
-    <hyperlink ref="J11" r:id="rId38" display="Color: 250 mm" xr:uid="{8E88954A-9B9C-4CFB-9628-6B07CF99FA58}"/>
-    <hyperlink ref="J19" r:id="rId39" xr:uid="{32AB889D-9001-42C3-BE94-03EA862B7BE0}"/>
-    <hyperlink ref="J18" r:id="rId40" display="Color: 5pcs 2028" xr:uid="{0AF8C64A-7681-4C12-9F81-9C412B90CBD8}"/>
-    <hyperlink ref="J67" r:id="rId41" xr:uid="{AC843B0A-CBC9-4966-B47F-EF4149117169}"/>
-    <hyperlink ref="J20" r:id="rId42" display="WIP" xr:uid="{62D7CE1A-7D31-434D-B8C5-08BB38D408F9}"/>
-    <hyperlink ref="J36" r:id="rId43" xr:uid="{E5B6A8C9-52B9-40BE-B248-BD034E05F801}"/>
-    <hyperlink ref="J46" r:id="rId44" xr:uid="{93693BCF-0239-4D66-94F6-D56F29E9F804}"/>
-    <hyperlink ref="J42" r:id="rId45" display="M5 Hammer Nut" xr:uid="{1BDF168B-F4AF-4241-B89F-DFA08A717758}"/>
-    <hyperlink ref="J44" r:id="rId46" display="Size: M5" xr:uid="{7CFDA64F-0B09-4C6E-8064-AAF73E7FE260}"/>
-    <hyperlink ref="J24" r:id="rId47" xr:uid="{64ACA354-4D0B-4C7F-86F1-5A445372A527}"/>
-    <hyperlink ref="J29" r:id="rId48" xr:uid="{BBBC293A-3FF7-4CD3-B3A0-84C0BCE6478B}"/>
+    <hyperlink ref="J21" r:id="rId6" display="Link" xr:uid="{E52A9101-03CE-464C-9192-E712868CA218}"/>
+    <hyperlink ref="J26" r:id="rId7" display="2x Length: 45mm 4PC" xr:uid="{80D1EF4D-4E35-4EBD-899E-F6925D418FD4}"/>
+    <hyperlink ref="J50" r:id="rId8" xr:uid="{16817930-1BAB-405D-9B12-971AF725B14C}"/>
+    <hyperlink ref="J27" r:id="rId9" xr:uid="{68FC1ED9-6334-46B0-9D1B-1D5DADAB8D1E}"/>
+    <hyperlink ref="J22" r:id="rId10" xr:uid="{FF8EAEE5-AC4E-4085-A4A5-8F5EBAC86F43}"/>
+    <hyperlink ref="J52" r:id="rId11" xr:uid="{B0A52E4D-453D-4811-AA6F-5EF9EF90E301}"/>
+    <hyperlink ref="J51" r:id="rId12" display="FYSETC Big Dipper" xr:uid="{E25FE31D-BA25-4D4B-AFED-C91A71DFB8FC}"/>
+    <hyperlink ref="J53" r:id="rId13" display="6pcs Optical Endstop" xr:uid="{D2913CD1-DF78-4DA1-A825-9904F5AFED85}"/>
+    <hyperlink ref="J54" r:id="rId14" xr:uid="{1D19593D-6511-4042-8FE8-C2BC9ADC5007}"/>
+    <hyperlink ref="J25" r:id="rId15" xr:uid="{366E038A-982E-41CA-B160-DA64B8173005}"/>
+    <hyperlink ref="J28" r:id="rId16" xr:uid="{666D9CA7-33A6-4006-9F73-C192110684CD}"/>
+    <hyperlink ref="J58" r:id="rId17" xr:uid="{10E4F4C3-9E91-4703-A3A0-9B953429E7AA}"/>
+    <hyperlink ref="J59" r:id="rId18" xr:uid="{0D57D4F4-5A25-4EA6-A348-6ED0CF6B732A}"/>
+    <hyperlink ref="J60" r:id="rId19" xr:uid="{912B955C-3B27-4761-8540-DCCCB1938CD2}"/>
+    <hyperlink ref="J55" r:id="rId20" xr:uid="{AA51340B-B28E-4C60-B93A-7589AA69D2CC}"/>
+    <hyperlink ref="J23" r:id="rId21" xr:uid="{37AD1F2B-6784-4396-935D-00D574B194A1}"/>
+    <hyperlink ref="J68" r:id="rId22" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{36604E34-3767-47E8-9D68-3224FA47BAD7}"/>
+    <hyperlink ref="J70" r:id="rId23" display="Color: MGN9 H" xr:uid="{A7F96524-FB6C-46B0-9073-280672E46815}"/>
+    <hyperlink ref="J61" r:id="rId24" xr:uid="{9E060D84-2888-4E7A-9240-D0D50BB44C8B}"/>
+    <hyperlink ref="J69" r:id="rId25" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{8E7CE0E4-7C6B-4B1C-8596-20FB16FA9B52}"/>
+    <hyperlink ref="J57" r:id="rId26" xr:uid="{5814533E-0B18-40C7-BBD9-16B69B7A6DEE}"/>
+    <hyperlink ref="J56" r:id="rId27" xr:uid="{48FC6FE4-5066-49DB-A409-7F1FBE2EF7B8}"/>
+    <hyperlink ref="J15" r:id="rId28" xr:uid="{3AEC6389-3C1E-4010-BF1F-FC26344ADB18}"/>
+    <hyperlink ref="J14" r:id="rId29" display="Color: 750 mm" xr:uid="{DC134816-48B7-4D08-A1F3-EE499D174B84}"/>
+    <hyperlink ref="J13" r:id="rId30" display="Color: 750 mm" xr:uid="{A3EA9FE7-DF1E-489F-9C20-2C8B4A8F3998}"/>
+    <hyperlink ref="J12" r:id="rId31" display="Color: 250 mm" xr:uid="{AF637EA7-8653-4B62-9E18-2D36C247C3A6}"/>
+    <hyperlink ref="J11" r:id="rId32" display="Color: 250 mm" xr:uid="{8E88954A-9B9C-4CFB-9628-6B07CF99FA58}"/>
+    <hyperlink ref="J19" r:id="rId33" xr:uid="{32AB889D-9001-42C3-BE94-03EA862B7BE0}"/>
+    <hyperlink ref="J18" r:id="rId34" display="Color: 5pcs 2028" xr:uid="{0AF8C64A-7681-4C12-9F81-9C412B90CBD8}"/>
+    <hyperlink ref="J67" r:id="rId35" xr:uid="{AC843B0A-CBC9-4966-B47F-EF4149117169}"/>
+    <hyperlink ref="J20" r:id="rId36" display="WIP" xr:uid="{62D7CE1A-7D31-434D-B8C5-08BB38D408F9}"/>
+    <hyperlink ref="J36" r:id="rId37" xr:uid="{E5B6A8C9-52B9-40BE-B248-BD034E05F801}"/>
+    <hyperlink ref="J46" r:id="rId38" xr:uid="{93693BCF-0239-4D66-94F6-D56F29E9F804}"/>
+    <hyperlink ref="J42" r:id="rId39" display="M5 Hammer Nut" xr:uid="{1BDF168B-F4AF-4241-B89F-DFA08A717758}"/>
+    <hyperlink ref="J44" r:id="rId40" display="Size: M5" xr:uid="{7CFDA64F-0B09-4C6E-8064-AAF73E7FE260}"/>
+    <hyperlink ref="J24" r:id="rId41" xr:uid="{64ACA354-4D0B-4C7F-86F1-5A445372A527}"/>
+    <hyperlink ref="J29" r:id="rId42" xr:uid="{BBBC293A-3FF7-4CD3-B3A0-84C0BCE6478B}"/>
+    <hyperlink ref="J32" r:id="rId43" display="10pcs M5 - Length: 10mm" xr:uid="{479C3A14-2A60-4B4C-AFA1-9F3C9B7F34DF}"/>
+    <hyperlink ref="J45" r:id="rId44" xr:uid="{0CE567BB-48D3-4AF8-9541-745A79F33B9B}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId49"/>
-  <drawing r:id="rId50"/>
-  <legacyDrawing r:id="rId51"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId45"/>
+  <drawing r:id="rId46"/>
+  <legacyDrawing r:id="rId47"/>
 </worksheet>
 </file>
 

--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="8_{B0BDE0A3-E6D2-4CB5-B3CB-54BD7EA2D1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B35BC47E-CAD1-425F-AEEF-5252DC85D996}"/>
+  <xr:revisionPtr revIDLastSave="275" documentId="8_{B0BDE0A3-E6D2-4CB5-B3CB-54BD7EA2D1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0131E9A-F862-4AF2-B871-5D68072E4AAE}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Valkyrie Stage 1" sheetId="3" r:id="rId1"/>
+    <sheet name="Valkyrie S1" sheetId="3" r:id="rId1"/>
     <sheet name="Valkyrie Final Stage" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Valkyrie Final Stage'!$A$10:$O$85</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage 1'!$A$10:$L$73</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Valkyrie Final Stage'!$A$1:$O$85</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Stage 1'!$A$1:$L$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Valkyrie Final Stage'!$A$10:$O$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie S1'!$A$10:$M$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Valkyrie Final Stage'!$A$1:$O$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie S1'!$A$1:$M$71</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="198">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -382,12 +382,6 @@
     <t>Power Supply Unit</t>
   </si>
   <si>
-    <t>Optical Endstop Switch</t>
-  </si>
-  <si>
-    <t>Size: 5PCS</t>
-  </si>
-  <si>
     <t>Power Switch</t>
   </si>
   <si>
@@ -710,6 +704,54 @@
   </si>
   <si>
     <t>Valkyrie S1</t>
+  </si>
+  <si>
+    <t>Bed Insulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D Printer Heat insulation </t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENERGETIC </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bed Heater insulation - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100C only</t>
+    </r>
+  </si>
+  <si>
+    <t>FYSETC</t>
+  </si>
+  <si>
+    <t>BIGTREETECH</t>
+  </si>
+  <si>
+    <t>BONDTECH</t>
+  </si>
+  <si>
+    <t>DFORCE</t>
+  </si>
+  <si>
+    <t>MELLOW</t>
+  </si>
+  <si>
+    <t>NB!-200mm-(5mm)20T-80T</t>
+  </si>
+  <si>
+    <t>POWGE</t>
   </si>
 </sst>
 </file>
@@ -1556,15 +1598,6 @@
     <xf numFmtId="0" fontId="18" fillId="36" borderId="14" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1587,6 +1620,15 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2055,11 +2097,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,68 +2116,71 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>43</v>
@@ -2149,14 +2194,15 @@
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="24">
-        <f>SUM(I18:I70)</f>
-        <v>1183.3499999999999</v>
+        <f>SUM(I18:I68)</f>
+        <v>1173.3499999999999</v>
       </c>
       <c r="J9" s="21"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-    </row>
-    <row r="10" spans="1:12" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+    </row>
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="79" t="s">
         <v>5</v>
       </c>
@@ -2187,14 +2233,17 @@
       <c r="J10" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>17</v>
       </c>
@@ -2202,7 +2251,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D11" s="51">
         <v>339</v>
@@ -2224,12 +2273,13 @@
         <v>8</v>
       </c>
       <c r="J11" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>17</v>
       </c>
@@ -2237,7 +2287,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D12" s="58">
         <f>D13</f>
@@ -2261,12 +2311,13 @@
         <v>9.5</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
         <v>17</v>
       </c>
@@ -2274,7 +2325,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D13" s="58">
         <v>420</v>
@@ -2297,12 +2348,13 @@
         <v>42.16</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
         <v>17</v>
       </c>
@@ -2310,7 +2362,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D14" s="58">
         <v>480</v>
@@ -2333,12 +2385,13 @@
         <v>44.484000000000002</v>
       </c>
       <c r="J14" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
         <v>17</v>
       </c>
@@ -2346,7 +2399,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D15" s="58">
         <v>750</v>
@@ -2369,12 +2422,13 @@
         <v>58.8</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="s">
         <v>17</v>
       </c>
@@ -2399,8 +2453,9 @@
       <c r="J16" s="71"/>
       <c r="K16" s="62"/>
       <c r="L16" s="62"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="62"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="72" t="s">
         <v>17</v>
       </c>
@@ -2423,10 +2478,11 @@
         <v>0</v>
       </c>
       <c r="J17" s="78"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
         <v>17</v>
       </c>
@@ -2452,12 +2508,13 @@
         <v>17.399999999999999</v>
       </c>
       <c r="J18" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>17</v>
       </c>
@@ -2465,7 +2522,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D19" s="58"/>
       <c r="E19" s="60"/>
@@ -2483,20 +2540,21 @@
         <v>51.2</v>
       </c>
       <c r="J19" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D20" s="58"/>
       <c r="E20" s="58"/>
@@ -2514,12 +2572,13 @@
         <v>210</v>
       </c>
       <c r="J20" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="82" t="s">
         <v>17</v>
       </c>
@@ -2551,10 +2610,11 @@
       <c r="J21" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
         <v>17</v>
       </c>
@@ -2562,7 +2622,7 @@
         <v>68</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D22" s="58">
         <v>350</v>
@@ -2584,18 +2644,19 @@
       <c r="J22" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D23" s="18">
         <v>310</v>
@@ -2615,12 +2676,15 @@
         <v>40</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="K23" s="92" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2628,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D24" s="18">
         <v>30</v>
@@ -2648,12 +2712,13 @@
         <v>1.2</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -2661,7 +2726,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D25" s="13">
         <v>40</v>
@@ -2681,12 +2746,13 @@
         <v>9</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -2694,7 +2760,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D26" s="13">
         <v>50</v>
@@ -2714,17 +2780,18 @@
         <v>6</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>44</v>
@@ -2747,18 +2814,19 @@
       <c r="J27" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28" s="18">
         <v>30</v>
@@ -2778,20 +2846,21 @@
         <v>5</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="28"/>
@@ -2809,12 +2878,13 @@
         <v>7.5</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
         <v>29</v>
       </c>
@@ -2822,7 +2892,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D30" s="42"/>
       <c r="E30" s="43"/>
@@ -2832,18 +2902,19 @@
       <c r="G30" s="43"/>
       <c r="H30" s="44"/>
       <c r="I30" s="45">
-        <f t="shared" ref="I30:I70" si="1">G30*H30</f>
+        <f t="shared" ref="I30:I69" si="1">G30*H30</f>
         <v>0</v>
       </c>
       <c r="J30" s="46"/>
-      <c r="K30" s="96">
+      <c r="K30" s="93"/>
+      <c r="L30" s="93">
         <v>934</v>
       </c>
-      <c r="L30" s="96">
+      <c r="M30" s="93">
         <v>4032</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>29</v>
       </c>
@@ -2851,7 +2922,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D31" s="42"/>
       <c r="E31" s="43"/>
@@ -2865,10 +2936,11 @@
         <v>0</v>
       </c>
       <c r="J31" s="46"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>29</v>
       </c>
@@ -2876,7 +2948,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D32" s="42"/>
       <c r="E32" s="43"/>
@@ -2892,14 +2964,15 @@
         <v>0</v>
       </c>
       <c r="J32" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="K32" s="96"/>
-      <c r="L32" s="96">
+        <v>183</v>
+      </c>
+      <c r="K32" s="94"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93">
         <v>7380</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
         <v>29</v>
       </c>
@@ -2907,7 +2980,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D33" s="42"/>
       <c r="E33" s="43"/>
@@ -2921,12 +2994,13 @@
         <v>0</v>
       </c>
       <c r="J33" s="46"/>
-      <c r="K33" s="96">
+      <c r="K33" s="93"/>
+      <c r="L33" s="93">
         <v>912</v>
       </c>
-      <c r="L33" s="96"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="93"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>29</v>
       </c>
@@ -2934,7 +3008,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D34" s="42"/>
       <c r="E34" s="43"/>
@@ -2948,12 +3022,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="46"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96">
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93">
         <v>7380</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
         <v>29</v>
       </c>
@@ -2961,7 +3036,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D35" s="42"/>
       <c r="E35" s="43"/>
@@ -2975,12 +3050,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="46"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96">
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93">
         <v>7380</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>29</v>
       </c>
@@ -2988,7 +3064,7 @@
         <v>32</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D36" s="42"/>
       <c r="E36" s="43"/>
@@ -3004,12 +3080,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="K36" s="94"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>29</v>
       </c>
@@ -3017,7 +3094,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D37" s="42"/>
       <c r="E37" s="43"/>
@@ -3031,14 +3108,15 @@
         <v>0</v>
       </c>
       <c r="J37" s="46"/>
-      <c r="K37" s="96">
+      <c r="K37" s="93"/>
+      <c r="L37" s="93">
         <v>934</v>
       </c>
-      <c r="L37" s="96">
+      <c r="M37" s="93">
         <v>4032</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
         <v>29</v>
       </c>
@@ -3046,7 +3124,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D38" s="42"/>
       <c r="E38" s="43"/>
@@ -3060,10 +3138,11 @@
         <v>0</v>
       </c>
       <c r="J38" s="46"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="96"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>29</v>
       </c>
@@ -3071,7 +3150,7 @@
         <v>32</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D39" s="42"/>
       <c r="E39" s="43"/>
@@ -3087,8 +3166,9 @@
       <c r="J39" s="48"/>
       <c r="K39" s="48"/>
       <c r="L39" s="48"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="48"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>29</v>
       </c>
@@ -3096,7 +3176,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D40" s="42"/>
       <c r="E40" s="43"/>
@@ -3110,10 +3190,11 @@
         <v>0</v>
       </c>
       <c r="J40" s="49"/>
-      <c r="K40" s="98"/>
-      <c r="L40" s="98"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="95"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>29</v>
       </c>
@@ -3121,7 +3202,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D41" s="42"/>
       <c r="E41" s="43"/>
@@ -3135,14 +3216,15 @@
         <v>0</v>
       </c>
       <c r="J41" s="46"/>
-      <c r="K41" s="96">
+      <c r="K41" s="93"/>
+      <c r="L41" s="93">
         <v>934</v>
       </c>
-      <c r="L41" s="96">
+      <c r="M41" s="93">
         <v>4032</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>29</v>
       </c>
@@ -3150,7 +3232,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D42" s="42"/>
       <c r="E42" s="43"/>
@@ -3168,12 +3250,13 @@
         <v>11</v>
       </c>
       <c r="J42" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="K42" s="97"/>
-      <c r="L42" s="97"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="K42" s="94"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>29</v>
       </c>
@@ -3181,7 +3264,7 @@
         <v>30</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D43" s="42"/>
       <c r="E43" s="43"/>
@@ -3195,10 +3278,11 @@
         <v>0</v>
       </c>
       <c r="J43" s="46"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="93"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
         <v>29</v>
       </c>
@@ -3206,7 +3290,7 @@
         <v>30</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D44" s="42"/>
       <c r="E44" s="43"/>
@@ -3224,12 +3308,13 @@
         <v>12.5</v>
       </c>
       <c r="J44" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="K44" s="94"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="94"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
         <v>29</v>
       </c>
@@ -3237,7 +3322,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D45" s="42"/>
       <c r="E45" s="43"/>
@@ -3255,12 +3340,13 @@
         <v>5.75</v>
       </c>
       <c r="J45" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="K45" s="97"/>
-      <c r="L45" s="97"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="K45" s="94"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="94"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
         <v>29</v>
       </c>
@@ -3268,7 +3354,7 @@
         <v>32</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D46" s="42"/>
       <c r="E46" s="43"/>
@@ -3286,14 +3372,15 @@
         <v>42</v>
       </c>
       <c r="J46" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="K46" s="97"/>
-      <c r="L46" s="96">
+        <v>146</v>
+      </c>
+      <c r="K46" s="94"/>
+      <c r="L46" s="94"/>
+      <c r="M46" s="93">
         <v>7380</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
         <v>29</v>
       </c>
@@ -3301,7 +3388,7 @@
         <v>32</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D47" s="42"/>
       <c r="E47" s="43"/>
@@ -3315,20 +3402,21 @@
         <v>0</v>
       </c>
       <c r="J47" s="46"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96">
+      <c r="K47" s="93"/>
+      <c r="L47" s="93"/>
+      <c r="M47" s="93">
         <v>7380</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D48" s="42"/>
       <c r="E48" s="43"/>
@@ -3342,20 +3430,21 @@
         <v>0</v>
       </c>
       <c r="J48" s="46"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="96">
+      <c r="K48" s="93"/>
+      <c r="L48" s="93"/>
+      <c r="M48" s="93">
         <v>4017</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
         <v>29</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D49" s="42"/>
       <c r="E49" s="43"/>
@@ -3369,10 +3458,11 @@
         <v>0</v>
       </c>
       <c r="J49" s="46"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="96"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K49" s="93"/>
+      <c r="L49" s="93"/>
+      <c r="M49" s="93"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>33</v>
       </c>
@@ -3400,10 +3490,13 @@
       <c r="J50" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K50" s="95"/>
-      <c r="L50" s="95"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K50" s="92" t="s">
+        <v>192</v>
+      </c>
+      <c r="L50" s="92"/>
+      <c r="M50" s="92"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>33</v>
       </c>
@@ -3431,10 +3524,13 @@
       <c r="J51" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="K51" s="95"/>
-      <c r="L51" s="95"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K51" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="L51" s="92"/>
+      <c r="M51" s="92"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>33</v>
       </c>
@@ -3462,10 +3558,11 @@
       <c r="J52" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="K52" s="95"/>
-      <c r="L52" s="95"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K52" s="92"/>
+      <c r="L52" s="92"/>
+      <c r="M52" s="92"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>33</v>
       </c>
@@ -3478,35 +3575,38 @@
       <c r="D53" s="13"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G53" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H53" s="15">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="I53" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="J53" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="K53" s="95"/>
-      <c r="L53" s="95"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K53" s="92"/>
+      <c r="L53" s="92"/>
+      <c r="M53" s="92"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="D54" s="13">
+        <v>310</v>
+      </c>
       <c r="E54" s="14"/>
       <c r="F54" s="14">
         <v>1</v>
@@ -3515,31 +3615,30 @@
         <v>1</v>
       </c>
       <c r="H54" s="15">
-        <v>7.5</v>
+        <v>23.5</v>
       </c>
       <c r="I54" s="16">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>23.5</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="K54" s="95"/>
-      <c r="L54" s="95"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="K54" s="92"/>
+      <c r="L54" s="92"/>
+      <c r="M54" s="92"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="13">
-        <v>310</v>
-      </c>
+      <c r="D55" s="13"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14">
         <v>1</v>
@@ -3548,27 +3647,28 @@
         <v>1</v>
       </c>
       <c r="H55" s="15">
-        <v>23.5</v>
+        <v>5.5</v>
       </c>
       <c r="I55" s="16">
         <f t="shared" si="1"/>
-        <v>23.5</v>
+        <v>5.5</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="K55" s="95"/>
-      <c r="L55" s="95"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="K55" s="92"/>
+      <c r="L55" s="92"/>
+      <c r="M55" s="92"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="14"/>
@@ -3579,27 +3679,28 @@
         <v>1</v>
       </c>
       <c r="H56" s="15">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="I56" s="16">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="K56" s="95"/>
-      <c r="L56" s="95"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="K56" s="92"/>
+      <c r="L56" s="92"/>
+      <c r="M56" s="92"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="14"/>
@@ -3610,27 +3711,28 @@
         <v>1</v>
       </c>
       <c r="H57" s="15">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="I57" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="K57" s="95"/>
-      <c r="L57" s="95"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K57" s="92"/>
+      <c r="L57" s="92"/>
+      <c r="M57" s="92"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="14"/>
@@ -3638,30 +3740,31 @@
         <v>1</v>
       </c>
       <c r="G58" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="15">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="I58" s="16">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="K58" s="95"/>
-      <c r="L58" s="95"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="K58" s="92"/>
+      <c r="L58" s="92"/>
+      <c r="M58" s="92"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="14"/>
@@ -3669,187 +3772,207 @@
         <v>1</v>
       </c>
       <c r="G59" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="15">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I59" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="K59" s="95"/>
-      <c r="L59" s="95"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="K59" s="92" t="s">
+        <v>193</v>
+      </c>
+      <c r="L59" s="92"/>
+      <c r="M59" s="92"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="13">
+        <v>100</v>
+      </c>
+      <c r="E60" s="14">
+        <v>8000</v>
+      </c>
+      <c r="F60" s="14"/>
       <c r="G60" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="15">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="I60" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="K60" s="95"/>
-      <c r="L60" s="95"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="K60" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="L60" s="92"/>
+      <c r="M60" s="92"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>114</v>
+        <v>37</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G61" s="14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H61" s="15">
-        <v>70</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I61" s="16">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="J61" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="K61" s="95"/>
-      <c r="L61" s="95"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="K61" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="L61" s="92"/>
+      <c r="M61" s="92"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D62" s="13">
-        <v>100</v>
-      </c>
-      <c r="E62" s="14">
-        <v>8000</v>
-      </c>
-      <c r="F62" s="14"/>
+        <v>50</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14">
+        <v>5</v>
+      </c>
       <c r="G62" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H62" s="15">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="I62" s="16">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K62" s="95"/>
-      <c r="L62" s="95"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="K62" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="L62" s="92"/>
+      <c r="M62" s="92"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G63" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H63" s="15">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="I63" s="16">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J63" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="K63" s="95"/>
-      <c r="L63" s="95"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="K63" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="L63" s="92"/>
+      <c r="M63" s="92"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D64" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="D64" s="13">
+        <v>200</v>
+      </c>
       <c r="E64" s="14"/>
       <c r="F64" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G64" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H64" s="15">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I64" s="16">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J64" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K64" s="95"/>
-      <c r="L64" s="95"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="K64" s="92" t="s">
+        <v>197</v>
+      </c>
+      <c r="L64" s="92"/>
+      <c r="M64" s="92"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="14"/>
@@ -3860,34 +3983,33 @@
         <v>5</v>
       </c>
       <c r="H65" s="15">
-        <v>4</v>
+        <v>14.5</v>
       </c>
       <c r="I65" s="16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>72.5</v>
       </c>
       <c r="J65" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K65" s="95"/>
-      <c r="L65" s="95"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="K65" s="92"/>
+      <c r="L65" s="92"/>
+      <c r="M65" s="92"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>41</v>
+      <c r="B66" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="D66" s="13">
-        <v>200</v>
-      </c>
-      <c r="E66" s="14">
-        <v>600</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="E66" s="14"/>
       <c r="F66" s="14">
         <v>3</v>
       </c>
@@ -3895,217 +4017,178 @@
         <v>3</v>
       </c>
       <c r="H66" s="15">
-        <v>15</v>
+        <v>15.6</v>
       </c>
       <c r="I66" s="16">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>46.8</v>
       </c>
       <c r="J66" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="K66" s="95"/>
-      <c r="L66" s="95"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="K66" s="92"/>
+      <c r="L66" s="92"/>
+      <c r="M66" s="92"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B67" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D67" s="13"/>
+      <c r="B67" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" s="13">
+        <v>400</v>
+      </c>
       <c r="E67" s="14"/>
       <c r="F67" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G67" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H67" s="15">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="I67" s="16">
         <f t="shared" si="1"/>
-        <v>72.5</v>
+        <v>35</v>
       </c>
       <c r="J67" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="K67" s="95"/>
-      <c r="L67" s="95"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="K67" s="92"/>
+      <c r="L67" s="92"/>
+      <c r="M67" s="92"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>125</v>
       </c>
       <c r="D68" s="13">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G68" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68" s="15">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="I68" s="16">
         <f t="shared" si="1"/>
-        <v>46.8</v>
+        <v>16</v>
       </c>
       <c r="J68" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="K68" s="95"/>
-      <c r="L68" s="95"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="K68" s="92"/>
+      <c r="L68" s="92"/>
+      <c r="M68" s="92"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D69" s="13">
-        <v>400</v>
+        <v>190</v>
+      </c>
+      <c r="D69" s="18">
+        <v>310</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="15">
-        <v>17.5</v>
+        <v>3</v>
       </c>
       <c r="I69" s="16">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="J69" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="K69" s="95"/>
-      <c r="L69" s="95"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D70" s="13">
-        <v>400</v>
-      </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14">
-        <v>1</v>
-      </c>
-      <c r="G70" s="14">
-        <v>1</v>
-      </c>
-      <c r="H70" s="15">
-        <v>16</v>
-      </c>
-      <c r="I70" s="16">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="J70" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="K70" s="95"/>
-      <c r="L70" s="95"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="B71" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="D71" s="30"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="99"/>
-      <c r="L71" s="99"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="99"/>
-      <c r="L72" s="99"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="K69" s="92"/>
+      <c r="L69" s="92"/>
+      <c r="M69" s="92"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" s="30"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="96"/>
+      <c r="L70" s="96"/>
+      <c r="M70" s="96"/>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C71" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="24">
-        <f>SUM(I18:I70)</f>
-        <v>1183.3499999999999</v>
-      </c>
-      <c r="J73" s="21"/>
-      <c r="K73" s="91"/>
-      <c r="L73" s="91"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="24">
+        <f>SUM(I18:I68)</f>
+        <v>1173.3499999999999</v>
+      </c>
+      <c r="J71" s="21"/>
+      <c r="K71" s="88"/>
+      <c r="L71" s="88"/>
+      <c r="M71" s="88"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:L73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A10:M71" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J62" r:id="rId1" xr:uid="{470D3E09-926A-4D3A-91B4-7461D04E5E84}"/>
-    <hyperlink ref="J63" r:id="rId2" display="Link" xr:uid="{B771396D-3B6B-401B-ABD0-DFDF847060BB}"/>
-    <hyperlink ref="J64" r:id="rId3" display="Link" xr:uid="{DD381683-11FD-47B6-8058-4EE70A74554F}"/>
-    <hyperlink ref="J65" r:id="rId4" display="Link" xr:uid="{E6D2A651-3F01-4AA6-90CF-1EC3F678EBDF}"/>
-    <hyperlink ref="J66" r:id="rId5" display="Link" xr:uid="{02713422-DB48-4995-A75F-C89976BBE2C4}"/>
+    <hyperlink ref="J60" r:id="rId1" xr:uid="{470D3E09-926A-4D3A-91B4-7461D04E5E84}"/>
+    <hyperlink ref="J61" r:id="rId2" display="Link" xr:uid="{B771396D-3B6B-401B-ABD0-DFDF847060BB}"/>
+    <hyperlink ref="J62" r:id="rId3" display="Link" xr:uid="{DD381683-11FD-47B6-8058-4EE70A74554F}"/>
+    <hyperlink ref="J63" r:id="rId4" display="Link" xr:uid="{E6D2A651-3F01-4AA6-90CF-1EC3F678EBDF}"/>
+    <hyperlink ref="J64" r:id="rId5" display="Link" xr:uid="{02713422-DB48-4995-A75F-C89976BBE2C4}"/>
     <hyperlink ref="J21" r:id="rId6" display="Link" xr:uid="{E52A9101-03CE-464C-9192-E712868CA218}"/>
     <hyperlink ref="J26" r:id="rId7" display="2x Length: 45mm 4PC" xr:uid="{80D1EF4D-4E35-4EBD-899E-F6925D418FD4}"/>
     <hyperlink ref="J50" r:id="rId8" xr:uid="{16817930-1BAB-405D-9B12-971AF725B14C}"/>
@@ -4113,43 +4196,51 @@
     <hyperlink ref="J22" r:id="rId10" xr:uid="{FF8EAEE5-AC4E-4085-A4A5-8F5EBAC86F43}"/>
     <hyperlink ref="J52" r:id="rId11" xr:uid="{B0A52E4D-453D-4811-AA6F-5EF9EF90E301}"/>
     <hyperlink ref="J51" r:id="rId12" display="FYSETC Big Dipper" xr:uid="{E25FE31D-BA25-4D4B-AFED-C91A71DFB8FC}"/>
-    <hyperlink ref="J53" r:id="rId13" display="6pcs Optical Endstop" xr:uid="{D2913CD1-DF78-4DA1-A825-9904F5AFED85}"/>
-    <hyperlink ref="J54" r:id="rId14" xr:uid="{1D19593D-6511-4042-8FE8-C2BC9ADC5007}"/>
-    <hyperlink ref="J25" r:id="rId15" xr:uid="{366E038A-982E-41CA-B160-DA64B8173005}"/>
-    <hyperlink ref="J28" r:id="rId16" xr:uid="{666D9CA7-33A6-4006-9F73-C192110684CD}"/>
-    <hyperlink ref="J58" r:id="rId17" xr:uid="{10E4F4C3-9E91-4703-A3A0-9B953429E7AA}"/>
-    <hyperlink ref="J59" r:id="rId18" xr:uid="{0D57D4F4-5A25-4EA6-A348-6ED0CF6B732A}"/>
-    <hyperlink ref="J60" r:id="rId19" xr:uid="{912B955C-3B27-4761-8540-DCCCB1938CD2}"/>
-    <hyperlink ref="J55" r:id="rId20" xr:uid="{AA51340B-B28E-4C60-B93A-7589AA69D2CC}"/>
-    <hyperlink ref="J23" r:id="rId21" xr:uid="{37AD1F2B-6784-4396-935D-00D574B194A1}"/>
-    <hyperlink ref="J68" r:id="rId22" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{36604E34-3767-47E8-9D68-3224FA47BAD7}"/>
-    <hyperlink ref="J70" r:id="rId23" display="Color: MGN9 H" xr:uid="{A7F96524-FB6C-46B0-9073-280672E46815}"/>
-    <hyperlink ref="J61" r:id="rId24" xr:uid="{9E060D84-2888-4E7A-9240-D0D50BB44C8B}"/>
-    <hyperlink ref="J69" r:id="rId25" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{8E7CE0E4-7C6B-4B1C-8596-20FB16FA9B52}"/>
-    <hyperlink ref="J57" r:id="rId26" xr:uid="{5814533E-0B18-40C7-BBD9-16B69B7A6DEE}"/>
-    <hyperlink ref="J56" r:id="rId27" xr:uid="{48FC6FE4-5066-49DB-A409-7F1FBE2EF7B8}"/>
-    <hyperlink ref="J15" r:id="rId28" xr:uid="{3AEC6389-3C1E-4010-BF1F-FC26344ADB18}"/>
-    <hyperlink ref="J14" r:id="rId29" display="Color: 750 mm" xr:uid="{DC134816-48B7-4D08-A1F3-EE499D174B84}"/>
-    <hyperlink ref="J13" r:id="rId30" display="Color: 750 mm" xr:uid="{A3EA9FE7-DF1E-489F-9C20-2C8B4A8F3998}"/>
-    <hyperlink ref="J12" r:id="rId31" display="Color: 250 mm" xr:uid="{AF637EA7-8653-4B62-9E18-2D36C247C3A6}"/>
-    <hyperlink ref="J11" r:id="rId32" display="Color: 250 mm" xr:uid="{8E88954A-9B9C-4CFB-9628-6B07CF99FA58}"/>
-    <hyperlink ref="J19" r:id="rId33" xr:uid="{32AB889D-9001-42C3-BE94-03EA862B7BE0}"/>
-    <hyperlink ref="J18" r:id="rId34" display="Color: 5pcs 2028" xr:uid="{0AF8C64A-7681-4C12-9F81-9C412B90CBD8}"/>
-    <hyperlink ref="J67" r:id="rId35" xr:uid="{AC843B0A-CBC9-4966-B47F-EF4149117169}"/>
-    <hyperlink ref="J20" r:id="rId36" display="WIP" xr:uid="{62D7CE1A-7D31-434D-B8C5-08BB38D408F9}"/>
-    <hyperlink ref="J36" r:id="rId37" xr:uid="{E5B6A8C9-52B9-40BE-B248-BD034E05F801}"/>
-    <hyperlink ref="J46" r:id="rId38" xr:uid="{93693BCF-0239-4D66-94F6-D56F29E9F804}"/>
-    <hyperlink ref="J42" r:id="rId39" display="M5 Hammer Nut" xr:uid="{1BDF168B-F4AF-4241-B89F-DFA08A717758}"/>
-    <hyperlink ref="J44" r:id="rId40" display="Size: M5" xr:uid="{7CFDA64F-0B09-4C6E-8064-AAF73E7FE260}"/>
-    <hyperlink ref="J24" r:id="rId41" xr:uid="{64ACA354-4D0B-4C7F-86F1-5A445372A527}"/>
-    <hyperlink ref="J29" r:id="rId42" xr:uid="{BBBC293A-3FF7-4CD3-B3A0-84C0BCE6478B}"/>
-    <hyperlink ref="J32" r:id="rId43" display="10pcs M5 - Length: 10mm" xr:uid="{479C3A14-2A60-4B4C-AFA1-9F3C9B7F34DF}"/>
-    <hyperlink ref="J45" r:id="rId44" xr:uid="{0CE567BB-48D3-4AF8-9541-745A79F33B9B}"/>
+    <hyperlink ref="J53" r:id="rId13" xr:uid="{1D19593D-6511-4042-8FE8-C2BC9ADC5007}"/>
+    <hyperlink ref="J25" r:id="rId14" xr:uid="{366E038A-982E-41CA-B160-DA64B8173005}"/>
+    <hyperlink ref="J28" r:id="rId15" xr:uid="{666D9CA7-33A6-4006-9F73-C192110684CD}"/>
+    <hyperlink ref="J57" r:id="rId16" xr:uid="{10E4F4C3-9E91-4703-A3A0-9B953429E7AA}"/>
+    <hyperlink ref="J58" r:id="rId17" xr:uid="{0D57D4F4-5A25-4EA6-A348-6ED0CF6B732A}"/>
+    <hyperlink ref="J54" r:id="rId18" xr:uid="{AA51340B-B28E-4C60-B93A-7589AA69D2CC}"/>
+    <hyperlink ref="J23" r:id="rId19" xr:uid="{37AD1F2B-6784-4396-935D-00D574B194A1}"/>
+    <hyperlink ref="J66" r:id="rId20" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{36604E34-3767-47E8-9D68-3224FA47BAD7}"/>
+    <hyperlink ref="J68" r:id="rId21" display="Color: MGN9 H" xr:uid="{A7F96524-FB6C-46B0-9073-280672E46815}"/>
+    <hyperlink ref="J59" r:id="rId22" xr:uid="{9E060D84-2888-4E7A-9240-D0D50BB44C8B}"/>
+    <hyperlink ref="J67" r:id="rId23" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{8E7CE0E4-7C6B-4B1C-8596-20FB16FA9B52}"/>
+    <hyperlink ref="J56" r:id="rId24" xr:uid="{5814533E-0B18-40C7-BBD9-16B69B7A6DEE}"/>
+    <hyperlink ref="J55" r:id="rId25" xr:uid="{48FC6FE4-5066-49DB-A409-7F1FBE2EF7B8}"/>
+    <hyperlink ref="J15" r:id="rId26" xr:uid="{3AEC6389-3C1E-4010-BF1F-FC26344ADB18}"/>
+    <hyperlink ref="J14" r:id="rId27" display="Color: 750 mm" xr:uid="{DC134816-48B7-4D08-A1F3-EE499D174B84}"/>
+    <hyperlink ref="J13" r:id="rId28" display="Color: 750 mm" xr:uid="{A3EA9FE7-DF1E-489F-9C20-2C8B4A8F3998}"/>
+    <hyperlink ref="J12" r:id="rId29" display="Color: 250 mm" xr:uid="{AF637EA7-8653-4B62-9E18-2D36C247C3A6}"/>
+    <hyperlink ref="J11" r:id="rId30" display="Color: 250 mm" xr:uid="{8E88954A-9B9C-4CFB-9628-6B07CF99FA58}"/>
+    <hyperlink ref="J19" r:id="rId31" xr:uid="{32AB889D-9001-42C3-BE94-03EA862B7BE0}"/>
+    <hyperlink ref="J18" r:id="rId32" display="Color: 5pcs 2028" xr:uid="{0AF8C64A-7681-4C12-9F81-9C412B90CBD8}"/>
+    <hyperlink ref="J65" r:id="rId33" xr:uid="{AC843B0A-CBC9-4966-B47F-EF4149117169}"/>
+    <hyperlink ref="J20" r:id="rId34" display="WIP" xr:uid="{62D7CE1A-7D31-434D-B8C5-08BB38D408F9}"/>
+    <hyperlink ref="J36" r:id="rId35" xr:uid="{E5B6A8C9-52B9-40BE-B248-BD034E05F801}"/>
+    <hyperlink ref="J46" r:id="rId36" xr:uid="{93693BCF-0239-4D66-94F6-D56F29E9F804}"/>
+    <hyperlink ref="J42" r:id="rId37" display="M5 Hammer Nut" xr:uid="{1BDF168B-F4AF-4241-B89F-DFA08A717758}"/>
+    <hyperlink ref="J44" r:id="rId38" display="Size: M5" xr:uid="{7CFDA64F-0B09-4C6E-8064-AAF73E7FE260}"/>
+    <hyperlink ref="J24" r:id="rId39" xr:uid="{64ACA354-4D0B-4C7F-86F1-5A445372A527}"/>
+    <hyperlink ref="J29" r:id="rId40" xr:uid="{BBBC293A-3FF7-4CD3-B3A0-84C0BCE6478B}"/>
+    <hyperlink ref="J32" r:id="rId41" display="10pcs M5 - Length: 10mm" xr:uid="{479C3A14-2A60-4B4C-AFA1-9F3C9B7F34DF}"/>
+    <hyperlink ref="J45" r:id="rId42" xr:uid="{0CE567BB-48D3-4AF8-9541-745A79F33B9B}"/>
+    <hyperlink ref="J69" r:id="rId43" xr:uid="{F89DAE39-4B86-4CDF-B174-616DE0EE045D}"/>
+    <hyperlink ref="K23" r:id="rId44" xr:uid="{D1608DD5-C6BB-48B0-8639-31EFB23BFDC9}"/>
+    <hyperlink ref="K50" r:id="rId45" display="BigTreeTech" xr:uid="{035A7232-AFAC-442C-A85C-851A5D62F519}"/>
+    <hyperlink ref="K51" r:id="rId46" xr:uid="{EF061D10-D2B8-4620-909B-80E3C50A6DA1}"/>
+    <hyperlink ref="K59" r:id="rId47" xr:uid="{463C2A33-E1D7-4910-B25D-8ED93F427EA3}"/>
+    <hyperlink ref="K60" r:id="rId48" xr:uid="{5E21A3FA-042B-4B34-81D4-FC2E69484113}"/>
+    <hyperlink ref="K61" r:id="rId49" xr:uid="{99527ED5-0ACD-486E-9FD9-866A4C10726E}"/>
+    <hyperlink ref="K62" r:id="rId50" xr:uid="{6913C515-CFA0-4829-8480-D9EC0D00FDB0}"/>
+    <hyperlink ref="K63" r:id="rId51" xr:uid="{10244B8C-B1C7-46D6-994F-8D69725C547E}"/>
+    <hyperlink ref="K64" r:id="rId52" xr:uid="{249E5E80-89A5-4EFA-A4D0-6F34D4D6F628}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId45"/>
-  <drawing r:id="rId46"/>
-  <legacyDrawing r:id="rId47"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId53"/>
+  <drawing r:id="rId54"/>
+  <legacyDrawing r:id="rId55"/>
 </worksheet>
 </file>
 
@@ -4158,11 +4249,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I80" sqref="I80"/>
+      <pane ySplit="10" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4184,44 +4275,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -4246,7 +4337,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>43</v>
@@ -4260,8 +4351,8 @@
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="24">
-        <f>SUM(I20:I79)</f>
-        <v>1479</v>
+        <f>SUM(I20:I78)</f>
+        <v>1469</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="17"/>
@@ -4325,7 +4416,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D11" s="51">
         <v>339</v>
@@ -4347,7 +4438,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="56" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -4363,7 +4454,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D12" s="58">
         <f>D13</f>
@@ -4387,7 +4478,7 @@
         <v>9.5</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
@@ -4403,7 +4494,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D13" s="58">
         <v>420</v>
@@ -4426,7 +4517,7 @@
         <v>42.16</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
@@ -4442,7 +4533,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D14" s="58">
         <v>480</v>
@@ -4465,7 +4556,7 @@
         <v>44.484000000000002</v>
       </c>
       <c r="J14" s="63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
@@ -4481,7 +4572,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D15" s="58">
         <v>750</v>
@@ -4504,7 +4595,7 @@
         <v>58.8</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -4596,7 +4687,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="J18" s="63" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="16">
@@ -4615,7 +4706,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D19" s="58"/>
       <c r="E19" s="60"/>
@@ -4633,7 +4724,7 @@
         <v>51.2</v>
       </c>
       <c r="J19" s="63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
@@ -4646,10 +4737,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D20" s="58"/>
       <c r="E20" s="58"/>
@@ -4667,7 +4758,7 @@
         <v>210</v>
       </c>
       <c r="J20" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
@@ -4709,7 +4800,7 @@
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="16">
-        <f t="shared" ref="L21:L65" si="3">K21*G21</f>
+        <f t="shared" ref="L21:L64" si="3">K21*G21</f>
         <v>0</v>
       </c>
       <c r="M21" s="16"/>
@@ -4724,7 +4815,7 @@
         <v>68</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D22" s="58">
         <v>350</v>
@@ -4764,10 +4855,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D23" s="18">
         <v>310</v>
@@ -4787,7 +4878,7 @@
         <v>40</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="16">
@@ -4806,7 +4897,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D24" s="18">
         <v>30</v>
@@ -4826,7 +4917,7 @@
         <v>1.2</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
@@ -4842,7 +4933,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D25" s="13">
         <v>40</v>
@@ -4862,7 +4953,7 @@
         <v>9</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K25" s="16"/>
       <c r="L25" s="16">
@@ -4881,7 +4972,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D26" s="13">
         <v>50</v>
@@ -4901,7 +4992,7 @@
         <v>6</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="16">
@@ -4917,7 +5008,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>44</v>
@@ -4954,10 +5045,10 @@
         <v>17</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28" s="18">
         <v>30</v>
@@ -4977,7 +5068,7 @@
         <v>5</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="16">
@@ -4993,10 +5084,10 @@
         <v>17</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="28"/>
@@ -5014,7 +5105,7 @@
         <v>7.5</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K29" s="16"/>
       <c r="L29" s="16">
@@ -5033,7 +5124,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D30" s="42"/>
       <c r="E30" s="43"/>
@@ -5043,7 +5134,7 @@
       <c r="G30" s="43"/>
       <c r="H30" s="44"/>
       <c r="I30" s="45">
-        <f t="shared" ref="I30:I57" si="4">G30*H30</f>
+        <f t="shared" ref="I30:I56" si="4">G30*H30</f>
         <v>0</v>
       </c>
       <c r="J30" s="46"/>
@@ -5061,7 +5152,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D31" s="42"/>
       <c r="E31" s="43"/>
@@ -5089,7 +5180,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D32" s="42"/>
       <c r="E32" s="43"/>
@@ -5117,7 +5208,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D33" s="42"/>
       <c r="E33" s="43"/>
@@ -5145,7 +5236,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D34" s="42"/>
       <c r="E34" s="43"/>
@@ -5173,7 +5264,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D35" s="42"/>
       <c r="E35" s="43"/>
@@ -5201,7 +5292,7 @@
         <v>32</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D36" s="42"/>
       <c r="E36" s="43"/>
@@ -5217,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
@@ -5233,7 +5324,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D37" s="42"/>
       <c r="E37" s="43"/>
@@ -5261,7 +5352,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D38" s="42"/>
       <c r="E38" s="43"/>
@@ -5289,7 +5380,7 @@
         <v>32</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D39" s="42"/>
       <c r="E39" s="43"/>
@@ -5317,7 +5408,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D40" s="42"/>
       <c r="E40" s="43"/>
@@ -5345,7 +5436,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D41" s="42"/>
       <c r="E41" s="43"/>
@@ -5373,7 +5464,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D42" s="42"/>
       <c r="E42" s="43"/>
@@ -5391,7 +5482,7 @@
         <v>11</v>
       </c>
       <c r="J42" s="47" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
@@ -5407,7 +5498,7 @@
         <v>30</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D43" s="42"/>
       <c r="E43" s="43"/>
@@ -5435,7 +5526,7 @@
         <v>30</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D44" s="42"/>
       <c r="E44" s="43"/>
@@ -5453,7 +5544,7 @@
         <v>12.5</v>
       </c>
       <c r="J44" s="47" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
@@ -5469,7 +5560,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D45" s="42"/>
       <c r="E45" s="43"/>
@@ -5499,7 +5590,7 @@
         <v>32</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D46" s="42"/>
       <c r="E46" s="43"/>
@@ -5517,7 +5608,7 @@
         <v>42</v>
       </c>
       <c r="J46" s="47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K46" s="16"/>
       <c r="L46" s="16"/>
@@ -5533,7 +5624,7 @@
         <v>32</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D47" s="42"/>
       <c r="E47" s="43"/>
@@ -5558,10 +5649,10 @@
         <v>29</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D48" s="42"/>
       <c r="E48" s="43"/>
@@ -5586,10 +5677,10 @@
         <v>29</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D49" s="42"/>
       <c r="E49" s="43"/>
@@ -5733,17 +5824,17 @@
       <c r="D53" s="13"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G53" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H53" s="15">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="I53" s="16">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="J53" s="20" t="s">
         <v>79</v>
@@ -5762,12 +5853,14 @@
         <v>33</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="D54" s="13">
+        <v>310</v>
+      </c>
       <c r="E54" s="14"/>
       <c r="F54" s="14">
         <v>1</v>
@@ -5776,21 +5869,25 @@
         <v>1</v>
       </c>
       <c r="H54" s="15">
-        <v>7.5</v>
+        <v>23.5</v>
       </c>
       <c r="I54" s="16">
         <f t="shared" si="4"/>
-        <v>7.5</v>
+        <v>23.5</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="K54" s="16"/>
+        <v>95</v>
+      </c>
+      <c r="K54" s="16">
+        <v>75</v>
+      </c>
       <c r="L54" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="16"/>
+        <v>75</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="N54" s="13"/>
       <c r="O54" s="3"/>
     </row>
@@ -5799,14 +5896,12 @@
         <v>33</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="13">
-        <v>310</v>
-      </c>
+      <c r="D55" s="13"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14">
         <v>1</v>
@@ -5815,25 +5910,21 @@
         <v>1</v>
       </c>
       <c r="H55" s="15">
-        <v>23.5</v>
+        <v>5.5</v>
       </c>
       <c r="I55" s="16">
         <f t="shared" si="4"/>
-        <v>23.5</v>
+        <v>5.5</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="K55" s="16">
-        <v>75</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="K55" s="16"/>
       <c r="L55" s="16">
         <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="M55" s="9" t="s">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M55" s="16"/>
       <c r="N55" s="13"/>
       <c r="O55" s="3"/>
     </row>
@@ -5842,10 +5933,10 @@
         <v>33</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="14"/>
@@ -5856,14 +5947,14 @@
         <v>1</v>
       </c>
       <c r="H56" s="15">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="I56" s="16">
         <f t="shared" si="4"/>
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K56" s="16"/>
       <c r="L56" s="16">
@@ -5876,13 +5967,13 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="14"/>
@@ -5893,14 +5984,14 @@
         <v>1</v>
       </c>
       <c r="H57" s="15">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="I57" s="16">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" ref="I57:I79" si="5">G57*H57</f>
+        <v>85</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="K57" s="16"/>
       <c r="L57" s="16">
@@ -5913,13 +6004,13 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="14"/>
@@ -5927,17 +6018,17 @@
         <v>1</v>
       </c>
       <c r="G58" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="15">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="I58" s="16">
-        <f t="shared" ref="I58:I79" si="5">G58*H58</f>
-        <v>85</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K58" s="16"/>
       <c r="L58" s="16">
@@ -5950,13 +6041,13 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="14"/>
@@ -5967,14 +6058,14 @@
         <v>0</v>
       </c>
       <c r="H59" s="15">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="I59" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K59" s="16"/>
       <c r="L59" s="16">
@@ -5987,13 +6078,13 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="14"/>
@@ -6001,17 +6092,17 @@
         <v>1</v>
       </c>
       <c r="G60" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="15">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I60" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K60" s="16"/>
       <c r="L60" s="16">
@@ -6024,31 +6115,33 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="13">
+        <v>100</v>
+      </c>
+      <c r="E61" s="14">
+        <v>8000</v>
+      </c>
+      <c r="F61" s="14"/>
       <c r="G61" s="14">
         <v>1</v>
       </c>
       <c r="H61" s="15">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="I61" s="16">
         <f t="shared" si="5"/>
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="J61" s="20" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="K61" s="16"/>
       <c r="L61" s="16">
@@ -6064,37 +6157,39 @@
         <v>37</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D62" s="13">
-        <v>100</v>
-      </c>
-      <c r="E62" s="14">
-        <v>8000</v>
-      </c>
-      <c r="F62" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14">
+        <v>10</v>
+      </c>
       <c r="G62" s="14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H62" s="15">
-        <v>39</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I62" s="16">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K62" s="16"/>
+        <v>47</v>
+      </c>
+      <c r="K62" s="16">
+        <v>5.5</v>
+      </c>
       <c r="L62" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="N62" s="13"/>
       <c r="O62" s="3"/>
     </row>
@@ -6106,35 +6201,35 @@
         <v>39</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G63" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H63" s="15">
-        <v>4.0999999999999996</v>
+        <v>6</v>
       </c>
       <c r="I63" s="16">
         <f t="shared" si="5"/>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J63" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K63" s="16">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="L63" s="16">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N63" s="13"/>
       <c r="O63" s="3"/>
@@ -6144,10 +6239,10 @@
         <v>37</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="14"/>
@@ -6158,24 +6253,24 @@
         <v>5</v>
       </c>
       <c r="H64" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I64" s="16">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J64" s="20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K64" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L64" s="16">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N64" s="13"/>
       <c r="O64" s="3"/>
@@ -6185,39 +6280,36 @@
         <v>37</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="D65" s="13">
+        <v>200</v>
+      </c>
+      <c r="E65" s="14">
+        <v>600</v>
+      </c>
       <c r="F65" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G65" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H65" s="15">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I65" s="16">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J65" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K65" s="16">
-        <v>6</v>
-      </c>
-      <c r="L65" s="16">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>58</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
       <c r="N65" s="13"/>
       <c r="O65" s="3"/>
     </row>
@@ -6226,36 +6318,39 @@
         <v>37</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D66" s="13">
-        <v>200</v>
-      </c>
-      <c r="E66" s="14">
-        <v>600</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="14"/>
       <c r="F66" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G66" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H66" s="15">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I66" s="16">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>72.5</v>
       </c>
       <c r="J66" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
+        <v>135</v>
+      </c>
+      <c r="K66" s="15">
+        <v>11</v>
+      </c>
+      <c r="L66" s="16">
+        <f>K66*G66</f>
+        <v>55</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="N66" s="13"/>
       <c r="O66" s="3"/>
     </row>
@@ -6263,40 +6358,35 @@
       <c r="A67" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B67" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D67" s="13"/>
+      <c r="B67" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" s="13">
+        <v>350</v>
+      </c>
       <c r="E67" s="14"/>
       <c r="F67" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G67" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H67" s="15">
-        <v>14.5</v>
+        <v>15.6</v>
       </c>
       <c r="I67" s="16">
         <f t="shared" si="5"/>
-        <v>72.5</v>
+        <v>46.8</v>
       </c>
       <c r="J67" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="K67" s="15">
-        <v>11</v>
-      </c>
-      <c r="L67" s="16">
-        <f>K67*G67</f>
-        <v>55</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>60</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="K67" s="15"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="9"/>
       <c r="N67" s="13"/>
       <c r="O67" s="3"/>
     </row>
@@ -6305,30 +6395,30 @@
         <v>37</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D68" s="13">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68" s="15">
-        <v>15.6</v>
+        <v>17.5</v>
       </c>
       <c r="I68" s="16">
         <f t="shared" si="5"/>
-        <v>46.8</v>
+        <v>35</v>
       </c>
       <c r="J68" s="20" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K68" s="15"/>
       <c r="L68" s="16"/>
@@ -6341,30 +6431,30 @@
         <v>37</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D69" s="13">
         <v>400</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="15">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="I69" s="16">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="J69" s="20" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="K69" s="15"/>
       <c r="L69" s="16"/>
@@ -6373,35 +6463,16 @@
       <c r="O69" s="3"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D70" s="13">
-        <v>400</v>
-      </c>
+      <c r="A70" s="2"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="13"/>
       <c r="E70" s="14"/>
-      <c r="F70" s="14">
-        <v>1</v>
-      </c>
-      <c r="G70" s="14">
-        <v>1</v>
-      </c>
-      <c r="H70" s="15">
-        <v>16</v>
-      </c>
-      <c r="I70" s="16">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="J70" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="20"/>
       <c r="K70" s="15"/>
       <c r="L70" s="16"/>
       <c r="M70" s="9"/>
@@ -6409,16 +6480,33 @@
       <c r="O70" s="3"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="20"/>
+      <c r="A71" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" s="36"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37">
+        <v>1</v>
+      </c>
+      <c r="G71" s="37">
+        <v>1</v>
+      </c>
+      <c r="H71" s="38">
+        <v>50</v>
+      </c>
+      <c r="I71" s="39">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="J71" s="40" t="s">
+        <v>115</v>
+      </c>
       <c r="K71" s="15"/>
       <c r="L71" s="16"/>
       <c r="M71" s="9"/>
@@ -6430,25 +6518,25 @@
         <v>63</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D72" s="36"/>
       <c r="E72" s="37"/>
       <c r="F72" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" s="38">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I72" s="39">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J72" s="40" t="s">
         <v>117</v>
@@ -6464,28 +6552,28 @@
         <v>63</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C73" s="36" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="D73" s="36"/>
       <c r="E73" s="37"/>
       <c r="F73" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="38">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I73" s="39">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="J73" s="40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K73" s="15"/>
       <c r="L73" s="16"/>
@@ -6498,11 +6586,9 @@
         <v>63</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C74" s="36" t="s">
-        <v>128</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C74" s="36"/>
       <c r="D74" s="36"/>
       <c r="E74" s="37"/>
       <c r="F74" s="37">
@@ -6512,15 +6598,13 @@
         <v>1</v>
       </c>
       <c r="H74" s="38">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I74" s="39">
         <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="J74" s="40" t="s">
-        <v>118</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J74" s="40"/>
       <c r="K74" s="15"/>
       <c r="L74" s="16"/>
       <c r="M74" s="9"/>
@@ -6532,7 +6616,7 @@
         <v>63</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="36"/>
       <c r="D75" s="36"/>
@@ -6559,10 +6643,10 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C76" s="36"/>
       <c r="D76" s="36"/>
@@ -6574,13 +6658,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="38">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I76" s="39">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="J76" s="40"/>
+        <v>50</v>
+      </c>
+      <c r="J76" s="40" t="s">
+        <v>148</v>
+      </c>
       <c r="K76" s="15"/>
       <c r="L76" s="16"/>
       <c r="M76" s="9"/>
@@ -6589,30 +6675,28 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" s="36" t="s">
         <v>120</v>
-      </c>
-      <c r="B77" s="36" t="s">
-        <v>121</v>
       </c>
       <c r="C77" s="36"/>
       <c r="D77" s="36"/>
       <c r="E77" s="37"/>
       <c r="F77" s="37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G77" s="37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H77" s="38">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I77" s="39">
         <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="J77" s="40" t="s">
-        <v>150</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="J77" s="40"/>
       <c r="K77" s="15"/>
       <c r="L77" s="16"/>
       <c r="M77" s="9"/>
@@ -6621,26 +6705,26 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C78" s="36"/>
       <c r="D78" s="36"/>
       <c r="E78" s="37"/>
       <c r="F78" s="37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G78" s="37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H78" s="38">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I78" s="39">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J78" s="40"/>
       <c r="K78" s="15"/>
@@ -6650,46 +6734,55 @@
       <c r="O78" s="3"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B79" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37">
-        <v>1</v>
-      </c>
-      <c r="G79" s="37">
-        <v>1</v>
-      </c>
-      <c r="H79" s="38">
-        <v>20</v>
-      </c>
-      <c r="I79" s="39">
+      <c r="A79" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D79" s="18">
+        <v>310</v>
+      </c>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14">
+        <v>1</v>
+      </c>
+      <c r="G79" s="14">
+        <v>1</v>
+      </c>
+      <c r="H79" s="15">
+        <v>3</v>
+      </c>
+      <c r="I79" s="16">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="J79" s="40"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="J79" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="K79" s="92"/>
+      <c r="L79" s="92"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="35"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="40"/>
+      <c r="A80" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80" s="30"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="34"/>
       <c r="K80" s="15"/>
       <c r="L80" s="16"/>
       <c r="M80" s="9"/>
@@ -6698,13 +6791,13 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="30" t="s">
         <v>174</v>
-      </c>
-      <c r="B81" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>175</v>
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="31"/>
@@ -6721,13 +6814,13 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D82" s="30"/>
       <c r="E82" s="31"/>
@@ -6743,15 +6836,9 @@
       <c r="O82" s="3"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="B83" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C83" s="30" t="s">
-        <v>184</v>
-      </c>
+      <c r="A83" s="29"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
       <c r="D83" s="30"/>
       <c r="E83" s="31"/>
       <c r="F83" s="31"/>
@@ -6765,108 +6852,91 @@
       <c r="N83" s="13"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="29"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="13"/>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B85" s="23" t="s">
+    <row r="84" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C84" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="24">
-        <f>SUM(I20:I79)</f>
-        <v>1479</v>
-      </c>
-      <c r="J85" s="21"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="5"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="24">
+        <f>SUM(I20:I78)</f>
+        <v>1469</v>
+      </c>
+      <c r="J84" s="21"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:O85" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A10:O84" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J62" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
-    <hyperlink ref="J63" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
-    <hyperlink ref="J64" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
-    <hyperlink ref="J65" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
-    <hyperlink ref="J66" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
-    <hyperlink ref="M67" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
+    <hyperlink ref="J61" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
+    <hyperlink ref="J62" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
+    <hyperlink ref="J63" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
+    <hyperlink ref="J64" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
+    <hyperlink ref="J65" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
+    <hyperlink ref="M66" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
     <hyperlink ref="J21" r:id="rId7" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
     <hyperlink ref="J26" r:id="rId8" display="2x Length: 45mm 4PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
     <hyperlink ref="J50" r:id="rId9" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
     <hyperlink ref="J27" r:id="rId10" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
-    <hyperlink ref="M63" r:id="rId11" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
-    <hyperlink ref="M64" r:id="rId12" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
-    <hyperlink ref="M65" r:id="rId13" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
+    <hyperlink ref="M62" r:id="rId11" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
+    <hyperlink ref="M63" r:id="rId12" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
+    <hyperlink ref="M64" r:id="rId13" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
     <hyperlink ref="J22" r:id="rId14" xr:uid="{A8C5E0F3-B1FB-4E57-8DD8-1DF57CDC1A28}"/>
     <hyperlink ref="J52" r:id="rId15" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
     <hyperlink ref="J51" r:id="rId16" display="FYSETC Big Dipper" xr:uid="{531DCC85-6FB5-4C6C-8657-8A481CD30069}"/>
-    <hyperlink ref="J53" r:id="rId17" display="6pcs Optical Endstop" xr:uid="{0AB90FFF-9946-4F78-93E2-A102C645ECAE}"/>
-    <hyperlink ref="J54" r:id="rId18" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
-    <hyperlink ref="J25" r:id="rId19" xr:uid="{7E1F7424-E58C-4FCB-9D3A-3CB69F34CE9F}"/>
-    <hyperlink ref="J28" r:id="rId20" xr:uid="{755FCD6D-D745-447C-AAA6-2D31A19F9A40}"/>
-    <hyperlink ref="J58" r:id="rId21" xr:uid="{37B2932B-CA7B-49AA-9F35-9BCE3D136353}"/>
-    <hyperlink ref="J59" r:id="rId22" xr:uid="{BE140B59-D4B8-46C3-B6EC-BEB5F431781F}"/>
-    <hyperlink ref="J60" r:id="rId23" xr:uid="{54817A0E-3A4B-42D7-AA92-5C84B2F161F2}"/>
-    <hyperlink ref="J55" r:id="rId24" xr:uid="{4F053E16-31A4-458E-B422-7E74FE54E665}"/>
-    <hyperlink ref="M55" r:id="rId25" display="Color: 220V 750W" xr:uid="{6A46011B-C1CA-4A88-AD58-75064F9710C4}"/>
-    <hyperlink ref="M22" r:id="rId26" xr:uid="{F5DB1B37-0615-45FE-8D85-29C4F7CAFAB1}"/>
-    <hyperlink ref="J23" r:id="rId27" xr:uid="{AB0B8958-9970-4FAA-8724-81774C9EF9F1}"/>
-    <hyperlink ref="J68" r:id="rId28" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{AEC77D91-6FD3-455F-B901-C8AECBF4FBFC}"/>
-    <hyperlink ref="J70" r:id="rId29" display="Color: MGN9 H" xr:uid="{EF1CF25C-A286-4000-976B-3EF1290B85D5}"/>
-    <hyperlink ref="J61" r:id="rId30" xr:uid="{DB0C305C-D8F4-4B4B-BC4F-C7B8CEFFD8B9}"/>
-    <hyperlink ref="J72" r:id="rId31" xr:uid="{DD8F2F46-A4D3-45B7-8C61-BE3E5D8E77D4}"/>
-    <hyperlink ref="J74" r:id="rId32" display="Blade Color: 140mm reservoir" xr:uid="{1B2FD753-14EC-44DA-A449-AA8B531B9F4C}"/>
-    <hyperlink ref="J73" r:id="rId33" xr:uid="{14075AD2-C38A-4641-AE38-8D82C15730CB}"/>
-    <hyperlink ref="J69" r:id="rId34" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{87ABA4C9-E494-4982-9A2A-9EB09D4C4F32}"/>
-    <hyperlink ref="J57" r:id="rId35" xr:uid="{7420580F-5469-4338-8D3D-9259352A596B}"/>
-    <hyperlink ref="J56" r:id="rId36" xr:uid="{EFED6ED9-EE5F-46BC-B31F-70D83F581B59}"/>
-    <hyperlink ref="J15" r:id="rId37" xr:uid="{295A4C29-D457-4346-89F2-C8F491474683}"/>
-    <hyperlink ref="J14" r:id="rId38" display="Color: 750 mm" xr:uid="{94C730F7-348B-41A5-806E-F0BF24EB60AA}"/>
-    <hyperlink ref="J13" r:id="rId39" display="Color: 750 mm" xr:uid="{4033F5F5-D2DC-4E1B-9028-50B6F444F7CD}"/>
-    <hyperlink ref="J12" r:id="rId40" display="Color: 250 mm" xr:uid="{E0A63DCC-F535-4BC5-9F41-DCCE7FE857A6}"/>
-    <hyperlink ref="J11" r:id="rId41" display="Color: 250 mm" xr:uid="{390B4AE1-6B94-48FE-992C-92B2C04994E2}"/>
-    <hyperlink ref="J19" r:id="rId42" xr:uid="{563E21C0-381D-44F8-8FBC-944CF9FE7B6A}"/>
-    <hyperlink ref="J18" r:id="rId43" display="Color: 5pcs 2028" xr:uid="{1C87A78E-750D-441D-BDAF-8A3315D08535}"/>
-    <hyperlink ref="J67" r:id="rId44" xr:uid="{991F3D10-4224-4E86-BCB4-AFCFA2A64478}"/>
-    <hyperlink ref="J20" r:id="rId45" display="WIP" xr:uid="{A48579E2-EF49-4729-81C6-C54E4E73F150}"/>
-    <hyperlink ref="J77" r:id="rId46" xr:uid="{894E09D5-8AF5-4C2F-A85D-98661DCBF526}"/>
-    <hyperlink ref="J36" r:id="rId47" xr:uid="{AA489145-7D60-48E1-9C07-306F8FEB2BFC}"/>
-    <hyperlink ref="J46" r:id="rId48" xr:uid="{EDF6505F-9619-435E-B46E-B9123E7D7A43}"/>
-    <hyperlink ref="J42" r:id="rId49" display="M5 Hammer Nut" xr:uid="{41B5B8CF-1C49-4CCA-B8BD-4BF45C65F224}"/>
-    <hyperlink ref="J44" r:id="rId50" display="Size: M5" xr:uid="{D4E2B164-D518-40F4-9BD9-52532DC985DA}"/>
-    <hyperlink ref="J24" r:id="rId51" xr:uid="{C4C0FBA7-B83F-48A8-8CED-2B80C40C9569}"/>
-    <hyperlink ref="J29" r:id="rId52" xr:uid="{526F8563-5D3A-4C22-B849-53A9D1894DBC}"/>
+    <hyperlink ref="J53" r:id="rId17" xr:uid="{1A2B703D-766E-449D-AD03-BDC8990C9635}"/>
+    <hyperlink ref="J25" r:id="rId18" xr:uid="{7E1F7424-E58C-4FCB-9D3A-3CB69F34CE9F}"/>
+    <hyperlink ref="J28" r:id="rId19" xr:uid="{755FCD6D-D745-447C-AAA6-2D31A19F9A40}"/>
+    <hyperlink ref="J57" r:id="rId20" xr:uid="{37B2932B-CA7B-49AA-9F35-9BCE3D136353}"/>
+    <hyperlink ref="J58" r:id="rId21" xr:uid="{BE140B59-D4B8-46C3-B6EC-BEB5F431781F}"/>
+    <hyperlink ref="J59" r:id="rId22" xr:uid="{54817A0E-3A4B-42D7-AA92-5C84B2F161F2}"/>
+    <hyperlink ref="J54" r:id="rId23" xr:uid="{4F053E16-31A4-458E-B422-7E74FE54E665}"/>
+    <hyperlink ref="M54" r:id="rId24" display="Color: 220V 750W" xr:uid="{6A46011B-C1CA-4A88-AD58-75064F9710C4}"/>
+    <hyperlink ref="M22" r:id="rId25" xr:uid="{F5DB1B37-0615-45FE-8D85-29C4F7CAFAB1}"/>
+    <hyperlink ref="J23" r:id="rId26" xr:uid="{AB0B8958-9970-4FAA-8724-81774C9EF9F1}"/>
+    <hyperlink ref="J67" r:id="rId27" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{AEC77D91-6FD3-455F-B901-C8AECBF4FBFC}"/>
+    <hyperlink ref="J69" r:id="rId28" display="Color: MGN9 H" xr:uid="{EF1CF25C-A286-4000-976B-3EF1290B85D5}"/>
+    <hyperlink ref="J60" r:id="rId29" xr:uid="{DB0C305C-D8F4-4B4B-BC4F-C7B8CEFFD8B9}"/>
+    <hyperlink ref="J71" r:id="rId30" xr:uid="{DD8F2F46-A4D3-45B7-8C61-BE3E5D8E77D4}"/>
+    <hyperlink ref="J73" r:id="rId31" display="Blade Color: 140mm reservoir" xr:uid="{1B2FD753-14EC-44DA-A449-AA8B531B9F4C}"/>
+    <hyperlink ref="J72" r:id="rId32" xr:uid="{14075AD2-C38A-4641-AE38-8D82C15730CB}"/>
+    <hyperlink ref="J68" r:id="rId33" display="https://s.click.aliexpress.com/e/_AnfRXB" xr:uid="{87ABA4C9-E494-4982-9A2A-9EB09D4C4F32}"/>
+    <hyperlink ref="J56" r:id="rId34" xr:uid="{7420580F-5469-4338-8D3D-9259352A596B}"/>
+    <hyperlink ref="J55" r:id="rId35" xr:uid="{EFED6ED9-EE5F-46BC-B31F-70D83F581B59}"/>
+    <hyperlink ref="J15" r:id="rId36" xr:uid="{295A4C29-D457-4346-89F2-C8F491474683}"/>
+    <hyperlink ref="J14" r:id="rId37" display="Color: 750 mm" xr:uid="{94C730F7-348B-41A5-806E-F0BF24EB60AA}"/>
+    <hyperlink ref="J13" r:id="rId38" display="Color: 750 mm" xr:uid="{4033F5F5-D2DC-4E1B-9028-50B6F444F7CD}"/>
+    <hyperlink ref="J12" r:id="rId39" display="Color: 250 mm" xr:uid="{E0A63DCC-F535-4BC5-9F41-DCCE7FE857A6}"/>
+    <hyperlink ref="J11" r:id="rId40" display="Color: 250 mm" xr:uid="{390B4AE1-6B94-48FE-992C-92B2C04994E2}"/>
+    <hyperlink ref="J19" r:id="rId41" xr:uid="{563E21C0-381D-44F8-8FBC-944CF9FE7B6A}"/>
+    <hyperlink ref="J18" r:id="rId42" display="Color: 5pcs 2028" xr:uid="{1C87A78E-750D-441D-BDAF-8A3315D08535}"/>
+    <hyperlink ref="J66" r:id="rId43" xr:uid="{991F3D10-4224-4E86-BCB4-AFCFA2A64478}"/>
+    <hyperlink ref="J20" r:id="rId44" display="WIP" xr:uid="{A48579E2-EF49-4729-81C6-C54E4E73F150}"/>
+    <hyperlink ref="J76" r:id="rId45" xr:uid="{894E09D5-8AF5-4C2F-A85D-98661DCBF526}"/>
+    <hyperlink ref="J36" r:id="rId46" xr:uid="{AA489145-7D60-48E1-9C07-306F8FEB2BFC}"/>
+    <hyperlink ref="J46" r:id="rId47" xr:uid="{EDF6505F-9619-435E-B46E-B9123E7D7A43}"/>
+    <hyperlink ref="J42" r:id="rId48" display="M5 Hammer Nut" xr:uid="{41B5B8CF-1C49-4CCA-B8BD-4BF45C65F224}"/>
+    <hyperlink ref="J44" r:id="rId49" display="Size: M5" xr:uid="{D4E2B164-D518-40F4-9BD9-52532DC985DA}"/>
+    <hyperlink ref="J24" r:id="rId50" xr:uid="{C4C0FBA7-B83F-48A8-8CED-2B80C40C9569}"/>
+    <hyperlink ref="J29" r:id="rId51" xr:uid="{526F8563-5D3A-4C22-B849-53A9D1894DBC}"/>
+    <hyperlink ref="J79" r:id="rId52" xr:uid="{D7F0B8AB-70F6-4129-97B7-B90C67CC2601}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId53"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="8_{B0BDE0A3-E6D2-4CB5-B3CB-54BD7EA2D1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0131E9A-F862-4AF2-B871-5D68072E4AAE}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="8_{B0BDE0A3-E6D2-4CB5-B3CB-54BD7EA2D1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78EF234E-28F0-4393-87D8-11D0CB72A0E0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie S1" sheetId="3" r:id="rId1"/>
@@ -941,7 +941,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1142,6 +1142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,7 +1479,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1629,6 +1635,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2099,8 +2113,8 @@
   </sheetPr>
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -4251,9 +4265,9 @@
   </sheetPr>
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4267,7 +4281,7 @@
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.28515625" bestFit="1" customWidth="1"/>
@@ -6642,29 +6656,29 @@
       <c r="O75" s="3"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="35" t="s">
+      <c r="A76" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37">
-        <v>1</v>
-      </c>
-      <c r="G76" s="37">
-        <v>1</v>
-      </c>
-      <c r="H76" s="38">
+      <c r="C76" s="101"/>
+      <c r="D76" s="101"/>
+      <c r="E76" s="102"/>
+      <c r="F76" s="102">
+        <v>1</v>
+      </c>
+      <c r="G76" s="102">
+        <v>1</v>
+      </c>
+      <c r="H76" s="103">
         <v>50</v>
       </c>
-      <c r="I76" s="39">
+      <c r="I76" s="104">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="J76" s="40" t="s">
+      <c r="J76" s="105" t="s">
         <v>148</v>
       </c>
       <c r="K76" s="15"/>
@@ -6674,29 +6688,31 @@
       <c r="O76" s="3"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="35" t="s">
+      <c r="A77" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37">
+      <c r="C77" s="101"/>
+      <c r="D77" s="101">
+        <v>600</v>
+      </c>
+      <c r="E77" s="102"/>
+      <c r="F77" s="102">
         <v>4</v>
       </c>
-      <c r="G77" s="37">
+      <c r="G77" s="102">
         <v>4</v>
       </c>
-      <c r="H77" s="38">
+      <c r="H77" s="103">
         <v>25</v>
       </c>
-      <c r="I77" s="39">
+      <c r="I77" s="104">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J77" s="40"/>
+      <c r="J77" s="105"/>
       <c r="K77" s="15"/>
       <c r="L77" s="16"/>
       <c r="M77" s="9"/>
@@ -6704,29 +6720,29 @@
       <c r="O77" s="3"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37">
-        <v>1</v>
-      </c>
-      <c r="G78" s="37">
-        <v>1</v>
-      </c>
-      <c r="H78" s="38">
+      <c r="C78" s="101"/>
+      <c r="D78" s="101"/>
+      <c r="E78" s="102"/>
+      <c r="F78" s="102">
+        <v>1</v>
+      </c>
+      <c r="G78" s="102">
+        <v>1</v>
+      </c>
+      <c r="H78" s="103">
         <v>20</v>
       </c>
-      <c r="I78" s="39">
+      <c r="I78" s="104">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="J78" s="40"/>
+      <c r="J78" s="105"/>
       <c r="K78" s="15"/>
       <c r="L78" s="16"/>
       <c r="M78" s="9"/>
